--- a/ExcelBlanko.xlsx
+++ b/ExcelBlanko.xlsx
@@ -5,13 +5,13 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\V\DATEN\BN_BSS11\T_PRO_PKG\Performance\DB Verprobung\Vertriebstool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\oneLine_Backoffice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192A8AF7-2261-42B3-854E-D8C068BA0764}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="yOoTEI7dAAp7o0btvEk/5eErb5TnJ3m3WoBJxlpZoC/7DPg3MgX5oQ/zHUN6463fB/wILJNYUcB9NIEbonjbUw==" workbookSaltValue="ADiiILBqOm5za9/vJsWjVw==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47D56C02-7AF4-4322-880D-5D0CC0D0AAEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="UaW1L3jI8CO0n1YAx7/wntWjNZvc9dmaxdro+iTcpQJQpy21NVmE43HgD76MJ8JTqtjp5jn/awUal3Y1ToTwRA==" workbookSaltValue="vxJ4713RS0T6ntfuKIBUZQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6405" yWindow="2610" windowWidth="18000" windowHeight="12390" tabRatio="814" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="15" r:id="rId1"/>
@@ -30,6 +30,7 @@
   <definedNames>
     <definedName name="Anzahl_der_Raten" localSheetId="7">Kalk_Kredit2!$D$8</definedName>
     <definedName name="Anzahl_der_Raten">Kalkulationstool!$D$8</definedName>
+    <definedName name="Bezahlter_RKV_Einmalbeitrag_für_den_Altkredit">'Bewertung Aufstockung'!$B$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">Kalk_Kredit2!$A$1:$R$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Kalkulationstool!$A$1:$R$26</definedName>
     <definedName name="Eigenablösebetrag" localSheetId="7">Kalk_Kredit2!$D$11</definedName>
@@ -40,6 +41,7 @@
     <definedName name="Fremdablösebetrag">Kalkulationstool!$D$12</definedName>
     <definedName name="Gesamtkreditbetrag" localSheetId="7">Kalk_Kredit2!$D$10</definedName>
     <definedName name="Gesamtkreditbetrag">Kalkulationstool!$D$10</definedName>
+    <definedName name="Höchste_Absicherungsquote_des_Neukredits">'Bewertung Aufstockung'!$B$7</definedName>
     <definedName name="IVS" localSheetId="7">Kalk_Kredit2!$D$14</definedName>
     <definedName name="IVS">Kalkulationstool!$D$14</definedName>
     <definedName name="Konditionskompetenz_Filiale_RBC" localSheetId="7">Kalk_Kredit2!$D$26</definedName>
@@ -52,6 +54,7 @@
     <definedName name="Marge_Altkredit">Wertbeitrag!$C$10</definedName>
     <definedName name="Restlaufzeit_Altkredit_in_Monaten" localSheetId="8">Wert_Kredit2!$C$11</definedName>
     <definedName name="Restlaufzeit_Altkredit_in_Monaten">Wertbeitrag!$C$11</definedName>
+    <definedName name="Ursprungslaufzeit_des_Altkredits_in_Monaten">'Bewertung Aufstockung'!$B$6</definedName>
     <definedName name="vereinbarter_Effektivzins_p.a." localSheetId="8">Wert_Kredit2!$C$5</definedName>
     <definedName name="vereinbarter_Effektivzins_p.a.">Wertbeitrag!$C$5</definedName>
     <definedName name="vereinbarter_Nominalzins_p.a." localSheetId="8">Wert_Kredit2!$C$6</definedName>
@@ -2536,6 +2539,15 @@
     <xf numFmtId="0" fontId="16" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -2554,16 +2566,7 @@
     <xf numFmtId="0" fontId="18" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6079,7 +6082,7 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -6166,7 +6169,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KVdbpyAx6Ee34H4N4aWNWdPfiVGa6Xg+HelBFFHBAr+iuEtv7cqamhhwK/DAuS9jxYHSkiFwo1+9ZHt9y6UiGw==" saltValue="1wE4YAvudRkf1zlDfCTaQA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jozv0sXxrbdFbOI1GsTN2pjq6EwNpiin2w8fGW7QEzmjRi6FumllcWz+VQyfMyW2eRuqf+8J4MOt9HJ9viP+Tg==" saltValue="Wr0o5ygNVhCJqvVzxdiEUA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -20770,7 +20773,11 @@
     <mergeCell ref="P4:S4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;10&amp;K000000</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -20782,8 +20789,8 @@
   </sheetPr>
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -21110,7 +21117,7 @@
       <c r="C19" s="82"/>
       <c r="D19" s="122">
         <f ca="1">NOW()</f>
-        <v>44720.689446643519</v>
+        <v>44726.446073148145</v>
       </c>
       <c r="E19" s="82"/>
       <c r="F19" s="82" t="s">
@@ -21294,7 +21301,7 @@
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hcRumyAEuTwk2Si6T3b/qKFrx8FTqgJ2TmSy+G99o1m2CR8uD6wfpZKIrDu4Q1ZFiSvIXNTjyChHxojdGDj+YA==" saltValue="Tqx1JJAyKD4Ove6BTgMw8A==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zsmqwMe1IRXm8Zxcl/5XVb8bDIg/eFR7HGc+pYk/o4feHt1GvkDvlPCjHHvzw/0gP+GxCiPgn8RqG+76hIEsPg==" saltValue="4rjy7zGNhWNhWr8/A9ByYg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="D8" name="Range6"/>
     <protectedRange sqref="D19" name="Range5"/>
@@ -21400,7 +21407,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -21621,7 +21628,7 @@
     </row>
     <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2Lv6gSpGty9Ao8pvYiGtjCCRHGhafSF/WJLpIVmy7nEnLgiI8gN1HwZTF/AFVkwEm8QklRrqScKSMuHDHAOsNQ==" saltValue="2xNTGuofHz1ChhOnsRuUtg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kpPVk2zmSpi0P3KKYoxmhVjhzS3qEEHom9nakiTrAhC+F6ar95dvC2Wj8BKdSbj0LtDoufE3fY4hrWKMEIEH1Q==" saltValue="d1nUxdWhbejLWUATdTbzpQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="C11" name="Range1"/>
   </protectedRanges>
@@ -21648,7 +21655,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22004,7 +22011,7 @@
       <c r="D36" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="YSLYYMkKM/mPAdW9Ht8WDYrZbFwgyoiloj2SMQZLoDWt+E4xpZkcfy/cPfjaJrxCh6ClzoltmtHFFKos6BAe8g==" saltValue="HVZyDYME/VBkuzB2/WB9Yg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1eWaW530QwOd89KYg+g3OtKEAbtNcXmafY5/sWLCXjdIxEGGxueRKDRCuFhe03d9A8GEREi0JOY3uQyB9OWx7w==" saltValue="/kE/d3CytQtu/gAd1dxKGQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="B5:B7" name="Bereich1"/>
   </protectedRanges>
@@ -36667,7 +36674,7 @@
   <dimension ref="A1:AZ151"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36800,28 +36807,28 @@
       </c>
       <c r="V3" s="247"/>
       <c r="W3" s="247"/>
-      <c r="AB3" s="254" t="s">
+      <c r="AB3" s="249" t="s">
         <v>87</v>
       </c>
-      <c r="AC3" s="254"/>
-      <c r="AD3" s="254"/>
+      <c r="AC3" s="249"/>
+      <c r="AD3" s="249"/>
       <c r="AE3" s="108"/>
       <c r="AF3" s="108"/>
-      <c r="AI3" s="254" t="s">
+      <c r="AI3" s="249" t="s">
         <v>87</v>
       </c>
-      <c r="AJ3" s="254"/>
-      <c r="AK3" s="254"/>
+      <c r="AJ3" s="249"/>
+      <c r="AK3" s="249"/>
       <c r="AL3" s="108"/>
       <c r="AM3" s="108"/>
       <c r="AP3" s="1"/>
       <c r="AQ3" s="1"/>
       <c r="AR3" s="1"/>
-      <c r="AS3" s="254" t="s">
+      <c r="AS3" s="249" t="s">
         <v>87</v>
       </c>
-      <c r="AT3" s="254"/>
-      <c r="AU3" s="254"/>
+      <c r="AT3" s="249"/>
+      <c r="AU3" s="249"/>
       <c r="AV3" s="108"/>
       <c r="AW3" s="108"/>
       <c r="AX3" s="1"/>
@@ -36845,7 +36852,7 @@
         <v>8</v>
       </c>
       <c r="I4" s="22">
-        <v>7.49</v>
+        <v>8.19</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="8"/>
@@ -36858,27 +36865,27 @@
         <f>Kalkulationstool!D10</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="255" t="s">
+      <c r="AB4" s="250" t="s">
         <v>89</v>
       </c>
-      <c r="AC4" s="255"/>
+      <c r="AC4" s="250"/>
       <c r="AD4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AI4" s="255" t="s">
+      <c r="AI4" s="250" t="s">
         <v>91</v>
       </c>
-      <c r="AJ4" s="255"/>
+      <c r="AJ4" s="250"/>
       <c r="AK4" s="1" t="s">
         <v>90</v>
       </c>
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
-      <c r="AS4" s="255" t="s">
+      <c r="AS4" s="250" t="s">
         <v>91</v>
       </c>
-      <c r="AT4" s="255"/>
+      <c r="AT4" s="250"/>
       <c r="AU4" s="1" t="s">
         <v>90</v>
       </c>
@@ -36898,7 +36905,7 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="248" t="s">
+      <c r="H5" s="251" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="124">
@@ -36972,7 +36979,7 @@
       <c r="B6" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="249"/>
+      <c r="H6" s="252"/>
       <c r="I6" s="124">
         <v>5.01</v>
       </c>
@@ -37063,7 +37070,7 @@
       <c r="B7" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="249"/>
+      <c r="H7" s="252"/>
       <c r="I7" s="124">
         <v>10.01</v>
       </c>
@@ -37159,7 +37166,7 @@
       <c r="D8" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="249"/>
+      <c r="H8" s="252"/>
       <c r="I8" s="124">
         <v>15.01</v>
       </c>
@@ -37248,7 +37255,7 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="H9" s="249"/>
+      <c r="H9" s="252"/>
       <c r="I9" s="124">
         <v>20.010000000000002</v>
       </c>
@@ -37337,7 +37344,7 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="H10" s="249"/>
+      <c r="H10" s="252"/>
       <c r="I10" s="124">
         <v>30.01</v>
       </c>
@@ -37430,7 +37437,7 @@
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="H11" s="249"/>
+      <c r="H11" s="252"/>
       <c r="I11" s="124">
         <v>40.01</v>
       </c>
@@ -37537,7 +37544,7 @@
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="H12" s="249"/>
+      <c r="H12" s="252"/>
       <c r="I12" s="124">
         <v>50.01</v>
       </c>
@@ -37631,7 +37638,7 @@
       <c r="B13" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="249"/>
+      <c r="H13" s="252"/>
       <c r="I13" s="124">
         <v>60.01</v>
       </c>
@@ -37717,7 +37724,7 @@
       <c r="B14" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="249"/>
+      <c r="H14" s="252"/>
       <c r="I14" s="124">
         <v>70.010000000000005</v>
       </c>
@@ -37814,7 +37821,7 @@
         <v>44</v>
       </c>
       <c r="D15" s="99"/>
-      <c r="H15" s="249"/>
+      <c r="H15" s="252"/>
       <c r="I15" s="124">
         <v>80.010000000000005</v>
       </c>
@@ -37902,7 +37909,7 @@
       <c r="B16" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="249"/>
+      <c r="H16" s="252"/>
       <c r="I16" s="124">
         <v>90.01</v>
       </c>
@@ -37987,7 +37994,7 @@
       <c r="B17" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="249"/>
+      <c r="H17" s="252"/>
       <c r="I17" s="124">
         <v>100.01</v>
       </c>
@@ -38077,7 +38084,7 @@
       <c r="B18" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="249"/>
+      <c r="H18" s="252"/>
       <c r="I18" s="124">
         <v>125.01</v>
       </c>
@@ -38163,7 +38170,7 @@
       <c r="B19" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="249"/>
+      <c r="H19" s="252"/>
       <c r="I19" s="124">
         <v>150.01</v>
       </c>
@@ -38243,7 +38250,7 @@
       <c r="B20" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="249"/>
+      <c r="H20" s="252"/>
       <c r="I20" s="125">
         <v>175.01</v>
       </c>
@@ -38280,7 +38287,7 @@
       <c r="B21" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="249"/>
+      <c r="H21" s="252"/>
       <c r="I21" s="125">
         <v>200.01</v>
       </c>
@@ -38301,18 +38308,18 @@
         <f>W6+V16</f>
         <v>0</v>
       </c>
-      <c r="AA21" s="255" t="s">
+      <c r="AA21" s="250" t="s">
         <v>105</v>
       </c>
-      <c r="AB21" s="255"/>
+      <c r="AB21" s="250"/>
       <c r="AC21" s="1">
         <f>LOOKUP(V16,AA5:AA13,AD5:AD13)</f>
         <v>0</v>
       </c>
-      <c r="AH21" s="255" t="s">
+      <c r="AH21" s="250" t="s">
         <v>106</v>
       </c>
-      <c r="AI21" s="255"/>
+      <c r="AI21" s="250"/>
       <c r="AJ21" s="1">
         <f>IF(ISERROR(LOOKUP(V18,AH5:AH17,AK5:AK17)),0,LOOKUP(V18,AH5:AH17,AK5:AK17))</f>
         <v>0</v>
@@ -38320,10 +38327,10 @@
       <c r="AO21" s="76"/>
       <c r="AP21" s="1"/>
       <c r="AQ21" s="1"/>
-      <c r="AR21" s="255" t="s">
+      <c r="AR21" s="250" t="s">
         <v>106</v>
       </c>
-      <c r="AS21" s="255"/>
+      <c r="AS21" s="250"/>
       <c r="AT21" s="1">
         <f>IF(ISERROR(LOOKUP(V18,AR5:AR17,AU5:AU17)),0,LOOKUP(V18,AR5:AR17,AU5:AU17))</f>
         <v>0</v>
@@ -38342,7 +38349,7 @@
       <c r="B22" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="249"/>
+      <c r="H22" s="252"/>
       <c r="I22" s="125">
         <v>250.01</v>
       </c>
@@ -38394,7 +38401,7 @@
       <c r="A23" s="52">
         <v>999</v>
       </c>
-      <c r="H23" s="249"/>
+      <c r="H23" s="252"/>
       <c r="I23" s="125">
         <v>300.01</v>
       </c>
@@ -38432,7 +38439,7 @@
       <c r="AZ23" s="1"/>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H24" s="249"/>
+      <c r="H24" s="252"/>
       <c r="I24" s="126">
         <v>350.01</v>
       </c>
@@ -38463,7 +38470,7 @@
       <c r="AZ24" s="1"/>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H25" s="249"/>
+      <c r="H25" s="252"/>
       <c r="I25" s="126">
         <v>400.01</v>
       </c>
@@ -38481,36 +38488,36 @@
         <f>AZ29+AT22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA25" s="256" t="s">
+      <c r="AA25" s="257" t="s">
         <v>107</v>
       </c>
-      <c r="AB25" s="256"/>
-      <c r="AC25" s="256"/>
-      <c r="AD25" s="256"/>
-      <c r="AE25" s="256"/>
-      <c r="AF25" s="256"/>
-      <c r="AH25" s="257" t="s">
+      <c r="AB25" s="257"/>
+      <c r="AC25" s="257"/>
+      <c r="AD25" s="257"/>
+      <c r="AE25" s="257"/>
+      <c r="AF25" s="257"/>
+      <c r="AH25" s="248" t="s">
         <v>108</v>
       </c>
-      <c r="AI25" s="257"/>
-      <c r="AJ25" s="257"/>
-      <c r="AK25" s="257"/>
-      <c r="AL25" s="257"/>
-      <c r="AM25" s="257"/>
-      <c r="AN25" s="257"/>
-      <c r="AO25" s="257"/>
+      <c r="AI25" s="248"/>
+      <c r="AJ25" s="248"/>
+      <c r="AK25" s="248"/>
+      <c r="AL25" s="248"/>
+      <c r="AM25" s="248"/>
+      <c r="AN25" s="248"/>
+      <c r="AO25" s="248"/>
       <c r="AP25" s="1"/>
       <c r="AQ25" s="1"/>
-      <c r="AR25" s="257" t="s">
+      <c r="AR25" s="248" t="s">
         <v>108</v>
       </c>
-      <c r="AS25" s="257"/>
-      <c r="AT25" s="257"/>
-      <c r="AU25" s="257"/>
-      <c r="AV25" s="257"/>
-      <c r="AW25" s="257"/>
-      <c r="AX25" s="257"/>
-      <c r="AY25" s="257"/>
+      <c r="AS25" s="248"/>
+      <c r="AT25" s="248"/>
+      <c r="AU25" s="248"/>
+      <c r="AV25" s="248"/>
+      <c r="AW25" s="248"/>
+      <c r="AX25" s="248"/>
+      <c r="AY25" s="248"/>
       <c r="AZ25" s="1"/>
     </row>
     <row r="26" spans="1:52" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -38563,7 +38570,7 @@
       <c r="AY26" s="129"/>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H27" s="250" t="s">
+      <c r="H27" s="253" t="s">
         <v>9</v>
       </c>
       <c r="I27" s="101">
@@ -38600,7 +38607,7 @@
       <c r="AZ27" s="1"/>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H28" s="251"/>
+      <c r="H28" s="254"/>
       <c r="I28" s="102">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -38641,7 +38648,7 @@
       <c r="AZ28" s="1"/>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H29" s="251"/>
+      <c r="H29" s="254"/>
       <c r="I29" s="102">
         <v>0.20000100000000001</v>
       </c>
@@ -38680,7 +38687,7 @@
       </c>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H30" s="251"/>
+      <c r="H30" s="254"/>
       <c r="I30" s="102">
         <v>0.400001</v>
       </c>
@@ -38788,7 +38795,7 @@
       </c>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H31" s="251"/>
+      <c r="H31" s="254"/>
       <c r="I31" s="102">
         <v>0.60000100000000001</v>
       </c>
@@ -38896,7 +38903,7 @@
       </c>
     </row>
     <row r="32" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H32" s="252"/>
+      <c r="H32" s="255"/>
       <c r="I32" s="103">
         <v>0.80000099999999996</v>
       </c>
@@ -39007,7 +39014,7 @@
       </c>
     </row>
     <row r="33" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H33" s="249" t="s">
+      <c r="H33" s="252" t="s">
         <v>17</v>
       </c>
       <c r="I33" s="104">
@@ -39122,7 +39129,7 @@
       </c>
     </row>
     <row r="34" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H34" s="249"/>
+      <c r="H34" s="252"/>
       <c r="I34" s="104">
         <v>0.20000100000000001</v>
       </c>
@@ -39235,7 +39242,7 @@
       </c>
     </row>
     <row r="35" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H35" s="249"/>
+      <c r="H35" s="252"/>
       <c r="I35" s="104">
         <v>0.400001</v>
       </c>
@@ -39348,7 +39355,7 @@
       </c>
     </row>
     <row r="36" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H36" s="249"/>
+      <c r="H36" s="252"/>
       <c r="I36" s="104">
         <v>0.60000100000000001</v>
       </c>
@@ -39461,7 +39468,7 @@
       </c>
     </row>
     <row r="37" spans="8:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H37" s="253"/>
+      <c r="H37" s="256"/>
       <c r="I37" s="104">
         <v>0.80000099999999996</v>
       </c>
@@ -51167,11 +51174,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AR25:AY25"/>
-    <mergeCell ref="AR2:AY2"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AR21:AS21"/>
     <mergeCell ref="H5:H25"/>
     <mergeCell ref="H27:H32"/>
     <mergeCell ref="H33:H37"/>
@@ -51187,6 +51189,11 @@
     <mergeCell ref="AA25:AF25"/>
     <mergeCell ref="AH25:AO25"/>
     <mergeCell ref="N11:N14"/>
+    <mergeCell ref="AR25:AY25"/>
+    <mergeCell ref="AR2:AY2"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AR21:AS21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -51541,7 +51548,7 @@
       <c r="C19" s="82"/>
       <c r="D19" s="122">
         <f ca="1">NOW()</f>
-        <v>44720.689446643519</v>
+        <v>44726.446073148145</v>
       </c>
       <c r="E19" s="82"/>
       <c r="F19" s="82" t="s">

--- a/ExcelBlanko.xlsx
+++ b/ExcelBlanko.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\oneLine_Backoffice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{585984F8-677B-48DA-A39E-D2361CCCE38F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="WfsRmqMuMbU8cH2NEpNtXqbOcAgsLeGVbnoRPkQEtxUVLgIzP4oUKqeqIykia1uxFwZRYtdoudt07ytOB1BM1g==" workbookSaltValue="Of3D6oGHwx/h3W8Q1RlB2w==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53E93755-D967-42D6-8329-663158860EC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="9jAiZSFpo/uTWQnbtLfuoY9MjBz3M9NOHeQRsMTjeF02/JSMyKim4mBq9u3TlATQEnm3c6GVi2qrnvBAmaFZOQ==" workbookSaltValue="23/ZWMOVOCyk17sGw1Qdqg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="33150" windowHeight="18150" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="15" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="222">
   <si>
     <t>MOVE</t>
   </si>
@@ -799,9 +799,6 @@
     <t>* Bei der Delta-Variante ist der Kunde auf Abweichungen von Versicherungssumme und -laufzeit im Vergleich zum Kredit hinzuweisen. Dies ist entsprechend in der Beratungsdokumentation festzuhalten.</t>
   </si>
   <si>
-    <t>Absicherungsquote bezogen auf das neue Kreditvolumen des am höchsten abgesicherten Bausteins (Tod, AU, AL) des Neukredits</t>
-  </si>
-  <si>
     <t>analog Wertbeitrag, aber gedeckelt auf Zielkondition</t>
   </si>
   <si>
@@ -809,6 +806,15 @@
   </si>
   <si>
     <t>DB Move</t>
+  </si>
+  <si>
+    <t>Bezogen auf das neue (=aufgestockte) Kreditvolumen; bei mehreren Bausteinen gilt die höchste Absicherungsquote; Achtung: Eingabe in KFPK bei Delta-Variante abweichend (da bezogen auf den Gesamtkredit)“</t>
+  </si>
+  <si>
+    <t>Auf die Zielkondition dürfen bis zu 150 Basispunkte aufgeschlagen werden. Bei Aufstockergeschäften ist ein Aufschlag bis zu 300 Basispunkte erlaubt.</t>
+  </si>
+  <si>
+    <t>Gültig ab 07.10.2022</t>
   </si>
 </sst>
 </file>
@@ -2004,7 +2010,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="263">
+  <cellXfs count="265">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2528,6 +2534,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="34" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2552,15 +2562,6 @@
     <xf numFmtId="0" fontId="16" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -2579,7 +2580,16 @@
     <xf numFmtId="0" fontId="18" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6162,7 +6172,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -6248,7 +6258,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="z20Nbga9iG14wQNZnGGzdh/RPtxlBLtfo83tz9hJFQAQnTYzeBaInWwNYLVFEmimja+0535pf8/7hrrhmyj0Cg==" saltValue="2GUbECGnTj7zx6pL+cVI9A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="l4CMJHGPWJK7b5RhneO5RiLI8E05JOX5FFF1AL7rotyxuDOc5ACz8q4Vr/hAQCJRjc+v+6kk+goACtsa2JNHNg==" saltValue="zdb/6USnbfx5XwwvCqQr2A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -6330,10 +6340,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26" t="s">
         <v>218</v>
-      </c>
-      <c r="C26" t="s">
-        <v>219</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
@@ -6402,36 +6412,36 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="F3" s="248" t="s">
+      <c r="F3" s="250" t="s">
         <v>143</v>
       </c>
-      <c r="G3" s="248"/>
-      <c r="H3" s="248"/>
-      <c r="I3" s="248"/>
-      <c r="J3" s="248"/>
-      <c r="K3" s="248"/>
-      <c r="L3" s="248"/>
-      <c r="M3" s="248"/>
+      <c r="G3" s="250"/>
+      <c r="H3" s="250"/>
+      <c r="I3" s="250"/>
+      <c r="J3" s="250"/>
+      <c r="K3" s="250"/>
+      <c r="L3" s="250"/>
+      <c r="M3" s="250"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
-      <c r="U3" s="248" t="s">
+      <c r="U3" s="250" t="s">
         <v>142</v>
       </c>
-      <c r="V3" s="248"/>
-      <c r="W3" s="248"/>
-      <c r="X3" s="248"/>
-      <c r="Y3" s="248"/>
-      <c r="Z3" s="248"/>
-      <c r="AA3" s="248"/>
-      <c r="AB3" s="248"/>
+      <c r="V3" s="250"/>
+      <c r="W3" s="250"/>
+      <c r="X3" s="250"/>
+      <c r="Y3" s="250"/>
+      <c r="Z3" s="250"/>
+      <c r="AA3" s="250"/>
+      <c r="AB3" s="250"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="249" t="s">
+      <c r="A4" s="251" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="249"/>
-      <c r="C4" s="249"/>
-      <c r="D4" s="249"/>
+      <c r="B4" s="251"/>
+      <c r="C4" s="251"/>
+      <c r="D4" s="251"/>
       <c r="E4" s="168"/>
       <c r="F4" s="1" t="s">
         <v>131</v>
@@ -6457,12 +6467,12 @@
       <c r="M4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="249" t="s">
+      <c r="P4" s="251" t="s">
         <v>130</v>
       </c>
-      <c r="Q4" s="249"/>
-      <c r="R4" s="249"/>
-      <c r="S4" s="249"/>
+      <c r="Q4" s="251"/>
+      <c r="R4" s="251"/>
+      <c r="S4" s="251"/>
       <c r="T4" s="168"/>
       <c r="U4" s="1" t="s">
         <v>131</v>
@@ -13662,36 +13672,36 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="F3" s="248" t="s">
+      <c r="F3" s="250" t="s">
         <v>143</v>
       </c>
-      <c r="G3" s="248"/>
-      <c r="H3" s="248"/>
-      <c r="I3" s="248"/>
-      <c r="J3" s="248"/>
-      <c r="K3" s="248"/>
-      <c r="L3" s="248"/>
-      <c r="M3" s="248"/>
+      <c r="G3" s="250"/>
+      <c r="H3" s="250"/>
+      <c r="I3" s="250"/>
+      <c r="J3" s="250"/>
+      <c r="K3" s="250"/>
+      <c r="L3" s="250"/>
+      <c r="M3" s="250"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
-      <c r="U3" s="248" t="s">
+      <c r="U3" s="250" t="s">
         <v>142</v>
       </c>
-      <c r="V3" s="248"/>
-      <c r="W3" s="248"/>
-      <c r="X3" s="248"/>
-      <c r="Y3" s="248"/>
-      <c r="Z3" s="248"/>
-      <c r="AA3" s="248"/>
-      <c r="AB3" s="248"/>
+      <c r="V3" s="250"/>
+      <c r="W3" s="250"/>
+      <c r="X3" s="250"/>
+      <c r="Y3" s="250"/>
+      <c r="Z3" s="250"/>
+      <c r="AA3" s="250"/>
+      <c r="AB3" s="250"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="249" t="s">
+      <c r="A4" s="251" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="249"/>
-      <c r="C4" s="249"/>
-      <c r="D4" s="249"/>
+      <c r="B4" s="251"/>
+      <c r="C4" s="251"/>
+      <c r="D4" s="251"/>
       <c r="E4" s="168"/>
       <c r="F4" s="1" t="s">
         <v>131</v>
@@ -13717,12 +13727,12 @@
       <c r="M4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="249" t="s">
+      <c r="P4" s="251" t="s">
         <v>130</v>
       </c>
-      <c r="Q4" s="249"/>
-      <c r="R4" s="249"/>
-      <c r="S4" s="249"/>
+      <c r="Q4" s="251"/>
+      <c r="R4" s="251"/>
+      <c r="S4" s="251"/>
       <c r="T4" s="168"/>
       <c r="U4" s="1" t="s">
         <v>131</v>
@@ -20879,7 +20889,11 @@
     <mergeCell ref="P4:S4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;10&amp;K000000</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -20964,34 +20978,34 @@
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
-      <c r="AA2" s="248" t="s">
+      <c r="AA2" s="250" t="s">
         <v>85</v>
       </c>
-      <c r="AB2" s="248"/>
-      <c r="AC2" s="248"/>
-      <c r="AD2" s="248"/>
-      <c r="AE2" s="248"/>
-      <c r="AF2" s="248"/>
-      <c r="AH2" s="248" t="s">
+      <c r="AB2" s="250"/>
+      <c r="AC2" s="250"/>
+      <c r="AD2" s="250"/>
+      <c r="AE2" s="250"/>
+      <c r="AF2" s="250"/>
+      <c r="AH2" s="250" t="s">
         <v>123</v>
       </c>
-      <c r="AI2" s="248"/>
-      <c r="AJ2" s="248"/>
-      <c r="AK2" s="248"/>
-      <c r="AL2" s="248"/>
-      <c r="AM2" s="248"/>
-      <c r="AN2" s="248"/>
-      <c r="AO2" s="248"/>
-      <c r="AR2" s="248" t="s">
+      <c r="AI2" s="250"/>
+      <c r="AJ2" s="250"/>
+      <c r="AK2" s="250"/>
+      <c r="AL2" s="250"/>
+      <c r="AM2" s="250"/>
+      <c r="AN2" s="250"/>
+      <c r="AO2" s="250"/>
+      <c r="AR2" s="250" t="s">
         <v>124</v>
       </c>
-      <c r="AS2" s="248"/>
-      <c r="AT2" s="248"/>
-      <c r="AU2" s="248"/>
-      <c r="AV2" s="248"/>
-      <c r="AW2" s="248"/>
-      <c r="AX2" s="248"/>
-      <c r="AY2" s="248"/>
+      <c r="AS2" s="250"/>
+      <c r="AT2" s="250"/>
+      <c r="AU2" s="250"/>
+      <c r="AV2" s="250"/>
+      <c r="AW2" s="250"/>
+      <c r="AX2" s="250"/>
+      <c r="AY2" s="250"/>
     </row>
     <row r="3" spans="1:51" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="72">
@@ -21017,30 +21031,30 @@
         <v>15</v>
       </c>
       <c r="L3" s="23"/>
-      <c r="U3" s="249" t="s">
+      <c r="U3" s="251" t="s">
         <v>86</v>
       </c>
-      <c r="V3" s="249"/>
-      <c r="W3" s="249"/>
-      <c r="AB3" s="251" t="s">
+      <c r="V3" s="251"/>
+      <c r="W3" s="251"/>
+      <c r="AB3" s="258" t="s">
         <v>87</v>
       </c>
-      <c r="AC3" s="251"/>
-      <c r="AD3" s="251"/>
+      <c r="AC3" s="258"/>
+      <c r="AD3" s="258"/>
       <c r="AE3" s="108"/>
       <c r="AF3" s="108"/>
-      <c r="AI3" s="251" t="s">
+      <c r="AI3" s="258" t="s">
         <v>87</v>
       </c>
-      <c r="AJ3" s="251"/>
-      <c r="AK3" s="251"/>
+      <c r="AJ3" s="258"/>
+      <c r="AK3" s="258"/>
       <c r="AL3" s="108"/>
       <c r="AM3" s="108"/>
-      <c r="AS3" s="251" t="s">
+      <c r="AS3" s="258" t="s">
         <v>87</v>
       </c>
-      <c r="AT3" s="251"/>
-      <c r="AU3" s="251"/>
+      <c r="AT3" s="258"/>
+      <c r="AU3" s="258"/>
       <c r="AV3" s="108"/>
       <c r="AW3" s="108"/>
     </row>
@@ -21073,24 +21087,24 @@
         <f>Kalk_Kredit2!D10</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="252" t="s">
+      <c r="AB4" s="259" t="s">
         <v>89</v>
       </c>
-      <c r="AC4" s="252"/>
+      <c r="AC4" s="259"/>
       <c r="AD4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AI4" s="252" t="s">
+      <c r="AI4" s="259" t="s">
         <v>91</v>
       </c>
-      <c r="AJ4" s="252"/>
+      <c r="AJ4" s="259"/>
       <c r="AK4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AS4" s="252" t="s">
+      <c r="AS4" s="259" t="s">
         <v>91</v>
       </c>
-      <c r="AT4" s="252"/>
+      <c r="AT4" s="259"/>
       <c r="AU4" s="1" t="s">
         <v>90</v>
       </c>
@@ -21105,7 +21119,7 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="253" t="s">
+      <c r="H5" s="252" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="124">
@@ -21165,7 +21179,7 @@
       <c r="B6" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="254"/>
+      <c r="H6" s="253"/>
       <c r="I6" s="124">
         <v>5.01</v>
       </c>
@@ -21245,7 +21259,7 @@
       <c r="B7" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="254"/>
+      <c r="H7" s="253"/>
       <c r="I7" s="124">
         <v>10.01</v>
       </c>
@@ -21330,7 +21344,7 @@
       <c r="D8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="254"/>
+      <c r="H8" s="253"/>
       <c r="I8" s="124">
         <v>15.01</v>
       </c>
@@ -21406,7 +21420,7 @@
       <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="H9" s="254"/>
+      <c r="H9" s="253"/>
       <c r="I9" s="124">
         <v>20.010000000000002</v>
       </c>
@@ -21482,7 +21496,7 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" s="254"/>
+      <c r="H10" s="253"/>
       <c r="I10" s="124">
         <v>30.01</v>
       </c>
@@ -21562,7 +21576,7 @@
       <c r="D11" s="1">
         <v>2</v>
       </c>
-      <c r="H11" s="254"/>
+      <c r="H11" s="253"/>
       <c r="I11" s="124">
         <v>40.01</v>
       </c>
@@ -21573,7 +21587,7 @@
       <c r="L11" s="120">
         <v>41</v>
       </c>
-      <c r="N11" s="260" t="s">
+      <c r="N11" s="262" t="s">
         <v>22</v>
       </c>
       <c r="O11" s="202" t="s">
@@ -21662,7 +21676,7 @@
       <c r="D12" s="1">
         <v>3</v>
       </c>
-      <c r="H12" s="254"/>
+      <c r="H12" s="253"/>
       <c r="I12" s="124">
         <v>50.01</v>
       </c>
@@ -21673,7 +21687,7 @@
       <c r="L12" s="120">
         <v>51</v>
       </c>
-      <c r="N12" s="261"/>
+      <c r="N12" s="263"/>
       <c r="O12" s="207" t="s">
         <v>175</v>
       </c>
@@ -21692,9 +21706,9 @@
         <v>12</v>
       </c>
       <c r="V12" s="116"/>
-      <c r="W12" s="117">
+      <c r="W12" s="117" t="str">
         <f>Kalk_Kredit2!D13</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="AA12" s="1">
         <v>7</v>
@@ -21749,7 +21763,7 @@
       <c r="B13" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="254"/>
+      <c r="H13" s="253"/>
       <c r="I13" s="124">
         <v>60.01</v>
       </c>
@@ -21760,7 +21774,7 @@
       <c r="L13" s="120">
         <v>61</v>
       </c>
-      <c r="N13" s="261"/>
+      <c r="N13" s="263"/>
       <c r="O13" s="29" t="s">
         <v>176</v>
       </c>
@@ -21828,7 +21842,7 @@
       <c r="B14" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="254"/>
+      <c r="H14" s="253"/>
       <c r="I14" s="124">
         <v>70.010000000000005</v>
       </c>
@@ -21839,7 +21853,7 @@
       <c r="L14" s="120">
         <v>71</v>
       </c>
-      <c r="N14" s="262"/>
+      <c r="N14" s="264"/>
       <c r="O14" s="196" t="s">
         <v>177</v>
       </c>
@@ -21918,7 +21932,7 @@
         <v>44</v>
       </c>
       <c r="D15" s="99"/>
-      <c r="H15" s="254"/>
+      <c r="H15" s="253"/>
       <c r="I15" s="124">
         <v>80.010000000000005</v>
       </c>
@@ -21999,7 +22013,7 @@
       <c r="B16" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="254"/>
+      <c r="H16" s="253"/>
       <c r="I16" s="124">
         <v>90.01</v>
       </c>
@@ -22077,7 +22091,7 @@
       <c r="B17" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="254"/>
+      <c r="H17" s="253"/>
       <c r="I17" s="124">
         <v>100.01</v>
       </c>
@@ -22160,7 +22174,7 @@
       <c r="B18" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="254"/>
+      <c r="H18" s="253"/>
       <c r="I18" s="124">
         <v>125.01</v>
       </c>
@@ -22238,7 +22252,7 @@
       <c r="B19" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="254"/>
+      <c r="H19" s="253"/>
       <c r="I19" s="124">
         <v>150.01</v>
       </c>
@@ -22310,7 +22324,7 @@
       <c r="B20" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="254"/>
+      <c r="H20" s="253"/>
       <c r="I20" s="125">
         <v>175.01</v>
       </c>
@@ -22336,7 +22350,7 @@
       <c r="B21" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="254"/>
+      <c r="H21" s="253"/>
       <c r="I21" s="125">
         <v>200.01</v>
       </c>
@@ -22357,27 +22371,27 @@
         <f>W6+V16</f>
         <v>0</v>
       </c>
-      <c r="AA21" s="252" t="s">
+      <c r="AA21" s="259" t="s">
         <v>105</v>
       </c>
-      <c r="AB21" s="252"/>
+      <c r="AB21" s="259"/>
       <c r="AC21" s="1">
         <f>LOOKUP(V16,AA5:AA13,AD5:AD13)</f>
         <v>0</v>
       </c>
-      <c r="AH21" s="252" t="s">
+      <c r="AH21" s="259" t="s">
         <v>106</v>
       </c>
-      <c r="AI21" s="252"/>
+      <c r="AI21" s="259"/>
       <c r="AJ21" s="1">
         <f>IF(ISERROR(LOOKUP(V18,AH5:AH17,AK5:AK17)),0,LOOKUP(V18,AH5:AH17,AK5:AK17))</f>
         <v>0</v>
       </c>
       <c r="AO21" s="76"/>
-      <c r="AR21" s="252" t="s">
+      <c r="AR21" s="259" t="s">
         <v>106</v>
       </c>
-      <c r="AS21" s="252"/>
+      <c r="AS21" s="259"/>
       <c r="AT21" s="1">
         <f>IF(ISERROR(LOOKUP(V18,AR5:AR17,AU5:AU17)),0,LOOKUP(V18,AR5:AR17,AU5:AU17))</f>
         <v>0</v>
@@ -22391,7 +22405,7 @@
       <c r="B22" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="254"/>
+      <c r="H22" s="253"/>
       <c r="I22" s="125">
         <v>250.01</v>
       </c>
@@ -22434,7 +22448,7 @@
       <c r="A23" s="52">
         <v>999</v>
       </c>
-      <c r="H23" s="254"/>
+      <c r="H23" s="253"/>
       <c r="I23" s="125">
         <v>300.01</v>
       </c>
@@ -22462,7 +22476,7 @@
       </c>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H24" s="254"/>
+      <c r="H24" s="253"/>
       <c r="I24" s="126">
         <v>350.01</v>
       </c>
@@ -22481,7 +22495,7 @@
       </c>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H25" s="254"/>
+      <c r="H25" s="253"/>
       <c r="I25" s="126">
         <v>400.01</v>
       </c>
@@ -22498,34 +22512,34 @@
         <f>AZ29+AT22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA25" s="259" t="s">
+      <c r="AA25" s="260" t="s">
         <v>107</v>
       </c>
-      <c r="AB25" s="259"/>
-      <c r="AC25" s="259"/>
-      <c r="AD25" s="259"/>
-      <c r="AE25" s="259"/>
-      <c r="AF25" s="259"/>
-      <c r="AH25" s="250" t="s">
+      <c r="AB25" s="260"/>
+      <c r="AC25" s="260"/>
+      <c r="AD25" s="260"/>
+      <c r="AE25" s="260"/>
+      <c r="AF25" s="260"/>
+      <c r="AH25" s="261" t="s">
         <v>108</v>
       </c>
-      <c r="AI25" s="250"/>
-      <c r="AJ25" s="250"/>
-      <c r="AK25" s="250"/>
-      <c r="AL25" s="250"/>
-      <c r="AM25" s="250"/>
-      <c r="AN25" s="250"/>
-      <c r="AO25" s="250"/>
-      <c r="AR25" s="250" t="s">
+      <c r="AI25" s="261"/>
+      <c r="AJ25" s="261"/>
+      <c r="AK25" s="261"/>
+      <c r="AL25" s="261"/>
+      <c r="AM25" s="261"/>
+      <c r="AN25" s="261"/>
+      <c r="AO25" s="261"/>
+      <c r="AR25" s="261" t="s">
         <v>108</v>
       </c>
-      <c r="AS25" s="250"/>
-      <c r="AT25" s="250"/>
-      <c r="AU25" s="250"/>
-      <c r="AV25" s="250"/>
-      <c r="AW25" s="250"/>
-      <c r="AX25" s="250"/>
-      <c r="AY25" s="250"/>
+      <c r="AS25" s="261"/>
+      <c r="AT25" s="261"/>
+      <c r="AU25" s="261"/>
+      <c r="AV25" s="261"/>
+      <c r="AW25" s="261"/>
+      <c r="AX25" s="261"/>
+      <c r="AY25" s="261"/>
     </row>
     <row r="26" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H26" s="239"/>
@@ -22577,7 +22591,7 @@
       <c r="AY26" s="240"/>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H27" s="255" t="s">
+      <c r="H27" s="254" t="s">
         <v>9</v>
       </c>
       <c r="I27" s="101">
@@ -22604,7 +22618,7 @@
       </c>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H28" s="256"/>
+      <c r="H28" s="255"/>
       <c r="I28" s="102">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -22635,7 +22649,7 @@
       </c>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H29" s="256"/>
+      <c r="H29" s="255"/>
       <c r="I29" s="102">
         <v>0.20000100000000001</v>
       </c>
@@ -22665,7 +22679,7 @@
       </c>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H30" s="256"/>
+      <c r="H30" s="255"/>
       <c r="I30" s="102">
         <v>0.400001</v>
       </c>
@@ -22771,7 +22785,7 @@
       </c>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H31" s="256"/>
+      <c r="H31" s="255"/>
       <c r="I31" s="102">
         <v>0.60000100000000001</v>
       </c>
@@ -22877,7 +22891,7 @@
       </c>
     </row>
     <row r="32" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H32" s="257"/>
+      <c r="H32" s="256"/>
       <c r="I32" s="103">
         <v>0.80000099999999996</v>
       </c>
@@ -22986,7 +23000,7 @@
       </c>
     </row>
     <row r="33" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H33" s="254" t="s">
+      <c r="H33" s="253" t="s">
         <v>17</v>
       </c>
       <c r="I33" s="104">
@@ -23100,7 +23114,7 @@
       </c>
     </row>
     <row r="34" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H34" s="254"/>
+      <c r="H34" s="253"/>
       <c r="I34" s="104">
         <v>0.20000100000000001</v>
       </c>
@@ -23212,7 +23226,7 @@
       </c>
     </row>
     <row r="35" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H35" s="254"/>
+      <c r="H35" s="253"/>
       <c r="I35" s="104">
         <v>0.400001</v>
       </c>
@@ -23324,7 +23338,7 @@
       </c>
     </row>
     <row r="36" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H36" s="254"/>
+      <c r="H36" s="253"/>
       <c r="I36" s="104">
         <v>0.60000100000000001</v>
       </c>
@@ -23436,7 +23450,7 @@
       </c>
     </row>
     <row r="37" spans="8:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H37" s="258"/>
+      <c r="H37" s="257"/>
       <c r="I37" s="104">
         <v>0.80000099999999996</v>
       </c>
@@ -35000,6 +35014,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AA2:AF2"/>
+    <mergeCell ref="AH2:AO2"/>
+    <mergeCell ref="AR2:AY2"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AS3:AU3"/>
     <mergeCell ref="AR25:AY25"/>
     <mergeCell ref="H27:H32"/>
     <mergeCell ref="H33:H37"/>
@@ -35013,13 +35034,6 @@
     <mergeCell ref="AR21:AS21"/>
     <mergeCell ref="AA25:AF25"/>
     <mergeCell ref="AH25:AO25"/>
-    <mergeCell ref="AA2:AF2"/>
-    <mergeCell ref="AH2:AO2"/>
-    <mergeCell ref="AR2:AY2"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="AS3:AU3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -35039,7 +35053,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -35079,6 +35093,10 @@
       <c r="E2" s="67"/>
       <c r="F2" s="67"/>
       <c r="G2" s="67"/>
+      <c r="Q2" s="242"/>
+      <c r="R2" s="243" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="3" spans="2:18" ht="5.0999999999999996" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="67"/>
@@ -35300,7 +35318,9 @@
         <v>12</v>
       </c>
       <c r="C13" s="82"/>
-      <c r="D13" s="215"/>
+      <c r="D13" s="215" t="s">
+        <v>1</v>
+      </c>
       <c r="E13" s="85"/>
       <c r="F13" s="92"/>
       <c r="G13" s="93"/>
@@ -35364,7 +35384,7 @@
       <c r="C19" s="82"/>
       <c r="D19" s="122">
         <f ca="1">NOW()</f>
-        <v>44742.755176157407</v>
+        <v>44837.837062037041</v>
       </c>
       <c r="E19" s="82"/>
       <c r="F19" s="82" t="s">
@@ -35393,11 +35413,11 @@
         <v/>
       </c>
       <c r="E20" s="87"/>
-      <c r="F20" s="100" t="s">
-        <v>82</v>
-      </c>
+      <c r="F20" s="100"/>
       <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
+      <c r="H20" s="93" t="s">
+        <v>220</v>
+      </c>
       <c r="I20" s="82"/>
       <c r="J20" s="82"/>
       <c r="K20" s="82"/>
@@ -35421,7 +35441,7 @@
       <c r="E21" s="87"/>
       <c r="F21" s="82"/>
       <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
+      <c r="H21" s="93"/>
       <c r="I21" s="82"/>
       <c r="J21" s="82"/>
       <c r="K21" s="82"/>
@@ -35455,10 +35475,10 @@
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="82"/>
       <c r="C23" s="82"/>
-      <c r="D23" s="242" t="s">
+      <c r="D23" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="243"/>
+      <c r="E23" s="245"/>
       <c r="F23" s="82"/>
       <c r="G23" s="82"/>
       <c r="H23" s="180" t="s">
@@ -35478,10 +35498,10 @@
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="82"/>
       <c r="C24" s="82"/>
-      <c r="D24" s="244" t="s">
+      <c r="D24" s="246" t="s">
         <v>152</v>
       </c>
-      <c r="E24" s="245"/>
+      <c r="E24" s="247"/>
       <c r="F24" s="82"/>
       <c r="G24" s="82"/>
       <c r="H24" s="181" t="s">
@@ -35522,11 +35542,11 @@
         <v>66</v>
       </c>
       <c r="C26" s="82"/>
-      <c r="D26" s="246" t="str">
+      <c r="D26" s="248" t="str">
         <f>IF(ISNUMBER(D20),Background!P12,"")</f>
         <v/>
       </c>
-      <c r="E26" s="247"/>
+      <c r="E26" s="249"/>
       <c r="F26" s="82"/>
       <c r="G26" s="82"/>
       <c r="H26" s="186" t="str">
@@ -35548,7 +35568,7 @@
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="P+Wn/61W/TrxXxUKZ4I/v/W5QIeWYT6Jlm9XEpM7RQy+GM+H6HGCwKfyKHEStheQQajjv8fxIgYP1aNz741aNg==" saltValue="SNidU6kkloZbck94FuuWVA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="g1YVERw/nCWQ4A9vDxeYWNfffpDsNr5J3flryoe3yA0NYyXFcVoZ4WyVZlNS1lRkwJr1mXALVc1pzuIBIp4Hsg==" saltValue="M99QEi2Y6n5jx6bFJxcUug==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="D8" name="Range6"/>
     <protectedRange sqref="D19" name="Range5"/>
@@ -35875,7 +35895,7 @@
     </row>
     <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2D+9Lotgu2P7U1H+PwVgF1im5lvvR9XOavovglc6McqG2AWHvLZ4KTo2xEpnHzQVy3F2ITHZMsGtUPJzBcsh4g==" saltValue="XI+aAEhvS16zEgjUuCBvgA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0W0POiPttEWjbG8Qncz0IRxRBbfzTbm35xJjwUh/CL2Bzqok/VnGsux3SmIBPdy9MgFIMFIc8QdXJF6vFTmoCA==" saltValue="GBA+xHPHjUupdJWTyPra8Q==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="C11" name="Range1"/>
   </protectedRanges>
@@ -35902,7 +35922,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35985,7 +36005,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="93" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E7" s="230"/>
       <c r="F7" s="92"/>
@@ -36258,7 +36278,7 @@
       <c r="D36" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VsChMf49peYBwX92/HWlYY04/nXyiztpYPFBKqrZRkz4bim/A/P52YDarZ3FePjnQcEks1WqwoI5NpOyVpi0hA==" saltValue="MTrQ4ur7eKD4nkYiPxQjvQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DR7EA78gPvBFaxNvcrJI3R2fxkWV9cpu9p4pzXPtTec5yZNNHpqSHekTzCTJQTH5PUUMUiPxQyD+REBIr1+mQQ==" saltValue="BKNRi6Bfv6zjU+SmshKsUA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="B5:B7" name="Bereich1"/>
   </protectedRanges>
@@ -36295,7 +36315,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="54" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;10&amp;K000000</oddFooter>
   </headerFooter>
@@ -36342,40 +36362,40 @@
       <c r="AB2" s="1"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="F3" s="248" t="s">
+      <c r="F3" s="250" t="s">
         <v>143</v>
       </c>
-      <c r="G3" s="248"/>
-      <c r="H3" s="248"/>
-      <c r="I3" s="248"/>
-      <c r="J3" s="248"/>
-      <c r="K3" s="248"/>
-      <c r="L3" s="248"/>
-      <c r="M3" s="248"/>
+      <c r="G3" s="250"/>
+      <c r="H3" s="250"/>
+      <c r="I3" s="250"/>
+      <c r="J3" s="250"/>
+      <c r="K3" s="250"/>
+      <c r="L3" s="250"/>
+      <c r="M3" s="250"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="U3" s="248" t="s">
+      <c r="U3" s="250" t="s">
         <v>142</v>
       </c>
-      <c r="V3" s="248"/>
-      <c r="W3" s="248"/>
-      <c r="X3" s="248"/>
-      <c r="Y3" s="248"/>
-      <c r="Z3" s="248"/>
-      <c r="AA3" s="248"/>
-      <c r="AB3" s="248"/>
+      <c r="V3" s="250"/>
+      <c r="W3" s="250"/>
+      <c r="X3" s="250"/>
+      <c r="Y3" s="250"/>
+      <c r="Z3" s="250"/>
+      <c r="AA3" s="250"/>
+      <c r="AB3" s="250"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="249" t="s">
+      <c r="A4" s="251" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="249"/>
-      <c r="C4" s="249"/>
-      <c r="D4" s="249"/>
+      <c r="B4" s="251"/>
+      <c r="C4" s="251"/>
+      <c r="D4" s="251"/>
       <c r="E4" s="168"/>
       <c r="F4" s="1" t="s">
         <v>131</v>
@@ -36401,12 +36421,12 @@
       <c r="M4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="249" t="s">
+      <c r="P4" s="251" t="s">
         <v>130</v>
       </c>
-      <c r="Q4" s="249"/>
-      <c r="R4" s="249"/>
-      <c r="S4" s="249"/>
+      <c r="Q4" s="251"/>
+      <c r="R4" s="251"/>
+      <c r="S4" s="251"/>
       <c r="T4" s="168"/>
       <c r="U4" s="1" t="s">
         <v>131</v>
@@ -43689,36 +43709,36 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="F3" s="248" t="s">
+      <c r="F3" s="250" t="s">
         <v>143</v>
       </c>
-      <c r="G3" s="248"/>
-      <c r="H3" s="248"/>
-      <c r="I3" s="248"/>
-      <c r="J3" s="248"/>
-      <c r="K3" s="248"/>
-      <c r="L3" s="248"/>
-      <c r="M3" s="248"/>
+      <c r="G3" s="250"/>
+      <c r="H3" s="250"/>
+      <c r="I3" s="250"/>
+      <c r="J3" s="250"/>
+      <c r="K3" s="250"/>
+      <c r="L3" s="250"/>
+      <c r="M3" s="250"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
-      <c r="U3" s="248" t="s">
+      <c r="U3" s="250" t="s">
         <v>142</v>
       </c>
-      <c r="V3" s="248"/>
-      <c r="W3" s="248"/>
-      <c r="X3" s="248"/>
-      <c r="Y3" s="248"/>
-      <c r="Z3" s="248"/>
-      <c r="AA3" s="248"/>
-      <c r="AB3" s="248"/>
+      <c r="V3" s="250"/>
+      <c r="W3" s="250"/>
+      <c r="X3" s="250"/>
+      <c r="Y3" s="250"/>
+      <c r="Z3" s="250"/>
+      <c r="AA3" s="250"/>
+      <c r="AB3" s="250"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="249" t="s">
+      <c r="A4" s="251" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="249"/>
-      <c r="C4" s="249"/>
-      <c r="D4" s="249"/>
+      <c r="B4" s="251"/>
+      <c r="C4" s="251"/>
+      <c r="D4" s="251"/>
       <c r="E4" s="168"/>
       <c r="F4" s="1" t="s">
         <v>131</v>
@@ -43744,12 +43764,12 @@
       <c r="M4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="249" t="s">
+      <c r="P4" s="251" t="s">
         <v>130</v>
       </c>
-      <c r="Q4" s="249"/>
-      <c r="R4" s="249"/>
-      <c r="S4" s="249"/>
+      <c r="Q4" s="251"/>
+      <c r="R4" s="251"/>
+      <c r="S4" s="251"/>
       <c r="T4" s="168"/>
       <c r="U4" s="1" t="s">
         <v>131</v>
@@ -50921,7 +50941,7 @@
   <dimension ref="A1:AZ151"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50993,36 +51013,36 @@
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
       <c r="L2" s="1"/>
-      <c r="AA2" s="248" t="s">
+      <c r="AA2" s="250" t="s">
         <v>85</v>
       </c>
-      <c r="AB2" s="248"/>
-      <c r="AC2" s="248"/>
-      <c r="AD2" s="248"/>
-      <c r="AE2" s="248"/>
-      <c r="AF2" s="248"/>
-      <c r="AH2" s="248" t="s">
+      <c r="AB2" s="250"/>
+      <c r="AC2" s="250"/>
+      <c r="AD2" s="250"/>
+      <c r="AE2" s="250"/>
+      <c r="AF2" s="250"/>
+      <c r="AH2" s="250" t="s">
         <v>123</v>
       </c>
-      <c r="AI2" s="248"/>
-      <c r="AJ2" s="248"/>
-      <c r="AK2" s="248"/>
-      <c r="AL2" s="248"/>
-      <c r="AM2" s="248"/>
-      <c r="AN2" s="248"/>
-      <c r="AO2" s="248"/>
+      <c r="AI2" s="250"/>
+      <c r="AJ2" s="250"/>
+      <c r="AK2" s="250"/>
+      <c r="AL2" s="250"/>
+      <c r="AM2" s="250"/>
+      <c r="AN2" s="250"/>
+      <c r="AO2" s="250"/>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
-      <c r="AR2" s="248" t="s">
+      <c r="AR2" s="250" t="s">
         <v>124</v>
       </c>
-      <c r="AS2" s="248"/>
-      <c r="AT2" s="248"/>
-      <c r="AU2" s="248"/>
-      <c r="AV2" s="248"/>
-      <c r="AW2" s="248"/>
-      <c r="AX2" s="248"/>
-      <c r="AY2" s="248"/>
+      <c r="AS2" s="250"/>
+      <c r="AT2" s="250"/>
+      <c r="AU2" s="250"/>
+      <c r="AV2" s="250"/>
+      <c r="AW2" s="250"/>
+      <c r="AX2" s="250"/>
+      <c r="AY2" s="250"/>
       <c r="AZ2" s="1"/>
     </row>
     <row r="3" spans="1:52" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51049,33 +51069,33 @@
         <v>15</v>
       </c>
       <c r="L3" s="23"/>
-      <c r="U3" s="249" t="s">
+      <c r="U3" s="251" t="s">
         <v>86</v>
       </c>
-      <c r="V3" s="249"/>
-      <c r="W3" s="249"/>
-      <c r="AB3" s="251" t="s">
+      <c r="V3" s="251"/>
+      <c r="W3" s="251"/>
+      <c r="AB3" s="258" t="s">
         <v>87</v>
       </c>
-      <c r="AC3" s="251"/>
-      <c r="AD3" s="251"/>
+      <c r="AC3" s="258"/>
+      <c r="AD3" s="258"/>
       <c r="AE3" s="108"/>
       <c r="AF3" s="108"/>
-      <c r="AI3" s="251" t="s">
+      <c r="AI3" s="258" t="s">
         <v>87</v>
       </c>
-      <c r="AJ3" s="251"/>
-      <c r="AK3" s="251"/>
+      <c r="AJ3" s="258"/>
+      <c r="AK3" s="258"/>
       <c r="AL3" s="108"/>
       <c r="AM3" s="108"/>
       <c r="AP3" s="1"/>
       <c r="AQ3" s="1"/>
       <c r="AR3" s="1"/>
-      <c r="AS3" s="251" t="s">
+      <c r="AS3" s="258" t="s">
         <v>87</v>
       </c>
-      <c r="AT3" s="251"/>
-      <c r="AU3" s="251"/>
+      <c r="AT3" s="258"/>
+      <c r="AU3" s="258"/>
       <c r="AV3" s="108"/>
       <c r="AW3" s="108"/>
       <c r="AX3" s="1"/>
@@ -51099,7 +51119,7 @@
         <v>8</v>
       </c>
       <c r="I4" s="22">
-        <v>8.19</v>
+        <v>8.69</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="8"/>
@@ -51112,27 +51132,27 @@
         <f>Kalkulationstool!D10</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="252" t="s">
+      <c r="AB4" s="259" t="s">
         <v>89</v>
       </c>
-      <c r="AC4" s="252"/>
+      <c r="AC4" s="259"/>
       <c r="AD4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AI4" s="252" t="s">
+      <c r="AI4" s="259" t="s">
         <v>91</v>
       </c>
-      <c r="AJ4" s="252"/>
+      <c r="AJ4" s="259"/>
       <c r="AK4" s="1" t="s">
         <v>90</v>
       </c>
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
-      <c r="AS4" s="252" t="s">
+      <c r="AS4" s="259" t="s">
         <v>91</v>
       </c>
-      <c r="AT4" s="252"/>
+      <c r="AT4" s="259"/>
       <c r="AU4" s="1" t="s">
         <v>90</v>
       </c>
@@ -51152,7 +51172,7 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="253" t="s">
+      <c r="H5" s="252" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="124">
@@ -51226,7 +51246,7 @@
       <c r="B6" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="254"/>
+      <c r="H6" s="253"/>
       <c r="I6" s="124">
         <v>5.01</v>
       </c>
@@ -51317,7 +51337,7 @@
       <c r="B7" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="254"/>
+      <c r="H7" s="253"/>
       <c r="I7" s="124">
         <v>10.01</v>
       </c>
@@ -51413,7 +51433,7 @@
       <c r="D8" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="254"/>
+      <c r="H8" s="253"/>
       <c r="I8" s="124">
         <v>15.01</v>
       </c>
@@ -51502,7 +51522,7 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="H9" s="254"/>
+      <c r="H9" s="253"/>
       <c r="I9" s="124">
         <v>20.010000000000002</v>
       </c>
@@ -51591,7 +51611,7 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="H10" s="254"/>
+      <c r="H10" s="253"/>
       <c r="I10" s="124">
         <v>30.01</v>
       </c>
@@ -51684,7 +51704,7 @@
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="H11" s="254"/>
+      <c r="H11" s="253"/>
       <c r="I11" s="124">
         <v>40.01</v>
       </c>
@@ -51695,7 +51715,7 @@
       <c r="L11" s="120">
         <v>41</v>
       </c>
-      <c r="N11" s="260" t="s">
+      <c r="N11" s="262" t="s">
         <v>22</v>
       </c>
       <c r="O11" s="202" t="s">
@@ -51791,7 +51811,7 @@
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="H12" s="254"/>
+      <c r="H12" s="253"/>
       <c r="I12" s="124">
         <v>50.01</v>
       </c>
@@ -51802,7 +51822,7 @@
       <c r="L12" s="120">
         <v>51</v>
       </c>
-      <c r="N12" s="261"/>
+      <c r="N12" s="263"/>
       <c r="O12" s="207" t="s">
         <v>175</v>
       </c>
@@ -51821,9 +51841,9 @@
         <v>12</v>
       </c>
       <c r="V12" s="116"/>
-      <c r="W12" s="117">
+      <c r="W12" s="117" t="str">
         <f>Kalkulationstool!D13</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="AA12" s="1">
         <v>7</v>
@@ -51885,7 +51905,7 @@
       <c r="B13" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="254"/>
+      <c r="H13" s="253"/>
       <c r="I13" s="124">
         <v>60.01</v>
       </c>
@@ -51896,7 +51916,7 @@
       <c r="L13" s="120">
         <v>61</v>
       </c>
-      <c r="N13" s="261"/>
+      <c r="N13" s="263"/>
       <c r="O13" s="29" t="s">
         <v>176</v>
       </c>
@@ -51971,7 +51991,7 @@
       <c r="B14" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="254"/>
+      <c r="H14" s="253"/>
       <c r="I14" s="124">
         <v>70.010000000000005</v>
       </c>
@@ -51982,7 +52002,7 @@
       <c r="L14" s="120">
         <v>71</v>
       </c>
-      <c r="N14" s="262"/>
+      <c r="N14" s="264"/>
       <c r="O14" s="196" t="s">
         <v>177</v>
       </c>
@@ -52068,7 +52088,7 @@
         <v>44</v>
       </c>
       <c r="D15" s="99"/>
-      <c r="H15" s="254"/>
+      <c r="H15" s="253"/>
       <c r="I15" s="124">
         <v>80.010000000000005</v>
       </c>
@@ -52156,7 +52176,7 @@
       <c r="B16" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="254"/>
+      <c r="H16" s="253"/>
       <c r="I16" s="124">
         <v>90.01</v>
       </c>
@@ -52241,7 +52261,7 @@
       <c r="B17" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="254"/>
+      <c r="H17" s="253"/>
       <c r="I17" s="124">
         <v>100.01</v>
       </c>
@@ -52331,7 +52351,7 @@
       <c r="B18" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="254"/>
+      <c r="H18" s="253"/>
       <c r="I18" s="124">
         <v>125.01</v>
       </c>
@@ -52417,7 +52437,7 @@
       <c r="B19" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="254"/>
+      <c r="H19" s="253"/>
       <c r="I19" s="124">
         <v>150.01</v>
       </c>
@@ -52497,7 +52517,7 @@
       <c r="B20" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="254"/>
+      <c r="H20" s="253"/>
       <c r="I20" s="125">
         <v>175.01</v>
       </c>
@@ -52534,7 +52554,7 @@
       <c r="B21" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="254"/>
+      <c r="H21" s="253"/>
       <c r="I21" s="125">
         <v>200.01</v>
       </c>
@@ -52555,18 +52575,18 @@
         <f>W6+V16</f>
         <v>0</v>
       </c>
-      <c r="AA21" s="252" t="s">
+      <c r="AA21" s="259" t="s">
         <v>105</v>
       </c>
-      <c r="AB21" s="252"/>
+      <c r="AB21" s="259"/>
       <c r="AC21" s="1">
         <f>LOOKUP(V16,AA5:AA13,AD5:AD13)</f>
         <v>0</v>
       </c>
-      <c r="AH21" s="252" t="s">
+      <c r="AH21" s="259" t="s">
         <v>106</v>
       </c>
-      <c r="AI21" s="252"/>
+      <c r="AI21" s="259"/>
       <c r="AJ21" s="1">
         <f>IF(ISERROR(LOOKUP(V18,AH5:AH17,AK5:AK17)),0,LOOKUP(V18,AH5:AH17,AK5:AK17))</f>
         <v>0</v>
@@ -52574,10 +52594,10 @@
       <c r="AO21" s="76"/>
       <c r="AP21" s="1"/>
       <c r="AQ21" s="1"/>
-      <c r="AR21" s="252" t="s">
+      <c r="AR21" s="259" t="s">
         <v>106</v>
       </c>
-      <c r="AS21" s="252"/>
+      <c r="AS21" s="259"/>
       <c r="AT21" s="1">
         <f>IF(ISERROR(LOOKUP(V18,AR5:AR17,AU5:AU17)),0,LOOKUP(V18,AR5:AR17,AU5:AU17))</f>
         <v>0</v>
@@ -52596,7 +52616,7 @@
       <c r="B22" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="254"/>
+      <c r="H22" s="253"/>
       <c r="I22" s="125">
         <v>250.01</v>
       </c>
@@ -52648,7 +52668,7 @@
       <c r="A23" s="52">
         <v>999</v>
       </c>
-      <c r="H23" s="254"/>
+      <c r="H23" s="253"/>
       <c r="I23" s="125">
         <v>300.01</v>
       </c>
@@ -52686,7 +52706,7 @@
       <c r="AZ23" s="1"/>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H24" s="254"/>
+      <c r="H24" s="253"/>
       <c r="I24" s="126">
         <v>350.01</v>
       </c>
@@ -52717,7 +52737,7 @@
       <c r="AZ24" s="1"/>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H25" s="254"/>
+      <c r="H25" s="253"/>
       <c r="I25" s="126">
         <v>400.01</v>
       </c>
@@ -52735,36 +52755,36 @@
         <f>AZ29+AT22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA25" s="259" t="s">
+      <c r="AA25" s="260" t="s">
         <v>107</v>
       </c>
-      <c r="AB25" s="259"/>
-      <c r="AC25" s="259"/>
-      <c r="AD25" s="259"/>
-      <c r="AE25" s="259"/>
-      <c r="AF25" s="259"/>
-      <c r="AH25" s="250" t="s">
+      <c r="AB25" s="260"/>
+      <c r="AC25" s="260"/>
+      <c r="AD25" s="260"/>
+      <c r="AE25" s="260"/>
+      <c r="AF25" s="260"/>
+      <c r="AH25" s="261" t="s">
         <v>108</v>
       </c>
-      <c r="AI25" s="250"/>
-      <c r="AJ25" s="250"/>
-      <c r="AK25" s="250"/>
-      <c r="AL25" s="250"/>
-      <c r="AM25" s="250"/>
-      <c r="AN25" s="250"/>
-      <c r="AO25" s="250"/>
+      <c r="AI25" s="261"/>
+      <c r="AJ25" s="261"/>
+      <c r="AK25" s="261"/>
+      <c r="AL25" s="261"/>
+      <c r="AM25" s="261"/>
+      <c r="AN25" s="261"/>
+      <c r="AO25" s="261"/>
       <c r="AP25" s="1"/>
       <c r="AQ25" s="1"/>
-      <c r="AR25" s="250" t="s">
+      <c r="AR25" s="261" t="s">
         <v>108</v>
       </c>
-      <c r="AS25" s="250"/>
-      <c r="AT25" s="250"/>
-      <c r="AU25" s="250"/>
-      <c r="AV25" s="250"/>
-      <c r="AW25" s="250"/>
-      <c r="AX25" s="250"/>
-      <c r="AY25" s="250"/>
+      <c r="AS25" s="261"/>
+      <c r="AT25" s="261"/>
+      <c r="AU25" s="261"/>
+      <c r="AV25" s="261"/>
+      <c r="AW25" s="261"/>
+      <c r="AX25" s="261"/>
+      <c r="AY25" s="261"/>
       <c r="AZ25" s="1"/>
     </row>
     <row r="26" spans="1:52" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -52817,7 +52837,7 @@
       <c r="AY26" s="129"/>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H27" s="255" t="s">
+      <c r="H27" s="254" t="s">
         <v>9</v>
       </c>
       <c r="I27" s="101">
@@ -52854,7 +52874,7 @@
       <c r="AZ27" s="1"/>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H28" s="256"/>
+      <c r="H28" s="255"/>
       <c r="I28" s="102">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -52895,7 +52915,7 @@
       <c r="AZ28" s="1"/>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H29" s="256"/>
+      <c r="H29" s="255"/>
       <c r="I29" s="102">
         <v>0.20000100000000001</v>
       </c>
@@ -52934,7 +52954,7 @@
       </c>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H30" s="256"/>
+      <c r="H30" s="255"/>
       <c r="I30" s="102">
         <v>0.400001</v>
       </c>
@@ -53042,7 +53062,7 @@
       </c>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H31" s="256"/>
+      <c r="H31" s="255"/>
       <c r="I31" s="102">
         <v>0.60000100000000001</v>
       </c>
@@ -53150,7 +53170,7 @@
       </c>
     </row>
     <row r="32" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H32" s="257"/>
+      <c r="H32" s="256"/>
       <c r="I32" s="103">
         <v>0.80000099999999996</v>
       </c>
@@ -53261,7 +53281,7 @@
       </c>
     </row>
     <row r="33" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H33" s="254" t="s">
+      <c r="H33" s="253" t="s">
         <v>17</v>
       </c>
       <c r="I33" s="104">
@@ -53376,7 +53396,7 @@
       </c>
     </row>
     <row r="34" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H34" s="254"/>
+      <c r="H34" s="253"/>
       <c r="I34" s="104">
         <v>0.20000100000000001</v>
       </c>
@@ -53489,7 +53509,7 @@
       </c>
     </row>
     <row r="35" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H35" s="254"/>
+      <c r="H35" s="253"/>
       <c r="I35" s="104">
         <v>0.400001</v>
       </c>
@@ -53602,7 +53622,7 @@
       </c>
     </row>
     <row r="36" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H36" s="254"/>
+      <c r="H36" s="253"/>
       <c r="I36" s="104">
         <v>0.60000100000000001</v>
       </c>
@@ -53715,7 +53735,7 @@
       </c>
     </row>
     <row r="37" spans="8:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H37" s="258"/>
+      <c r="H37" s="257"/>
       <c r="I37" s="104">
         <v>0.80000099999999996</v>
       </c>
@@ -65421,6 +65441,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AR25:AY25"/>
+    <mergeCell ref="AR2:AY2"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AR21:AS21"/>
     <mergeCell ref="H5:H25"/>
     <mergeCell ref="H27:H32"/>
     <mergeCell ref="H33:H37"/>
@@ -65436,11 +65461,6 @@
     <mergeCell ref="AA25:AF25"/>
     <mergeCell ref="AH25:AO25"/>
     <mergeCell ref="N11:N14"/>
-    <mergeCell ref="AR25:AY25"/>
-    <mergeCell ref="AR2:AY2"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AR21:AS21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -65729,9 +65749,9 @@
         <v>12</v>
       </c>
       <c r="C13" s="82"/>
-      <c r="D13" s="223">
+      <c r="D13" s="223" t="str">
         <f>Kalkulationstool!D13</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="E13" s="85"/>
       <c r="F13" s="92"/>
@@ -65795,7 +65815,7 @@
       <c r="C19" s="82"/>
       <c r="D19" s="122">
         <f ca="1">NOW()</f>
-        <v>44742.755176157407</v>
+        <v>44837.837062037041</v>
       </c>
       <c r="E19" s="82"/>
       <c r="F19" s="82" t="s">
@@ -65886,10 +65906,10 @@
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="82"/>
       <c r="C23" s="82"/>
-      <c r="D23" s="242" t="s">
+      <c r="D23" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="243"/>
+      <c r="E23" s="245"/>
       <c r="F23" s="82"/>
       <c r="G23" s="82"/>
       <c r="H23" s="180" t="s">
@@ -65909,10 +65929,10 @@
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="82"/>
       <c r="C24" s="82"/>
-      <c r="D24" s="244" t="s">
+      <c r="D24" s="246" t="s">
         <v>152</v>
       </c>
-      <c r="E24" s="245"/>
+      <c r="E24" s="247"/>
       <c r="F24" s="82"/>
       <c r="G24" s="82"/>
       <c r="H24" s="181" t="s">
@@ -65953,11 +65973,11 @@
         <v>66</v>
       </c>
       <c r="C26" s="82"/>
-      <c r="D26" s="246" t="str">
+      <c r="D26" s="248" t="str">
         <f>IF(ISNUMBER(D20),Background2!P12,"")</f>
         <v/>
       </c>
-      <c r="E26" s="247"/>
+      <c r="E26" s="249"/>
       <c r="F26" s="82"/>
       <c r="G26" s="82"/>
       <c r="H26" s="186" t="str">
@@ -66144,7 +66164,7 @@
       </c>
       <c r="E5" s="92"/>
       <c r="F5" s="93" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -66158,7 +66178,7 @@
       <c r="D6" s="151"/>
       <c r="E6" s="152"/>
       <c r="F6" s="93" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -66318,186 +66338,4 @@
     <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;10&amp;K000000</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101009081DD128C43F34C81CDF4F1C61BE2A7" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="bdb195f631c4cc8a0fb36ed72265ffff">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a476897-a11d-4614-96b3-29f20c7c16bc" xmlns:ns3="65d884a3-203f-4fc6-8b3c-c00fb8e9fcbf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bb5b8ff8b9ab49cd66785fa7235a92a8" ns2:_="" ns3:_="">
-    <xsd:import namespace="3a476897-a11d-4614-96b3-29f20c7c16bc"/>
-    <xsd:import namespace="65d884a3-203f-4fc6-8b3c-c00fb8e9fcbf"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3a476897-a11d-4614-96b3-29f20c7c16bc" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Freigegeben für" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Freigegeben für - Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="65d884a3-203f-4fc6-8b3c-c00fb8e9fcbf" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhaltstyp"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22154419-134C-436B-9698-D5528D5767EA}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B1CCE96-2142-4984-AD10-DE83503B5651}"/>
 </file>
--- a/ExcelBlanko.xlsx
+++ b/ExcelBlanko.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\oneLine_Backoffice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\V\DATEN\BN_BSS11\T_PRO_PKG\Performance\DB Verprobung\Vertriebstool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53E93755-D967-42D6-8329-663158860EC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="9jAiZSFpo/uTWQnbtLfuoY9MjBz3M9NOHeQRsMTjeF02/JSMyKim4mBq9u3TlATQEnm3c6GVi2qrnvBAmaFZOQ==" workbookSaltValue="23/ZWMOVOCyk17sGw1Qdqg==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA508FB1-1B9D-40AB-A4D9-199378A17BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="xdJkETQN7/x34+IWtyydQzHYrG64UB8R5eS5n5AOEb5dHfXCUS7kHRWj66g2tKfDZAlVaKN8jYvHGHnRd4FPLg==" workbookSaltValue="P2SNEYkb8cGwizgLHlbP3g==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="15" r:id="rId1"/>
@@ -814,7 +814,7 @@
     <t>Auf die Zielkondition dürfen bis zu 150 Basispunkte aufgeschlagen werden. Bei Aufstockergeschäften ist ein Aufschlag bis zu 300 Basispunkte erlaubt.</t>
   </si>
   <si>
-    <t>Gültig ab 07.10.2022</t>
+    <t>Gültig ab 15.11.2022</t>
   </si>
 </sst>
 </file>
@@ -2010,7 +2010,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="265">
+  <cellXfs count="270">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2526,7 +2526,6 @@
     <xf numFmtId="0" fontId="16" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="37" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -2600,6 +2599,16 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="173" fontId="32" fillId="39" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" xfId="43" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -6258,7 +6267,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="l4CMJHGPWJK7b5RhneO5RiLI8E05JOX5FFF1AL7rotyxuDOc5ACz8q4Vr/hAQCJRjc+v+6kk+goACtsa2JNHNg==" saltValue="zdb/6USnbfx5XwwvCqQr2A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HhtikggtILjKTzjzEr03sGYXwGWWek2My/VFeg1AmvkrOVv8BklxrxJ24BBHHqIeNK0/+F7W3/G3y/ndnmCCSQ==" saltValue="WPtoIRcs+7R2+6xuktOg+w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -6356,7 +6365,7 @@
       <c r="A27" t="s">
         <v>202</v>
       </c>
-      <c r="B27" s="241">
+      <c r="B27" s="240">
         <f>2.3%+C27+D27+E27</f>
         <v>2.3E-2</v>
       </c>
@@ -6412,36 +6421,36 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="F3" s="250" t="s">
+      <c r="F3" s="249" t="s">
         <v>143</v>
       </c>
-      <c r="G3" s="250"/>
-      <c r="H3" s="250"/>
-      <c r="I3" s="250"/>
-      <c r="J3" s="250"/>
-      <c r="K3" s="250"/>
-      <c r="L3" s="250"/>
-      <c r="M3" s="250"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="249"/>
+      <c r="I3" s="249"/>
+      <c r="J3" s="249"/>
+      <c r="K3" s="249"/>
+      <c r="L3" s="249"/>
+      <c r="M3" s="249"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
-      <c r="U3" s="250" t="s">
+      <c r="U3" s="249" t="s">
         <v>142</v>
       </c>
-      <c r="V3" s="250"/>
-      <c r="W3" s="250"/>
-      <c r="X3" s="250"/>
-      <c r="Y3" s="250"/>
-      <c r="Z3" s="250"/>
-      <c r="AA3" s="250"/>
-      <c r="AB3" s="250"/>
+      <c r="V3" s="249"/>
+      <c r="W3" s="249"/>
+      <c r="X3" s="249"/>
+      <c r="Y3" s="249"/>
+      <c r="Z3" s="249"/>
+      <c r="AA3" s="249"/>
+      <c r="AB3" s="249"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="251" t="s">
+      <c r="A4" s="250" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="251"/>
-      <c r="C4" s="251"/>
-      <c r="D4" s="251"/>
+      <c r="B4" s="250"/>
+      <c r="C4" s="250"/>
+      <c r="D4" s="250"/>
       <c r="E4" s="168"/>
       <c r="F4" s="1" t="s">
         <v>131</v>
@@ -6467,12 +6476,12 @@
       <c r="M4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="251" t="s">
+      <c r="P4" s="250" t="s">
         <v>130</v>
       </c>
-      <c r="Q4" s="251"/>
-      <c r="R4" s="251"/>
-      <c r="S4" s="251"/>
+      <c r="Q4" s="250"/>
+      <c r="R4" s="250"/>
+      <c r="S4" s="250"/>
       <c r="T4" s="168"/>
       <c r="U4" s="1" t="s">
         <v>131</v>
@@ -13672,36 +13681,36 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="F3" s="250" t="s">
+      <c r="F3" s="249" t="s">
         <v>143</v>
       </c>
-      <c r="G3" s="250"/>
-      <c r="H3" s="250"/>
-      <c r="I3" s="250"/>
-      <c r="J3" s="250"/>
-      <c r="K3" s="250"/>
-      <c r="L3" s="250"/>
-      <c r="M3" s="250"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="249"/>
+      <c r="I3" s="249"/>
+      <c r="J3" s="249"/>
+      <c r="K3" s="249"/>
+      <c r="L3" s="249"/>
+      <c r="M3" s="249"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
-      <c r="U3" s="250" t="s">
+      <c r="U3" s="249" t="s">
         <v>142</v>
       </c>
-      <c r="V3" s="250"/>
-      <c r="W3" s="250"/>
-      <c r="X3" s="250"/>
-      <c r="Y3" s="250"/>
-      <c r="Z3" s="250"/>
-      <c r="AA3" s="250"/>
-      <c r="AB3" s="250"/>
+      <c r="V3" s="249"/>
+      <c r="W3" s="249"/>
+      <c r="X3" s="249"/>
+      <c r="Y3" s="249"/>
+      <c r="Z3" s="249"/>
+      <c r="AA3" s="249"/>
+      <c r="AB3" s="249"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="251" t="s">
+      <c r="A4" s="250" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="251"/>
-      <c r="C4" s="251"/>
-      <c r="D4" s="251"/>
+      <c r="B4" s="250"/>
+      <c r="C4" s="250"/>
+      <c r="D4" s="250"/>
       <c r="E4" s="168"/>
       <c r="F4" s="1" t="s">
         <v>131</v>
@@ -13727,12 +13736,12 @@
       <c r="M4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="251" t="s">
+      <c r="P4" s="250" t="s">
         <v>130</v>
       </c>
-      <c r="Q4" s="251"/>
-      <c r="R4" s="251"/>
-      <c r="S4" s="251"/>
+      <c r="Q4" s="250"/>
+      <c r="R4" s="250"/>
+      <c r="S4" s="250"/>
       <c r="T4" s="168"/>
       <c r="U4" s="1" t="s">
         <v>131</v>
@@ -20901,8 +20910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255CCD47-8ECF-49F3-970E-FBDD02F87F6C}">
   <dimension ref="A1:AZ151"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView topLeftCell="C19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20978,34 +20987,34 @@
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
-      <c r="AA2" s="250" t="s">
+      <c r="AA2" s="249" t="s">
         <v>85</v>
       </c>
-      <c r="AB2" s="250"/>
-      <c r="AC2" s="250"/>
-      <c r="AD2" s="250"/>
-      <c r="AE2" s="250"/>
-      <c r="AF2" s="250"/>
-      <c r="AH2" s="250" t="s">
+      <c r="AB2" s="249"/>
+      <c r="AC2" s="249"/>
+      <c r="AD2" s="249"/>
+      <c r="AE2" s="249"/>
+      <c r="AF2" s="249"/>
+      <c r="AH2" s="249" t="s">
         <v>123</v>
       </c>
-      <c r="AI2" s="250"/>
-      <c r="AJ2" s="250"/>
-      <c r="AK2" s="250"/>
-      <c r="AL2" s="250"/>
-      <c r="AM2" s="250"/>
-      <c r="AN2" s="250"/>
-      <c r="AO2" s="250"/>
-      <c r="AR2" s="250" t="s">
+      <c r="AI2" s="249"/>
+      <c r="AJ2" s="249"/>
+      <c r="AK2" s="249"/>
+      <c r="AL2" s="249"/>
+      <c r="AM2" s="249"/>
+      <c r="AN2" s="249"/>
+      <c r="AO2" s="249"/>
+      <c r="AR2" s="249" t="s">
         <v>124</v>
       </c>
-      <c r="AS2" s="250"/>
-      <c r="AT2" s="250"/>
-      <c r="AU2" s="250"/>
-      <c r="AV2" s="250"/>
-      <c r="AW2" s="250"/>
-      <c r="AX2" s="250"/>
-      <c r="AY2" s="250"/>
+      <c r="AS2" s="249"/>
+      <c r="AT2" s="249"/>
+      <c r="AU2" s="249"/>
+      <c r="AV2" s="249"/>
+      <c r="AW2" s="249"/>
+      <c r="AX2" s="249"/>
+      <c r="AY2" s="249"/>
     </row>
     <row r="3" spans="1:51" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="72">
@@ -21031,30 +21040,30 @@
         <v>15</v>
       </c>
       <c r="L3" s="23"/>
-      <c r="U3" s="251" t="s">
+      <c r="U3" s="250" t="s">
         <v>86</v>
       </c>
-      <c r="V3" s="251"/>
-      <c r="W3" s="251"/>
-      <c r="AB3" s="258" t="s">
+      <c r="V3" s="250"/>
+      <c r="W3" s="250"/>
+      <c r="AB3" s="257" t="s">
         <v>87</v>
       </c>
-      <c r="AC3" s="258"/>
-      <c r="AD3" s="258"/>
+      <c r="AC3" s="257"/>
+      <c r="AD3" s="257"/>
       <c r="AE3" s="108"/>
       <c r="AF3" s="108"/>
-      <c r="AI3" s="258" t="s">
+      <c r="AI3" s="257" t="s">
         <v>87</v>
       </c>
-      <c r="AJ3" s="258"/>
-      <c r="AK3" s="258"/>
+      <c r="AJ3" s="257"/>
+      <c r="AK3" s="257"/>
       <c r="AL3" s="108"/>
       <c r="AM3" s="108"/>
-      <c r="AS3" s="258" t="s">
+      <c r="AS3" s="257" t="s">
         <v>87</v>
       </c>
-      <c r="AT3" s="258"/>
-      <c r="AU3" s="258"/>
+      <c r="AT3" s="257"/>
+      <c r="AU3" s="257"/>
       <c r="AV3" s="108"/>
       <c r="AW3" s="108"/>
     </row>
@@ -21075,7 +21084,7 @@
         <v>8</v>
       </c>
       <c r="I4" s="22">
-        <v>8.19</v>
+        <v>9.69</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="8"/>
@@ -21087,24 +21096,24 @@
         <f>Kalk_Kredit2!D10</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="259" t="s">
+      <c r="AB4" s="258" t="s">
         <v>89</v>
       </c>
-      <c r="AC4" s="259"/>
+      <c r="AC4" s="258"/>
       <c r="AD4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AI4" s="259" t="s">
+      <c r="AI4" s="258" t="s">
         <v>91</v>
       </c>
-      <c r="AJ4" s="259"/>
+      <c r="AJ4" s="258"/>
       <c r="AK4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AS4" s="259" t="s">
+      <c r="AS4" s="258" t="s">
         <v>91</v>
       </c>
-      <c r="AT4" s="259"/>
+      <c r="AT4" s="258"/>
       <c r="AU4" s="1" t="s">
         <v>90</v>
       </c>
@@ -21119,7 +21128,7 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="252" t="s">
+      <c r="H5" s="251" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="124">
@@ -21179,7 +21188,7 @@
       <c r="B6" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="253"/>
+      <c r="H6" s="252"/>
       <c r="I6" s="124">
         <v>5.01</v>
       </c>
@@ -21259,7 +21268,7 @@
       <c r="B7" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="253"/>
+      <c r="H7" s="252"/>
       <c r="I7" s="124">
         <v>10.01</v>
       </c>
@@ -21344,7 +21353,7 @@
       <c r="D8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="253"/>
+      <c r="H8" s="252"/>
       <c r="I8" s="124">
         <v>15.01</v>
       </c>
@@ -21420,7 +21429,7 @@
       <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="H9" s="253"/>
+      <c r="H9" s="252"/>
       <c r="I9" s="124">
         <v>20.010000000000002</v>
       </c>
@@ -21496,7 +21505,7 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" s="253"/>
+      <c r="H10" s="252"/>
       <c r="I10" s="124">
         <v>30.01</v>
       </c>
@@ -21576,7 +21585,7 @@
       <c r="D11" s="1">
         <v>2</v>
       </c>
-      <c r="H11" s="253"/>
+      <c r="H11" s="252"/>
       <c r="I11" s="124">
         <v>40.01</v>
       </c>
@@ -21587,7 +21596,7 @@
       <c r="L11" s="120">
         <v>41</v>
       </c>
-      <c r="N11" s="262" t="s">
+      <c r="N11" s="261" t="s">
         <v>22</v>
       </c>
       <c r="O11" s="202" t="s">
@@ -21676,7 +21685,7 @@
       <c r="D12" s="1">
         <v>3</v>
       </c>
-      <c r="H12" s="253"/>
+      <c r="H12" s="252"/>
       <c r="I12" s="124">
         <v>50.01</v>
       </c>
@@ -21687,7 +21696,7 @@
       <c r="L12" s="120">
         <v>51</v>
       </c>
-      <c r="N12" s="263"/>
+      <c r="N12" s="262"/>
       <c r="O12" s="207" t="s">
         <v>175</v>
       </c>
@@ -21763,7 +21772,7 @@
       <c r="B13" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="253"/>
+      <c r="H13" s="252"/>
       <c r="I13" s="124">
         <v>60.01</v>
       </c>
@@ -21774,7 +21783,7 @@
       <c r="L13" s="120">
         <v>61</v>
       </c>
-      <c r="N13" s="263"/>
+      <c r="N13" s="262"/>
       <c r="O13" s="29" t="s">
         <v>176</v>
       </c>
@@ -21842,7 +21851,7 @@
       <c r="B14" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="253"/>
+      <c r="H14" s="252"/>
       <c r="I14" s="124">
         <v>70.010000000000005</v>
       </c>
@@ -21853,7 +21862,7 @@
       <c r="L14" s="120">
         <v>71</v>
       </c>
-      <c r="N14" s="264"/>
+      <c r="N14" s="263"/>
       <c r="O14" s="196" t="s">
         <v>177</v>
       </c>
@@ -21932,7 +21941,7 @@
         <v>44</v>
       </c>
       <c r="D15" s="99"/>
-      <c r="H15" s="253"/>
+      <c r="H15" s="252"/>
       <c r="I15" s="124">
         <v>80.010000000000005</v>
       </c>
@@ -22013,7 +22022,7 @@
       <c r="B16" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="253"/>
+      <c r="H16" s="252"/>
       <c r="I16" s="124">
         <v>90.01</v>
       </c>
@@ -22091,7 +22100,7 @@
       <c r="B17" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="253"/>
+      <c r="H17" s="252"/>
       <c r="I17" s="124">
         <v>100.01</v>
       </c>
@@ -22174,7 +22183,7 @@
       <c r="B18" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="253"/>
+      <c r="H18" s="252"/>
       <c r="I18" s="124">
         <v>125.01</v>
       </c>
@@ -22252,7 +22261,7 @@
       <c r="B19" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="253"/>
+      <c r="H19" s="252"/>
       <c r="I19" s="124">
         <v>150.01</v>
       </c>
@@ -22324,7 +22333,7 @@
       <c r="B20" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="253"/>
+      <c r="H20" s="252"/>
       <c r="I20" s="125">
         <v>175.01</v>
       </c>
@@ -22350,7 +22359,7 @@
       <c r="B21" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="253"/>
+      <c r="H21" s="252"/>
       <c r="I21" s="125">
         <v>200.01</v>
       </c>
@@ -22371,27 +22380,27 @@
         <f>W6+V16</f>
         <v>0</v>
       </c>
-      <c r="AA21" s="259" t="s">
+      <c r="AA21" s="258" t="s">
         <v>105</v>
       </c>
-      <c r="AB21" s="259"/>
+      <c r="AB21" s="258"/>
       <c r="AC21" s="1">
         <f>LOOKUP(V16,AA5:AA13,AD5:AD13)</f>
         <v>0</v>
       </c>
-      <c r="AH21" s="259" t="s">
+      <c r="AH21" s="258" t="s">
         <v>106</v>
       </c>
-      <c r="AI21" s="259"/>
+      <c r="AI21" s="258"/>
       <c r="AJ21" s="1">
         <f>IF(ISERROR(LOOKUP(V18,AH5:AH17,AK5:AK17)),0,LOOKUP(V18,AH5:AH17,AK5:AK17))</f>
         <v>0</v>
       </c>
       <c r="AO21" s="76"/>
-      <c r="AR21" s="259" t="s">
+      <c r="AR21" s="258" t="s">
         <v>106</v>
       </c>
-      <c r="AS21" s="259"/>
+      <c r="AS21" s="258"/>
       <c r="AT21" s="1">
         <f>IF(ISERROR(LOOKUP(V18,AR5:AR17,AU5:AU17)),0,LOOKUP(V18,AR5:AR17,AU5:AU17))</f>
         <v>0</v>
@@ -22405,7 +22414,7 @@
       <c r="B22" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="253"/>
+      <c r="H22" s="252"/>
       <c r="I22" s="125">
         <v>250.01</v>
       </c>
@@ -22448,7 +22457,7 @@
       <c r="A23" s="52">
         <v>999</v>
       </c>
-      <c r="H23" s="253"/>
+      <c r="H23" s="252"/>
       <c r="I23" s="125">
         <v>300.01</v>
       </c>
@@ -22476,7 +22485,7 @@
       </c>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H24" s="253"/>
+      <c r="H24" s="252"/>
       <c r="I24" s="126">
         <v>350.01</v>
       </c>
@@ -22495,7 +22504,7 @@
       </c>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H25" s="253"/>
+      <c r="H25" s="252"/>
       <c r="I25" s="126">
         <v>400.01</v>
       </c>
@@ -22512,37 +22521,37 @@
         <f>AZ29+AT22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA25" s="260" t="s">
+      <c r="AA25" s="259" t="s">
         <v>107</v>
       </c>
-      <c r="AB25" s="260"/>
-      <c r="AC25" s="260"/>
-      <c r="AD25" s="260"/>
-      <c r="AE25" s="260"/>
-      <c r="AF25" s="260"/>
-      <c r="AH25" s="261" t="s">
+      <c r="AB25" s="259"/>
+      <c r="AC25" s="259"/>
+      <c r="AD25" s="259"/>
+      <c r="AE25" s="259"/>
+      <c r="AF25" s="259"/>
+      <c r="AH25" s="260" t="s">
         <v>108</v>
       </c>
-      <c r="AI25" s="261"/>
-      <c r="AJ25" s="261"/>
-      <c r="AK25" s="261"/>
-      <c r="AL25" s="261"/>
-      <c r="AM25" s="261"/>
-      <c r="AN25" s="261"/>
-      <c r="AO25" s="261"/>
-      <c r="AR25" s="261" t="s">
+      <c r="AI25" s="260"/>
+      <c r="AJ25" s="260"/>
+      <c r="AK25" s="260"/>
+      <c r="AL25" s="260"/>
+      <c r="AM25" s="260"/>
+      <c r="AN25" s="260"/>
+      <c r="AO25" s="260"/>
+      <c r="AR25" s="260" t="s">
         <v>108</v>
       </c>
-      <c r="AS25" s="261"/>
-      <c r="AT25" s="261"/>
-      <c r="AU25" s="261"/>
-      <c r="AV25" s="261"/>
-      <c r="AW25" s="261"/>
-      <c r="AX25" s="261"/>
-      <c r="AY25" s="261"/>
+      <c r="AS25" s="260"/>
+      <c r="AT25" s="260"/>
+      <c r="AU25" s="260"/>
+      <c r="AV25" s="260"/>
+      <c r="AW25" s="260"/>
+      <c r="AX25" s="260"/>
+      <c r="AY25" s="260"/>
     </row>
     <row r="26" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H26" s="239"/>
+      <c r="H26" s="238"/>
       <c r="I26" s="126">
         <v>600.01</v>
       </c>
@@ -22557,41 +22566,41 @@
         <f>V25-W5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA26" s="240" t="s">
+      <c r="AA26" s="239" t="s">
         <v>131</v>
       </c>
-      <c r="AB26" s="240" t="s">
+      <c r="AB26" s="239" t="s">
         <v>132</v>
       </c>
-      <c r="AC26" s="240" t="s">
+      <c r="AC26" s="239" t="s">
         <v>134</v>
       </c>
-      <c r="AD26" s="240" t="s">
+      <c r="AD26" s="239" t="s">
         <v>133</v>
       </c>
-      <c r="AE26" s="240" t="s">
+      <c r="AE26" s="239" t="s">
         <v>23</v>
       </c>
-      <c r="AF26" s="240"/>
-      <c r="AH26" s="240"/>
-      <c r="AI26" s="240"/>
-      <c r="AJ26" s="240"/>
-      <c r="AK26" s="240"/>
-      <c r="AL26" s="240"/>
-      <c r="AM26" s="240"/>
-      <c r="AN26" s="240"/>
-      <c r="AO26" s="240"/>
-      <c r="AR26" s="240"/>
-      <c r="AS26" s="240"/>
-      <c r="AT26" s="240"/>
-      <c r="AU26" s="240"/>
-      <c r="AV26" s="240"/>
-      <c r="AW26" s="240"/>
-      <c r="AX26" s="240"/>
-      <c r="AY26" s="240"/>
+      <c r="AF26" s="239"/>
+      <c r="AH26" s="239"/>
+      <c r="AI26" s="239"/>
+      <c r="AJ26" s="239"/>
+      <c r="AK26" s="239"/>
+      <c r="AL26" s="239"/>
+      <c r="AM26" s="239"/>
+      <c r="AN26" s="239"/>
+      <c r="AO26" s="239"/>
+      <c r="AR26" s="239"/>
+      <c r="AS26" s="239"/>
+      <c r="AT26" s="239"/>
+      <c r="AU26" s="239"/>
+      <c r="AV26" s="239"/>
+      <c r="AW26" s="239"/>
+      <c r="AX26" s="239"/>
+      <c r="AY26" s="239"/>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H27" s="254" t="s">
+      <c r="H27" s="253" t="s">
         <v>9</v>
       </c>
       <c r="I27" s="101">
@@ -22618,7 +22627,7 @@
       </c>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H28" s="255"/>
+      <c r="H28" s="254"/>
       <c r="I28" s="102">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -22649,7 +22658,7 @@
       </c>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H29" s="255"/>
+      <c r="H29" s="254"/>
       <c r="I29" s="102">
         <v>0.20000100000000001</v>
       </c>
@@ -22679,7 +22688,7 @@
       </c>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H30" s="255"/>
+      <c r="H30" s="254"/>
       <c r="I30" s="102">
         <v>0.400001</v>
       </c>
@@ -22785,7 +22794,7 @@
       </c>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H31" s="255"/>
+      <c r="H31" s="254"/>
       <c r="I31" s="102">
         <v>0.60000100000000001</v>
       </c>
@@ -22891,7 +22900,7 @@
       </c>
     </row>
     <row r="32" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H32" s="256"/>
+      <c r="H32" s="255"/>
       <c r="I32" s="103">
         <v>0.80000099999999996</v>
       </c>
@@ -23000,7 +23009,7 @@
       </c>
     </row>
     <row r="33" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H33" s="253" t="s">
+      <c r="H33" s="252" t="s">
         <v>17</v>
       </c>
       <c r="I33" s="104">
@@ -23114,7 +23123,7 @@
       </c>
     </row>
     <row r="34" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H34" s="253"/>
+      <c r="H34" s="252"/>
       <c r="I34" s="104">
         <v>0.20000100000000001</v>
       </c>
@@ -23226,7 +23235,7 @@
       </c>
     </row>
     <row r="35" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H35" s="253"/>
+      <c r="H35" s="252"/>
       <c r="I35" s="104">
         <v>0.400001</v>
       </c>
@@ -23338,7 +23347,7 @@
       </c>
     </row>
     <row r="36" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H36" s="253"/>
+      <c r="H36" s="252"/>
       <c r="I36" s="104">
         <v>0.60000100000000001</v>
       </c>
@@ -23450,7 +23459,7 @@
       </c>
     </row>
     <row r="37" spans="8:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H37" s="257"/>
+      <c r="H37" s="256"/>
       <c r="I37" s="104">
         <v>0.80000099999999996</v>
       </c>
@@ -25914,7 +25923,7 @@
       </c>
       <c r="J60" s="18"/>
       <c r="K60" s="14">
-        <v>10.99</v>
+        <v>11.99</v>
       </c>
       <c r="AA60" s="1">
         <f t="shared" si="17"/>
@@ -26020,7 +26029,7 @@
       </c>
       <c r="J61" s="21"/>
       <c r="K61" s="16">
-        <v>2.99</v>
+        <v>3.99</v>
       </c>
       <c r="AA61" s="1">
         <f t="shared" si="17"/>
@@ -35093,8 +35102,8 @@
       <c r="E2" s="67"/>
       <c r="F2" s="67"/>
       <c r="G2" s="67"/>
-      <c r="Q2" s="242"/>
-      <c r="R2" s="243" t="s">
+      <c r="Q2" s="241"/>
+      <c r="R2" s="242" t="s">
         <v>221</v>
       </c>
     </row>
@@ -35384,7 +35393,7 @@
       <c r="C19" s="82"/>
       <c r="D19" s="122">
         <f ca="1">NOW()</f>
-        <v>44837.837062037041</v>
+        <v>44876.461728587965</v>
       </c>
       <c r="E19" s="82"/>
       <c r="F19" s="82" t="s">
@@ -35475,10 +35484,10 @@
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="82"/>
       <c r="C23" s="82"/>
-      <c r="D23" s="244" t="s">
+      <c r="D23" s="243" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="245"/>
+      <c r="E23" s="244"/>
       <c r="F23" s="82"/>
       <c r="G23" s="82"/>
       <c r="H23" s="180" t="s">
@@ -35498,10 +35507,10 @@
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="82"/>
       <c r="C24" s="82"/>
-      <c r="D24" s="246" t="s">
+      <c r="D24" s="245" t="s">
         <v>152</v>
       </c>
-      <c r="E24" s="247"/>
+      <c r="E24" s="246"/>
       <c r="F24" s="82"/>
       <c r="G24" s="82"/>
       <c r="H24" s="181" t="s">
@@ -35542,11 +35551,11 @@
         <v>66</v>
       </c>
       <c r="C26" s="82"/>
-      <c r="D26" s="248" t="str">
+      <c r="D26" s="247" t="str">
         <f>IF(ISNUMBER(D20),Background!P12,"")</f>
         <v/>
       </c>
-      <c r="E26" s="249"/>
+      <c r="E26" s="248"/>
       <c r="F26" s="82"/>
       <c r="G26" s="82"/>
       <c r="H26" s="186" t="str">
@@ -35568,7 +35577,7 @@
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="g1YVERw/nCWQ4A9vDxeYWNfffpDsNr5J3flryoe3yA0NYyXFcVoZ4WyVZlNS1lRkwJr1mXALVc1pzuIBIp4Hsg==" saltValue="M99QEi2Y6n5jx6bFJxcUug==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="d5UhUaY1x//uXnQatQtILx7cMunhgWxV1XBnnh91vu64eobVpyMqlZwG075hGIX2+ksAhiFO17xWdXVs9ViSug==" saltValue="Od5K9cc/ssFyUHIbFwpAPA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="D8" name="Range6"/>
     <protectedRange sqref="D19" name="Range5"/>
@@ -35895,7 +35904,7 @@
     </row>
     <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0W0POiPttEWjbG8Qncz0IRxRBbfzTbm35xJjwUh/CL2Bzqok/VnGsux3SmIBPdy9MgFIMFIc8QdXJF6vFTmoCA==" saltValue="GBA+xHPHjUupdJWTyPra8Q==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4rVsHqya4PGK18KB8+GkV4NXBGuS5ePlisNZIgMeTQ/r4+vbpmrzXGXP4hNwnOganMuSsYcEaKi6dw4Azr1q7g==" saltValue="KbNzCdhl36bAvBE7IBjmwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="C11" name="Range1"/>
   </protectedRanges>
@@ -35919,41 +35928,62 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="80" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="69"/>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="269"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="264"/>
+      <c r="F1" s="264"/>
+      <c r="G1" s="264"/>
+      <c r="H1" s="264"/>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="71" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="70"/>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="269"/>
+      <c r="C2" s="264"/>
+      <c r="D2" s="264"/>
+      <c r="E2" s="264"/>
+      <c r="F2" s="264"/>
+      <c r="G2" s="264"/>
+      <c r="H2" s="264"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
         <v>205</v>
       </c>
-      <c r="B3" s="70"/>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="269"/>
+      <c r="C3" s="264"/>
+      <c r="D3" s="264"/>
+      <c r="E3" s="264"/>
+      <c r="F3" s="264"/>
+      <c r="G3" s="264"/>
+      <c r="H3" s="264"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="81"/>
       <c r="B4" s="194" t="s">
         <v>52</v>
@@ -35965,8 +35995,9 @@
       <c r="E4" s="192"/>
       <c r="F4" s="97"/>
       <c r="G4" s="98"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="264"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="100" t="s">
         <v>192</v>
       </c>
@@ -35980,8 +36011,9 @@
       <c r="E5" s="228"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="264"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="100" t="s">
         <v>193</v>
       </c>
@@ -35995,8 +36027,9 @@
       <c r="E6" s="229"/>
       <c r="F6" s="92"/>
       <c r="G6" s="93"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="264"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="100" t="s">
         <v>194</v>
       </c>
@@ -36010,8 +36043,29 @@
       <c r="E7" s="230"/>
       <c r="F7" s="92"/>
       <c r="G7" s="93"/>
-    </row>
-    <row r="10" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="264"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="264"/>
+      <c r="B8" s="264"/>
+      <c r="C8" s="264"/>
+      <c r="D8" s="264"/>
+      <c r="E8" s="264"/>
+      <c r="F8" s="264"/>
+      <c r="G8" s="264"/>
+      <c r="H8" s="264"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="264"/>
+      <c r="B9" s="264"/>
+      <c r="C9" s="264"/>
+      <c r="D9" s="264"/>
+      <c r="E9" s="264"/>
+      <c r="F9" s="264"/>
+      <c r="G9" s="264"/>
+      <c r="H9" s="264"/>
+    </row>
+    <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="81"/>
       <c r="B10" s="237" t="s">
         <v>199</v>
@@ -36025,8 +36079,9 @@
         <v>213</v>
       </c>
       <c r="G10" s="81"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="268"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="155" t="s">
         <v>209</v>
       </c>
@@ -36045,8 +36100,9 @@
         <v/>
       </c>
       <c r="G11" s="82"/>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="264"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="155" t="s">
         <v>201</v>
       </c>
@@ -36067,8 +36123,9 @@
       <c r="G12" s="93" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="264"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="82"/>
       <c r="B13" s="82"/>
       <c r="C13" s="82"/>
@@ -36076,8 +36133,9 @@
       <c r="E13" s="82"/>
       <c r="F13" s="82"/>
       <c r="G13" s="82"/>
-    </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="264"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="155" t="s">
         <v>210</v>
       </c>
@@ -36098,23 +36156,47 @@
       <c r="G14" s="93" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="188" t="s">
+      <c r="H14" s="264"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="267" t="s">
         <v>212</v>
       </c>
       <c r="B15" s="236" t="str">
         <f>IFERROR(+B14-D14,"")</f>
         <v/>
       </c>
-      <c r="D15" s="236"/>
+      <c r="C15" s="264"/>
+      <c r="D15" s="266"/>
+      <c r="E15" s="264"/>
       <c r="F15" s="236" t="str">
         <f>IFERROR(+F14-D14,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="264"/>
+      <c r="H15" s="264"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="264"/>
+      <c r="B16" s="264"/>
+      <c r="C16" s="264"/>
+      <c r="D16" s="264"/>
+      <c r="E16" s="264"/>
+      <c r="F16" s="264"/>
+      <c r="G16" s="264"/>
+      <c r="H16" s="264"/>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="264"/>
+      <c r="B17" s="264"/>
+      <c r="C17" s="264"/>
+      <c r="D17" s="264"/>
+      <c r="E17" s="264"/>
+      <c r="F17" s="264"/>
+      <c r="G17" s="264"/>
+      <c r="H17" s="264"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="81"/>
       <c r="B18" s="237" t="s">
         <v>199</v>
@@ -36128,8 +36210,9 @@
         <v>213</v>
       </c>
       <c r="G18" s="81"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="264"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="155" t="s">
         <v>208</v>
       </c>
@@ -36148,8 +36231,9 @@
         <v/>
       </c>
       <c r="G19" s="82"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="264"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="155" t="s">
         <v>201</v>
       </c>
@@ -36170,8 +36254,9 @@
       <c r="G20" s="93" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="264"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="82"/>
       <c r="B21" s="82"/>
       <c r="C21" s="82"/>
@@ -36179,8 +36264,9 @@
       <c r="E21" s="82"/>
       <c r="F21" s="82"/>
       <c r="G21" s="82"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="264"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="155" t="s">
         <v>211</v>
       </c>
@@ -36201,84 +36287,124 @@
       <c r="G22" s="93" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="188" t="s">
+      <c r="H22" s="264"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="267" t="s">
         <v>212</v>
       </c>
       <c r="B23" s="236" t="str">
         <f>IFERROR(+B22-D22,"")</f>
         <v/>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="236"/>
+      <c r="C23" s="264"/>
+      <c r="D23" s="266"/>
+      <c r="E23" s="264"/>
       <c r="F23" s="236" t="str">
         <f>IFERROR(+F22-D22,"")</f>
         <v/>
       </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="238" t="s">
+      <c r="G23" s="264"/>
+      <c r="H23" s="264"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="264"/>
+      <c r="B24" s="264"/>
+      <c r="C24" s="264"/>
+      <c r="D24" s="264"/>
+      <c r="E24" s="264"/>
+      <c r="F24" s="264"/>
+      <c r="G24" s="264"/>
+      <c r="H24" s="264"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="264"/>
+      <c r="B25" s="264"/>
+      <c r="C25" s="264"/>
+      <c r="D25" s="264"/>
+      <c r="E25" s="264"/>
+      <c r="F25" s="264"/>
+      <c r="G25" s="264"/>
+      <c r="H25" s="264"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="265" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="264"/>
+      <c r="C26" s="264"/>
+      <c r="D26" s="264"/>
+      <c r="E26" s="264"/>
+      <c r="F26" s="264"/>
+      <c r="G26" s="264"/>
+      <c r="H26" s="264"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="264"/>
+      <c r="B27" s="264"/>
+      <c r="C27" s="264"/>
+      <c r="D27" s="264"/>
+      <c r="E27" s="264"/>
+      <c r="F27" s="264"/>
+      <c r="G27" s="264"/>
+      <c r="H27" s="264"/>
+    </row>
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DR7EA78gPvBFaxNvcrJI3R2fxkWV9cpu9p4pzXPtTec5yZNNHpqSHekTzCTJQTH5PUUMUiPxQyD+REBIr1+mQQ==" saltValue="BKNRi6Bfv6zjU+SmshKsUA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TJf8OeHjKrkZOaBiyOOq7SZan46bZ3PTRGu4TnQTkwFCO9S8NFfyhNMp8FuYeQABR1sZmw90SF3A+OU/nkOszg==" saltValue="ClfIne0O4oOIzJ6w6C88Mg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="B5:B7" name="Bereich1"/>
   </protectedRanges>
@@ -36315,7 +36441,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="54" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;10&amp;K000000</oddFooter>
   </headerFooter>
@@ -36362,40 +36488,40 @@
       <c r="AB2" s="1"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="F3" s="250" t="s">
+      <c r="F3" s="249" t="s">
         <v>143</v>
       </c>
-      <c r="G3" s="250"/>
-      <c r="H3" s="250"/>
-      <c r="I3" s="250"/>
-      <c r="J3" s="250"/>
-      <c r="K3" s="250"/>
-      <c r="L3" s="250"/>
-      <c r="M3" s="250"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="249"/>
+      <c r="I3" s="249"/>
+      <c r="J3" s="249"/>
+      <c r="K3" s="249"/>
+      <c r="L3" s="249"/>
+      <c r="M3" s="249"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="U3" s="250" t="s">
+      <c r="U3" s="249" t="s">
         <v>142</v>
       </c>
-      <c r="V3" s="250"/>
-      <c r="W3" s="250"/>
-      <c r="X3" s="250"/>
-      <c r="Y3" s="250"/>
-      <c r="Z3" s="250"/>
-      <c r="AA3" s="250"/>
-      <c r="AB3" s="250"/>
+      <c r="V3" s="249"/>
+      <c r="W3" s="249"/>
+      <c r="X3" s="249"/>
+      <c r="Y3" s="249"/>
+      <c r="Z3" s="249"/>
+      <c r="AA3" s="249"/>
+      <c r="AB3" s="249"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="251" t="s">
+      <c r="A4" s="250" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="251"/>
-      <c r="C4" s="251"/>
-      <c r="D4" s="251"/>
+      <c r="B4" s="250"/>
+      <c r="C4" s="250"/>
+      <c r="D4" s="250"/>
       <c r="E4" s="168"/>
       <c r="F4" s="1" t="s">
         <v>131</v>
@@ -36421,12 +36547,12 @@
       <c r="M4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="251" t="s">
+      <c r="P4" s="250" t="s">
         <v>130</v>
       </c>
-      <c r="Q4" s="251"/>
-      <c r="R4" s="251"/>
-      <c r="S4" s="251"/>
+      <c r="Q4" s="250"/>
+      <c r="R4" s="250"/>
+      <c r="S4" s="250"/>
       <c r="T4" s="168"/>
       <c r="U4" s="1" t="s">
         <v>131</v>
@@ -43709,36 +43835,36 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="F3" s="250" t="s">
+      <c r="F3" s="249" t="s">
         <v>143</v>
       </c>
-      <c r="G3" s="250"/>
-      <c r="H3" s="250"/>
-      <c r="I3" s="250"/>
-      <c r="J3" s="250"/>
-      <c r="K3" s="250"/>
-      <c r="L3" s="250"/>
-      <c r="M3" s="250"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="249"/>
+      <c r="I3" s="249"/>
+      <c r="J3" s="249"/>
+      <c r="K3" s="249"/>
+      <c r="L3" s="249"/>
+      <c r="M3" s="249"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
-      <c r="U3" s="250" t="s">
+      <c r="U3" s="249" t="s">
         <v>142</v>
       </c>
-      <c r="V3" s="250"/>
-      <c r="W3" s="250"/>
-      <c r="X3" s="250"/>
-      <c r="Y3" s="250"/>
-      <c r="Z3" s="250"/>
-      <c r="AA3" s="250"/>
-      <c r="AB3" s="250"/>
+      <c r="V3" s="249"/>
+      <c r="W3" s="249"/>
+      <c r="X3" s="249"/>
+      <c r="Y3" s="249"/>
+      <c r="Z3" s="249"/>
+      <c r="AA3" s="249"/>
+      <c r="AB3" s="249"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="251" t="s">
+      <c r="A4" s="250" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="251"/>
-      <c r="C4" s="251"/>
-      <c r="D4" s="251"/>
+      <c r="B4" s="250"/>
+      <c r="C4" s="250"/>
+      <c r="D4" s="250"/>
       <c r="E4" s="168"/>
       <c r="F4" s="1" t="s">
         <v>131</v>
@@ -43764,12 +43890,12 @@
       <c r="M4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="251" t="s">
+      <c r="P4" s="250" t="s">
         <v>130</v>
       </c>
-      <c r="Q4" s="251"/>
-      <c r="R4" s="251"/>
-      <c r="S4" s="251"/>
+      <c r="Q4" s="250"/>
+      <c r="R4" s="250"/>
+      <c r="S4" s="250"/>
       <c r="T4" s="168"/>
       <c r="U4" s="1" t="s">
         <v>131</v>
@@ -50940,8 +51066,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:AZ151"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="C19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51013,36 +51139,36 @@
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
       <c r="L2" s="1"/>
-      <c r="AA2" s="250" t="s">
+      <c r="AA2" s="249" t="s">
         <v>85</v>
       </c>
-      <c r="AB2" s="250"/>
-      <c r="AC2" s="250"/>
-      <c r="AD2" s="250"/>
-      <c r="AE2" s="250"/>
-      <c r="AF2" s="250"/>
-      <c r="AH2" s="250" t="s">
+      <c r="AB2" s="249"/>
+      <c r="AC2" s="249"/>
+      <c r="AD2" s="249"/>
+      <c r="AE2" s="249"/>
+      <c r="AF2" s="249"/>
+      <c r="AH2" s="249" t="s">
         <v>123</v>
       </c>
-      <c r="AI2" s="250"/>
-      <c r="AJ2" s="250"/>
-      <c r="AK2" s="250"/>
-      <c r="AL2" s="250"/>
-      <c r="AM2" s="250"/>
-      <c r="AN2" s="250"/>
-      <c r="AO2" s="250"/>
+      <c r="AI2" s="249"/>
+      <c r="AJ2" s="249"/>
+      <c r="AK2" s="249"/>
+      <c r="AL2" s="249"/>
+      <c r="AM2" s="249"/>
+      <c r="AN2" s="249"/>
+      <c r="AO2" s="249"/>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
-      <c r="AR2" s="250" t="s">
+      <c r="AR2" s="249" t="s">
         <v>124</v>
       </c>
-      <c r="AS2" s="250"/>
-      <c r="AT2" s="250"/>
-      <c r="AU2" s="250"/>
-      <c r="AV2" s="250"/>
-      <c r="AW2" s="250"/>
-      <c r="AX2" s="250"/>
-      <c r="AY2" s="250"/>
+      <c r="AS2" s="249"/>
+      <c r="AT2" s="249"/>
+      <c r="AU2" s="249"/>
+      <c r="AV2" s="249"/>
+      <c r="AW2" s="249"/>
+      <c r="AX2" s="249"/>
+      <c r="AY2" s="249"/>
       <c r="AZ2" s="1"/>
     </row>
     <row r="3" spans="1:52" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51069,33 +51195,33 @@
         <v>15</v>
       </c>
       <c r="L3" s="23"/>
-      <c r="U3" s="251" t="s">
+      <c r="U3" s="250" t="s">
         <v>86</v>
       </c>
-      <c r="V3" s="251"/>
-      <c r="W3" s="251"/>
-      <c r="AB3" s="258" t="s">
+      <c r="V3" s="250"/>
+      <c r="W3" s="250"/>
+      <c r="AB3" s="257" t="s">
         <v>87</v>
       </c>
-      <c r="AC3" s="258"/>
-      <c r="AD3" s="258"/>
+      <c r="AC3" s="257"/>
+      <c r="AD3" s="257"/>
       <c r="AE3" s="108"/>
       <c r="AF3" s="108"/>
-      <c r="AI3" s="258" t="s">
+      <c r="AI3" s="257" t="s">
         <v>87</v>
       </c>
-      <c r="AJ3" s="258"/>
-      <c r="AK3" s="258"/>
+      <c r="AJ3" s="257"/>
+      <c r="AK3" s="257"/>
       <c r="AL3" s="108"/>
       <c r="AM3" s="108"/>
       <c r="AP3" s="1"/>
       <c r="AQ3" s="1"/>
       <c r="AR3" s="1"/>
-      <c r="AS3" s="258" t="s">
+      <c r="AS3" s="257" t="s">
         <v>87</v>
       </c>
-      <c r="AT3" s="258"/>
-      <c r="AU3" s="258"/>
+      <c r="AT3" s="257"/>
+      <c r="AU3" s="257"/>
       <c r="AV3" s="108"/>
       <c r="AW3" s="108"/>
       <c r="AX3" s="1"/>
@@ -51119,7 +51245,7 @@
         <v>8</v>
       </c>
       <c r="I4" s="22">
-        <v>8.69</v>
+        <v>9.69</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="8"/>
@@ -51132,27 +51258,27 @@
         <f>Kalkulationstool!D10</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="259" t="s">
+      <c r="AB4" s="258" t="s">
         <v>89</v>
       </c>
-      <c r="AC4" s="259"/>
+      <c r="AC4" s="258"/>
       <c r="AD4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AI4" s="259" t="s">
+      <c r="AI4" s="258" t="s">
         <v>91</v>
       </c>
-      <c r="AJ4" s="259"/>
+      <c r="AJ4" s="258"/>
       <c r="AK4" s="1" t="s">
         <v>90</v>
       </c>
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
-      <c r="AS4" s="259" t="s">
+      <c r="AS4" s="258" t="s">
         <v>91</v>
       </c>
-      <c r="AT4" s="259"/>
+      <c r="AT4" s="258"/>
       <c r="AU4" s="1" t="s">
         <v>90</v>
       </c>
@@ -51172,7 +51298,7 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="252" t="s">
+      <c r="H5" s="251" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="124">
@@ -51246,7 +51372,7 @@
       <c r="B6" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="253"/>
+      <c r="H6" s="252"/>
       <c r="I6" s="124">
         <v>5.01</v>
       </c>
@@ -51337,7 +51463,7 @@
       <c r="B7" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="253"/>
+      <c r="H7" s="252"/>
       <c r="I7" s="124">
         <v>10.01</v>
       </c>
@@ -51433,7 +51559,7 @@
       <c r="D8" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="253"/>
+      <c r="H8" s="252"/>
       <c r="I8" s="124">
         <v>15.01</v>
       </c>
@@ -51522,7 +51648,7 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="H9" s="253"/>
+      <c r="H9" s="252"/>
       <c r="I9" s="124">
         <v>20.010000000000002</v>
       </c>
@@ -51611,7 +51737,7 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="H10" s="253"/>
+      <c r="H10" s="252"/>
       <c r="I10" s="124">
         <v>30.01</v>
       </c>
@@ -51704,7 +51830,7 @@
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="H11" s="253"/>
+      <c r="H11" s="252"/>
       <c r="I11" s="124">
         <v>40.01</v>
       </c>
@@ -51715,7 +51841,7 @@
       <c r="L11" s="120">
         <v>41</v>
       </c>
-      <c r="N11" s="262" t="s">
+      <c r="N11" s="261" t="s">
         <v>22</v>
       </c>
       <c r="O11" s="202" t="s">
@@ -51811,7 +51937,7 @@
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="H12" s="253"/>
+      <c r="H12" s="252"/>
       <c r="I12" s="124">
         <v>50.01</v>
       </c>
@@ -51822,7 +51948,7 @@
       <c r="L12" s="120">
         <v>51</v>
       </c>
-      <c r="N12" s="263"/>
+      <c r="N12" s="262"/>
       <c r="O12" s="207" t="s">
         <v>175</v>
       </c>
@@ -51905,7 +52031,7 @@
       <c r="B13" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="253"/>
+      <c r="H13" s="252"/>
       <c r="I13" s="124">
         <v>60.01</v>
       </c>
@@ -51916,7 +52042,7 @@
       <c r="L13" s="120">
         <v>61</v>
       </c>
-      <c r="N13" s="263"/>
+      <c r="N13" s="262"/>
       <c r="O13" s="29" t="s">
         <v>176</v>
       </c>
@@ -51991,7 +52117,7 @@
       <c r="B14" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="253"/>
+      <c r="H14" s="252"/>
       <c r="I14" s="124">
         <v>70.010000000000005</v>
       </c>
@@ -52002,7 +52128,7 @@
       <c r="L14" s="120">
         <v>71</v>
       </c>
-      <c r="N14" s="264"/>
+      <c r="N14" s="263"/>
       <c r="O14" s="196" t="s">
         <v>177</v>
       </c>
@@ -52088,7 +52214,7 @@
         <v>44</v>
       </c>
       <c r="D15" s="99"/>
-      <c r="H15" s="253"/>
+      <c r="H15" s="252"/>
       <c r="I15" s="124">
         <v>80.010000000000005</v>
       </c>
@@ -52176,7 +52302,7 @@
       <c r="B16" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="253"/>
+      <c r="H16" s="252"/>
       <c r="I16" s="124">
         <v>90.01</v>
       </c>
@@ -52261,7 +52387,7 @@
       <c r="B17" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="253"/>
+      <c r="H17" s="252"/>
       <c r="I17" s="124">
         <v>100.01</v>
       </c>
@@ -52351,7 +52477,7 @@
       <c r="B18" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="253"/>
+      <c r="H18" s="252"/>
       <c r="I18" s="124">
         <v>125.01</v>
       </c>
@@ -52437,7 +52563,7 @@
       <c r="B19" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="253"/>
+      <c r="H19" s="252"/>
       <c r="I19" s="124">
         <v>150.01</v>
       </c>
@@ -52517,7 +52643,7 @@
       <c r="B20" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="253"/>
+      <c r="H20" s="252"/>
       <c r="I20" s="125">
         <v>175.01</v>
       </c>
@@ -52554,7 +52680,7 @@
       <c r="B21" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="253"/>
+      <c r="H21" s="252"/>
       <c r="I21" s="125">
         <v>200.01</v>
       </c>
@@ -52575,18 +52701,18 @@
         <f>W6+V16</f>
         <v>0</v>
       </c>
-      <c r="AA21" s="259" t="s">
+      <c r="AA21" s="258" t="s">
         <v>105</v>
       </c>
-      <c r="AB21" s="259"/>
+      <c r="AB21" s="258"/>
       <c r="AC21" s="1">
         <f>LOOKUP(V16,AA5:AA13,AD5:AD13)</f>
         <v>0</v>
       </c>
-      <c r="AH21" s="259" t="s">
+      <c r="AH21" s="258" t="s">
         <v>106</v>
       </c>
-      <c r="AI21" s="259"/>
+      <c r="AI21" s="258"/>
       <c r="AJ21" s="1">
         <f>IF(ISERROR(LOOKUP(V18,AH5:AH17,AK5:AK17)),0,LOOKUP(V18,AH5:AH17,AK5:AK17))</f>
         <v>0</v>
@@ -52594,10 +52720,10 @@
       <c r="AO21" s="76"/>
       <c r="AP21" s="1"/>
       <c r="AQ21" s="1"/>
-      <c r="AR21" s="259" t="s">
+      <c r="AR21" s="258" t="s">
         <v>106</v>
       </c>
-      <c r="AS21" s="259"/>
+      <c r="AS21" s="258"/>
       <c r="AT21" s="1">
         <f>IF(ISERROR(LOOKUP(V18,AR5:AR17,AU5:AU17)),0,LOOKUP(V18,AR5:AR17,AU5:AU17))</f>
         <v>0</v>
@@ -52616,7 +52742,7 @@
       <c r="B22" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="253"/>
+      <c r="H22" s="252"/>
       <c r="I22" s="125">
         <v>250.01</v>
       </c>
@@ -52668,7 +52794,7 @@
       <c r="A23" s="52">
         <v>999</v>
       </c>
-      <c r="H23" s="253"/>
+      <c r="H23" s="252"/>
       <c r="I23" s="125">
         <v>300.01</v>
       </c>
@@ -52706,7 +52832,7 @@
       <c r="AZ23" s="1"/>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H24" s="253"/>
+      <c r="H24" s="252"/>
       <c r="I24" s="126">
         <v>350.01</v>
       </c>
@@ -52737,7 +52863,7 @@
       <c r="AZ24" s="1"/>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H25" s="253"/>
+      <c r="H25" s="252"/>
       <c r="I25" s="126">
         <v>400.01</v>
       </c>
@@ -52755,36 +52881,36 @@
         <f>AZ29+AT22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA25" s="260" t="s">
+      <c r="AA25" s="259" t="s">
         <v>107</v>
       </c>
-      <c r="AB25" s="260"/>
-      <c r="AC25" s="260"/>
-      <c r="AD25" s="260"/>
-      <c r="AE25" s="260"/>
-      <c r="AF25" s="260"/>
-      <c r="AH25" s="261" t="s">
+      <c r="AB25" s="259"/>
+      <c r="AC25" s="259"/>
+      <c r="AD25" s="259"/>
+      <c r="AE25" s="259"/>
+      <c r="AF25" s="259"/>
+      <c r="AH25" s="260" t="s">
         <v>108</v>
       </c>
-      <c r="AI25" s="261"/>
-      <c r="AJ25" s="261"/>
-      <c r="AK25" s="261"/>
-      <c r="AL25" s="261"/>
-      <c r="AM25" s="261"/>
-      <c r="AN25" s="261"/>
-      <c r="AO25" s="261"/>
+      <c r="AI25" s="260"/>
+      <c r="AJ25" s="260"/>
+      <c r="AK25" s="260"/>
+      <c r="AL25" s="260"/>
+      <c r="AM25" s="260"/>
+      <c r="AN25" s="260"/>
+      <c r="AO25" s="260"/>
       <c r="AP25" s="1"/>
       <c r="AQ25" s="1"/>
-      <c r="AR25" s="261" t="s">
+      <c r="AR25" s="260" t="s">
         <v>108</v>
       </c>
-      <c r="AS25" s="261"/>
-      <c r="AT25" s="261"/>
-      <c r="AU25" s="261"/>
-      <c r="AV25" s="261"/>
-      <c r="AW25" s="261"/>
-      <c r="AX25" s="261"/>
-      <c r="AY25" s="261"/>
+      <c r="AS25" s="260"/>
+      <c r="AT25" s="260"/>
+      <c r="AU25" s="260"/>
+      <c r="AV25" s="260"/>
+      <c r="AW25" s="260"/>
+      <c r="AX25" s="260"/>
+      <c r="AY25" s="260"/>
       <c r="AZ25" s="1"/>
     </row>
     <row r="26" spans="1:52" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -52837,7 +52963,7 @@
       <c r="AY26" s="129"/>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H27" s="254" t="s">
+      <c r="H27" s="253" t="s">
         <v>9</v>
       </c>
       <c r="I27" s="101">
@@ -52874,7 +53000,7 @@
       <c r="AZ27" s="1"/>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H28" s="255"/>
+      <c r="H28" s="254"/>
       <c r="I28" s="102">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -52915,7 +53041,7 @@
       <c r="AZ28" s="1"/>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H29" s="255"/>
+      <c r="H29" s="254"/>
       <c r="I29" s="102">
         <v>0.20000100000000001</v>
       </c>
@@ -52954,7 +53080,7 @@
       </c>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H30" s="255"/>
+      <c r="H30" s="254"/>
       <c r="I30" s="102">
         <v>0.400001</v>
       </c>
@@ -53062,7 +53188,7 @@
       </c>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H31" s="255"/>
+      <c r="H31" s="254"/>
       <c r="I31" s="102">
         <v>0.60000100000000001</v>
       </c>
@@ -53170,7 +53296,7 @@
       </c>
     </row>
     <row r="32" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H32" s="256"/>
+      <c r="H32" s="255"/>
       <c r="I32" s="103">
         <v>0.80000099999999996</v>
       </c>
@@ -53281,7 +53407,7 @@
       </c>
     </row>
     <row r="33" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H33" s="253" t="s">
+      <c r="H33" s="252" t="s">
         <v>17</v>
       </c>
       <c r="I33" s="104">
@@ -53396,7 +53522,7 @@
       </c>
     </row>
     <row r="34" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H34" s="253"/>
+      <c r="H34" s="252"/>
       <c r="I34" s="104">
         <v>0.20000100000000001</v>
       </c>
@@ -53509,7 +53635,7 @@
       </c>
     </row>
     <row r="35" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H35" s="253"/>
+      <c r="H35" s="252"/>
       <c r="I35" s="104">
         <v>0.400001</v>
       </c>
@@ -53622,7 +53748,7 @@
       </c>
     </row>
     <row r="36" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H36" s="253"/>
+      <c r="H36" s="252"/>
       <c r="I36" s="104">
         <v>0.60000100000000001</v>
       </c>
@@ -53735,7 +53861,7 @@
       </c>
     </row>
     <row r="37" spans="8:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H37" s="257"/>
+      <c r="H37" s="256"/>
       <c r="I37" s="104">
         <v>0.80000099999999996</v>
       </c>
@@ -56246,7 +56372,7 @@
       </c>
       <c r="J60" s="18"/>
       <c r="K60" s="14">
-        <v>10.99</v>
+        <v>11.99</v>
       </c>
       <c r="L60" s="1"/>
       <c r="AA60" s="1">
@@ -56354,7 +56480,7 @@
       </c>
       <c r="J61" s="21"/>
       <c r="K61" s="16">
-        <v>2.99</v>
+        <v>3.99</v>
       </c>
       <c r="L61" s="1"/>
       <c r="AA61" s="1">
@@ -65815,7 +65941,7 @@
       <c r="C19" s="82"/>
       <c r="D19" s="122">
         <f ca="1">NOW()</f>
-        <v>44837.837062037041</v>
+        <v>44876.461728587965</v>
       </c>
       <c r="E19" s="82"/>
       <c r="F19" s="82" t="s">
@@ -65906,10 +66032,10 @@
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="82"/>
       <c r="C23" s="82"/>
-      <c r="D23" s="244" t="s">
+      <c r="D23" s="243" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="245"/>
+      <c r="E23" s="244"/>
       <c r="F23" s="82"/>
       <c r="G23" s="82"/>
       <c r="H23" s="180" t="s">
@@ -65929,10 +66055,10 @@
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="82"/>
       <c r="C24" s="82"/>
-      <c r="D24" s="246" t="s">
+      <c r="D24" s="245" t="s">
         <v>152</v>
       </c>
-      <c r="E24" s="247"/>
+      <c r="E24" s="246"/>
       <c r="F24" s="82"/>
       <c r="G24" s="82"/>
       <c r="H24" s="181" t="s">
@@ -65973,11 +66099,11 @@
         <v>66</v>
       </c>
       <c r="C26" s="82"/>
-      <c r="D26" s="248" t="str">
+      <c r="D26" s="247" t="str">
         <f>IF(ISNUMBER(D20),Background2!P12,"")</f>
         <v/>
       </c>
-      <c r="E26" s="249"/>
+      <c r="E26" s="248"/>
       <c r="F26" s="82"/>
       <c r="G26" s="82"/>
       <c r="H26" s="186" t="str">

--- a/ExcelBlanko.xlsx
+++ b/ExcelBlanko.xlsx
@@ -8,8 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\V\DATEN\BN_BSS11\T_PRO_PKG\Performance\DB Verprobung\Vertriebstool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA508FB1-1B9D-40AB-A4D9-199378A17BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="xdJkETQN7/x34+IWtyydQzHYrG64UB8R5eS5n5AOEb5dHfXCUS7kHRWj66g2tKfDZAlVaKN8jYvHGHnRd4FPLg==" workbookSaltValue="P2SNEYkb8cGwizgLHlbP3g==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E836CB9D-EADF-4C19-88D8-7D87608507AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="wEJNkYnY8gVcLKVJuX5xYI01v+xT7mMbPUW9YMbfyQqFAdvz/vLcRbAW7UntaSWe7/ak+hm2Lv3UEJf1fGqoRw==" workbookSaltValue="3xh6rzkNeT3MNYZgrUASLg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="223">
   <si>
     <t>MOVE</t>
   </si>
@@ -808,13 +808,16 @@
     <t>DB Move</t>
   </si>
   <si>
-    <t>Bezogen auf das neue (=aufgestockte) Kreditvolumen; bei mehreren Bausteinen gilt die höchste Absicherungsquote; Achtung: Eingabe in KFPK bei Delta-Variante abweichend (da bezogen auf den Gesamtkredit)“</t>
-  </si>
-  <si>
     <t>Auf die Zielkondition dürfen bis zu 150 Basispunkte aufgeschlagen werden. Bei Aufstockergeschäften ist ein Aufschlag bis zu 300 Basispunkte erlaubt.</t>
   </si>
   <si>
-    <t>Gültig ab 15.11.2022</t>
+    <t>Die neue absolute Preisuntergrenze liegt bei 3,99% eff. nach Konditionskompetenzen, bei DVAG-Geschäften bei 4,49% eff. (Ausnahme: RL-Sonderkondition)</t>
+  </si>
+  <si>
+    <t>Gültig ab 29.11.2022</t>
+  </si>
+  <si>
+    <t>Bezogen auf das neue (=aufgestockte) Kreditvolumen; bei mehreren Bausteinen gilt die höchste Absicherungsquote; Achtung: Eingabe in KFPK bei Delta-Variante abweichend (da bezogen auf den Gesamtkredit)</t>
   </si>
 </sst>
 </file>
@@ -2010,7 +2013,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="270">
+  <cellXfs count="269">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2601,15 +2604,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="173" fontId="32" fillId="39" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" xfId="43" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6267,7 +6267,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HhtikggtILjKTzjzEr03sGYXwGWWek2My/VFeg1AmvkrOVv8BklxrxJ24BBHHqIeNK0/+F7W3/G3y/ndnmCCSQ==" saltValue="WPtoIRcs+7R2+6xuktOg+w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JYwy7kboPgge/TksOyx4WlXe3Y2w8CHdjGH4vOHo062i4FsbFVanknLhXtIIR8S/xY2MHHIifjIV9ySXCfb9pg==" saltValue="lcLOGyCGVRSX90khvPa8AA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -6394,10 +6394,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFCCDDA-F3D1-4B02-B3E3-9BE2BD016200}">
-  <dimension ref="A3:AB128"/>
+  <dimension ref="A3:AB139"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6537,7 +6537,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M5" s="161" t="e">
-        <f>SUM(L5:L128)</f>
+        <f>SUM(L5:L139)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O5" s="171"/>
@@ -6568,7 +6568,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="161" t="e">
-        <f>SUM(AA5:AA128)</f>
+        <f>SUM(AA5:AA139)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -13633,6 +13633,622 @@
       </c>
       <c r="AA128" s="161" t="e">
         <f t="shared" si="22"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="129" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F129" s="1">
+        <v>125</v>
+      </c>
+      <c r="G129" s="161" t="e">
+        <f t="shared" ref="G129:G139" si="24">G128-H129</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H129" s="166" t="e">
+        <f t="shared" ref="H129:H139" si="25">$D$10-I129</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I129" s="162" t="e">
+        <f t="shared" ref="I129:I139" si="26">G128*$D$7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J129" s="162" t="e">
+        <f t="shared" ref="J129:J139" si="27">((G129*((((1+$C$12)^(1/12))-1)-(($C$9/10000)/12))/(1.02)^((F129)/12)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K129" s="1" t="e">
+        <f t="shared" ref="K129:K139" si="28">IF(G129&gt;=0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L129" s="161" t="e">
+        <f t="shared" ref="L129:L139" si="29">J129*K129</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U129" s="1">
+        <v>125</v>
+      </c>
+      <c r="V129" s="161" t="e">
+        <f t="shared" ref="V129:V139" si="30">V128-W129</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="W129" s="166" t="e">
+        <f t="shared" ref="W129:W139" si="31">$R$9-X129</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="X129" s="162" t="e">
+        <f t="shared" ref="X129:X139" si="32">V128*$R$7/12</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y129" s="162" t="e">
+        <f t="shared" ref="Y129:Y139" si="33">((V129*((((1+$R$7)^(1/12))-1)-(($R$8/10000)/12))/(1.02)^((U129)/12)))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z129" s="1" t="e">
+        <f t="shared" ref="Z129:Z139" si="34">IF(V129&gt;=0,1,0)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA129" s="161" t="e">
+        <f t="shared" ref="AA129:AA139" si="35">Y129*Z129</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="130" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F130" s="1">
+        <v>126</v>
+      </c>
+      <c r="G130" s="161" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H130" s="166" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I130" s="162" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J130" s="162" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K130" s="1" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L130" s="161" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U130" s="1">
+        <v>126</v>
+      </c>
+      <c r="V130" s="161" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W130" s="166" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X130" s="162" t="e">
+        <f t="shared" si="32"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y130" s="162" t="e">
+        <f t="shared" si="33"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z130" s="1" t="e">
+        <f t="shared" si="34"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA130" s="161" t="e">
+        <f t="shared" si="35"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="131" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F131" s="1">
+        <v>127</v>
+      </c>
+      <c r="G131" s="161" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H131" s="166" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I131" s="162" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J131" s="162" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K131" s="1" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L131" s="161" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U131" s="1">
+        <v>127</v>
+      </c>
+      <c r="V131" s="161" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W131" s="166" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X131" s="162" t="e">
+        <f t="shared" si="32"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y131" s="162" t="e">
+        <f t="shared" si="33"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z131" s="1" t="e">
+        <f t="shared" si="34"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA131" s="161" t="e">
+        <f t="shared" si="35"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="132" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F132" s="1">
+        <v>128</v>
+      </c>
+      <c r="G132" s="161" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H132" s="166" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I132" s="162" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J132" s="162" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K132" s="1" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L132" s="161" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U132" s="1">
+        <v>128</v>
+      </c>
+      <c r="V132" s="161" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W132" s="166" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X132" s="162" t="e">
+        <f t="shared" si="32"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y132" s="162" t="e">
+        <f t="shared" si="33"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z132" s="1" t="e">
+        <f t="shared" si="34"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA132" s="161" t="e">
+        <f t="shared" si="35"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="133" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F133" s="1">
+        <v>129</v>
+      </c>
+      <c r="G133" s="161" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H133" s="166" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I133" s="162" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J133" s="162" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K133" s="1" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L133" s="161" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U133" s="1">
+        <v>129</v>
+      </c>
+      <c r="V133" s="161" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W133" s="166" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X133" s="162" t="e">
+        <f t="shared" si="32"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y133" s="162" t="e">
+        <f t="shared" si="33"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z133" s="1" t="e">
+        <f t="shared" si="34"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA133" s="161" t="e">
+        <f t="shared" si="35"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="134" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F134" s="1">
+        <v>130</v>
+      </c>
+      <c r="G134" s="161" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H134" s="166" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I134" s="162" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J134" s="162" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K134" s="1" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L134" s="161" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U134" s="1">
+        <v>130</v>
+      </c>
+      <c r="V134" s="161" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W134" s="166" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X134" s="162" t="e">
+        <f t="shared" si="32"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y134" s="162" t="e">
+        <f t="shared" si="33"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z134" s="1" t="e">
+        <f t="shared" si="34"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA134" s="161" t="e">
+        <f t="shared" si="35"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="135" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F135" s="1">
+        <v>131</v>
+      </c>
+      <c r="G135" s="161" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H135" s="166" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I135" s="162" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J135" s="162" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K135" s="1" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L135" s="161" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U135" s="1">
+        <v>131</v>
+      </c>
+      <c r="V135" s="161" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W135" s="166" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X135" s="162" t="e">
+        <f t="shared" si="32"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y135" s="162" t="e">
+        <f t="shared" si="33"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z135" s="1" t="e">
+        <f t="shared" si="34"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA135" s="161" t="e">
+        <f t="shared" si="35"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="136" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F136" s="1">
+        <v>132</v>
+      </c>
+      <c r="G136" s="161" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H136" s="166" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I136" s="162" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J136" s="162" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K136" s="1" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L136" s="161" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U136" s="1">
+        <v>132</v>
+      </c>
+      <c r="V136" s="161" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W136" s="166" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X136" s="162" t="e">
+        <f t="shared" si="32"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y136" s="162" t="e">
+        <f t="shared" si="33"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z136" s="1" t="e">
+        <f t="shared" si="34"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA136" s="161" t="e">
+        <f t="shared" si="35"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="137" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F137" s="1">
+        <v>133</v>
+      </c>
+      <c r="G137" s="161" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H137" s="166" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I137" s="162" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J137" s="162" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K137" s="1" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L137" s="161" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U137" s="1">
+        <v>133</v>
+      </c>
+      <c r="V137" s="161" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W137" s="166" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X137" s="162" t="e">
+        <f t="shared" si="32"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y137" s="162" t="e">
+        <f t="shared" si="33"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z137" s="1" t="e">
+        <f t="shared" si="34"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA137" s="161" t="e">
+        <f t="shared" si="35"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="138" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F138" s="1">
+        <v>134</v>
+      </c>
+      <c r="G138" s="161" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H138" s="166" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I138" s="162" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J138" s="162" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K138" s="1" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L138" s="161" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U138" s="1">
+        <v>134</v>
+      </c>
+      <c r="V138" s="161" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W138" s="166" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X138" s="162" t="e">
+        <f t="shared" si="32"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y138" s="162" t="e">
+        <f t="shared" si="33"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z138" s="1" t="e">
+        <f t="shared" si="34"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA138" s="161" t="e">
+        <f t="shared" si="35"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="139" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F139" s="1">
+        <v>135</v>
+      </c>
+      <c r="G139" s="161" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H139" s="166" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I139" s="162" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J139" s="162" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K139" s="1" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L139" s="161" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U139" s="1">
+        <v>135</v>
+      </c>
+      <c r="V139" s="161" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W139" s="166" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X139" s="162" t="e">
+        <f t="shared" si="32"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y139" s="162" t="e">
+        <f t="shared" si="33"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z139" s="1" t="e">
+        <f t="shared" si="34"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA139" s="161" t="e">
+        <f t="shared" si="35"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -13654,10 +14270,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F271BF23-5F64-4067-8786-917566CE8028}">
-  <dimension ref="A3:AB128"/>
+  <dimension ref="A3:AB139"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13797,7 +14413,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M5" s="161" t="e">
-        <f>SUM(L5:L128)</f>
+        <f>SUM(L5:L139)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N5" s="171"/>
@@ -13829,7 +14445,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="161" t="e">
-        <f>SUM(AA5:AA128)</f>
+        <f>SUM(AA5:AA139)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -20887,6 +21503,622 @@
       </c>
       <c r="AA128" s="161" t="e">
         <f t="shared" si="23"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="129" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F129" s="1">
+        <v>125</v>
+      </c>
+      <c r="G129" s="161" t="e">
+        <f t="shared" ref="G129:G139" si="24">G128-H129</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H129" s="166" t="e">
+        <f t="shared" ref="H129:H139" si="25">$D$10-I129</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I129" s="162" t="e">
+        <f t="shared" ref="I129:I139" si="26">G128*$D$7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J129" s="162" t="e">
+        <f t="shared" ref="J129:J139" si="27">((G129*((((1+$C$12)^(1/12))-1)-(($C$9/10000)/12))/(1.02)^((F129)/12)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K129" s="1" t="e">
+        <f t="shared" ref="K129:K139" si="28">IF(G129&gt;=0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L129" s="161" t="e">
+        <f t="shared" ref="L129:L139" si="29">J129*K129</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U129" s="1">
+        <v>125</v>
+      </c>
+      <c r="V129" s="161" t="e">
+        <f t="shared" ref="V129:V139" si="30">V128-W129</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="W129" s="166" t="e">
+        <f t="shared" ref="W129:W139" si="31">$R$9-X129</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="X129" s="162" t="e">
+        <f t="shared" ref="X129:X139" si="32">V128*$R$7/12</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y129" s="162" t="e">
+        <f t="shared" ref="Y129:Y139" si="33">((V129*((((1+$R$7)^(1/12))-1)-(($R$8/10000)/12))/(1.02)^((U129)/12)))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z129" s="1" t="e">
+        <f t="shared" ref="Z129:Z139" si="34">IF(V129&gt;=0,1,0)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA129" s="161" t="e">
+        <f t="shared" ref="AA129:AA139" si="35">Y129*Z129</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="130" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F130" s="1">
+        <v>126</v>
+      </c>
+      <c r="G130" s="161" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H130" s="166" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I130" s="162" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J130" s="162" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K130" s="1" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L130" s="161" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U130" s="1">
+        <v>126</v>
+      </c>
+      <c r="V130" s="161" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W130" s="166" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X130" s="162" t="e">
+        <f t="shared" si="32"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y130" s="162" t="e">
+        <f t="shared" si="33"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z130" s="1" t="e">
+        <f t="shared" si="34"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA130" s="161" t="e">
+        <f t="shared" si="35"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="131" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F131" s="1">
+        <v>127</v>
+      </c>
+      <c r="G131" s="161" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H131" s="166" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I131" s="162" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J131" s="162" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K131" s="1" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L131" s="161" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U131" s="1">
+        <v>127</v>
+      </c>
+      <c r="V131" s="161" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W131" s="166" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X131" s="162" t="e">
+        <f t="shared" si="32"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y131" s="162" t="e">
+        <f t="shared" si="33"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z131" s="1" t="e">
+        <f t="shared" si="34"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA131" s="161" t="e">
+        <f t="shared" si="35"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="132" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F132" s="1">
+        <v>128</v>
+      </c>
+      <c r="G132" s="161" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H132" s="166" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I132" s="162" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J132" s="162" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K132" s="1" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L132" s="161" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U132" s="1">
+        <v>128</v>
+      </c>
+      <c r="V132" s="161" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W132" s="166" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X132" s="162" t="e">
+        <f t="shared" si="32"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y132" s="162" t="e">
+        <f t="shared" si="33"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z132" s="1" t="e">
+        <f t="shared" si="34"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA132" s="161" t="e">
+        <f t="shared" si="35"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="133" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F133" s="1">
+        <v>129</v>
+      </c>
+      <c r="G133" s="161" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H133" s="166" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I133" s="162" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J133" s="162" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K133" s="1" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L133" s="161" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U133" s="1">
+        <v>129</v>
+      </c>
+      <c r="V133" s="161" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W133" s="166" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X133" s="162" t="e">
+        <f t="shared" si="32"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y133" s="162" t="e">
+        <f t="shared" si="33"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z133" s="1" t="e">
+        <f t="shared" si="34"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA133" s="161" t="e">
+        <f t="shared" si="35"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="134" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F134" s="1">
+        <v>130</v>
+      </c>
+      <c r="G134" s="161" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H134" s="166" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I134" s="162" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J134" s="162" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K134" s="1" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L134" s="161" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U134" s="1">
+        <v>130</v>
+      </c>
+      <c r="V134" s="161" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W134" s="166" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X134" s="162" t="e">
+        <f t="shared" si="32"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y134" s="162" t="e">
+        <f t="shared" si="33"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z134" s="1" t="e">
+        <f t="shared" si="34"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA134" s="161" t="e">
+        <f t="shared" si="35"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="135" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F135" s="1">
+        <v>131</v>
+      </c>
+      <c r="G135" s="161" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H135" s="166" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I135" s="162" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J135" s="162" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K135" s="1" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L135" s="161" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U135" s="1">
+        <v>131</v>
+      </c>
+      <c r="V135" s="161" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W135" s="166" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X135" s="162" t="e">
+        <f t="shared" si="32"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y135" s="162" t="e">
+        <f t="shared" si="33"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z135" s="1" t="e">
+        <f t="shared" si="34"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA135" s="161" t="e">
+        <f t="shared" si="35"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="136" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F136" s="1">
+        <v>132</v>
+      </c>
+      <c r="G136" s="161" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H136" s="166" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I136" s="162" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J136" s="162" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K136" s="1" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L136" s="161" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U136" s="1">
+        <v>132</v>
+      </c>
+      <c r="V136" s="161" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W136" s="166" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X136" s="162" t="e">
+        <f t="shared" si="32"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y136" s="162" t="e">
+        <f t="shared" si="33"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z136" s="1" t="e">
+        <f t="shared" si="34"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA136" s="161" t="e">
+        <f t="shared" si="35"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="137" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F137" s="1">
+        <v>133</v>
+      </c>
+      <c r="G137" s="161" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H137" s="166" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I137" s="162" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J137" s="162" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K137" s="1" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L137" s="161" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U137" s="1">
+        <v>133</v>
+      </c>
+      <c r="V137" s="161" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W137" s="166" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X137" s="162" t="e">
+        <f t="shared" si="32"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y137" s="162" t="e">
+        <f t="shared" si="33"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z137" s="1" t="e">
+        <f t="shared" si="34"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA137" s="161" t="e">
+        <f t="shared" si="35"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="138" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F138" s="1">
+        <v>134</v>
+      </c>
+      <c r="G138" s="161" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H138" s="166" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I138" s="162" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J138" s="162" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K138" s="1" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L138" s="161" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U138" s="1">
+        <v>134</v>
+      </c>
+      <c r="V138" s="161" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W138" s="166" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X138" s="162" t="e">
+        <f t="shared" si="32"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y138" s="162" t="e">
+        <f t="shared" si="33"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z138" s="1" t="e">
+        <f t="shared" si="34"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA138" s="161" t="e">
+        <f t="shared" si="35"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="139" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F139" s="1">
+        <v>135</v>
+      </c>
+      <c r="G139" s="161" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H139" s="166" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I139" s="162" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J139" s="162" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K139" s="1" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L139" s="161" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U139" s="1">
+        <v>135</v>
+      </c>
+      <c r="V139" s="161" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W139" s="166" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X139" s="162" t="e">
+        <f t="shared" si="32"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y139" s="162" t="e">
+        <f t="shared" si="33"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z139" s="1" t="e">
+        <f t="shared" si="34"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA139" s="161" t="e">
+        <f t="shared" si="35"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -20908,10 +22140,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255CCD47-8ECF-49F3-970E-FBDD02F87F6C}">
-  <dimension ref="A1:AZ151"/>
+  <dimension ref="A1:AZ163"/>
   <sheetViews>
-    <sheetView topLeftCell="C19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K62" sqref="K62"/>
+    <sheetView topLeftCell="W1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AY28" sqref="AY28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22646,14 +23878,14 @@
         <v>109</v>
       </c>
       <c r="AO28" s="120" t="e">
-        <f>SUM(AO30:AO150)</f>
+        <f>SUM(AO30:AO163)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AT28" s="1" t="s">
         <v>109</v>
       </c>
       <c r="AY28" s="120" t="e">
-        <f>SUM(AY30:AY150)</f>
+        <f>SUM(AY30:AY163)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -22675,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="AP29" s="1" t="e">
-        <f>SUM(AP30:AP150)</f>
+        <f>SUM(AP30:AP163)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AU29" s="119">
@@ -22683,7 +23915,7 @@
         <v>0</v>
       </c>
       <c r="AZ29" s="1" t="e">
-        <f>SUM(AZ30:AZ150)</f>
+        <f>SUM(AZ30:AZ163)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -29657,7 +30889,7 @@
         <v>0</v>
       </c>
       <c r="AI96" s="1">
-        <f t="shared" ref="AI96:AI150" si="47">1+AI95</f>
+        <f t="shared" ref="AI96:AI159" si="47">1+AI95</f>
         <v>67</v>
       </c>
       <c r="AJ96" s="1">
@@ -29693,7 +30925,7 @@
         <v>0</v>
       </c>
       <c r="AS96" s="1">
-        <f t="shared" ref="AS96:AS150" si="53">1+AS95</f>
+        <f t="shared" ref="AS96:AS159" si="53">1+AS95</f>
         <v>67</v>
       </c>
       <c r="AT96" s="1">
@@ -35020,6 +36252,966 @@
     <row r="151" spans="27:52" x14ac:dyDescent="0.25">
       <c r="AB151" s="114"/>
       <c r="AD151" s="121"/>
+      <c r="AH151" s="1">
+        <f t="shared" ref="AH151:AH163" si="60">IF(INT(AI151/12)=AI151/12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI151" s="1">
+        <f t="shared" si="47"/>
+        <v>122</v>
+      </c>
+      <c r="AJ151" s="1">
+        <f t="shared" ref="AJ151:AJ163" si="61">AI151</f>
+        <v>122</v>
+      </c>
+      <c r="AK151" s="114" t="e">
+        <f t="shared" ref="AK151:AK163" si="62">IF(AH151=0,AK150-AM151,AK150+AL151)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL151" s="1" t="e">
+        <f t="shared" ref="AL151:AL163" si="63">AK150*$W$7/12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM151" s="121" t="e">
+        <f t="shared" ref="AM151:AM163" si="64">$W$10-AL151</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN151" s="1" t="e">
+        <f t="shared" ref="AN151:AN163" si="65">((AK151*((((1+$V$14)^(1/12))-1)-(($W$9/10000)/12))/(1.02)^((AJ151)/12)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO151" s="1" t="e">
+        <f t="shared" ref="AO151:AO163" si="66">IF(AN151&gt;=0,AN151,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP151" s="1" t="e">
+        <f t="shared" ref="AP151:AP163" si="67">IF(AO150&gt;0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR151" s="1">
+        <f t="shared" ref="AR151:AR163" si="68">IF(INT(AS151/12)=AS151/12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AS151" s="1">
+        <f t="shared" si="53"/>
+        <v>122</v>
+      </c>
+      <c r="AT151" s="1">
+        <f t="shared" ref="AT151:AT163" si="69">AS151</f>
+        <v>122</v>
+      </c>
+      <c r="AU151" s="114" t="e">
+        <f t="shared" ref="AU151:AU163" si="70">IF(AR151=0,AU150-AW151,AU150+AV151)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV151" s="1" t="e">
+        <f t="shared" ref="AV151:AV163" si="71">AU150*$W$7/12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW151" s="121" t="e">
+        <f t="shared" ref="AW151:AW163" si="72">$X$10-AV151</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX151" s="1" t="e">
+        <f t="shared" ref="AX151:AX163" si="73">((AU151*((((1+$V$14)^(1/12))-1)-(($W$9/10000)/12))/(1.02)^((AT151)/12)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY151" s="1" t="e">
+        <f t="shared" ref="AY151:AY163" si="74">IF(AX151&gt;=0,AX151,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ151" s="1" t="e">
+        <f t="shared" ref="AZ151:AZ163" si="75">IF(AY150&gt;0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="152" spans="27:52" x14ac:dyDescent="0.25">
+      <c r="AH152" s="1">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AI152" s="1">
+        <f t="shared" si="47"/>
+        <v>123</v>
+      </c>
+      <c r="AJ152" s="1">
+        <f t="shared" si="61"/>
+        <v>123</v>
+      </c>
+      <c r="AK152" s="114" t="e">
+        <f t="shared" si="62"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL152" s="1" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM152" s="121" t="e">
+        <f t="shared" si="64"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN152" s="1" t="e">
+        <f t="shared" si="65"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO152" s="1" t="e">
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP152" s="1" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR152" s="1">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AS152" s="1">
+        <f t="shared" si="53"/>
+        <v>123</v>
+      </c>
+      <c r="AT152" s="1">
+        <f t="shared" si="69"/>
+        <v>123</v>
+      </c>
+      <c r="AU152" s="114" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV152" s="1" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW152" s="121" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX152" s="1" t="e">
+        <f t="shared" si="73"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY152" s="1" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ152" s="1" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="153" spans="27:52" x14ac:dyDescent="0.25">
+      <c r="AH153" s="1">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AI153" s="1">
+        <f t="shared" si="47"/>
+        <v>124</v>
+      </c>
+      <c r="AJ153" s="1">
+        <f t="shared" si="61"/>
+        <v>124</v>
+      </c>
+      <c r="AK153" s="114" t="e">
+        <f t="shared" si="62"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL153" s="1" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM153" s="121" t="e">
+        <f t="shared" si="64"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN153" s="1" t="e">
+        <f t="shared" si="65"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO153" s="1" t="e">
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP153" s="1" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR153" s="1">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AS153" s="1">
+        <f t="shared" si="53"/>
+        <v>124</v>
+      </c>
+      <c r="AT153" s="1">
+        <f t="shared" si="69"/>
+        <v>124</v>
+      </c>
+      <c r="AU153" s="114" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV153" s="1" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW153" s="121" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX153" s="1" t="e">
+        <f t="shared" si="73"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY153" s="1" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ153" s="1" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="154" spans="27:52" x14ac:dyDescent="0.25">
+      <c r="AH154" s="1">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AI154" s="1">
+        <f t="shared" si="47"/>
+        <v>125</v>
+      </c>
+      <c r="AJ154" s="1">
+        <f t="shared" si="61"/>
+        <v>125</v>
+      </c>
+      <c r="AK154" s="114" t="e">
+        <f t="shared" si="62"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL154" s="1" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM154" s="121" t="e">
+        <f t="shared" si="64"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN154" s="1" t="e">
+        <f t="shared" si="65"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO154" s="1" t="e">
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP154" s="1" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR154" s="1">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AS154" s="1">
+        <f t="shared" si="53"/>
+        <v>125</v>
+      </c>
+      <c r="AT154" s="1">
+        <f t="shared" si="69"/>
+        <v>125</v>
+      </c>
+      <c r="AU154" s="114" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV154" s="1" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW154" s="121" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX154" s="1" t="e">
+        <f t="shared" si="73"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY154" s="1" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ154" s="1" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="155" spans="27:52" x14ac:dyDescent="0.25">
+      <c r="AH155" s="1">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AI155" s="1">
+        <f t="shared" si="47"/>
+        <v>126</v>
+      </c>
+      <c r="AJ155" s="1">
+        <f t="shared" si="61"/>
+        <v>126</v>
+      </c>
+      <c r="AK155" s="114" t="e">
+        <f t="shared" si="62"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL155" s="1" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM155" s="121" t="e">
+        <f t="shared" si="64"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN155" s="1" t="e">
+        <f t="shared" si="65"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO155" s="1" t="e">
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP155" s="1" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR155" s="1">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AS155" s="1">
+        <f t="shared" si="53"/>
+        <v>126</v>
+      </c>
+      <c r="AT155" s="1">
+        <f t="shared" si="69"/>
+        <v>126</v>
+      </c>
+      <c r="AU155" s="114" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV155" s="1" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW155" s="121" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX155" s="1" t="e">
+        <f t="shared" si="73"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY155" s="1" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ155" s="1" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="156" spans="27:52" x14ac:dyDescent="0.25">
+      <c r="AH156" s="1">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AI156" s="1">
+        <f t="shared" si="47"/>
+        <v>127</v>
+      </c>
+      <c r="AJ156" s="1">
+        <f t="shared" si="61"/>
+        <v>127</v>
+      </c>
+      <c r="AK156" s="114" t="e">
+        <f t="shared" si="62"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL156" s="1" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM156" s="121" t="e">
+        <f t="shared" si="64"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN156" s="1" t="e">
+        <f t="shared" si="65"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO156" s="1" t="e">
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP156" s="1" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR156" s="1">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AS156" s="1">
+        <f t="shared" si="53"/>
+        <v>127</v>
+      </c>
+      <c r="AT156" s="1">
+        <f t="shared" si="69"/>
+        <v>127</v>
+      </c>
+      <c r="AU156" s="114" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV156" s="1" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW156" s="121" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX156" s="1" t="e">
+        <f t="shared" si="73"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY156" s="1" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ156" s="1" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="157" spans="27:52" x14ac:dyDescent="0.25">
+      <c r="AH157" s="1">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AI157" s="1">
+        <f t="shared" si="47"/>
+        <v>128</v>
+      </c>
+      <c r="AJ157" s="1">
+        <f t="shared" si="61"/>
+        <v>128</v>
+      </c>
+      <c r="AK157" s="114" t="e">
+        <f t="shared" si="62"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL157" s="1" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM157" s="121" t="e">
+        <f t="shared" si="64"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN157" s="1" t="e">
+        <f t="shared" si="65"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO157" s="1" t="e">
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP157" s="1" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR157" s="1">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AS157" s="1">
+        <f t="shared" si="53"/>
+        <v>128</v>
+      </c>
+      <c r="AT157" s="1">
+        <f t="shared" si="69"/>
+        <v>128</v>
+      </c>
+      <c r="AU157" s="114" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV157" s="1" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW157" s="121" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX157" s="1" t="e">
+        <f t="shared" si="73"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY157" s="1" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ157" s="1" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="158" spans="27:52" x14ac:dyDescent="0.25">
+      <c r="AH158" s="1">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AI158" s="1">
+        <f t="shared" si="47"/>
+        <v>129</v>
+      </c>
+      <c r="AJ158" s="1">
+        <f t="shared" si="61"/>
+        <v>129</v>
+      </c>
+      <c r="AK158" s="114" t="e">
+        <f t="shared" si="62"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL158" s="1" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM158" s="121" t="e">
+        <f t="shared" si="64"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN158" s="1" t="e">
+        <f t="shared" si="65"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO158" s="1" t="e">
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP158" s="1" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR158" s="1">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AS158" s="1">
+        <f t="shared" si="53"/>
+        <v>129</v>
+      </c>
+      <c r="AT158" s="1">
+        <f t="shared" si="69"/>
+        <v>129</v>
+      </c>
+      <c r="AU158" s="114" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV158" s="1" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW158" s="121" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX158" s="1" t="e">
+        <f t="shared" si="73"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY158" s="1" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ158" s="1" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="159" spans="27:52" x14ac:dyDescent="0.25">
+      <c r="AH159" s="1">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AI159" s="1">
+        <f t="shared" si="47"/>
+        <v>130</v>
+      </c>
+      <c r="AJ159" s="1">
+        <f t="shared" si="61"/>
+        <v>130</v>
+      </c>
+      <c r="AK159" s="114" t="e">
+        <f t="shared" si="62"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL159" s="1" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM159" s="121" t="e">
+        <f t="shared" si="64"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN159" s="1" t="e">
+        <f t="shared" si="65"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO159" s="1" t="e">
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP159" s="1" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR159" s="1">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AS159" s="1">
+        <f t="shared" si="53"/>
+        <v>130</v>
+      </c>
+      <c r="AT159" s="1">
+        <f t="shared" si="69"/>
+        <v>130</v>
+      </c>
+      <c r="AU159" s="114" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV159" s="1" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW159" s="121" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX159" s="1" t="e">
+        <f t="shared" si="73"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY159" s="1" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ159" s="1" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="160" spans="27:52" x14ac:dyDescent="0.25">
+      <c r="AH160" s="1">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AI160" s="1">
+        <f t="shared" ref="AI160:AI163" si="76">1+AI159</f>
+        <v>131</v>
+      </c>
+      <c r="AJ160" s="1">
+        <f t="shared" si="61"/>
+        <v>131</v>
+      </c>
+      <c r="AK160" s="114" t="e">
+        <f t="shared" si="62"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL160" s="1" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM160" s="121" t="e">
+        <f t="shared" si="64"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN160" s="1" t="e">
+        <f t="shared" si="65"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO160" s="1" t="e">
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP160" s="1" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR160" s="1">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AS160" s="1">
+        <f t="shared" ref="AS160:AS163" si="77">1+AS159</f>
+        <v>131</v>
+      </c>
+      <c r="AT160" s="1">
+        <f t="shared" si="69"/>
+        <v>131</v>
+      </c>
+      <c r="AU160" s="114" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV160" s="1" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW160" s="121" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX160" s="1" t="e">
+        <f t="shared" si="73"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY160" s="1" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ160" s="1" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="161" spans="34:52" x14ac:dyDescent="0.25">
+      <c r="AH161" s="1">
+        <f t="shared" si="60"/>
+        <v>1</v>
+      </c>
+      <c r="AI161" s="1">
+        <f t="shared" si="76"/>
+        <v>132</v>
+      </c>
+      <c r="AJ161" s="1">
+        <f t="shared" si="61"/>
+        <v>132</v>
+      </c>
+      <c r="AK161" s="114" t="e">
+        <f t="shared" si="62"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL161" s="1" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM161" s="121" t="e">
+        <f t="shared" si="64"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN161" s="1" t="e">
+        <f t="shared" si="65"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO161" s="1" t="e">
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP161" s="1" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR161" s="1">
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="AS161" s="1">
+        <f t="shared" si="77"/>
+        <v>132</v>
+      </c>
+      <c r="AT161" s="1">
+        <f t="shared" si="69"/>
+        <v>132</v>
+      </c>
+      <c r="AU161" s="114" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV161" s="1" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW161" s="121" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX161" s="1" t="e">
+        <f t="shared" si="73"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY161" s="1" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ161" s="1" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="162" spans="34:52" x14ac:dyDescent="0.25">
+      <c r="AH162" s="1">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AI162" s="1">
+        <f t="shared" si="76"/>
+        <v>133</v>
+      </c>
+      <c r="AJ162" s="1">
+        <f t="shared" si="61"/>
+        <v>133</v>
+      </c>
+      <c r="AK162" s="114" t="e">
+        <f t="shared" si="62"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL162" s="1" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM162" s="121" t="e">
+        <f t="shared" si="64"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN162" s="1" t="e">
+        <f t="shared" si="65"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO162" s="1" t="e">
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP162" s="1" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR162" s="1">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AS162" s="1">
+        <f t="shared" si="77"/>
+        <v>133</v>
+      </c>
+      <c r="AT162" s="1">
+        <f t="shared" si="69"/>
+        <v>133</v>
+      </c>
+      <c r="AU162" s="114" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV162" s="1" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW162" s="121" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX162" s="1" t="e">
+        <f t="shared" si="73"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY162" s="1" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ162" s="1" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="163" spans="34:52" x14ac:dyDescent="0.25">
+      <c r="AH163" s="1">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AI163" s="1">
+        <f t="shared" si="76"/>
+        <v>134</v>
+      </c>
+      <c r="AJ163" s="1">
+        <f t="shared" si="61"/>
+        <v>134</v>
+      </c>
+      <c r="AK163" s="114" t="e">
+        <f t="shared" si="62"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL163" s="1" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM163" s="121" t="e">
+        <f t="shared" si="64"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN163" s="1" t="e">
+        <f t="shared" si="65"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO163" s="1" t="e">
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP163" s="1" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR163" s="1">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AS163" s="1">
+        <f t="shared" si="77"/>
+        <v>134</v>
+      </c>
+      <c r="AT163" s="1">
+        <f t="shared" si="69"/>
+        <v>134</v>
+      </c>
+      <c r="AU163" s="114" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV163" s="1" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW163" s="121" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX163" s="1" t="e">
+        <f t="shared" si="73"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY163" s="1" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ163" s="1" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -35062,7 +37254,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -35079,7 +37271,7 @@
     <col min="11" max="11" width="11.85546875" customWidth="1"/>
     <col min="12" max="17" width="8.7109375" customWidth="1"/>
     <col min="18" max="18" width="29" customWidth="1"/>
-    <col min="19" max="19" width="24.42578125" customWidth="1"/>
+    <col min="19" max="19" width="28.140625" customWidth="1"/>
     <col min="20" max="16384" width="8.7109375" hidden="1"/>
   </cols>
   <sheetData>
@@ -35393,7 +37585,7 @@
       <c r="C19" s="82"/>
       <c r="D19" s="122">
         <f ca="1">NOW()</f>
-        <v>44876.461728587965</v>
+        <v>44893.645687037038</v>
       </c>
       <c r="E19" s="82"/>
       <c r="F19" s="82" t="s">
@@ -35418,14 +37610,14 @@
       </c>
       <c r="C20" s="82"/>
       <c r="D20" s="184" t="str">
-        <f>IF(AND(ISNUMBER(D7),ISNUMBER(D8),ISNUMBER(D9),ISNUMBER(D10)),IF(AND(D7&gt;557,D8&gt;84),"",IF(AND(D8&gt;84,D9&gt;D8+3),"",Background!P6)),"")</f>
+        <f>IF(AND(ISNUMBER(D7),ISNUMBER(D8),ISNUMBER(D9),ISNUMBER(D10)),IF(D7&gt;780,"",Background!P6),"")</f>
         <v/>
       </c>
       <c r="E20" s="87"/>
       <c r="F20" s="100"/>
       <c r="G20" s="82"/>
       <c r="H20" s="93" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I20" s="82"/>
       <c r="J20" s="82"/>
@@ -35563,7 +37755,7 @@
         <v/>
       </c>
       <c r="I26" s="91" t="s">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="J26" s="82"/>
       <c r="K26" s="82"/>
@@ -35577,7 +37769,7 @@
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="d5UhUaY1x//uXnQatQtILx7cMunhgWxV1XBnnh91vu64eobVpyMqlZwG075hGIX2+ksAhiFO17xWdXVs9ViSug==" saltValue="Od5K9cc/ssFyUHIbFwpAPA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="CRtsdZBCgOCz9Svb31JH/HpLsJ01pMaYPGN1JTDjPZl0UfAduBPumxF84CkzYmB72JJmX7tPHQTqYTEQm/0wqw==" saltValue="jxPacRNulyk86R9yExdSuQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="D8" name="Range6"/>
     <protectedRange sqref="D19" name="Range5"/>
@@ -35611,14 +37803,14 @@
     </dataValidation>
     <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="Bitte überprüfen Sie die Eingabe" error="Übernehmen Sie die Laufzeit aus KFPK. Durch Payment Holiday oder verzögerte Ratenrückzahlungen kann die Laufzeit von der Anzahl der Raten abweichen." sqref="D9" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>D8</formula1>
-      <formula2>IF(D8&gt;84,D8+3,D8+7+4)</formula2>
+      <formula2>D8+10+4</formula2>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15" xr:uid="{00000000-0002-0000-0100-000005000000}">
       <formula1>0</formula1>
       <formula2>199</formula2>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Bitte überprüfen Sie die Eingabe" error="Die maximal zulässige Anzahl an Raten oder der maximal zulässige EL wurden überschritten." sqref="D8" xr:uid="{00000000-0002-0000-0100-000006000000}">
-      <formula1>IF($D$7&lt;=557,AND($D$8&lt;=120,$D$8&gt;=1),AND($D$8&lt;=84,$D$8&gt;=1))</formula1>
+      <formula1>IF($D$7&lt;=780,AND($D$8&lt;=120,$D$8&gt;=1),AND($D$8&lt;=120,$D$8&gt;=1,$D$7&lt;=780))</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Bitte überprüfen Sie die Eingabe" error="Der Fremdablöse-Betrag darf nicht größer sein als der Gesamtkreditbetrag abzüglich der Eigenablöse (wenn relevant)!" sqref="D12" xr:uid="{00000000-0002-0000-0100-000007000000}">
       <formula1>0</formula1>
@@ -35683,7 +37875,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -35904,7 +38096,7 @@
     </row>
     <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4rVsHqya4PGK18KB8+GkV4NXBGuS5ePlisNZIgMeTQ/r4+vbpmrzXGXP4hNwnOganMuSsYcEaKi6dw4Azr1q7g==" saltValue="KbNzCdhl36bAvBE7IBjmwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="e5sSta4hOLnb4SvBmrGl1LVvda6y0ewmb4VIBG8zjDfk3a8uk3V7rMBQJNK5jqDP8AWrt4kdh3U8TxsMayM+XQ==" saltValue="Oa1hu4lwRSqA3UXxGqal1w==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="C11" name="Range1"/>
   </protectedRanges>
@@ -35931,7 +38123,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -35943,7 +38135,7 @@
     <col min="5" max="5" width="8.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="80" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="73.42578125" customWidth="1"/>
     <col min="9" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
@@ -35951,7 +38143,7 @@
       <c r="A1" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="269"/>
+      <c r="B1" s="69"/>
       <c r="C1" s="264"/>
       <c r="D1" s="264"/>
       <c r="E1" s="264"/>
@@ -35963,7 +38155,7 @@
       <c r="A2" s="71" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="269"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="264"/>
       <c r="D2" s="264"/>
       <c r="E2" s="264"/>
@@ -35975,7 +38167,7 @@
       <c r="A3" s="77" t="s">
         <v>205</v>
       </c>
-      <c r="B3" s="269"/>
+      <c r="B3" s="70"/>
       <c r="C3" s="264"/>
       <c r="D3" s="264"/>
       <c r="E3" s="264"/>
@@ -36038,7 +38230,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="93" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E7" s="230"/>
       <c r="F7" s="92"/>
@@ -36159,7 +38351,7 @@
       <c r="H14" s="264"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="267" t="s">
+      <c r="A15" s="266" t="s">
         <v>212</v>
       </c>
       <c r="B15" s="236" t="str">
@@ -36167,7 +38359,7 @@
         <v/>
       </c>
       <c r="C15" s="264"/>
-      <c r="D15" s="266"/>
+      <c r="D15" s="265"/>
       <c r="E15" s="264"/>
       <c r="F15" s="236" t="str">
         <f>IFERROR(+F14-D14,"")</f>
@@ -36290,7 +38482,7 @@
       <c r="H22" s="264"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="267" t="s">
+      <c r="A23" s="266" t="s">
         <v>212</v>
       </c>
       <c r="B23" s="236" t="str">
@@ -36298,7 +38490,7 @@
         <v/>
       </c>
       <c r="C23" s="264"/>
-      <c r="D23" s="266"/>
+      <c r="D23" s="265"/>
       <c r="E23" s="264"/>
       <c r="F23" s="236" t="str">
         <f>IFERROR(+F22-D22,"")</f>
@@ -36328,7 +38520,7 @@
       <c r="H25" s="264"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="265" t="s">
+      <c r="A26" s="267" t="s">
         <v>215</v>
       </c>
       <c r="B26" s="264"/>
@@ -36339,16 +38531,6 @@
       <c r="G26" s="264"/>
       <c r="H26" s="264"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="264"/>
-      <c r="B27" s="264"/>
-      <c r="C27" s="264"/>
-      <c r="D27" s="264"/>
-      <c r="E27" s="264"/>
-      <c r="F27" s="264"/>
-      <c r="G27" s="264"/>
-      <c r="H27" s="264"/>
-    </row>
     <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
@@ -36404,7 +38586,7 @@
       <c r="D36" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TJf8OeHjKrkZOaBiyOOq7SZan46bZ3PTRGu4TnQTkwFCO9S8NFfyhNMp8FuYeQABR1sZmw90SF3A+OU/nkOszg==" saltValue="ClfIne0O4oOIzJ6w6C88Mg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HOpEiZqVzO0nywk/kMbE7ETbrzdg/AeKWtF6UmeL23smgyvcBR8ZDqIbc6fSm8VAaN26hLm0UPfsbxk+UpwfZQ==" saltValue="+gg37KshKHtOgc+5NJ0DXg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="B5:B7" name="Bereich1"/>
   </protectedRanges>
@@ -36441,7 +38623,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="67" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;10&amp;K000000</oddFooter>
   </headerFooter>
@@ -36451,10 +38633,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Tabelle2"/>
-  <dimension ref="A2:AB128"/>
+  <dimension ref="A2:AB139"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36608,7 +38790,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M5" s="161" t="e">
-        <f>SUM(L5:L128)</f>
+        <f>SUM(L5:L139)</f>
         <v>#VALUE!</v>
       </c>
       <c r="O5" s="171"/>
@@ -36643,7 +38825,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="161" t="e">
-        <f>SUM(AA5:AA128)</f>
+        <f>SUM(AA5:AA139)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -43786,6 +45968,622 @@
       </c>
       <c r="AA128" s="161" t="e">
         <f t="shared" ref="AA128" si="44">Y128*Z128</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="129" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F129" s="1">
+        <v>125</v>
+      </c>
+      <c r="G129" s="161" t="e">
+        <f t="shared" ref="G129:G139" si="45">G128-H129</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H129" s="166" t="e">
+        <f t="shared" ref="H129:H139" si="46">$D$10-I129</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I129" s="162" t="e">
+        <f t="shared" ref="I129:I139" si="47">G128*$D$7</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J129" s="162" t="e">
+        <f t="shared" ref="J129:J139" si="48">((G129*((((1+$C$12)^(1/12))-1)-(($C$9/10000)/12))/(1.02)^((F129)/12)))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K129" s="1" t="e">
+        <f t="shared" ref="K129:K139" si="49">IF(G129&gt;=0,1,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L129" s="161" t="e">
+        <f t="shared" ref="L129:L139" si="50">J129*K129</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U129" s="1">
+        <v>125</v>
+      </c>
+      <c r="V129" s="161" t="e">
+        <f t="shared" ref="V129:V139" si="51">V128-W129</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="W129" s="166" t="e">
+        <f t="shared" ref="W129:W139" si="52">$R$9-X129</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="X129" s="162" t="e">
+        <f t="shared" ref="X129:X139" si="53">V128*$R$7/12</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y129" s="162" t="e">
+        <f t="shared" ref="Y129:Y139" si="54">((V129*((((1+$R$7)^(1/12))-1)-(($R$8/10000)/12))/(1.02)^((U129)/12)))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z129" s="1" t="e">
+        <f t="shared" ref="Z129:Z139" si="55">IF(V129&gt;=0,1,0)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA129" s="161" t="e">
+        <f t="shared" ref="AA129:AA139" si="56">Y129*Z129</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="130" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F130" s="1">
+        <v>126</v>
+      </c>
+      <c r="G130" s="161" t="e">
+        <f t="shared" si="45"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H130" s="166" t="e">
+        <f t="shared" si="46"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I130" s="162" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J130" s="162" t="e">
+        <f t="shared" si="48"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K130" s="1" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L130" s="161" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U130" s="1">
+        <v>126</v>
+      </c>
+      <c r="V130" s="161" t="e">
+        <f t="shared" si="51"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W130" s="166" t="e">
+        <f t="shared" si="52"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X130" s="162" t="e">
+        <f t="shared" si="53"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y130" s="162" t="e">
+        <f t="shared" si="54"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z130" s="1" t="e">
+        <f t="shared" si="55"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA130" s="161" t="e">
+        <f t="shared" si="56"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="131" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F131" s="1">
+        <v>127</v>
+      </c>
+      <c r="G131" s="161" t="e">
+        <f t="shared" si="45"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H131" s="166" t="e">
+        <f t="shared" si="46"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I131" s="162" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J131" s="162" t="e">
+        <f t="shared" si="48"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K131" s="1" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L131" s="161" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U131" s="1">
+        <v>127</v>
+      </c>
+      <c r="V131" s="161" t="e">
+        <f t="shared" si="51"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W131" s="166" t="e">
+        <f t="shared" si="52"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X131" s="162" t="e">
+        <f t="shared" si="53"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y131" s="162" t="e">
+        <f t="shared" si="54"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z131" s="1" t="e">
+        <f t="shared" si="55"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA131" s="161" t="e">
+        <f t="shared" si="56"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="132" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F132" s="1">
+        <v>128</v>
+      </c>
+      <c r="G132" s="161" t="e">
+        <f t="shared" si="45"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H132" s="166" t="e">
+        <f t="shared" si="46"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I132" s="162" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J132" s="162" t="e">
+        <f t="shared" si="48"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K132" s="1" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L132" s="161" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U132" s="1">
+        <v>128</v>
+      </c>
+      <c r="V132" s="161" t="e">
+        <f t="shared" si="51"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W132" s="166" t="e">
+        <f t="shared" si="52"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X132" s="162" t="e">
+        <f t="shared" si="53"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y132" s="162" t="e">
+        <f t="shared" si="54"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z132" s="1" t="e">
+        <f t="shared" si="55"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA132" s="161" t="e">
+        <f t="shared" si="56"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="133" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F133" s="1">
+        <v>129</v>
+      </c>
+      <c r="G133" s="161" t="e">
+        <f t="shared" si="45"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H133" s="166" t="e">
+        <f t="shared" si="46"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I133" s="162" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J133" s="162" t="e">
+        <f t="shared" si="48"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K133" s="1" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L133" s="161" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U133" s="1">
+        <v>129</v>
+      </c>
+      <c r="V133" s="161" t="e">
+        <f t="shared" si="51"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W133" s="166" t="e">
+        <f t="shared" si="52"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X133" s="162" t="e">
+        <f t="shared" si="53"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y133" s="162" t="e">
+        <f t="shared" si="54"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z133" s="1" t="e">
+        <f t="shared" si="55"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA133" s="161" t="e">
+        <f t="shared" si="56"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="134" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F134" s="1">
+        <v>130</v>
+      </c>
+      <c r="G134" s="161" t="e">
+        <f t="shared" si="45"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H134" s="166" t="e">
+        <f t="shared" si="46"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I134" s="162" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J134" s="162" t="e">
+        <f t="shared" si="48"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K134" s="1" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L134" s="161" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U134" s="1">
+        <v>130</v>
+      </c>
+      <c r="V134" s="161" t="e">
+        <f t="shared" si="51"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W134" s="166" t="e">
+        <f t="shared" si="52"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X134" s="162" t="e">
+        <f t="shared" si="53"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y134" s="162" t="e">
+        <f t="shared" si="54"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z134" s="1" t="e">
+        <f t="shared" si="55"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA134" s="161" t="e">
+        <f t="shared" si="56"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="135" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F135" s="1">
+        <v>131</v>
+      </c>
+      <c r="G135" s="161" t="e">
+        <f t="shared" si="45"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H135" s="166" t="e">
+        <f t="shared" si="46"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I135" s="162" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J135" s="162" t="e">
+        <f t="shared" si="48"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K135" s="1" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L135" s="161" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U135" s="1">
+        <v>131</v>
+      </c>
+      <c r="V135" s="161" t="e">
+        <f t="shared" si="51"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W135" s="166" t="e">
+        <f t="shared" si="52"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X135" s="162" t="e">
+        <f t="shared" si="53"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y135" s="162" t="e">
+        <f t="shared" si="54"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z135" s="1" t="e">
+        <f t="shared" si="55"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA135" s="161" t="e">
+        <f t="shared" si="56"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="136" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F136" s="1">
+        <v>132</v>
+      </c>
+      <c r="G136" s="161" t="e">
+        <f t="shared" si="45"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H136" s="166" t="e">
+        <f t="shared" si="46"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I136" s="162" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J136" s="162" t="e">
+        <f t="shared" si="48"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K136" s="1" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L136" s="161" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U136" s="1">
+        <v>132</v>
+      </c>
+      <c r="V136" s="161" t="e">
+        <f t="shared" si="51"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W136" s="166" t="e">
+        <f t="shared" si="52"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X136" s="162" t="e">
+        <f t="shared" si="53"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y136" s="162" t="e">
+        <f t="shared" si="54"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z136" s="1" t="e">
+        <f t="shared" si="55"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA136" s="161" t="e">
+        <f t="shared" si="56"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="137" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F137" s="1">
+        <v>133</v>
+      </c>
+      <c r="G137" s="161" t="e">
+        <f t="shared" si="45"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H137" s="166" t="e">
+        <f t="shared" si="46"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I137" s="162" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J137" s="162" t="e">
+        <f t="shared" si="48"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K137" s="1" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L137" s="161" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U137" s="1">
+        <v>133</v>
+      </c>
+      <c r="V137" s="161" t="e">
+        <f t="shared" si="51"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W137" s="166" t="e">
+        <f t="shared" si="52"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X137" s="162" t="e">
+        <f t="shared" si="53"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y137" s="162" t="e">
+        <f t="shared" si="54"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z137" s="1" t="e">
+        <f t="shared" si="55"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA137" s="161" t="e">
+        <f t="shared" si="56"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="138" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F138" s="1">
+        <v>134</v>
+      </c>
+      <c r="G138" s="161" t="e">
+        <f t="shared" si="45"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H138" s="166" t="e">
+        <f t="shared" si="46"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I138" s="162" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J138" s="162" t="e">
+        <f t="shared" si="48"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K138" s="1" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L138" s="161" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U138" s="1">
+        <v>134</v>
+      </c>
+      <c r="V138" s="161" t="e">
+        <f t="shared" si="51"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W138" s="166" t="e">
+        <f t="shared" si="52"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X138" s="162" t="e">
+        <f t="shared" si="53"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y138" s="162" t="e">
+        <f t="shared" si="54"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z138" s="1" t="e">
+        <f t="shared" si="55"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA138" s="161" t="e">
+        <f t="shared" si="56"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="139" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F139" s="1">
+        <v>135</v>
+      </c>
+      <c r="G139" s="161" t="e">
+        <f t="shared" si="45"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H139" s="166" t="e">
+        <f t="shared" si="46"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I139" s="162" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J139" s="162" t="e">
+        <f t="shared" si="48"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K139" s="1" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L139" s="161" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U139" s="1">
+        <v>135</v>
+      </c>
+      <c r="V139" s="161" t="e">
+        <f t="shared" si="51"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W139" s="166" t="e">
+        <f t="shared" si="52"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X139" s="162" t="e">
+        <f t="shared" si="53"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y139" s="162" t="e">
+        <f t="shared" si="54"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z139" s="1" t="e">
+        <f t="shared" si="55"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA139" s="161" t="e">
+        <f t="shared" si="56"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -43808,10 +46606,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Tabelle3"/>
-  <dimension ref="A3:AB128"/>
+  <dimension ref="A3:AB139"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43951,7 +46749,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M5" s="161" t="e">
-        <f>SUM(L5:L128)</f>
+        <f>SUM(L5:L139)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N5" s="171"/>
@@ -43984,7 +46782,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="161" t="e">
-        <f>SUM(AA5:AA128)</f>
+        <f>SUM(AA5:AA139)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -51042,6 +53840,622 @@
       </c>
       <c r="AA128" s="161" t="e">
         <f t="shared" ref="AA128" si="45">Y128*Z128</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="129" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F129" s="1">
+        <v>125</v>
+      </c>
+      <c r="G129" s="161" t="e">
+        <f t="shared" ref="G129:G138" si="46">G128-H129</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H129" s="166" t="e">
+        <f t="shared" ref="H129:H138" si="47">$D$10-I129</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I129" s="162" t="e">
+        <f t="shared" ref="I129:I138" si="48">G128*$D$7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J129" s="162" t="e">
+        <f t="shared" ref="J129:J138" si="49">((G129*((((1+$C$12)^(1/12))-1)-(($C$9/10000)/12))/(1.02)^((F129)/12)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K129" s="1" t="e">
+        <f t="shared" ref="K129:K138" si="50">IF(G129&gt;=0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L129" s="161" t="e">
+        <f t="shared" ref="L129:L138" si="51">J129*K129</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U129" s="1">
+        <v>125</v>
+      </c>
+      <c r="V129" s="161" t="e">
+        <f t="shared" ref="V129:V139" si="52">V128-W129</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="W129" s="166" t="e">
+        <f t="shared" ref="W129:W139" si="53">$R$9-X129</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="X129" s="162" t="e">
+        <f t="shared" ref="X129:X139" si="54">V128*$R$7/12</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y129" s="162" t="e">
+        <f t="shared" ref="Y129:Y139" si="55">((V129*((((1+$R$7)^(1/12))-1)-(($R$8/10000)/12))/(1.02)^((U129)/12)))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z129" s="1" t="e">
+        <f t="shared" ref="Z129:Z139" si="56">IF(V129&gt;=0,1,0)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA129" s="161" t="e">
+        <f t="shared" ref="AA129:AA139" si="57">Y129*Z129</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="130" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F130" s="1">
+        <v>126</v>
+      </c>
+      <c r="G130" s="161" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H130" s="166" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I130" s="162" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J130" s="162" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K130" s="1" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L130" s="161" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U130" s="1">
+        <v>126</v>
+      </c>
+      <c r="V130" s="161" t="e">
+        <f t="shared" si="52"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W130" s="166" t="e">
+        <f t="shared" si="53"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X130" s="162" t="e">
+        <f t="shared" si="54"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y130" s="162" t="e">
+        <f t="shared" si="55"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z130" s="1" t="e">
+        <f t="shared" si="56"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA130" s="161" t="e">
+        <f t="shared" si="57"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="131" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F131" s="1">
+        <v>127</v>
+      </c>
+      <c r="G131" s="161" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H131" s="166" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I131" s="162" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J131" s="162" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K131" s="1" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L131" s="161" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U131" s="1">
+        <v>127</v>
+      </c>
+      <c r="V131" s="161" t="e">
+        <f t="shared" si="52"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W131" s="166" t="e">
+        <f t="shared" si="53"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X131" s="162" t="e">
+        <f t="shared" si="54"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y131" s="162" t="e">
+        <f t="shared" si="55"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z131" s="1" t="e">
+        <f t="shared" si="56"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA131" s="161" t="e">
+        <f t="shared" si="57"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="132" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F132" s="1">
+        <v>128</v>
+      </c>
+      <c r="G132" s="161" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H132" s="166" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I132" s="162" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J132" s="162" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K132" s="1" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L132" s="161" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U132" s="1">
+        <v>128</v>
+      </c>
+      <c r="V132" s="161" t="e">
+        <f t="shared" si="52"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W132" s="166" t="e">
+        <f t="shared" si="53"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X132" s="162" t="e">
+        <f t="shared" si="54"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y132" s="162" t="e">
+        <f t="shared" si="55"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z132" s="1" t="e">
+        <f t="shared" si="56"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA132" s="161" t="e">
+        <f t="shared" si="57"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="133" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F133" s="1">
+        <v>129</v>
+      </c>
+      <c r="G133" s="161" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H133" s="166" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I133" s="162" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J133" s="162" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K133" s="1" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L133" s="161" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U133" s="1">
+        <v>129</v>
+      </c>
+      <c r="V133" s="161" t="e">
+        <f t="shared" si="52"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W133" s="166" t="e">
+        <f t="shared" si="53"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X133" s="162" t="e">
+        <f t="shared" si="54"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y133" s="162" t="e">
+        <f t="shared" si="55"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z133" s="1" t="e">
+        <f t="shared" si="56"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA133" s="161" t="e">
+        <f t="shared" si="57"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="134" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F134" s="1">
+        <v>130</v>
+      </c>
+      <c r="G134" s="161" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H134" s="166" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I134" s="162" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J134" s="162" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K134" s="1" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L134" s="161" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U134" s="1">
+        <v>130</v>
+      </c>
+      <c r="V134" s="161" t="e">
+        <f t="shared" si="52"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W134" s="166" t="e">
+        <f t="shared" si="53"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X134" s="162" t="e">
+        <f t="shared" si="54"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y134" s="162" t="e">
+        <f t="shared" si="55"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z134" s="1" t="e">
+        <f t="shared" si="56"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA134" s="161" t="e">
+        <f t="shared" si="57"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="135" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F135" s="1">
+        <v>131</v>
+      </c>
+      <c r="G135" s="161" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H135" s="166" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I135" s="162" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J135" s="162" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K135" s="1" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L135" s="161" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U135" s="1">
+        <v>131</v>
+      </c>
+      <c r="V135" s="161" t="e">
+        <f t="shared" si="52"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W135" s="166" t="e">
+        <f t="shared" si="53"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X135" s="162" t="e">
+        <f t="shared" si="54"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y135" s="162" t="e">
+        <f t="shared" si="55"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z135" s="1" t="e">
+        <f t="shared" si="56"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA135" s="161" t="e">
+        <f t="shared" si="57"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="136" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F136" s="1">
+        <v>132</v>
+      </c>
+      <c r="G136" s="161" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H136" s="166" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I136" s="162" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J136" s="162" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K136" s="1" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L136" s="161" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U136" s="1">
+        <v>132</v>
+      </c>
+      <c r="V136" s="161" t="e">
+        <f t="shared" si="52"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W136" s="166" t="e">
+        <f t="shared" si="53"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X136" s="162" t="e">
+        <f t="shared" si="54"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y136" s="162" t="e">
+        <f t="shared" si="55"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z136" s="1" t="e">
+        <f t="shared" si="56"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA136" s="161" t="e">
+        <f t="shared" si="57"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="137" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F137" s="1">
+        <v>133</v>
+      </c>
+      <c r="G137" s="161" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H137" s="166" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I137" s="162" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J137" s="162" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K137" s="1" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L137" s="161" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U137" s="1">
+        <v>133</v>
+      </c>
+      <c r="V137" s="161" t="e">
+        <f t="shared" si="52"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W137" s="166" t="e">
+        <f t="shared" si="53"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X137" s="162" t="e">
+        <f t="shared" si="54"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y137" s="162" t="e">
+        <f t="shared" si="55"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z137" s="1" t="e">
+        <f t="shared" si="56"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA137" s="161" t="e">
+        <f t="shared" si="57"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="138" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F138" s="1">
+        <v>134</v>
+      </c>
+      <c r="G138" s="161" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H138" s="166" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I138" s="162" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J138" s="162" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K138" s="1" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L138" s="161" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U138" s="1">
+        <v>134</v>
+      </c>
+      <c r="V138" s="161" t="e">
+        <f t="shared" si="52"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W138" s="166" t="e">
+        <f t="shared" si="53"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X138" s="162" t="e">
+        <f t="shared" si="54"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y138" s="162" t="e">
+        <f t="shared" si="55"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z138" s="1" t="e">
+        <f t="shared" si="56"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA138" s="161" t="e">
+        <f t="shared" si="57"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="139" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F139" s="1">
+        <v>135</v>
+      </c>
+      <c r="G139" s="161" t="e">
+        <f t="shared" ref="G139" si="58">G138-H139</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H139" s="166" t="e">
+        <f t="shared" ref="H139" si="59">$D$10-I139</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I139" s="162" t="e">
+        <f t="shared" ref="I139" si="60">G138*$D$7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J139" s="162" t="e">
+        <f t="shared" ref="J139" si="61">((G139*((((1+$C$12)^(1/12))-1)-(($C$9/10000)/12))/(1.02)^((F139)/12)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K139" s="1" t="e">
+        <f t="shared" ref="K139" si="62">IF(G139&gt;=0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L139" s="161" t="e">
+        <f t="shared" ref="L139" si="63">J139*K139</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U139" s="1">
+        <v>135</v>
+      </c>
+      <c r="V139" s="161" t="e">
+        <f t="shared" si="52"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W139" s="166" t="e">
+        <f t="shared" si="53"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X139" s="162" t="e">
+        <f t="shared" si="54"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y139" s="162" t="e">
+        <f t="shared" si="55"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z139" s="1" t="e">
+        <f t="shared" si="56"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA139" s="161" t="e">
+        <f t="shared" si="57"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -51064,10 +54478,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AZ151"/>
+  <dimension ref="A1:AZ172"/>
   <sheetViews>
-    <sheetView topLeftCell="C19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="X123" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AO163" sqref="AO163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53020,7 +56434,7 @@
         <v>109</v>
       </c>
       <c r="AO28" s="120" t="e">
-        <f>SUM(AO30:AO150)</f>
+        <f>SUM(AO30:AO163)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP28" s="1"/>
@@ -53035,7 +56449,7 @@
       <c r="AW28" s="1"/>
       <c r="AX28" s="1"/>
       <c r="AY28" s="120" t="e">
-        <f>SUM(AY30:AY150)</f>
+        <f>SUM(AY30:AY163)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ28" s="1"/>
@@ -53059,7 +56473,7 @@
         <v>0</v>
       </c>
       <c r="AP29" s="1" t="e">
-        <f>SUM(AP30:AP150)</f>
+        <f>SUM(AP30:AP163)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ29" s="1"/>
@@ -53075,7 +56489,7 @@
       <c r="AX29" s="1"/>
       <c r="AY29" s="1"/>
       <c r="AZ29" s="1" t="e">
-        <f>SUM(AZ30:AZ150)</f>
+        <f>SUM(AZ30:AZ163)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -60146,7 +63560,7 @@
         <v>0</v>
       </c>
       <c r="AI96" s="1">
-        <f t="shared" ref="AI96:AI150" si="47">1+AI95</f>
+        <f t="shared" ref="AI96:AI159" si="47">1+AI95</f>
         <v>67</v>
       </c>
       <c r="AJ96" s="1">
@@ -60183,7 +63597,7 @@
         <v>0</v>
       </c>
       <c r="AS96" s="1">
-        <f t="shared" ref="AS96:AS150" si="53">1+AS95</f>
+        <f t="shared" ref="AS96:AS159" si="53">1+AS95</f>
         <v>67</v>
       </c>
       <c r="AT96" s="1">
@@ -65564,6 +68978,1065 @@
     <row r="151" spans="27:52" x14ac:dyDescent="0.25">
       <c r="AB151" s="114"/>
       <c r="AD151" s="121"/>
+      <c r="AH151" s="1">
+        <f t="shared" ref="AH151:AH163" si="60">IF(INT(AI151/12)=AI151/12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI151" s="1">
+        <f t="shared" si="47"/>
+        <v>122</v>
+      </c>
+      <c r="AJ151" s="1">
+        <f t="shared" ref="AJ151:AJ163" si="61">AI151</f>
+        <v>122</v>
+      </c>
+      <c r="AK151" s="114" t="e">
+        <f t="shared" ref="AK151:AK163" si="62">IF(AH151=0,AK150-AM151,AK150+AL151)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL151" s="1" t="e">
+        <f t="shared" ref="AL151:AL163" si="63">AK150*$W$7/12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM151" s="121" t="e">
+        <f t="shared" ref="AM151:AM163" si="64">$W$10-AL151</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN151" s="1" t="e">
+        <f t="shared" ref="AN151:AN163" si="65">((AK151*((((1+$V$14)^(1/12))-1)-(($W$9/10000)/12))/(1.02)^((AJ151)/12)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO151" s="1" t="e">
+        <f t="shared" ref="AO151:AO163" si="66">IF(AN151&gt;=0,AN151,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP151" s="1" t="e">
+        <f t="shared" ref="AP151:AP163" si="67">IF(AO150&gt;0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR151" s="1">
+        <f t="shared" ref="AR151:AR163" si="68">IF(INT(AS151/12)=AS151/12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AS151" s="1">
+        <f t="shared" si="53"/>
+        <v>122</v>
+      </c>
+      <c r="AT151" s="1">
+        <f t="shared" ref="AT151:AT163" si="69">AS151</f>
+        <v>122</v>
+      </c>
+      <c r="AU151" s="114" t="e">
+        <f t="shared" ref="AU151:AU163" si="70">IF(AR151=0,AU150-AW151,AU150+AV151)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV151" s="1" t="e">
+        <f t="shared" ref="AV151:AV163" si="71">AU150*$W$7/12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW151" s="121" t="e">
+        <f t="shared" ref="AW151:AW163" si="72">$X$10-AV151</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX151" s="1" t="e">
+        <f t="shared" ref="AX151:AX163" si="73">((AU151*((((1+$V$14)^(1/12))-1)-(($W$9/10000)/12))/(1.02)^((AT151)/12)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY151" s="1" t="e">
+        <f t="shared" ref="AY151:AY163" si="74">IF(AX151&gt;=0,AX151,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ151" s="1" t="e">
+        <f t="shared" ref="AZ151:AZ163" si="75">IF(AY150&gt;0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="152" spans="27:52" x14ac:dyDescent="0.25">
+      <c r="AH152" s="1">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AI152" s="1">
+        <f t="shared" si="47"/>
+        <v>123</v>
+      </c>
+      <c r="AJ152" s="1">
+        <f t="shared" si="61"/>
+        <v>123</v>
+      </c>
+      <c r="AK152" s="114" t="e">
+        <f t="shared" si="62"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL152" s="1" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM152" s="121" t="e">
+        <f t="shared" si="64"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN152" s="1" t="e">
+        <f t="shared" si="65"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO152" s="1" t="e">
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP152" s="1" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR152" s="1">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AS152" s="1">
+        <f t="shared" si="53"/>
+        <v>123</v>
+      </c>
+      <c r="AT152" s="1">
+        <f t="shared" si="69"/>
+        <v>123</v>
+      </c>
+      <c r="AU152" s="114" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV152" s="1" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW152" s="121" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX152" s="1" t="e">
+        <f t="shared" si="73"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY152" s="1" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ152" s="1" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="153" spans="27:52" x14ac:dyDescent="0.25">
+      <c r="AH153" s="1">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AI153" s="1">
+        <f t="shared" si="47"/>
+        <v>124</v>
+      </c>
+      <c r="AJ153" s="1">
+        <f t="shared" si="61"/>
+        <v>124</v>
+      </c>
+      <c r="AK153" s="114" t="e">
+        <f t="shared" si="62"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL153" s="1" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM153" s="121" t="e">
+        <f t="shared" si="64"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN153" s="1" t="e">
+        <f t="shared" si="65"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO153" s="1" t="e">
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP153" s="1" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR153" s="1">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AS153" s="1">
+        <f t="shared" si="53"/>
+        <v>124</v>
+      </c>
+      <c r="AT153" s="1">
+        <f t="shared" si="69"/>
+        <v>124</v>
+      </c>
+      <c r="AU153" s="114" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV153" s="1" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW153" s="121" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX153" s="1" t="e">
+        <f t="shared" si="73"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY153" s="1" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ153" s="1" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="154" spans="27:52" x14ac:dyDescent="0.25">
+      <c r="AH154" s="1">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AI154" s="1">
+        <f t="shared" si="47"/>
+        <v>125</v>
+      </c>
+      <c r="AJ154" s="1">
+        <f t="shared" si="61"/>
+        <v>125</v>
+      </c>
+      <c r="AK154" s="114" t="e">
+        <f t="shared" si="62"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL154" s="1" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM154" s="121" t="e">
+        <f t="shared" si="64"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN154" s="1" t="e">
+        <f t="shared" si="65"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO154" s="1" t="e">
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP154" s="1" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR154" s="1">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AS154" s="1">
+        <f t="shared" si="53"/>
+        <v>125</v>
+      </c>
+      <c r="AT154" s="1">
+        <f t="shared" si="69"/>
+        <v>125</v>
+      </c>
+      <c r="AU154" s="114" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV154" s="1" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW154" s="121" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX154" s="1" t="e">
+        <f t="shared" si="73"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY154" s="1" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ154" s="1" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="155" spans="27:52" x14ac:dyDescent="0.25">
+      <c r="AH155" s="1">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AI155" s="1">
+        <f t="shared" si="47"/>
+        <v>126</v>
+      </c>
+      <c r="AJ155" s="1">
+        <f t="shared" si="61"/>
+        <v>126</v>
+      </c>
+      <c r="AK155" s="114" t="e">
+        <f t="shared" si="62"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL155" s="1" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM155" s="121" t="e">
+        <f t="shared" si="64"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN155" s="1" t="e">
+        <f t="shared" si="65"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO155" s="1" t="e">
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP155" s="1" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR155" s="1">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AS155" s="1">
+        <f t="shared" si="53"/>
+        <v>126</v>
+      </c>
+      <c r="AT155" s="1">
+        <f t="shared" si="69"/>
+        <v>126</v>
+      </c>
+      <c r="AU155" s="114" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV155" s="1" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW155" s="121" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX155" s="1" t="e">
+        <f t="shared" si="73"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY155" s="1" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ155" s="1" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="156" spans="27:52" x14ac:dyDescent="0.25">
+      <c r="AH156" s="1">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AI156" s="1">
+        <f t="shared" si="47"/>
+        <v>127</v>
+      </c>
+      <c r="AJ156" s="1">
+        <f t="shared" si="61"/>
+        <v>127</v>
+      </c>
+      <c r="AK156" s="114" t="e">
+        <f t="shared" si="62"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL156" s="1" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM156" s="121" t="e">
+        <f t="shared" si="64"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN156" s="1" t="e">
+        <f t="shared" si="65"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO156" s="1" t="e">
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP156" s="1" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR156" s="1">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AS156" s="1">
+        <f t="shared" si="53"/>
+        <v>127</v>
+      </c>
+      <c r="AT156" s="1">
+        <f t="shared" si="69"/>
+        <v>127</v>
+      </c>
+      <c r="AU156" s="114" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV156" s="1" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW156" s="121" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX156" s="1" t="e">
+        <f t="shared" si="73"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY156" s="1" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ156" s="1" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="157" spans="27:52" x14ac:dyDescent="0.25">
+      <c r="AH157" s="1">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AI157" s="1">
+        <f t="shared" si="47"/>
+        <v>128</v>
+      </c>
+      <c r="AJ157" s="1">
+        <f t="shared" si="61"/>
+        <v>128</v>
+      </c>
+      <c r="AK157" s="114" t="e">
+        <f t="shared" si="62"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL157" s="1" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM157" s="121" t="e">
+        <f t="shared" si="64"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN157" s="1" t="e">
+        <f t="shared" si="65"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO157" s="1" t="e">
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP157" s="1" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR157" s="1">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AS157" s="1">
+        <f t="shared" si="53"/>
+        <v>128</v>
+      </c>
+      <c r="AT157" s="1">
+        <f t="shared" si="69"/>
+        <v>128</v>
+      </c>
+      <c r="AU157" s="114" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV157" s="1" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW157" s="121" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX157" s="1" t="e">
+        <f t="shared" si="73"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY157" s="1" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ157" s="1" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="158" spans="27:52" x14ac:dyDescent="0.25">
+      <c r="AH158" s="1">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AI158" s="1">
+        <f t="shared" si="47"/>
+        <v>129</v>
+      </c>
+      <c r="AJ158" s="1">
+        <f t="shared" si="61"/>
+        <v>129</v>
+      </c>
+      <c r="AK158" s="114" t="e">
+        <f t="shared" si="62"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL158" s="1" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM158" s="121" t="e">
+        <f t="shared" si="64"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN158" s="1" t="e">
+        <f t="shared" si="65"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO158" s="1" t="e">
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP158" s="1" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR158" s="1">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AS158" s="1">
+        <f t="shared" si="53"/>
+        <v>129</v>
+      </c>
+      <c r="AT158" s="1">
+        <f t="shared" si="69"/>
+        <v>129</v>
+      </c>
+      <c r="AU158" s="114" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV158" s="1" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW158" s="121" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX158" s="1" t="e">
+        <f t="shared" si="73"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY158" s="1" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ158" s="1" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="159" spans="27:52" x14ac:dyDescent="0.25">
+      <c r="AH159" s="1">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AI159" s="1">
+        <f t="shared" si="47"/>
+        <v>130</v>
+      </c>
+      <c r="AJ159" s="1">
+        <f t="shared" si="61"/>
+        <v>130</v>
+      </c>
+      <c r="AK159" s="114" t="e">
+        <f t="shared" si="62"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL159" s="1" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM159" s="121" t="e">
+        <f t="shared" si="64"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN159" s="1" t="e">
+        <f t="shared" si="65"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO159" s="1" t="e">
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP159" s="1" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR159" s="1">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AS159" s="1">
+        <f t="shared" si="53"/>
+        <v>130</v>
+      </c>
+      <c r="AT159" s="1">
+        <f t="shared" si="69"/>
+        <v>130</v>
+      </c>
+      <c r="AU159" s="114" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV159" s="1" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW159" s="121" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX159" s="1" t="e">
+        <f t="shared" si="73"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY159" s="1" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ159" s="1" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="160" spans="27:52" x14ac:dyDescent="0.25">
+      <c r="AH160" s="1">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AI160" s="1">
+        <f t="shared" ref="AI160:AI163" si="76">1+AI159</f>
+        <v>131</v>
+      </c>
+      <c r="AJ160" s="1">
+        <f t="shared" si="61"/>
+        <v>131</v>
+      </c>
+      <c r="AK160" s="114" t="e">
+        <f t="shared" si="62"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL160" s="1" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM160" s="121" t="e">
+        <f t="shared" si="64"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN160" s="1" t="e">
+        <f t="shared" si="65"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO160" s="1" t="e">
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP160" s="1" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR160" s="1">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AS160" s="1">
+        <f t="shared" ref="AS160:AS163" si="77">1+AS159</f>
+        <v>131</v>
+      </c>
+      <c r="AT160" s="1">
+        <f t="shared" si="69"/>
+        <v>131</v>
+      </c>
+      <c r="AU160" s="114" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV160" s="1" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW160" s="121" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX160" s="1" t="e">
+        <f t="shared" si="73"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY160" s="1" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ160" s="1" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="161" spans="34:52" x14ac:dyDescent="0.25">
+      <c r="AH161" s="1">
+        <f t="shared" si="60"/>
+        <v>1</v>
+      </c>
+      <c r="AI161" s="1">
+        <f t="shared" si="76"/>
+        <v>132</v>
+      </c>
+      <c r="AJ161" s="1">
+        <f t="shared" si="61"/>
+        <v>132</v>
+      </c>
+      <c r="AK161" s="114" t="e">
+        <f t="shared" si="62"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL161" s="1" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM161" s="121" t="e">
+        <f t="shared" si="64"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN161" s="1" t="e">
+        <f t="shared" si="65"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO161" s="1" t="e">
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP161" s="1" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR161" s="1">
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="AS161" s="1">
+        <f t="shared" si="77"/>
+        <v>132</v>
+      </c>
+      <c r="AT161" s="1">
+        <f t="shared" si="69"/>
+        <v>132</v>
+      </c>
+      <c r="AU161" s="114" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV161" s="1" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW161" s="121" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX161" s="1" t="e">
+        <f t="shared" si="73"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY161" s="1" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ161" s="1" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="162" spans="34:52" x14ac:dyDescent="0.25">
+      <c r="AH162" s="1">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AI162" s="1">
+        <f t="shared" si="76"/>
+        <v>133</v>
+      </c>
+      <c r="AJ162" s="1">
+        <f t="shared" si="61"/>
+        <v>133</v>
+      </c>
+      <c r="AK162" s="114" t="e">
+        <f t="shared" si="62"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL162" s="1" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM162" s="121" t="e">
+        <f t="shared" si="64"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN162" s="1" t="e">
+        <f t="shared" si="65"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO162" s="1" t="e">
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP162" s="1" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR162" s="1">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AS162" s="1">
+        <f t="shared" si="77"/>
+        <v>133</v>
+      </c>
+      <c r="AT162" s="1">
+        <f t="shared" si="69"/>
+        <v>133</v>
+      </c>
+      <c r="AU162" s="114" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV162" s="1" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW162" s="121" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX162" s="1" t="e">
+        <f t="shared" si="73"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY162" s="1" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ162" s="1" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="163" spans="34:52" x14ac:dyDescent="0.25">
+      <c r="AH163" s="1">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AI163" s="1">
+        <f t="shared" si="76"/>
+        <v>134</v>
+      </c>
+      <c r="AJ163" s="1">
+        <f t="shared" si="61"/>
+        <v>134</v>
+      </c>
+      <c r="AK163" s="114" t="e">
+        <f t="shared" si="62"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL163" s="1" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM163" s="121" t="e">
+        <f t="shared" si="64"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN163" s="1" t="e">
+        <f t="shared" si="65"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO163" s="1" t="e">
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP163" s="1" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR163" s="1">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AS163" s="1">
+        <f t="shared" si="77"/>
+        <v>134</v>
+      </c>
+      <c r="AT163" s="1">
+        <f t="shared" si="69"/>
+        <v>134</v>
+      </c>
+      <c r="AU163" s="114" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV163" s="1" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW163" s="121" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX163" s="1" t="e">
+        <f t="shared" si="73"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY163" s="1" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ163" s="1" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="164" spans="34:52" x14ac:dyDescent="0.25">
+      <c r="AR164" s="1"/>
+      <c r="AS164" s="1"/>
+      <c r="AT164" s="1"/>
+      <c r="AU164" s="114"/>
+      <c r="AV164" s="1"/>
+      <c r="AW164" s="121"/>
+      <c r="AX164" s="1"/>
+      <c r="AY164" s="1"/>
+      <c r="AZ164" s="1"/>
+    </row>
+    <row r="165" spans="34:52" x14ac:dyDescent="0.25">
+      <c r="AR165" s="1"/>
+      <c r="AS165" s="1"/>
+      <c r="AT165" s="1"/>
+      <c r="AU165" s="114"/>
+      <c r="AV165" s="1"/>
+      <c r="AW165" s="121"/>
+      <c r="AX165" s="1"/>
+      <c r="AY165" s="1"/>
+      <c r="AZ165" s="1"/>
+    </row>
+    <row r="166" spans="34:52" x14ac:dyDescent="0.25">
+      <c r="AR166" s="1"/>
+      <c r="AS166" s="1"/>
+      <c r="AT166" s="1"/>
+      <c r="AU166" s="114"/>
+      <c r="AV166" s="1"/>
+      <c r="AW166" s="121"/>
+      <c r="AX166" s="1"/>
+      <c r="AY166" s="1"/>
+      <c r="AZ166" s="1"/>
+    </row>
+    <row r="167" spans="34:52" x14ac:dyDescent="0.25">
+      <c r="AR167" s="1"/>
+      <c r="AS167" s="1"/>
+      <c r="AT167" s="1"/>
+      <c r="AU167" s="114"/>
+      <c r="AV167" s="1"/>
+      <c r="AW167" s="121"/>
+      <c r="AX167" s="1"/>
+      <c r="AY167" s="1"/>
+      <c r="AZ167" s="1"/>
+    </row>
+    <row r="168" spans="34:52" x14ac:dyDescent="0.25">
+      <c r="AR168" s="1"/>
+      <c r="AS168" s="1"/>
+      <c r="AT168" s="1"/>
+      <c r="AU168" s="114"/>
+      <c r="AV168" s="1"/>
+      <c r="AW168" s="121"/>
+      <c r="AX168" s="1"/>
+      <c r="AY168" s="1"/>
+      <c r="AZ168" s="1"/>
+    </row>
+    <row r="169" spans="34:52" x14ac:dyDescent="0.25">
+      <c r="AR169" s="1"/>
+      <c r="AS169" s="1"/>
+      <c r="AT169" s="1"/>
+      <c r="AU169" s="114"/>
+      <c r="AV169" s="1"/>
+      <c r="AW169" s="121"/>
+      <c r="AX169" s="1"/>
+      <c r="AY169" s="1"/>
+      <c r="AZ169" s="1"/>
+    </row>
+    <row r="170" spans="34:52" x14ac:dyDescent="0.25">
+      <c r="AR170" s="1"/>
+      <c r="AS170" s="1"/>
+      <c r="AT170" s="1"/>
+      <c r="AU170" s="114"/>
+      <c r="AV170" s="1"/>
+      <c r="AW170" s="121"/>
+      <c r="AX170" s="1"/>
+      <c r="AY170" s="1"/>
+      <c r="AZ170" s="1"/>
+    </row>
+    <row r="171" spans="34:52" x14ac:dyDescent="0.25">
+      <c r="AR171" s="1"/>
+      <c r="AS171" s="1"/>
+      <c r="AT171" s="1"/>
+      <c r="AU171" s="114"/>
+      <c r="AV171" s="1"/>
+      <c r="AW171" s="121"/>
+      <c r="AX171" s="1"/>
+      <c r="AY171" s="1"/>
+      <c r="AZ171" s="1"/>
+    </row>
+    <row r="172" spans="34:52" x14ac:dyDescent="0.25">
+      <c r="AR172" s="1"/>
+      <c r="AS172" s="1"/>
+      <c r="AT172" s="1"/>
+      <c r="AU172" s="114"/>
+      <c r="AV172" s="1"/>
+      <c r="AW172" s="121"/>
+      <c r="AX172" s="1"/>
+      <c r="AY172" s="1"/>
+      <c r="AZ172" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -65941,7 +70414,7 @@
       <c r="C19" s="82"/>
       <c r="D19" s="122">
         <f ca="1">NOW()</f>
-        <v>44876.461728587965</v>
+        <v>44893.645687037038</v>
       </c>
       <c r="E19" s="82"/>
       <c r="F19" s="82" t="s">

--- a/ExcelBlanko.xlsx
+++ b/ExcelBlanko.xlsx
@@ -5,13 +5,13 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\V\DATEN\BN_BSS11\T_PRO_PKG\Performance\DB Verprobung\Vertriebstool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\oneLine_Backoffice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E836CB9D-EADF-4C19-88D8-7D87608507AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="wEJNkYnY8gVcLKVJuX5xYI01v+xT7mMbPUW9YMbfyQqFAdvz/vLcRbAW7UntaSWe7/ak+hm2Lv3UEJf1fGqoRw==" workbookSaltValue="3xh6rzkNeT3MNYZgrUASLg==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F2EDC7A-DA90-4029-9294-CD5030BA7518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="QV38z4XmEvP8epS8iL+DBd/fDI6DPwUt6dqz4ds4POUcSf+ob5trf1LoOzg+RQYpyxLPCmIPlrdkm3z9IgO1Dg==" workbookSaltValue="l5I7Gq32r5XB3f3EfH79gQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="15" r:id="rId1"/>
@@ -27,21 +27,28 @@
     <sheet name="Bg WB vereinb_Kredit2" sheetId="23" state="hidden" r:id="rId11"/>
     <sheet name="Bg Produktkalk I_Kredit2" sheetId="24" state="hidden" r:id="rId12"/>
     <sheet name="Background2" sheetId="27" state="hidden" r:id="rId13"/>
+    <sheet name="Aufstockungsquoten" sheetId="28" state="hidden" r:id="rId14"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId15"/>
+  </externalReferences>
   <definedNames>
     <definedName name="Anzahl_der_Raten" localSheetId="7">Kalk_Kredit2!$D$8</definedName>
     <definedName name="Anzahl_der_Raten">Kalkulationstool!$D$8</definedName>
     <definedName name="Bezahlter_RKV_Einmalbeitrag_für_den_Altkredit">'Bewertung Aufstockung'!$B$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">Kalk_Kredit2!$A$1:$R$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Kalkulationstool!$A$1:$R$26</definedName>
+    <definedName name="Eigenablösebetrag" localSheetId="13">[1]Kalkulationstool!$D$11</definedName>
     <definedName name="Eigenablösebetrag" localSheetId="7">Kalk_Kredit2!$D$11</definedName>
     <definedName name="Eigenablösebetrag">Kalkulationstool!$D$11</definedName>
     <definedName name="Expected_Loss" localSheetId="7">Kalk_Kredit2!$D$7</definedName>
     <definedName name="Expected_Loss">Kalkulationstool!$D$7</definedName>
     <definedName name="Fremdablösebetrag" localSheetId="7">Kalk_Kredit2!$D$12</definedName>
     <definedName name="Fremdablösebetrag">Kalkulationstool!$D$12</definedName>
+    <definedName name="Gesamtkreditbetrag" localSheetId="13">[1]Kalkulationstool!$D$10</definedName>
     <definedName name="Gesamtkreditbetrag" localSheetId="7">Kalk_Kredit2!$D$10</definedName>
     <definedName name="Gesamtkreditbetrag">Kalkulationstool!$D$10</definedName>
+    <definedName name="Höchste_Absicherungsquote_des_Neukredits" localSheetId="13">'[1]Bewertung Aufstockung'!$B$7</definedName>
     <definedName name="Höchste_Absicherungsquote_des_Neukredits">'Bewertung Aufstockung'!$B$7</definedName>
     <definedName name="IVS" localSheetId="7">Kalk_Kredit2!$D$14</definedName>
     <definedName name="IVS">Kalkulationstool!$D$14</definedName>
@@ -60,14 +67,17 @@
     <definedName name="vereinbarter_Effektivzins_p.a.">Wertbeitrag!$C$5</definedName>
     <definedName name="vereinbarter_Nominalzins_p.a." localSheetId="8">Wert_Kredit2!$C$6</definedName>
     <definedName name="vereinbarter_Nominalzins_p.a.">Wertbeitrag!$C$6</definedName>
+    <definedName name="Wertbeitrag_vereinbarter_Effektivzins" localSheetId="13">[1]Wertbeitrag!$C$14</definedName>
     <definedName name="Wertbeitrag_vereinbarter_Effektivzins" localSheetId="8">Wert_Kredit2!$C$14</definedName>
     <definedName name="Wertbeitrag_vereinbarter_Effektivzins">Wertbeitrag!$C$14</definedName>
+    <definedName name="Wertbeitrag_Zielkondition" localSheetId="13">[1]Wertbeitrag!$C$13</definedName>
     <definedName name="Wertbeitrag_Zielkondition" localSheetId="8">Wert_Kredit2!$C$13</definedName>
     <definedName name="Wertbeitrag_Zielkondition">Wertbeitrag!$C$13</definedName>
     <definedName name="Zielkondition_effektiv" localSheetId="7">Kalk_Kredit2!$D$20</definedName>
     <definedName name="Zielkondition_effektiv">Kalkulationstool!$D$20</definedName>
     <definedName name="Zielkondition_nominal" localSheetId="7">Kalk_Kredit2!$D$21</definedName>
     <definedName name="Zielkondition_nominal">Kalkulationstool!$D$21</definedName>
+    <definedName name="Zuführer" localSheetId="13">[1]Kalkulationstool!$D$13</definedName>
     <definedName name="Zuführer" localSheetId="7">Kalk_Kredit2!$D$13</definedName>
     <definedName name="Zuführer">Kalkulationstool!$D$13</definedName>
   </definedNames>
@@ -87,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="242">
   <si>
     <t>MOVE</t>
   </si>
@@ -814,10 +824,183 @@
     <t>Die neue absolute Preisuntergrenze liegt bei 3,99% eff. nach Konditionskompetenzen, bei DVAG-Geschäften bei 4,49% eff. (Ausnahme: RL-Sonderkondition)</t>
   </si>
   <si>
-    <t>Gültig ab 29.11.2022</t>
+    <t>Bezogen auf das neue (=aufgestockte) Kreditvolumen; bei mehreren Bausteinen gilt die höchste Absicherungsquote; Achtung: Eingabe in KFPK bei Delta-Variante abweichend (da bezogen auf den Gesamtkredit)</t>
   </si>
   <si>
-    <t>Bezogen auf das neue (=aufgestockte) Kreditvolumen; bei mehreren Bausteinen gilt die höchste Absicherungsquote; Achtung: Eingabe in KFPK bei Delta-Variante abweichend (da bezogen auf den Gesamtkredit)</t>
+    <r>
+      <t xml:space="preserve">Berechnung von Quoten für die Bestimmung der passenden RKV </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>bei der Delta-Methode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Berechnete Aufstockungsquote</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (=maximale Absicherungshöhe bei der Delta-Methode):</t>
+    </r>
+  </si>
+  <si>
+    <t>Berechnung: Aufstockungsbetrag / Gesamtkreditbetrag ohne Zinsen</t>
+  </si>
+  <si>
+    <t>Bezogen auf Eigenablösungen, keine Berücksichtigung von Fremdbankablösungen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Erforderlicher Aufstockungsbetrag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> für eine Aufstockungsquote von</t>
+    </r>
+  </si>
+  <si>
+    <t>&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Aufstockungsquote = Aufstockungsbetrag / Gesamtkreditbetrag ohne Zinsen</t>
+  </si>
+  <si>
+    <t>Nächstgeringere in KFPK erfassbare Aufstockungsquote</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Berechnete Aufstockungsquote</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (entspricht maximaler Absicherungshöhe bei der Delta-Variante):</t>
+    </r>
+  </si>
+  <si>
+    <t>Diese Quote ist für die Eingabe in KFPK auf die nächste 10%-Schwelle abzurunden</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Aktuell nicht abgesicherter Kreditbetrag </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(wegen 10%-Absicherungsschritten in KFPK):</t>
+    </r>
+  </si>
+  <si>
+    <t>Dieser Betrag kann in der aktuellen Konstellation mit der Delta-Methode nicht abgesichert werden.</t>
+  </si>
+  <si>
+    <t>Erforderlicher Aufstockungsbetrag, um nächste 10%-Schwelle für Voll-Absicherung zu erreichen:</t>
+  </si>
+  <si>
+    <t>Bei diesem Aufstockungsbetrag ist eine Voll-Absicherung möglich</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dafür benötigte zusätzliche Erhöhung der Aufstockung</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> im Vergleich zum aktuell gewählten Kredit:</t>
+    </r>
+  </si>
+  <si>
+    <t>Bei einer Erhöhung des Gesamtkredits um desen Betrag kann der Kunde voll abgesichert werden</t>
+  </si>
+  <si>
+    <r>
+      <t>Neuer Gesamtkreditbetrag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> zur Eingabe im KFPK und im Kalkulationstool:</t>
+    </r>
+  </si>
+  <si>
+    <t>Bei diesem Gesamtkreditbetrag wird die nächste 10%-Schwelle als Absicherungsmöglichkeit erreicht.</t>
+  </si>
+  <si>
+    <t>Gültig ab 16.12.2022</t>
+  </si>
+  <si>
+    <t>Der zur Ermittlung der maximalen Konditionskompetenz herangezogene Wertbeitrag weicht von dem hier dargestellten Wertbeitrag ab.</t>
   </si>
 </sst>
 </file>
@@ -839,7 +1022,7 @@
     <numFmt numFmtId="172" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
     <numFmt numFmtId="173" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1092,6 +1275,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2013,7 +2212,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="269">
+  <cellXfs count="280">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2540,6 +2739,28 @@
     <xf numFmtId="0" fontId="24" fillId="38" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="173" fontId="32" fillId="39" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="43" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="36" borderId="39" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="34" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="34" fillId="36" borderId="39" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="16" fillId="36" borderId="39" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2564,6 +2785,15 @@
     <xf numFmtId="0" fontId="16" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -2582,16 +2812,7 @@
     <xf numFmtId="0" fontId="18" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2603,13 +2824,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="173" fontId="32" fillId="39" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5912,6 +6126,62 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Startseite"/>
+      <sheetName val="Kalkulationstool"/>
+      <sheetName val="Wertbeitrag"/>
+      <sheetName val="Bewertung Aufstockung"/>
+      <sheetName val="Aufstockungsquoten"/>
+      <sheetName val="Background WB vereinb"/>
+      <sheetName val="Background Produktkalk I"/>
+      <sheetName val="Background"/>
+      <sheetName val="Kalk_Kredit2"/>
+      <sheetName val="Wert_Kredit2"/>
+      <sheetName val="Kalk_RKV"/>
+      <sheetName val="Bg WB vereinb_Kredit2"/>
+      <sheetName val="Bg Produktkalk I_Kredit2"/>
+      <sheetName val="Background2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="13">
+          <cell r="D13" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="13">
+          <cell r="C13" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14" t="str">
+            <v/>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -6267,7 +6537,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JYwy7kboPgge/TksOyx4WlXe3Y2w8CHdjGH4vOHo062i4FsbFVanknLhXtIIR8S/xY2MHHIifjIV9ySXCfb9pg==" saltValue="lcLOGyCGVRSX90khvPa8AA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PE92VI+ommGNYJjtpg/9xK5fQzN2k8omOoSjW9KG7l0i5VDYEQ5CQTtpCGqkcdDBx+y+1VAc0nuyzNQh8g+mRw==" saltValue="j4QSEzBhuKGfuJxGkWqGNw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -6282,7 +6552,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6397,10 +6667,10 @@
   <dimension ref="A3:AB139"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.42578125" style="1"/>
@@ -6421,36 +6691,36 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="F3" s="249" t="s">
+      <c r="F3" s="265" t="s">
         <v>143</v>
       </c>
-      <c r="G3" s="249"/>
-      <c r="H3" s="249"/>
-      <c r="I3" s="249"/>
-      <c r="J3" s="249"/>
-      <c r="K3" s="249"/>
-      <c r="L3" s="249"/>
-      <c r="M3" s="249"/>
+      <c r="G3" s="265"/>
+      <c r="H3" s="265"/>
+      <c r="I3" s="265"/>
+      <c r="J3" s="265"/>
+      <c r="K3" s="265"/>
+      <c r="L3" s="265"/>
+      <c r="M3" s="265"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
-      <c r="U3" s="249" t="s">
+      <c r="U3" s="265" t="s">
         <v>142</v>
       </c>
-      <c r="V3" s="249"/>
-      <c r="W3" s="249"/>
-      <c r="X3" s="249"/>
-      <c r="Y3" s="249"/>
-      <c r="Z3" s="249"/>
-      <c r="AA3" s="249"/>
-      <c r="AB3" s="249"/>
+      <c r="V3" s="265"/>
+      <c r="W3" s="265"/>
+      <c r="X3" s="265"/>
+      <c r="Y3" s="265"/>
+      <c r="Z3" s="265"/>
+      <c r="AA3" s="265"/>
+      <c r="AB3" s="265"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="250" t="s">
+      <c r="A4" s="266" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="250"/>
-      <c r="C4" s="250"/>
-      <c r="D4" s="250"/>
+      <c r="B4" s="266"/>
+      <c r="C4" s="266"/>
+      <c r="D4" s="266"/>
       <c r="E4" s="168"/>
       <c r="F4" s="1" t="s">
         <v>131</v>
@@ -6476,12 +6746,12 @@
       <c r="M4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="250" t="s">
+      <c r="P4" s="266" t="s">
         <v>130</v>
       </c>
-      <c r="Q4" s="250"/>
-      <c r="R4" s="250"/>
-      <c r="S4" s="250"/>
+      <c r="Q4" s="266"/>
+      <c r="R4" s="266"/>
+      <c r="S4" s="266"/>
       <c r="T4" s="168"/>
       <c r="U4" s="1" t="s">
         <v>131</v>
@@ -14273,7 +14543,7 @@
   <dimension ref="A3:AB139"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14297,36 +14567,36 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="F3" s="249" t="s">
+      <c r="F3" s="265" t="s">
         <v>143</v>
       </c>
-      <c r="G3" s="249"/>
-      <c r="H3" s="249"/>
-      <c r="I3" s="249"/>
-      <c r="J3" s="249"/>
-      <c r="K3" s="249"/>
-      <c r="L3" s="249"/>
-      <c r="M3" s="249"/>
+      <c r="G3" s="265"/>
+      <c r="H3" s="265"/>
+      <c r="I3" s="265"/>
+      <c r="J3" s="265"/>
+      <c r="K3" s="265"/>
+      <c r="L3" s="265"/>
+      <c r="M3" s="265"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
-      <c r="U3" s="249" t="s">
+      <c r="U3" s="265" t="s">
         <v>142</v>
       </c>
-      <c r="V3" s="249"/>
-      <c r="W3" s="249"/>
-      <c r="X3" s="249"/>
-      <c r="Y3" s="249"/>
-      <c r="Z3" s="249"/>
-      <c r="AA3" s="249"/>
-      <c r="AB3" s="249"/>
+      <c r="V3" s="265"/>
+      <c r="W3" s="265"/>
+      <c r="X3" s="265"/>
+      <c r="Y3" s="265"/>
+      <c r="Z3" s="265"/>
+      <c r="AA3" s="265"/>
+      <c r="AB3" s="265"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="250" t="s">
+      <c r="A4" s="266" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="250"/>
-      <c r="C4" s="250"/>
-      <c r="D4" s="250"/>
+      <c r="B4" s="266"/>
+      <c r="C4" s="266"/>
+      <c r="D4" s="266"/>
       <c r="E4" s="168"/>
       <c r="F4" s="1" t="s">
         <v>131</v>
@@ -14352,12 +14622,12 @@
       <c r="M4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="250" t="s">
+      <c r="P4" s="266" t="s">
         <v>130</v>
       </c>
-      <c r="Q4" s="250"/>
-      <c r="R4" s="250"/>
-      <c r="S4" s="250"/>
+      <c r="Q4" s="266"/>
+      <c r="R4" s="266"/>
+      <c r="S4" s="266"/>
       <c r="T4" s="168"/>
       <c r="U4" s="1" t="s">
         <v>131</v>
@@ -22142,8 +22412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255CCD47-8ECF-49F3-970E-FBDD02F87F6C}">
   <dimension ref="A1:AZ163"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AY28" sqref="AY28"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22219,34 +22489,34 @@
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
-      <c r="AA2" s="249" t="s">
+      <c r="AA2" s="265" t="s">
         <v>85</v>
       </c>
-      <c r="AB2" s="249"/>
-      <c r="AC2" s="249"/>
-      <c r="AD2" s="249"/>
-      <c r="AE2" s="249"/>
-      <c r="AF2" s="249"/>
-      <c r="AH2" s="249" t="s">
+      <c r="AB2" s="265"/>
+      <c r="AC2" s="265"/>
+      <c r="AD2" s="265"/>
+      <c r="AE2" s="265"/>
+      <c r="AF2" s="265"/>
+      <c r="AH2" s="265" t="s">
         <v>123</v>
       </c>
-      <c r="AI2" s="249"/>
-      <c r="AJ2" s="249"/>
-      <c r="AK2" s="249"/>
-      <c r="AL2" s="249"/>
-      <c r="AM2" s="249"/>
-      <c r="AN2" s="249"/>
-      <c r="AO2" s="249"/>
-      <c r="AR2" s="249" t="s">
+      <c r="AI2" s="265"/>
+      <c r="AJ2" s="265"/>
+      <c r="AK2" s="265"/>
+      <c r="AL2" s="265"/>
+      <c r="AM2" s="265"/>
+      <c r="AN2" s="265"/>
+      <c r="AO2" s="265"/>
+      <c r="AR2" s="265" t="s">
         <v>124</v>
       </c>
-      <c r="AS2" s="249"/>
-      <c r="AT2" s="249"/>
-      <c r="AU2" s="249"/>
-      <c r="AV2" s="249"/>
-      <c r="AW2" s="249"/>
-      <c r="AX2" s="249"/>
-      <c r="AY2" s="249"/>
+      <c r="AS2" s="265"/>
+      <c r="AT2" s="265"/>
+      <c r="AU2" s="265"/>
+      <c r="AV2" s="265"/>
+      <c r="AW2" s="265"/>
+      <c r="AX2" s="265"/>
+      <c r="AY2" s="265"/>
     </row>
     <row r="3" spans="1:51" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="72">
@@ -22272,30 +22542,30 @@
         <v>15</v>
       </c>
       <c r="L3" s="23"/>
-      <c r="U3" s="250" t="s">
+      <c r="U3" s="266" t="s">
         <v>86</v>
       </c>
-      <c r="V3" s="250"/>
-      <c r="W3" s="250"/>
-      <c r="AB3" s="257" t="s">
+      <c r="V3" s="266"/>
+      <c r="W3" s="266"/>
+      <c r="AB3" s="268" t="s">
         <v>87</v>
       </c>
-      <c r="AC3" s="257"/>
-      <c r="AD3" s="257"/>
+      <c r="AC3" s="268"/>
+      <c r="AD3" s="268"/>
       <c r="AE3" s="108"/>
       <c r="AF3" s="108"/>
-      <c r="AI3" s="257" t="s">
+      <c r="AI3" s="268" t="s">
         <v>87</v>
       </c>
-      <c r="AJ3" s="257"/>
-      <c r="AK3" s="257"/>
+      <c r="AJ3" s="268"/>
+      <c r="AK3" s="268"/>
       <c r="AL3" s="108"/>
       <c r="AM3" s="108"/>
-      <c r="AS3" s="257" t="s">
+      <c r="AS3" s="268" t="s">
         <v>87</v>
       </c>
-      <c r="AT3" s="257"/>
-      <c r="AU3" s="257"/>
+      <c r="AT3" s="268"/>
+      <c r="AU3" s="268"/>
       <c r="AV3" s="108"/>
       <c r="AW3" s="108"/>
     </row>
@@ -22328,24 +22598,24 @@
         <f>Kalk_Kredit2!D10</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="258" t="s">
+      <c r="AB4" s="269" t="s">
         <v>89</v>
       </c>
-      <c r="AC4" s="258"/>
+      <c r="AC4" s="269"/>
       <c r="AD4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AI4" s="258" t="s">
+      <c r="AI4" s="269" t="s">
         <v>91</v>
       </c>
-      <c r="AJ4" s="258"/>
+      <c r="AJ4" s="269"/>
       <c r="AK4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AS4" s="258" t="s">
+      <c r="AS4" s="269" t="s">
         <v>91</v>
       </c>
-      <c r="AT4" s="258"/>
+      <c r="AT4" s="269"/>
       <c r="AU4" s="1" t="s">
         <v>90</v>
       </c>
@@ -22360,7 +22630,7 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="251" t="s">
+      <c r="H5" s="270" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="124">
@@ -22368,7 +22638,7 @@
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="12">
-        <v>-1.5</v>
+        <v>-1.3</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>25</v>
@@ -22420,13 +22690,13 @@
       <c r="B6" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="252"/>
+      <c r="H6" s="271"/>
       <c r="I6" s="124">
         <v>5.01</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="13">
-        <v>-1.3</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="L6" s="120">
         <v>6</v>
@@ -22500,13 +22770,13 @@
       <c r="B7" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="252"/>
+      <c r="H7" s="271"/>
       <c r="I7" s="124">
         <v>10.01</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="13">
-        <v>-1.1000000000000001</v>
+        <v>-0.9</v>
       </c>
       <c r="L7" s="120">
         <v>11</v>
@@ -22585,13 +22855,13 @@
       <c r="D8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="252"/>
+      <c r="H8" s="271"/>
       <c r="I8" s="124">
         <v>15.01</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="13">
-        <v>-0.9</v>
+        <v>-0.7</v>
       </c>
       <c r="L8" s="120">
         <v>16</v>
@@ -22661,13 +22931,13 @@
       <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="H9" s="252"/>
+      <c r="H9" s="271"/>
       <c r="I9" s="124">
         <v>20.010000000000002</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="13">
-        <v>-0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="L9" s="120">
         <v>21</v>
@@ -22737,13 +23007,13 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" s="252"/>
+      <c r="H10" s="271"/>
       <c r="I10" s="124">
         <v>30.01</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="13">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="L10" s="120">
         <v>31</v>
@@ -22817,18 +23087,18 @@
       <c r="D11" s="1">
         <v>2</v>
       </c>
-      <c r="H11" s="252"/>
+      <c r="H11" s="271"/>
       <c r="I11" s="124">
         <v>40.01</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="13">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="L11" s="120">
         <v>41</v>
       </c>
-      <c r="N11" s="261" t="s">
+      <c r="N11" s="277" t="s">
         <v>22</v>
       </c>
       <c r="O11" s="202" t="s">
@@ -22917,18 +23187,18 @@
       <c r="D12" s="1">
         <v>3</v>
       </c>
-      <c r="H12" s="252"/>
+      <c r="H12" s="271"/>
       <c r="I12" s="124">
         <v>50.01</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="13">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="120">
         <v>51</v>
       </c>
-      <c r="N12" s="262"/>
+      <c r="N12" s="278"/>
       <c r="O12" s="207" t="s">
         <v>175</v>
       </c>
@@ -23004,18 +23274,18 @@
       <c r="B13" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="252"/>
+      <c r="H13" s="271"/>
       <c r="I13" s="124">
         <v>60.01</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L13" s="120">
         <v>61</v>
       </c>
-      <c r="N13" s="262"/>
+      <c r="N13" s="278"/>
       <c r="O13" s="29" t="s">
         <v>176</v>
       </c>
@@ -23083,18 +23353,18 @@
       <c r="B14" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="252"/>
+      <c r="H14" s="271"/>
       <c r="I14" s="124">
         <v>70.010000000000005</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="13">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="L14" s="120">
         <v>71</v>
       </c>
-      <c r="N14" s="263"/>
+      <c r="N14" s="279"/>
       <c r="O14" s="196" t="s">
         <v>177</v>
       </c>
@@ -23173,13 +23443,13 @@
         <v>44</v>
       </c>
       <c r="D15" s="99"/>
-      <c r="H15" s="252"/>
+      <c r="H15" s="271"/>
       <c r="I15" s="124">
         <v>80.010000000000005</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="13">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="L15" s="120">
         <v>81</v>
@@ -23254,13 +23524,13 @@
       <c r="B16" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="252"/>
+      <c r="H16" s="271"/>
       <c r="I16" s="124">
         <v>90.01</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="13">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="L16" s="120">
         <v>91</v>
@@ -23332,13 +23602,13 @@
       <c r="B17" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="252"/>
+      <c r="H17" s="271"/>
       <c r="I17" s="124">
         <v>100.01</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="13">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="L17" s="120">
         <v>101</v>
@@ -23415,13 +23685,13 @@
       <c r="B18" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="252"/>
+      <c r="H18" s="271"/>
       <c r="I18" s="124">
         <v>125.01</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="13">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="L18" s="120">
         <v>126</v>
@@ -23493,13 +23763,13 @@
       <c r="B19" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="252"/>
+      <c r="H19" s="271"/>
       <c r="I19" s="124">
         <v>150.01</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="13">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="L19" s="120">
         <v>151</v>
@@ -23565,13 +23835,13 @@
       <c r="B20" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="252"/>
+      <c r="H20" s="271"/>
       <c r="I20" s="125">
         <v>175.01</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="15">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L20" s="120">
         <v>176</v>
@@ -23591,13 +23861,13 @@
       <c r="B21" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="252"/>
+      <c r="H21" s="271"/>
       <c r="I21" s="125">
         <v>200.01</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="15">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L21" s="120">
         <v>201</v>
@@ -23612,27 +23882,27 @@
         <f>W6+V16</f>
         <v>0</v>
       </c>
-      <c r="AA21" s="258" t="s">
+      <c r="AA21" s="269" t="s">
         <v>105</v>
       </c>
-      <c r="AB21" s="258"/>
+      <c r="AB21" s="269"/>
       <c r="AC21" s="1">
         <f>LOOKUP(V16,AA5:AA13,AD5:AD13)</f>
         <v>0</v>
       </c>
-      <c r="AH21" s="258" t="s">
+      <c r="AH21" s="269" t="s">
         <v>106</v>
       </c>
-      <c r="AI21" s="258"/>
+      <c r="AI21" s="269"/>
       <c r="AJ21" s="1">
         <f>IF(ISERROR(LOOKUP(V18,AH5:AH17,AK5:AK17)),0,LOOKUP(V18,AH5:AH17,AK5:AK17))</f>
         <v>0</v>
       </c>
       <c r="AO21" s="76"/>
-      <c r="AR21" s="258" t="s">
+      <c r="AR21" s="269" t="s">
         <v>106</v>
       </c>
-      <c r="AS21" s="258"/>
+      <c r="AS21" s="269"/>
       <c r="AT21" s="1">
         <f>IF(ISERROR(LOOKUP(V18,AR5:AR17,AU5:AU17)),0,LOOKUP(V18,AR5:AR17,AU5:AU17))</f>
         <v>0</v>
@@ -23646,13 +23916,13 @@
       <c r="B22" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="252"/>
+      <c r="H22" s="271"/>
       <c r="I22" s="125">
         <v>250.01</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="15">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="L22" s="120">
         <v>251</v>
@@ -23689,13 +23959,13 @@
       <c r="A23" s="52">
         <v>999</v>
       </c>
-      <c r="H23" s="252"/>
+      <c r="H23" s="271"/>
       <c r="I23" s="125">
         <v>300.01</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="15">
-        <v>2.2999999999999998</v>
+        <v>2.6</v>
       </c>
       <c r="L23" s="120">
         <v>301</v>
@@ -23717,12 +23987,12 @@
       </c>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H24" s="252"/>
+      <c r="H24" s="271"/>
       <c r="I24" s="126">
         <v>350.01</v>
       </c>
       <c r="K24" s="15">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="L24" s="120">
         <v>351</v>
@@ -23736,12 +24006,12 @@
       </c>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H25" s="252"/>
+      <c r="H25" s="271"/>
       <c r="I25" s="126">
         <v>400.01</v>
       </c>
       <c r="K25" s="15">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L25" s="120">
         <v>401</v>
@@ -23753,39 +24023,39 @@
         <f>AZ29+AT22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA25" s="259" t="s">
+      <c r="AA25" s="276" t="s">
         <v>107</v>
       </c>
-      <c r="AB25" s="259"/>
-      <c r="AC25" s="259"/>
-      <c r="AD25" s="259"/>
-      <c r="AE25" s="259"/>
-      <c r="AF25" s="259"/>
-      <c r="AH25" s="260" t="s">
+      <c r="AB25" s="276"/>
+      <c r="AC25" s="276"/>
+      <c r="AD25" s="276"/>
+      <c r="AE25" s="276"/>
+      <c r="AF25" s="276"/>
+      <c r="AH25" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AI25" s="260"/>
-      <c r="AJ25" s="260"/>
-      <c r="AK25" s="260"/>
-      <c r="AL25" s="260"/>
-      <c r="AM25" s="260"/>
-      <c r="AN25" s="260"/>
-      <c r="AO25" s="260"/>
-      <c r="AR25" s="260" t="s">
+      <c r="AI25" s="267"/>
+      <c r="AJ25" s="267"/>
+      <c r="AK25" s="267"/>
+      <c r="AL25" s="267"/>
+      <c r="AM25" s="267"/>
+      <c r="AN25" s="267"/>
+      <c r="AO25" s="267"/>
+      <c r="AR25" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AS25" s="260"/>
-      <c r="AT25" s="260"/>
-      <c r="AU25" s="260"/>
-      <c r="AV25" s="260"/>
-      <c r="AW25" s="260"/>
-      <c r="AX25" s="260"/>
-      <c r="AY25" s="260"/>
+      <c r="AS25" s="267"/>
+      <c r="AT25" s="267"/>
+      <c r="AU25" s="267"/>
+      <c r="AV25" s="267"/>
+      <c r="AW25" s="267"/>
+      <c r="AX25" s="267"/>
+      <c r="AY25" s="267"/>
     </row>
     <row r="26" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H26" s="238"/>
       <c r="I26" s="126">
-        <v>600.01</v>
+        <v>999.01</v>
       </c>
       <c r="K26" s="15">
         <v>50</v>
@@ -23832,7 +24102,7 @@
       <c r="AY26" s="239"/>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H27" s="253" t="s">
+      <c r="H27" s="272" t="s">
         <v>9</v>
       </c>
       <c r="I27" s="101">
@@ -23859,7 +24129,7 @@
       </c>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H28" s="254"/>
+      <c r="H28" s="273"/>
       <c r="I28" s="102">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -23890,7 +24160,7 @@
       </c>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H29" s="254"/>
+      <c r="H29" s="273"/>
       <c r="I29" s="102">
         <v>0.20000100000000001</v>
       </c>
@@ -23920,7 +24190,7 @@
       </c>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H30" s="254"/>
+      <c r="H30" s="273"/>
       <c r="I30" s="102">
         <v>0.400001</v>
       </c>
@@ -24026,7 +24296,7 @@
       </c>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H31" s="254"/>
+      <c r="H31" s="273"/>
       <c r="I31" s="102">
         <v>0.60000100000000001</v>
       </c>
@@ -24132,7 +24402,7 @@
       </c>
     </row>
     <row r="32" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H32" s="255"/>
+      <c r="H32" s="274"/>
       <c r="I32" s="103">
         <v>0.80000099999999996</v>
       </c>
@@ -24241,7 +24511,7 @@
       </c>
     </row>
     <row r="33" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H33" s="252" t="s">
+      <c r="H33" s="271" t="s">
         <v>17</v>
       </c>
       <c r="I33" s="104">
@@ -24355,7 +24625,7 @@
       </c>
     </row>
     <row r="34" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H34" s="252"/>
+      <c r="H34" s="271"/>
       <c r="I34" s="104">
         <v>0.20000100000000001</v>
       </c>
@@ -24467,7 +24737,7 @@
       </c>
     </row>
     <row r="35" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H35" s="252"/>
+      <c r="H35" s="271"/>
       <c r="I35" s="104">
         <v>0.400001</v>
       </c>
@@ -24579,7 +24849,7 @@
       </c>
     </row>
     <row r="36" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H36" s="252"/>
+      <c r="H36" s="271"/>
       <c r="I36" s="104">
         <v>0.60000100000000001</v>
       </c>
@@ -24691,7 +24961,7 @@
       </c>
     </row>
     <row r="37" spans="8:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H37" s="256"/>
+      <c r="H37" s="275"/>
       <c r="I37" s="104">
         <v>0.80000099999999996</v>
       </c>
@@ -37215,13 +37485,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AA2:AF2"/>
-    <mergeCell ref="AH2:AO2"/>
-    <mergeCell ref="AR2:AY2"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="AS3:AU3"/>
     <mergeCell ref="AR25:AY25"/>
     <mergeCell ref="H27:H32"/>
     <mergeCell ref="H33:H37"/>
@@ -37235,6 +37498,13 @@
     <mergeCell ref="AR21:AS21"/>
     <mergeCell ref="AA25:AF25"/>
     <mergeCell ref="AH25:AO25"/>
+    <mergeCell ref="AA2:AF2"/>
+    <mergeCell ref="AH2:AO2"/>
+    <mergeCell ref="AR2:AY2"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AS3:AU3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -37242,6 +37512,239 @@
     <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;10&amp;K000000</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{579265F0-10B5-483D-91C4-79CFCF716A39}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="1" customWidth="1"/>
+    <col min="3" max="5" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="16.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="248"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="70"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="116"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I5" s="249" t="str">
+        <f>+'Bewertung Aufstockung'!F27</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="250" t="s">
+        <v>224</v>
+      </c>
+      <c r="I6" s="120" t="e">
+        <f>+ROUNDUP(I5,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="250" t="s">
+        <v>225</v>
+      </c>
+      <c r="I7" s="251" t="e">
+        <f>+IF(I6=0.8,I17,VLOOKUP(I6,G10:I18,3,1))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="116"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G10" s="120">
+        <v>0.1</v>
+      </c>
+      <c r="H10" s="243" t="s">
+        <v>227</v>
+      </c>
+      <c r="I10" s="251">
+        <f>+Kalkulationstool!$D$11/(1-Aufstockungsquoten!G10)-Kalkulationstool!$D$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="250" t="s">
+        <v>228</v>
+      </c>
+      <c r="G11" s="120">
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="243" t="s">
+        <v>227</v>
+      </c>
+      <c r="I11" s="251">
+        <f>+Kalkulationstool!$D$11/(1-Aufstockungsquoten!G11)-Kalkulationstool!$D$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="250" t="s">
+        <v>225</v>
+      </c>
+      <c r="G12" s="120">
+        <v>0.3</v>
+      </c>
+      <c r="H12" s="243" t="s">
+        <v>227</v>
+      </c>
+      <c r="I12" s="251">
+        <f>+Kalkulationstool!$D$11/(1-Aufstockungsquoten!G12)-Kalkulationstool!$D$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G13" s="120">
+        <v>0.4</v>
+      </c>
+      <c r="H13" s="243" t="s">
+        <v>227</v>
+      </c>
+      <c r="I13" s="251">
+        <f>+Kalkulationstool!$D$11/(1-Aufstockungsquoten!G13)-Kalkulationstool!$D$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G14" s="120">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="243" t="s">
+        <v>227</v>
+      </c>
+      <c r="I14" s="251">
+        <f>+Kalkulationstool!$D$11/(1-Aufstockungsquoten!G14)-Kalkulationstool!$D$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G15" s="120">
+        <v>0.6</v>
+      </c>
+      <c r="H15" s="243" t="s">
+        <v>227</v>
+      </c>
+      <c r="I15" s="251">
+        <f>+Kalkulationstool!$D$11/(1-Aufstockungsquoten!G15)-Kalkulationstool!$D$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G16" s="120">
+        <v>0.7</v>
+      </c>
+      <c r="H16" s="243" t="s">
+        <v>227</v>
+      </c>
+      <c r="I16" s="251">
+        <f>+Kalkulationstool!$D$11/(1-Aufstockungsquoten!G16)-Kalkulationstool!$D$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G17" s="120">
+        <v>0.8</v>
+      </c>
+      <c r="H17" s="243" t="s">
+        <v>227</v>
+      </c>
+      <c r="I17" s="251">
+        <f>+Kalkulationstool!$D$11/(1-Aufstockungsquoten!G17)-Kalkulationstool!$D$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G18" s="120">
+        <v>0.9</v>
+      </c>
+      <c r="H18" s="243" t="s">
+        <v>227</v>
+      </c>
+      <c r="I18" s="251">
+        <f>+Kalkulationstool!$D$11/(1-Aufstockungsquoten!G18)-Kalkulationstool!$D$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="116"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="I21" s="120" t="e">
+        <f>+ROUNDDOWN(I5,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I22" s="251"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;10&amp;K000000</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -37254,7 +37757,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -37296,7 +37799,7 @@
       <c r="G2" s="67"/>
       <c r="Q2" s="241"/>
       <c r="R2" s="242" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="5.0999999999999996" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -37585,7 +38088,7 @@
       <c r="C19" s="82"/>
       <c r="D19" s="122">
         <f ca="1">NOW()</f>
-        <v>44893.645687037038</v>
+        <v>44909.854944212966</v>
       </c>
       <c r="E19" s="82"/>
       <c r="F19" s="82" t="s">
@@ -37676,10 +38179,10 @@
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="82"/>
       <c r="C23" s="82"/>
-      <c r="D23" s="243" t="s">
+      <c r="D23" s="259" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="244"/>
+      <c r="E23" s="260"/>
       <c r="F23" s="82"/>
       <c r="G23" s="82"/>
       <c r="H23" s="180" t="s">
@@ -37699,10 +38202,10 @@
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="82"/>
       <c r="C24" s="82"/>
-      <c r="D24" s="245" t="s">
+      <c r="D24" s="261" t="s">
         <v>152</v>
       </c>
-      <c r="E24" s="246"/>
+      <c r="E24" s="262"/>
       <c r="F24" s="82"/>
       <c r="G24" s="82"/>
       <c r="H24" s="181" t="s">
@@ -37743,11 +38246,11 @@
         <v>66</v>
       </c>
       <c r="C26" s="82"/>
-      <c r="D26" s="247" t="str">
+      <c r="D26" s="263" t="str">
         <f>IF(ISNUMBER(D20),Background!P12,"")</f>
         <v/>
       </c>
-      <c r="E26" s="248"/>
+      <c r="E26" s="264"/>
       <c r="F26" s="82"/>
       <c r="G26" s="82"/>
       <c r="H26" s="186" t="str">
@@ -37769,7 +38272,7 @@
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CRtsdZBCgOCz9Svb31JH/HpLsJ01pMaYPGN1JTDjPZl0UfAduBPumxF84CkzYmB72JJmX7tPHQTqYTEQm/0wqw==" saltValue="jxPacRNulyk86R9yExdSuQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="iCFBxi0/PADkWcii3he9SJslmZnH25bIPU25iAHDhYsnHiCDQncI2teCMAPkNtf4xPnxqwv3cLmfUvo6I2TJfA==" saltValue="z9Y9iXlns4vlf8z+L1C9oQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="D8" name="Range6"/>
     <protectedRange sqref="D19" name="Range5"/>
@@ -37875,7 +38378,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -38091,12 +38594,12 @@
     </row>
     <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="147" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="e5sSta4hOLnb4SvBmrGl1LVvda6y0ewmb4VIBG8zjDfk3a8uk3V7rMBQJNK5jqDP8AWrt4kdh3U8TxsMayM+XQ==" saltValue="Oa1hu4lwRSqA3UXxGqal1w==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Jj1zoi8LMXLSYvcOr16BoNanpoVrFp2wnknYXanWVjsQ4Igeu6u/Gd6Uzj4CFE2C8F2YYxLOMMZUh2NrIgbO6g==" saltValue="5ap8O8NGeDobDfCH0Zf81g==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="C11" name="Range1"/>
   </protectedRanges>
@@ -38120,22 +38623,22 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="80" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="73.42578125" customWidth="1"/>
+    <col min="1" max="1" width="51.7109375" style="244" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="244" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="244" customWidth="1"/>
+    <col min="4" max="4" width="12" style="244" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="244" customWidth="1"/>
+    <col min="6" max="6" width="12" style="244" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="153.28515625" style="244" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" style="244" customWidth="1"/>
     <col min="9" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
@@ -38144,36 +38647,36 @@
         <v>29</v>
       </c>
       <c r="B1" s="69"/>
-      <c r="C1" s="264"/>
-      <c r="D1" s="264"/>
-      <c r="E1" s="264"/>
-      <c r="F1" s="264"/>
-      <c r="G1" s="264"/>
-      <c r="H1" s="264"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
+      <c r="H1" s="244"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="71" t="s">
         <v>214</v>
       </c>
       <c r="B2" s="70"/>
-      <c r="C2" s="264"/>
-      <c r="D2" s="264"/>
-      <c r="E2" s="264"/>
-      <c r="F2" s="264"/>
-      <c r="G2" s="264"/>
-      <c r="H2" s="264"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="244"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
         <v>205</v>
       </c>
       <c r="B3" s="70"/>
-      <c r="C3" s="264"/>
-      <c r="D3" s="264"/>
-      <c r="E3" s="264"/>
-      <c r="F3" s="264"/>
-      <c r="G3" s="264"/>
-      <c r="H3" s="264"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="244"/>
+      <c r="G3" s="244"/>
+      <c r="H3" s="244"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="81"/>
@@ -38187,7 +38690,7 @@
       <c r="E4" s="192"/>
       <c r="F4" s="97"/>
       <c r="G4" s="98"/>
-      <c r="H4" s="264"/>
+      <c r="H4" s="244"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="100" t="s">
@@ -38203,7 +38706,6 @@
       <c r="E5" s="228"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
-      <c r="H5" s="264"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="100" t="s">
@@ -38219,7 +38721,6 @@
       <c r="E6" s="229"/>
       <c r="F6" s="92"/>
       <c r="G6" s="93"/>
-      <c r="H6" s="264"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="100" t="s">
@@ -38230,33 +38731,14 @@
         <v>1</v>
       </c>
       <c r="D7" s="93" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E7" s="230"/>
       <c r="F7" s="92"/>
       <c r="G7" s="93"/>
-      <c r="H7" s="264"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="264"/>
-      <c r="B8" s="264"/>
-      <c r="C8" s="264"/>
-      <c r="D8" s="264"/>
-      <c r="E8" s="264"/>
-      <c r="F8" s="264"/>
-      <c r="G8" s="264"/>
-      <c r="H8" s="264"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="264"/>
-      <c r="B9" s="264"/>
-      <c r="C9" s="264"/>
-      <c r="D9" s="264"/>
-      <c r="E9" s="264"/>
-      <c r="F9" s="264"/>
-      <c r="G9" s="264"/>
-      <c r="H9" s="264"/>
-    </row>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="81"/>
       <c r="B10" s="237" t="s">
@@ -38271,7 +38753,7 @@
         <v>213</v>
       </c>
       <c r="G10" s="81"/>
-      <c r="H10" s="268"/>
+      <c r="H10" s="247"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="155" t="s">
@@ -38292,7 +38774,6 @@
         <v/>
       </c>
       <c r="G11" s="82"/>
-      <c r="H11" s="264"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="155" t="s">
@@ -38315,7 +38796,7 @@
       <c r="G12" s="93" t="s">
         <v>207</v>
       </c>
-      <c r="H12" s="264"/>
+      <c r="H12" s="244"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="82"/>
@@ -38325,7 +38806,6 @@
       <c r="E13" s="82"/>
       <c r="F13" s="82"/>
       <c r="G13" s="82"/>
-      <c r="H13" s="264"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="155" t="s">
@@ -38348,45 +38828,32 @@
       <c r="G14" s="93" t="s">
         <v>203</v>
       </c>
-      <c r="H14" s="264"/>
+      <c r="H14" s="244"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="266" t="s">
+      <c r="A15" s="245" t="s">
         <v>212</v>
       </c>
       <c r="B15" s="236" t="str">
         <f>IFERROR(+B14-D14,"")</f>
         <v/>
       </c>
-      <c r="C15" s="264"/>
-      <c r="D15" s="265"/>
-      <c r="E15" s="264"/>
+      <c r="D15" s="246"/>
       <c r="F15" s="236" t="str">
         <f>IFERROR(+F14-D14,"")</f>
         <v/>
       </c>
-      <c r="G15" s="264"/>
-      <c r="H15" s="264"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="264"/>
-      <c r="B16" s="264"/>
-      <c r="C16" s="264"/>
-      <c r="D16" s="264"/>
-      <c r="E16" s="264"/>
-      <c r="F16" s="264"/>
-      <c r="G16" s="264"/>
-      <c r="H16" s="264"/>
-    </row>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="264"/>
-      <c r="B17" s="264"/>
-      <c r="C17" s="264"/>
-      <c r="D17" s="264"/>
-      <c r="E17" s="264"/>
-      <c r="F17" s="264"/>
-      <c r="G17" s="264"/>
-      <c r="H17" s="264"/>
+      <c r="A17" s="244"/>
+      <c r="B17" s="244"/>
+      <c r="C17" s="244"/>
+      <c r="D17" s="244"/>
+      <c r="E17" s="244"/>
+      <c r="F17" s="244"/>
+      <c r="G17" s="244"/>
+      <c r="H17" s="244"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="81"/>
@@ -38402,7 +38869,6 @@
         <v>213</v>
       </c>
       <c r="G18" s="81"/>
-      <c r="H18" s="264"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="155" t="s">
@@ -38423,7 +38889,6 @@
         <v/>
       </c>
       <c r="G19" s="82"/>
-      <c r="H19" s="264"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="155" t="s">
@@ -38446,7 +38911,6 @@
       <c r="G20" s="93" t="s">
         <v>207</v>
       </c>
-      <c r="H20" s="264"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="82"/>
@@ -38456,7 +38920,6 @@
       <c r="E21" s="82"/>
       <c r="F21" s="82"/>
       <c r="G21" s="82"/>
-      <c r="H21" s="264"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="155" t="s">
@@ -38479,114 +38942,162 @@
       <c r="G22" s="93" t="s">
         <v>204</v>
       </c>
-      <c r="H22" s="264"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="266" t="s">
+      <c r="A23" s="245" t="s">
         <v>212</v>
       </c>
       <c r="B23" s="236" t="str">
         <f>IFERROR(+B22-D22,"")</f>
         <v/>
       </c>
-      <c r="C23" s="264"/>
-      <c r="D23" s="265"/>
-      <c r="E23" s="264"/>
+      <c r="D23" s="246"/>
       <c r="F23" s="236" t="str">
         <f>IFERROR(+F22-D22,"")</f>
         <v/>
       </c>
-      <c r="G23" s="264"/>
-      <c r="H23" s="264"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="264"/>
-      <c r="B24" s="264"/>
-      <c r="C24" s="264"/>
-      <c r="D24" s="264"/>
-      <c r="E24" s="264"/>
-      <c r="F24" s="264"/>
-      <c r="G24" s="264"/>
-      <c r="H24" s="264"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="264"/>
-      <c r="B25" s="264"/>
-      <c r="C25" s="264"/>
-      <c r="D25" s="264"/>
-      <c r="E25" s="264"/>
-      <c r="F25" s="264"/>
-      <c r="G25" s="264"/>
-      <c r="H25" s="264"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="267" t="s">
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="244"/>
+      <c r="B24" s="244"/>
+      <c r="C24" s="244"/>
+      <c r="D24" s="244"/>
+      <c r="E24" s="244"/>
+      <c r="F24" s="244"/>
+      <c r="G24" s="244"/>
+      <c r="H24" s="244"/>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="244"/>
+      <c r="B25" s="244"/>
+      <c r="C25" s="244"/>
+      <c r="D25" s="244"/>
+      <c r="E25" s="244"/>
+      <c r="F25" s="244"/>
+      <c r="G25" s="244"/>
+      <c r="H25" s="244"/>
+    </row>
+    <row r="26" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="81"/>
+      <c r="B26" s="237"/>
+      <c r="C26" s="237"/>
+      <c r="D26" s="237"/>
+      <c r="E26" s="237"/>
+      <c r="F26" s="237" t="s">
+        <v>213</v>
+      </c>
+      <c r="G26" s="81"/>
+      <c r="H26" s="247"/>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="82" t="s">
+        <v>230</v>
+      </c>
+      <c r="B27" s="82"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="249" t="str">
+        <f>+IFERROR((Gesamtkreditbetrag-Eigenablösebetrag)/Gesamtkreditbetrag,"")</f>
+        <v/>
+      </c>
+      <c r="G27" s="93" t="s">
+        <v>231</v>
+      </c>
+      <c r="H27" s="244"/>
+    </row>
+    <row r="28" spans="1:8" s="255" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="252" t="s">
+        <v>232</v>
+      </c>
+      <c r="B28" s="253"/>
+      <c r="C28" s="253"/>
+      <c r="D28" s="253"/>
+      <c r="E28" s="253"/>
+      <c r="F28" s="254" t="str">
+        <f>+IFERROR(Gesamtkreditbetrag-Eigenablösebetrag-Gesamtkreditbetrag*Aufstockungsquoten!I21,"")</f>
+        <v/>
+      </c>
+      <c r="G28" s="93" t="s">
+        <v>233</v>
+      </c>
+      <c r="H28" s="258"/>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="81" t="s">
+        <v>234</v>
+      </c>
+      <c r="B29" s="82"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="256" t="str">
+        <f>+IFERROR(Aufstockungsquoten!I7,"")</f>
+        <v/>
+      </c>
+      <c r="G29" s="93" t="s">
+        <v>235</v>
+      </c>
+      <c r="H29" s="244"/>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="82" t="s">
+        <v>236</v>
+      </c>
+      <c r="B30" s="82"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="256" t="str">
+        <f>+IFERROR(F29-(Gesamtkreditbetrag-Eigenablösebetrag),"")</f>
+        <v/>
+      </c>
+      <c r="G30" s="93" t="s">
+        <v>237</v>
+      </c>
+      <c r="H30" s="244"/>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="81" t="s">
+        <v>238</v>
+      </c>
+      <c r="B31" s="82"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="256" t="str">
+        <f>+IFERROR(F30+Gesamtkreditbetrag,"")</f>
+        <v/>
+      </c>
+      <c r="G31" s="93" t="s">
+        <v>239</v>
+      </c>
+      <c r="H31" s="244"/>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="244"/>
+      <c r="B32" s="244"/>
+      <c r="C32" s="244"/>
+      <c r="D32" s="244"/>
+      <c r="E32" s="244"/>
+      <c r="F32" s="244"/>
+      <c r="G32" s="244"/>
+      <c r="H32" s="244"/>
+    </row>
+    <row r="33" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="257" t="s">
         <v>215</v>
       </c>
-      <c r="B26" s="264"/>
-      <c r="C26" s="264"/>
-      <c r="D26" s="264"/>
-      <c r="E26" s="264"/>
-      <c r="F26" s="264"/>
-      <c r="G26" s="264"/>
-      <c r="H26" s="264"/>
-    </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="B33" s="244"/>
+      <c r="C33" s="244"/>
+      <c r="D33" s="244"/>
+      <c r="E33" s="244"/>
+      <c r="F33" s="244"/>
+      <c r="G33" s="244"/>
+      <c r="H33" s="244"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HOpEiZqVzO0nywk/kMbE7ETbrzdg/AeKWtF6UmeL23smgyvcBR8ZDqIbc6fSm8VAaN26hLm0UPfsbxk+UpwfZQ==" saltValue="+gg37KshKHtOgc+5NJ0DXg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/nffbkVlXtmh/i8Huza5eum3/2qPNzrkMIMXtF7vFODU7kUMYcHSLHvqOkKLrGSk35S/dcSClX8+wQEWrjvWwg==" saltValue="07hUAhFBEgmmp2TXSj7HYA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="B5:B7" name="Bereich1"/>
   </protectedRanges>
@@ -38635,8 +39146,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A2:AB139"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38670,40 +39181,40 @@
       <c r="AB2" s="1"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="F3" s="249" t="s">
+      <c r="F3" s="265" t="s">
         <v>143</v>
       </c>
-      <c r="G3" s="249"/>
-      <c r="H3" s="249"/>
-      <c r="I3" s="249"/>
-      <c r="J3" s="249"/>
-      <c r="K3" s="249"/>
-      <c r="L3" s="249"/>
-      <c r="M3" s="249"/>
+      <c r="G3" s="265"/>
+      <c r="H3" s="265"/>
+      <c r="I3" s="265"/>
+      <c r="J3" s="265"/>
+      <c r="K3" s="265"/>
+      <c r="L3" s="265"/>
+      <c r="M3" s="265"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="U3" s="249" t="s">
+      <c r="U3" s="265" t="s">
         <v>142</v>
       </c>
-      <c r="V3" s="249"/>
-      <c r="W3" s="249"/>
-      <c r="X3" s="249"/>
-      <c r="Y3" s="249"/>
-      <c r="Z3" s="249"/>
-      <c r="AA3" s="249"/>
-      <c r="AB3" s="249"/>
+      <c r="V3" s="265"/>
+      <c r="W3" s="265"/>
+      <c r="X3" s="265"/>
+      <c r="Y3" s="265"/>
+      <c r="Z3" s="265"/>
+      <c r="AA3" s="265"/>
+      <c r="AB3" s="265"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="250" t="s">
+      <c r="A4" s="266" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="250"/>
-      <c r="C4" s="250"/>
-      <c r="D4" s="250"/>
+      <c r="B4" s="266"/>
+      <c r="C4" s="266"/>
+      <c r="D4" s="266"/>
       <c r="E4" s="168"/>
       <c r="F4" s="1" t="s">
         <v>131</v>
@@ -38729,12 +39240,12 @@
       <c r="M4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="250" t="s">
+      <c r="P4" s="266" t="s">
         <v>130</v>
       </c>
-      <c r="Q4" s="250"/>
-      <c r="R4" s="250"/>
-      <c r="S4" s="250"/>
+      <c r="Q4" s="266"/>
+      <c r="R4" s="266"/>
+      <c r="S4" s="266"/>
       <c r="T4" s="168"/>
       <c r="U4" s="1" t="s">
         <v>131</v>
@@ -46609,7 +47120,7 @@
   <dimension ref="A3:AB139"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46633,36 +47144,36 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="F3" s="249" t="s">
+      <c r="F3" s="265" t="s">
         <v>143</v>
       </c>
-      <c r="G3" s="249"/>
-      <c r="H3" s="249"/>
-      <c r="I3" s="249"/>
-      <c r="J3" s="249"/>
-      <c r="K3" s="249"/>
-      <c r="L3" s="249"/>
-      <c r="M3" s="249"/>
+      <c r="G3" s="265"/>
+      <c r="H3" s="265"/>
+      <c r="I3" s="265"/>
+      <c r="J3" s="265"/>
+      <c r="K3" s="265"/>
+      <c r="L3" s="265"/>
+      <c r="M3" s="265"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
-      <c r="U3" s="249" t="s">
+      <c r="U3" s="265" t="s">
         <v>142</v>
       </c>
-      <c r="V3" s="249"/>
-      <c r="W3" s="249"/>
-      <c r="X3" s="249"/>
-      <c r="Y3" s="249"/>
-      <c r="Z3" s="249"/>
-      <c r="AA3" s="249"/>
-      <c r="AB3" s="249"/>
+      <c r="V3" s="265"/>
+      <c r="W3" s="265"/>
+      <c r="X3" s="265"/>
+      <c r="Y3" s="265"/>
+      <c r="Z3" s="265"/>
+      <c r="AA3" s="265"/>
+      <c r="AB3" s="265"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="250" t="s">
+      <c r="A4" s="266" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="250"/>
-      <c r="C4" s="250"/>
-      <c r="D4" s="250"/>
+      <c r="B4" s="266"/>
+      <c r="C4" s="266"/>
+      <c r="D4" s="266"/>
       <c r="E4" s="168"/>
       <c r="F4" s="1" t="s">
         <v>131</v>
@@ -46688,12 +47199,12 @@
       <c r="M4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="250" t="s">
+      <c r="P4" s="266" t="s">
         <v>130</v>
       </c>
-      <c r="Q4" s="250"/>
-      <c r="R4" s="250"/>
-      <c r="S4" s="250"/>
+      <c r="Q4" s="266"/>
+      <c r="R4" s="266"/>
+      <c r="S4" s="266"/>
       <c r="T4" s="168"/>
       <c r="U4" s="1" t="s">
         <v>131</v>
@@ -54480,8 +54991,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:AZ172"/>
   <sheetViews>
-    <sheetView topLeftCell="X123" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AO163" sqref="AO163"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54553,36 +55064,36 @@
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
       <c r="L2" s="1"/>
-      <c r="AA2" s="249" t="s">
+      <c r="AA2" s="265" t="s">
         <v>85</v>
       </c>
-      <c r="AB2" s="249"/>
-      <c r="AC2" s="249"/>
-      <c r="AD2" s="249"/>
-      <c r="AE2" s="249"/>
-      <c r="AF2" s="249"/>
-      <c r="AH2" s="249" t="s">
+      <c r="AB2" s="265"/>
+      <c r="AC2" s="265"/>
+      <c r="AD2" s="265"/>
+      <c r="AE2" s="265"/>
+      <c r="AF2" s="265"/>
+      <c r="AH2" s="265" t="s">
         <v>123</v>
       </c>
-      <c r="AI2" s="249"/>
-      <c r="AJ2" s="249"/>
-      <c r="AK2" s="249"/>
-      <c r="AL2" s="249"/>
-      <c r="AM2" s="249"/>
-      <c r="AN2" s="249"/>
-      <c r="AO2" s="249"/>
+      <c r="AI2" s="265"/>
+      <c r="AJ2" s="265"/>
+      <c r="AK2" s="265"/>
+      <c r="AL2" s="265"/>
+      <c r="AM2" s="265"/>
+      <c r="AN2" s="265"/>
+      <c r="AO2" s="265"/>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
-      <c r="AR2" s="249" t="s">
+      <c r="AR2" s="265" t="s">
         <v>124</v>
       </c>
-      <c r="AS2" s="249"/>
-      <c r="AT2" s="249"/>
-      <c r="AU2" s="249"/>
-      <c r="AV2" s="249"/>
-      <c r="AW2" s="249"/>
-      <c r="AX2" s="249"/>
-      <c r="AY2" s="249"/>
+      <c r="AS2" s="265"/>
+      <c r="AT2" s="265"/>
+      <c r="AU2" s="265"/>
+      <c r="AV2" s="265"/>
+      <c r="AW2" s="265"/>
+      <c r="AX2" s="265"/>
+      <c r="AY2" s="265"/>
       <c r="AZ2" s="1"/>
     </row>
     <row r="3" spans="1:52" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -54609,33 +55120,33 @@
         <v>15</v>
       </c>
       <c r="L3" s="23"/>
-      <c r="U3" s="250" t="s">
+      <c r="U3" s="266" t="s">
         <v>86</v>
       </c>
-      <c r="V3" s="250"/>
-      <c r="W3" s="250"/>
-      <c r="AB3" s="257" t="s">
+      <c r="V3" s="266"/>
+      <c r="W3" s="266"/>
+      <c r="AB3" s="268" t="s">
         <v>87</v>
       </c>
-      <c r="AC3" s="257"/>
-      <c r="AD3" s="257"/>
+      <c r="AC3" s="268"/>
+      <c r="AD3" s="268"/>
       <c r="AE3" s="108"/>
       <c r="AF3" s="108"/>
-      <c r="AI3" s="257" t="s">
+      <c r="AI3" s="268" t="s">
         <v>87</v>
       </c>
-      <c r="AJ3" s="257"/>
-      <c r="AK3" s="257"/>
+      <c r="AJ3" s="268"/>
+      <c r="AK3" s="268"/>
       <c r="AL3" s="108"/>
       <c r="AM3" s="108"/>
       <c r="AP3" s="1"/>
       <c r="AQ3" s="1"/>
       <c r="AR3" s="1"/>
-      <c r="AS3" s="257" t="s">
+      <c r="AS3" s="268" t="s">
         <v>87</v>
       </c>
-      <c r="AT3" s="257"/>
-      <c r="AU3" s="257"/>
+      <c r="AT3" s="268"/>
+      <c r="AU3" s="268"/>
       <c r="AV3" s="108"/>
       <c r="AW3" s="108"/>
       <c r="AX3" s="1"/>
@@ -54672,27 +55183,27 @@
         <f>Kalkulationstool!D10</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="258" t="s">
+      <c r="AB4" s="269" t="s">
         <v>89</v>
       </c>
-      <c r="AC4" s="258"/>
+      <c r="AC4" s="269"/>
       <c r="AD4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AI4" s="258" t="s">
+      <c r="AI4" s="269" t="s">
         <v>91</v>
       </c>
-      <c r="AJ4" s="258"/>
+      <c r="AJ4" s="269"/>
       <c r="AK4" s="1" t="s">
         <v>90</v>
       </c>
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
-      <c r="AS4" s="258" t="s">
+      <c r="AS4" s="269" t="s">
         <v>91</v>
       </c>
-      <c r="AT4" s="258"/>
+      <c r="AT4" s="269"/>
       <c r="AU4" s="1" t="s">
         <v>90</v>
       </c>
@@ -54712,7 +55223,7 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="251" t="s">
+      <c r="H5" s="270" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="124">
@@ -54720,7 +55231,7 @@
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="12">
-        <v>-1.5</v>
+        <v>-1.3</v>
       </c>
       <c r="L5" s="1"/>
       <c r="N5" s="5" t="s">
@@ -54786,13 +55297,13 @@
       <c r="B6" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="252"/>
+      <c r="H6" s="271"/>
       <c r="I6" s="124">
         <v>5.01</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="13">
-        <v>-1.3</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="L6" s="120">
         <v>6</v>
@@ -54877,13 +55388,13 @@
       <c r="B7" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="252"/>
+      <c r="H7" s="271"/>
       <c r="I7" s="124">
         <v>10.01</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="13">
-        <v>-1.1000000000000001</v>
+        <v>-0.9</v>
       </c>
       <c r="L7" s="120">
         <v>11</v>
@@ -54973,13 +55484,13 @@
       <c r="D8" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="252"/>
+      <c r="H8" s="271"/>
       <c r="I8" s="124">
         <v>15.01</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="13">
-        <v>-0.9</v>
+        <v>-0.7</v>
       </c>
       <c r="L8" s="120">
         <v>16</v>
@@ -55062,13 +55573,13 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="H9" s="252"/>
+      <c r="H9" s="271"/>
       <c r="I9" s="124">
         <v>20.010000000000002</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="13">
-        <v>-0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="L9" s="120">
         <v>21</v>
@@ -55151,13 +55662,13 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="H10" s="252"/>
+      <c r="H10" s="271"/>
       <c r="I10" s="124">
         <v>30.01</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="13">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="L10" s="120">
         <v>31</v>
@@ -55244,18 +55755,18 @@
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="H11" s="252"/>
+      <c r="H11" s="271"/>
       <c r="I11" s="124">
         <v>40.01</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="13">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="L11" s="120">
         <v>41</v>
       </c>
-      <c r="N11" s="261" t="s">
+      <c r="N11" s="277" t="s">
         <v>22</v>
       </c>
       <c r="O11" s="202" t="s">
@@ -55351,18 +55862,18 @@
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="H12" s="252"/>
+      <c r="H12" s="271"/>
       <c r="I12" s="124">
         <v>50.01</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="13">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="120">
         <v>51</v>
       </c>
-      <c r="N12" s="262"/>
+      <c r="N12" s="278"/>
       <c r="O12" s="207" t="s">
         <v>175</v>
       </c>
@@ -55445,18 +55956,18 @@
       <c r="B13" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="252"/>
+      <c r="H13" s="271"/>
       <c r="I13" s="124">
         <v>60.01</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L13" s="120">
         <v>61</v>
       </c>
-      <c r="N13" s="262"/>
+      <c r="N13" s="278"/>
       <c r="O13" s="29" t="s">
         <v>176</v>
       </c>
@@ -55531,18 +56042,18 @@
       <c r="B14" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="252"/>
+      <c r="H14" s="271"/>
       <c r="I14" s="124">
         <v>70.010000000000005</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="13">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="L14" s="120">
         <v>71</v>
       </c>
-      <c r="N14" s="263"/>
+      <c r="N14" s="279"/>
       <c r="O14" s="196" t="s">
         <v>177</v>
       </c>
@@ -55628,13 +56139,13 @@
         <v>44</v>
       </c>
       <c r="D15" s="99"/>
-      <c r="H15" s="252"/>
+      <c r="H15" s="271"/>
       <c r="I15" s="124">
         <v>80.010000000000005</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="13">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="L15" s="120">
         <v>81</v>
@@ -55716,13 +56227,13 @@
       <c r="B16" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="252"/>
+      <c r="H16" s="271"/>
       <c r="I16" s="124">
         <v>90.01</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="13">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="L16" s="120">
         <v>91</v>
@@ -55801,13 +56312,13 @@
       <c r="B17" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="252"/>
+      <c r="H17" s="271"/>
       <c r="I17" s="124">
         <v>100.01</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="13">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="L17" s="120">
         <v>101</v>
@@ -55891,13 +56402,13 @@
       <c r="B18" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="252"/>
+      <c r="H18" s="271"/>
       <c r="I18" s="124">
         <v>125.01</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="13">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="L18" s="120">
         <v>126</v>
@@ -55977,13 +56488,13 @@
       <c r="B19" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="252"/>
+      <c r="H19" s="271"/>
       <c r="I19" s="124">
         <v>150.01</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="13">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="L19" s="120">
         <v>151</v>
@@ -56057,13 +56568,13 @@
       <c r="B20" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="252"/>
+      <c r="H20" s="271"/>
       <c r="I20" s="125">
         <v>175.01</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="15">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L20" s="120">
         <v>176</v>
@@ -56094,13 +56605,13 @@
       <c r="B21" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="252"/>
+      <c r="H21" s="271"/>
       <c r="I21" s="125">
         <v>200.01</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="15">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L21" s="120">
         <v>201</v>
@@ -56115,18 +56626,18 @@
         <f>W6+V16</f>
         <v>0</v>
       </c>
-      <c r="AA21" s="258" t="s">
+      <c r="AA21" s="269" t="s">
         <v>105</v>
       </c>
-      <c r="AB21" s="258"/>
+      <c r="AB21" s="269"/>
       <c r="AC21" s="1">
         <f>LOOKUP(V16,AA5:AA13,AD5:AD13)</f>
         <v>0</v>
       </c>
-      <c r="AH21" s="258" t="s">
+      <c r="AH21" s="269" t="s">
         <v>106</v>
       </c>
-      <c r="AI21" s="258"/>
+      <c r="AI21" s="269"/>
       <c r="AJ21" s="1">
         <f>IF(ISERROR(LOOKUP(V18,AH5:AH17,AK5:AK17)),0,LOOKUP(V18,AH5:AH17,AK5:AK17))</f>
         <v>0</v>
@@ -56134,10 +56645,10 @@
       <c r="AO21" s="76"/>
       <c r="AP21" s="1"/>
       <c r="AQ21" s="1"/>
-      <c r="AR21" s="258" t="s">
+      <c r="AR21" s="269" t="s">
         <v>106</v>
       </c>
-      <c r="AS21" s="258"/>
+      <c r="AS21" s="269"/>
       <c r="AT21" s="1">
         <f>IF(ISERROR(LOOKUP(V18,AR5:AR17,AU5:AU17)),0,LOOKUP(V18,AR5:AR17,AU5:AU17))</f>
         <v>0</v>
@@ -56156,13 +56667,13 @@
       <c r="B22" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="252"/>
+      <c r="H22" s="271"/>
       <c r="I22" s="125">
         <v>250.01</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="15">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="L22" s="120">
         <v>251</v>
@@ -56208,13 +56719,13 @@
       <c r="A23" s="52">
         <v>999</v>
       </c>
-      <c r="H23" s="252"/>
+      <c r="H23" s="271"/>
       <c r="I23" s="125">
         <v>300.01</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="15">
-        <v>2.2999999999999998</v>
+        <v>2.6</v>
       </c>
       <c r="L23" s="120">
         <v>301</v>
@@ -56246,13 +56757,13 @@
       <c r="AZ23" s="1"/>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H24" s="252"/>
+      <c r="H24" s="271"/>
       <c r="I24" s="126">
         <v>350.01</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="15">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="L24" s="120">
         <v>351</v>
@@ -56277,13 +56788,13 @@
       <c r="AZ24" s="1"/>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H25" s="252"/>
+      <c r="H25" s="271"/>
       <c r="I25" s="126">
         <v>400.01</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="15">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L25" s="120">
         <v>401</v>
@@ -56295,42 +56806,42 @@
         <f>AZ29+AT22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA25" s="259" t="s">
+      <c r="AA25" s="276" t="s">
         <v>107</v>
       </c>
-      <c r="AB25" s="259"/>
-      <c r="AC25" s="259"/>
-      <c r="AD25" s="259"/>
-      <c r="AE25" s="259"/>
-      <c r="AF25" s="259"/>
-      <c r="AH25" s="260" t="s">
+      <c r="AB25" s="276"/>
+      <c r="AC25" s="276"/>
+      <c r="AD25" s="276"/>
+      <c r="AE25" s="276"/>
+      <c r="AF25" s="276"/>
+      <c r="AH25" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AI25" s="260"/>
-      <c r="AJ25" s="260"/>
-      <c r="AK25" s="260"/>
-      <c r="AL25" s="260"/>
-      <c r="AM25" s="260"/>
-      <c r="AN25" s="260"/>
-      <c r="AO25" s="260"/>
+      <c r="AI25" s="267"/>
+      <c r="AJ25" s="267"/>
+      <c r="AK25" s="267"/>
+      <c r="AL25" s="267"/>
+      <c r="AM25" s="267"/>
+      <c r="AN25" s="267"/>
+      <c r="AO25" s="267"/>
       <c r="AP25" s="1"/>
       <c r="AQ25" s="1"/>
-      <c r="AR25" s="260" t="s">
+      <c r="AR25" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AS25" s="260"/>
-      <c r="AT25" s="260"/>
-      <c r="AU25" s="260"/>
-      <c r="AV25" s="260"/>
-      <c r="AW25" s="260"/>
-      <c r="AX25" s="260"/>
-      <c r="AY25" s="260"/>
+      <c r="AS25" s="267"/>
+      <c r="AT25" s="267"/>
+      <c r="AU25" s="267"/>
+      <c r="AV25" s="267"/>
+      <c r="AW25" s="267"/>
+      <c r="AX25" s="267"/>
+      <c r="AY25" s="267"/>
       <c r="AZ25" s="1"/>
     </row>
     <row r="26" spans="1:52" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H26" s="127"/>
       <c r="I26" s="126">
-        <v>600.01</v>
+        <v>999.01</v>
       </c>
       <c r="K26" s="15">
         <v>50</v>
@@ -56377,7 +56888,7 @@
       <c r="AY26" s="129"/>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H27" s="253" t="s">
+      <c r="H27" s="272" t="s">
         <v>9</v>
       </c>
       <c r="I27" s="101">
@@ -56414,7 +56925,7 @@
       <c r="AZ27" s="1"/>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H28" s="254"/>
+      <c r="H28" s="273"/>
       <c r="I28" s="102">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -56455,7 +56966,7 @@
       <c r="AZ28" s="1"/>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H29" s="254"/>
+      <c r="H29" s="273"/>
       <c r="I29" s="102">
         <v>0.20000100000000001</v>
       </c>
@@ -56494,7 +57005,7 @@
       </c>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H30" s="254"/>
+      <c r="H30" s="273"/>
       <c r="I30" s="102">
         <v>0.400001</v>
       </c>
@@ -56602,7 +57113,7 @@
       </c>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H31" s="254"/>
+      <c r="H31" s="273"/>
       <c r="I31" s="102">
         <v>0.60000100000000001</v>
       </c>
@@ -56710,7 +57221,7 @@
       </c>
     </row>
     <row r="32" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H32" s="255"/>
+      <c r="H32" s="274"/>
       <c r="I32" s="103">
         <v>0.80000099999999996</v>
       </c>
@@ -56821,7 +57332,7 @@
       </c>
     </row>
     <row r="33" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H33" s="252" t="s">
+      <c r="H33" s="271" t="s">
         <v>17</v>
       </c>
       <c r="I33" s="104">
@@ -56936,7 +57447,7 @@
       </c>
     </row>
     <row r="34" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H34" s="252"/>
+      <c r="H34" s="271"/>
       <c r="I34" s="104">
         <v>0.20000100000000001</v>
       </c>
@@ -57049,7 +57560,7 @@
       </c>
     </row>
     <row r="35" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H35" s="252"/>
+      <c r="H35" s="271"/>
       <c r="I35" s="104">
         <v>0.400001</v>
       </c>
@@ -57162,7 +57673,7 @@
       </c>
     </row>
     <row r="36" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H36" s="252"/>
+      <c r="H36" s="271"/>
       <c r="I36" s="104">
         <v>0.60000100000000001</v>
       </c>
@@ -57275,7 +57786,7 @@
       </c>
     </row>
     <row r="37" spans="8:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H37" s="256"/>
+      <c r="H37" s="275"/>
       <c r="I37" s="104">
         <v>0.80000099999999996</v>
       </c>
@@ -70040,11 +70551,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AR25:AY25"/>
-    <mergeCell ref="AR2:AY2"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AR21:AS21"/>
     <mergeCell ref="H5:H25"/>
     <mergeCell ref="H27:H32"/>
     <mergeCell ref="H33:H37"/>
@@ -70060,6 +70566,11 @@
     <mergeCell ref="AA25:AF25"/>
     <mergeCell ref="AH25:AO25"/>
     <mergeCell ref="N11:N14"/>
+    <mergeCell ref="AR25:AY25"/>
+    <mergeCell ref="AR2:AY2"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AR21:AS21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -70082,7 +70593,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -70414,7 +70925,7 @@
       <c r="C19" s="82"/>
       <c r="D19" s="122">
         <f ca="1">NOW()</f>
-        <v>44893.645687037038</v>
+        <v>44909.854944212966</v>
       </c>
       <c r="E19" s="82"/>
       <c r="F19" s="82" t="s">
@@ -70505,10 +71016,10 @@
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="82"/>
       <c r="C23" s="82"/>
-      <c r="D23" s="243" t="s">
+      <c r="D23" s="259" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="244"/>
+      <c r="E23" s="260"/>
       <c r="F23" s="82"/>
       <c r="G23" s="82"/>
       <c r="H23" s="180" t="s">
@@ -70528,10 +71039,10 @@
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="82"/>
       <c r="C24" s="82"/>
-      <c r="D24" s="245" t="s">
+      <c r="D24" s="261" t="s">
         <v>152</v>
       </c>
-      <c r="E24" s="246"/>
+      <c r="E24" s="262"/>
       <c r="F24" s="82"/>
       <c r="G24" s="82"/>
       <c r="H24" s="181" t="s">
@@ -70572,11 +71083,11 @@
         <v>66</v>
       </c>
       <c r="C26" s="82"/>
-      <c r="D26" s="247" t="str">
+      <c r="D26" s="263" t="str">
         <f>IF(ISNUMBER(D20),Background2!P12,"")</f>
         <v/>
       </c>
-      <c r="E26" s="248"/>
+      <c r="E26" s="264"/>
       <c r="F26" s="82"/>
       <c r="G26" s="82"/>
       <c r="H26" s="186" t="str">
@@ -70704,7 +71215,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>

--- a/ExcelBlanko.xlsx
+++ b/ExcelBlanko.xlsx
@@ -5,13 +5,13 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\oneLine_Backoffice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\V\DATEN\BN_BSS11\T_PRO_PKG\Performance\DB Verprobung\Vertriebstool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F2EDC7A-DA90-4029-9294-CD5030BA7518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="QV38z4XmEvP8epS8iL+DBd/fDI6DPwUt6dqz4ds4POUcSf+ob5trf1LoOzg+RQYpyxLPCmIPlrdkm3z9IgO1Dg==" workbookSaltValue="l5I7Gq32r5XB3f3EfH79gQ==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07A89781-C5D2-4FF0-9952-8938F62F6B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="wJFlHBhF99Wnc1g+0/u0ACNiHmTzjlFIDlICnHtkYn+yyomZ0UkjA+fw9BBXroFt6P8XaPp63Hl6G4XiQVn7hg==" workbookSaltValue="h86qGiaJ/emgajeOgOUvCw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="15" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="244">
   <si>
     <t>MOVE</t>
   </si>
@@ -661,16 +661,7 @@
     <t>Restliche Vertragslaufzeit in Monaten</t>
   </si>
   <si>
-    <t>Die ermittelten Wertbeiträge stellen eine Approximation des über den FiKo (Produktkalkulator) berechneten Wertbeitrags dar.</t>
-  </si>
-  <si>
     <t>Nach Eingabe der preisbestimmenden Parameter wird Ihnen der Wertbeitrag zur KIZ Zielkondition und zur vereinbarten Kondition angezeigt.</t>
-  </si>
-  <si>
-    <t>Marginale Abweichungen (&lt; 1 %) sind möglich.</t>
-  </si>
-  <si>
-    <t>Der zur Ermittlung der maximalen Konditionskompetenz herangezogene Wertbeitrag weicht von dem hier dargestellten Wertebeitrag ab.</t>
   </si>
   <si>
     <t>Eingabe der Marge des Altkredits</t>
@@ -997,10 +988,92 @@
     <t>Bei diesem Gesamtkreditbetrag wird die nächste 10%-Schwelle als Absicherungsmöglichkeit erreicht.</t>
   </si>
   <si>
-    <t>Gültig ab 16.12.2022</t>
+    <t>Der zur Ermittlung der maximalen Konditionskompetenz herangezogene Wertbeitrag weicht von dem hier dargestellten Wertbeitrag ab.</t>
   </si>
   <si>
-    <t>Der zur Ermittlung der maximalen Konditionskompetenz herangezogene Wertbeitrag weicht von dem hier dargestellten Wertbeitrag ab.</t>
+    <t>Bitte beachten Sie das das Kalkulationstool nur eine indikative Berechnung des Wertbeitrages vornimmt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insbesondere bei Aufstockungen sind größere Abweichungen zwischen dem Wertbeitrag im Kalkulationstool und dem Wertbeitrag im FilialKompass leider technisch nicht auszuschließen. </t>
+  </si>
+  <si>
+    <t>Je geringer der Aufstockungsbetrag und je länger die Restlaufzeit des Altkredites, desto höher ist die Abweichung.</t>
+  </si>
+  <si>
+    <t>Gültig ab 18.01.2023</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Insbesondere </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bei Aufstockungen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sind </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>größere Abweichungen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> zwischen dem Wertbeitrag im Kalkulationstool und dem Wertbeitrag im FilialKompass leider technisch nicht auszuschließen. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bitte beachten Sie das das Kalkulationstool nur eine </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>indikative Berechnung des Wertbeitrages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vornimmt.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2785,15 +2858,6 @@
     <xf numFmtId="0" fontId="16" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -2812,7 +2876,16 @@
     <xf numFmtId="0" fontId="18" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6451,7 +6524,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -6532,12 +6605,12 @@
         <v>70</v>
       </c>
       <c r="C10" s="90" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PE92VI+ommGNYJjtpg/9xK5fQzN2k8omOoSjW9KG7l0i5VDYEQ5CQTtpCGqkcdDBx+y+1VAc0nuyzNQh8g+mRw==" saltValue="j4QSEzBhuKGfuJxGkWqGNw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="temSBCYz7mahSiJ39Bf+V4by9SgkBbWNcvxxbwnu8Gb9qG1rc6GIvGPPKmmqNuGA67OpkWjJRCIaFmBhkNrzBg==" saltValue="wMLFQPrQDycciyUax63Oug==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -6562,12 +6635,12 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B2">
         <f>'Bewertung Aufstockung'!B6</f>
@@ -6576,7 +6649,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B3">
         <f>'Bewertung Aufstockung'!B6-Wertbeitrag!C11</f>
@@ -6585,7 +6658,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B4">
         <v>0.88</v>
@@ -6593,7 +6666,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B5" s="231">
         <v>0.55000000000000004</v>
@@ -6601,7 +6674,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B6" s="232">
         <f>'Bewertung Aufstockung'!B5</f>
@@ -6610,7 +6683,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B7" s="233" t="e">
         <f>(B2-B3)*(B2-B3+1)/B2/(B2+1)*B4*B6*B5</f>
@@ -6619,10 +6692,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
@@ -6633,7 +6706,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B27" s="240">
         <f>2.3%+C27+D27+E27</f>
@@ -6667,7 +6740,7 @@
   <dimension ref="A3:AB139"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7289,7 +7362,7 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C12" s="218" t="e">
         <f>C7-(C11/10000)</f>
@@ -7659,11 +7732,11 @@
         <v>148</v>
       </c>
       <c r="B18" s="120">
-        <f>IF(Kalk_Kredit2!D13="MoVe",0.85,1)</f>
+        <f>IF(Kalk_Kredit2!D13="MoVe",0.75,1)</f>
         <v>1</v>
       </c>
       <c r="C18" s="120">
-        <f>IF(Kalk_Kredit2!D13="MoVe",0.85,1)</f>
+        <f>IF(Kalk_Kredit2!D13="MoVe",0.75,1)</f>
         <v>1</v>
       </c>
       <c r="F18" s="1">
@@ -7726,11 +7799,11 @@
         <v>5</v>
       </c>
       <c r="B19" s="1">
-        <f>IF(Kalk_Kredit2!D13="DVAG",3%*'Bg WB vereinb_Kredit2'!C5,0)</f>
+        <f>IF(Kalk_Kredit2!D13="DVAG",3.5%*'Bg WB vereinb_Kredit2'!C5,0)</f>
         <v>0</v>
       </c>
       <c r="C19" s="1">
-        <f>IF(Kalk_Kredit2!D13="DVAG",3%*'Bg WB vereinb_Kredit2'!R5,0)</f>
+        <f>IF(Kalk_Kredit2!D13="DVAG",3.5%*'Bg WB vereinb_Kredit2'!R5,0)</f>
         <v>0</v>
       </c>
       <c r="F19" s="1">
@@ -14542,8 +14615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F271BF23-5F64-4067-8786-917566CE8028}">
   <dimension ref="A3:AB139"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15162,7 +15235,7 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C12" s="218" t="e">
         <f>C7-(C11/10000)</f>
@@ -15532,11 +15605,11 @@
         <v>148</v>
       </c>
       <c r="B18" s="120">
-        <f>IF(Kalk_Kredit2!D13="MoVe",0.85,1)</f>
+        <f>IF(Kalk_Kredit2!D13="MoVe",0.75,1)</f>
         <v>1</v>
       </c>
       <c r="C18" s="120">
-        <f>IF(Kalk_Kredit2!D13="MoVe",0.85,1)</f>
+        <f>IF(Kalk_Kredit2!D13="MoVe",0.75,1)</f>
         <v>1</v>
       </c>
       <c r="F18" s="1">
@@ -15599,11 +15672,11 @@
         <v>5</v>
       </c>
       <c r="B19" s="1">
-        <f>IF(Kalk_Kredit2!D13="DVAG",3%*'Bg Produktkalk I_Kredit2'!C5,0)</f>
+        <f>IF(Kalk_Kredit2!D13="DVAG",3.5%*'Bg Produktkalk I_Kredit2'!C5,0)</f>
         <v>0</v>
       </c>
       <c r="C19" s="1">
-        <f>IF(Kalk_Kredit2!D13="DVAG",3%*'Bg Produktkalk I_Kredit2'!R5,0)</f>
+        <f>IF(Kalk_Kredit2!D13="DVAG",3.5%*'Bg Produktkalk I_Kredit2'!R5,0)</f>
         <v>0</v>
       </c>
       <c r="F19" s="1">
@@ -22547,25 +22620,25 @@
       </c>
       <c r="V3" s="266"/>
       <c r="W3" s="266"/>
-      <c r="AB3" s="268" t="s">
+      <c r="AB3" s="273" t="s">
         <v>87</v>
       </c>
-      <c r="AC3" s="268"/>
-      <c r="AD3" s="268"/>
+      <c r="AC3" s="273"/>
+      <c r="AD3" s="273"/>
       <c r="AE3" s="108"/>
       <c r="AF3" s="108"/>
-      <c r="AI3" s="268" t="s">
+      <c r="AI3" s="273" t="s">
         <v>87</v>
       </c>
-      <c r="AJ3" s="268"/>
-      <c r="AK3" s="268"/>
+      <c r="AJ3" s="273"/>
+      <c r="AK3" s="273"/>
       <c r="AL3" s="108"/>
       <c r="AM3" s="108"/>
-      <c r="AS3" s="268" t="s">
+      <c r="AS3" s="273" t="s">
         <v>87</v>
       </c>
-      <c r="AT3" s="268"/>
-      <c r="AU3" s="268"/>
+      <c r="AT3" s="273"/>
+      <c r="AU3" s="273"/>
       <c r="AV3" s="108"/>
       <c r="AW3" s="108"/>
     </row>
@@ -22598,24 +22671,24 @@
         <f>Kalk_Kredit2!D10</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="269" t="s">
+      <c r="AB4" s="274" t="s">
         <v>89</v>
       </c>
-      <c r="AC4" s="269"/>
+      <c r="AC4" s="274"/>
       <c r="AD4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AI4" s="269" t="s">
+      <c r="AI4" s="274" t="s">
         <v>91</v>
       </c>
-      <c r="AJ4" s="269"/>
+      <c r="AJ4" s="274"/>
       <c r="AK4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AS4" s="269" t="s">
+      <c r="AS4" s="274" t="s">
         <v>91</v>
       </c>
-      <c r="AT4" s="269"/>
+      <c r="AT4" s="274"/>
       <c r="AU4" s="1" t="s">
         <v>90</v>
       </c>
@@ -22630,7 +22703,7 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="270" t="s">
+      <c r="H5" s="267" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="124">
@@ -22690,7 +22763,7 @@
       <c r="B6" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="271"/>
+      <c r="H6" s="268"/>
       <c r="I6" s="124">
         <v>5.01</v>
       </c>
@@ -22770,7 +22843,7 @@
       <c r="B7" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="271"/>
+      <c r="H7" s="268"/>
       <c r="I7" s="124">
         <v>10.01</v>
       </c>
@@ -22855,7 +22928,7 @@
       <c r="D8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="271"/>
+      <c r="H8" s="268"/>
       <c r="I8" s="124">
         <v>15.01</v>
       </c>
@@ -22931,7 +23004,7 @@
       <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="H9" s="271"/>
+      <c r="H9" s="268"/>
       <c r="I9" s="124">
         <v>20.010000000000002</v>
       </c>
@@ -23007,7 +23080,7 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" s="271"/>
+      <c r="H10" s="268"/>
       <c r="I10" s="124">
         <v>30.01</v>
       </c>
@@ -23087,7 +23160,7 @@
       <c r="D11" s="1">
         <v>2</v>
       </c>
-      <c r="H11" s="271"/>
+      <c r="H11" s="268"/>
       <c r="I11" s="124">
         <v>40.01</v>
       </c>
@@ -23102,7 +23175,7 @@
         <v>22</v>
       </c>
       <c r="O11" s="202" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P11" s="203" t="e">
         <f ca="1">LOOKUP(Wertbeitrag(Kalk_Kredit2!D10,Kalk_Kredit2!D9,Kalk_Kredit2!D8,(((((Kalk_Kredit2!D20+1)^(1/12))-1)*12)),Kalk_Kredit2!D14/10000,Kalk_Kredit2!D7,PMT((((Kalk_Kredit2!D20+1)^(1/12)-1)),Kalk_Kredit2!D8,-Kalk_Kredit2!D10),IF(Kalk_Kredit2!D9-Kalk_Kredit2!D8&gt;3,1,0),Kalk_Kredit2!D13)/Kalk_Kredit2!D10,Background2!I65:I70,Background2!K65:K70)/100</f>
@@ -23187,7 +23260,7 @@
       <c r="D12" s="1">
         <v>3</v>
       </c>
-      <c r="H12" s="271"/>
+      <c r="H12" s="268"/>
       <c r="I12" s="124">
         <v>50.01</v>
       </c>
@@ -23200,7 +23273,7 @@
       </c>
       <c r="N12" s="278"/>
       <c r="O12" s="207" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P12" s="208" t="str">
         <f>IF(ISNUMBER(P17),IF(Kalk_Kredit2!$D$8&gt;84,Background2!P14,Background2!P13),"")</f>
@@ -23274,7 +23347,7 @@
       <c r="B13" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="271"/>
+      <c r="H13" s="268"/>
       <c r="I13" s="124">
         <v>60.01</v>
       </c>
@@ -23287,7 +23360,7 @@
       </c>
       <c r="N13" s="278"/>
       <c r="O13" s="29" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P13" s="210" t="e">
         <f>LOOKUP($P$17,Background2!I65:I70,Background2!K65:K70)/100</f>
@@ -23353,7 +23426,7 @@
       <c r="B14" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="271"/>
+      <c r="H14" s="268"/>
       <c r="I14" s="124">
         <v>70.010000000000005</v>
       </c>
@@ -23366,7 +23439,7 @@
       </c>
       <c r="N14" s="279"/>
       <c r="O14" s="196" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P14" s="206" t="e">
         <f>LOOKUP($P$17,Background2!N65:N70,Background2!O65:O70)/100</f>
@@ -23443,7 +23516,7 @@
         <v>44</v>
       </c>
       <c r="D15" s="99"/>
-      <c r="H15" s="271"/>
+      <c r="H15" s="268"/>
       <c r="I15" s="124">
         <v>80.010000000000005</v>
       </c>
@@ -23524,7 +23597,7 @@
       <c r="B16" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="271"/>
+      <c r="H16" s="268"/>
       <c r="I16" s="124">
         <v>90.01</v>
       </c>
@@ -23602,7 +23675,7 @@
       <c r="B17" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="271"/>
+      <c r="H17" s="268"/>
       <c r="I17" s="124">
         <v>100.01</v>
       </c>
@@ -23685,7 +23758,7 @@
       <c r="B18" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="271"/>
+      <c r="H18" s="268"/>
       <c r="I18" s="124">
         <v>125.01</v>
       </c>
@@ -23763,7 +23836,7 @@
       <c r="B19" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="271"/>
+      <c r="H19" s="268"/>
       <c r="I19" s="124">
         <v>150.01</v>
       </c>
@@ -23835,7 +23908,7 @@
       <c r="B20" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="271"/>
+      <c r="H20" s="268"/>
       <c r="I20" s="125">
         <v>175.01</v>
       </c>
@@ -23861,7 +23934,7 @@
       <c r="B21" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="271"/>
+      <c r="H21" s="268"/>
       <c r="I21" s="125">
         <v>200.01</v>
       </c>
@@ -23882,27 +23955,27 @@
         <f>W6+V16</f>
         <v>0</v>
       </c>
-      <c r="AA21" s="269" t="s">
+      <c r="AA21" s="274" t="s">
         <v>105</v>
       </c>
-      <c r="AB21" s="269"/>
+      <c r="AB21" s="274"/>
       <c r="AC21" s="1">
         <f>LOOKUP(V16,AA5:AA13,AD5:AD13)</f>
         <v>0</v>
       </c>
-      <c r="AH21" s="269" t="s">
+      <c r="AH21" s="274" t="s">
         <v>106</v>
       </c>
-      <c r="AI21" s="269"/>
+      <c r="AI21" s="274"/>
       <c r="AJ21" s="1">
         <f>IF(ISERROR(LOOKUP(V18,AH5:AH17,AK5:AK17)),0,LOOKUP(V18,AH5:AH17,AK5:AK17))</f>
         <v>0</v>
       </c>
       <c r="AO21" s="76"/>
-      <c r="AR21" s="269" t="s">
+      <c r="AR21" s="274" t="s">
         <v>106</v>
       </c>
-      <c r="AS21" s="269"/>
+      <c r="AS21" s="274"/>
       <c r="AT21" s="1">
         <f>IF(ISERROR(LOOKUP(V18,AR5:AR17,AU5:AU17)),0,LOOKUP(V18,AR5:AR17,AU5:AU17))</f>
         <v>0</v>
@@ -23916,7 +23989,7 @@
       <c r="B22" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="271"/>
+      <c r="H22" s="268"/>
       <c r="I22" s="125">
         <v>250.01</v>
       </c>
@@ -23959,7 +24032,7 @@
       <c r="A23" s="52">
         <v>999</v>
       </c>
-      <c r="H23" s="271"/>
+      <c r="H23" s="268"/>
       <c r="I23" s="125">
         <v>300.01</v>
       </c>
@@ -23987,7 +24060,7 @@
       </c>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H24" s="271"/>
+      <c r="H24" s="268"/>
       <c r="I24" s="126">
         <v>350.01</v>
       </c>
@@ -24006,7 +24079,7 @@
       </c>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H25" s="271"/>
+      <c r="H25" s="268"/>
       <c r="I25" s="126">
         <v>400.01</v>
       </c>
@@ -24023,34 +24096,34 @@
         <f>AZ29+AT22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA25" s="276" t="s">
+      <c r="AA25" s="275" t="s">
         <v>107</v>
       </c>
-      <c r="AB25" s="276"/>
-      <c r="AC25" s="276"/>
-      <c r="AD25" s="276"/>
-      <c r="AE25" s="276"/>
-      <c r="AF25" s="276"/>
-      <c r="AH25" s="267" t="s">
+      <c r="AB25" s="275"/>
+      <c r="AC25" s="275"/>
+      <c r="AD25" s="275"/>
+      <c r="AE25" s="275"/>
+      <c r="AF25" s="275"/>
+      <c r="AH25" s="276" t="s">
         <v>108</v>
       </c>
-      <c r="AI25" s="267"/>
-      <c r="AJ25" s="267"/>
-      <c r="AK25" s="267"/>
-      <c r="AL25" s="267"/>
-      <c r="AM25" s="267"/>
-      <c r="AN25" s="267"/>
-      <c r="AO25" s="267"/>
-      <c r="AR25" s="267" t="s">
+      <c r="AI25" s="276"/>
+      <c r="AJ25" s="276"/>
+      <c r="AK25" s="276"/>
+      <c r="AL25" s="276"/>
+      <c r="AM25" s="276"/>
+      <c r="AN25" s="276"/>
+      <c r="AO25" s="276"/>
+      <c r="AR25" s="276" t="s">
         <v>108</v>
       </c>
-      <c r="AS25" s="267"/>
-      <c r="AT25" s="267"/>
-      <c r="AU25" s="267"/>
-      <c r="AV25" s="267"/>
-      <c r="AW25" s="267"/>
-      <c r="AX25" s="267"/>
-      <c r="AY25" s="267"/>
+      <c r="AS25" s="276"/>
+      <c r="AT25" s="276"/>
+      <c r="AU25" s="276"/>
+      <c r="AV25" s="276"/>
+      <c r="AW25" s="276"/>
+      <c r="AX25" s="276"/>
+      <c r="AY25" s="276"/>
     </row>
     <row r="26" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H26" s="238"/>
@@ -24102,7 +24175,7 @@
       <c r="AY26" s="239"/>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H27" s="272" t="s">
+      <c r="H27" s="269" t="s">
         <v>9</v>
       </c>
       <c r="I27" s="101">
@@ -24129,7 +24202,7 @@
       </c>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H28" s="273"/>
+      <c r="H28" s="270"/>
       <c r="I28" s="102">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -24160,7 +24233,7 @@
       </c>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H29" s="273"/>
+      <c r="H29" s="270"/>
       <c r="I29" s="102">
         <v>0.20000100000000001</v>
       </c>
@@ -24190,7 +24263,7 @@
       </c>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H30" s="273"/>
+      <c r="H30" s="270"/>
       <c r="I30" s="102">
         <v>0.400001</v>
       </c>
@@ -24296,7 +24369,7 @@
       </c>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H31" s="273"/>
+      <c r="H31" s="270"/>
       <c r="I31" s="102">
         <v>0.60000100000000001</v>
       </c>
@@ -24402,7 +24475,7 @@
       </c>
     </row>
     <row r="32" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H32" s="274"/>
+      <c r="H32" s="271"/>
       <c r="I32" s="103">
         <v>0.80000099999999996</v>
       </c>
@@ -24511,7 +24584,7 @@
       </c>
     </row>
     <row r="33" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H33" s="271" t="s">
+      <c r="H33" s="268" t="s">
         <v>17</v>
       </c>
       <c r="I33" s="104">
@@ -24625,7 +24698,7 @@
       </c>
     </row>
     <row r="34" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H34" s="271"/>
+      <c r="H34" s="268"/>
       <c r="I34" s="104">
         <v>0.20000100000000001</v>
       </c>
@@ -24737,7 +24810,7 @@
       </c>
     </row>
     <row r="35" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H35" s="271"/>
+      <c r="H35" s="268"/>
       <c r="I35" s="104">
         <v>0.400001</v>
       </c>
@@ -24849,7 +24922,7 @@
       </c>
     </row>
     <row r="36" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H36" s="271"/>
+      <c r="H36" s="268"/>
       <c r="I36" s="104">
         <v>0.60000100000000001</v>
       </c>
@@ -24961,7 +25034,7 @@
       </c>
     </row>
     <row r="37" spans="8:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H37" s="275"/>
+      <c r="H37" s="272"/>
       <c r="I37" s="104">
         <v>0.80000099999999996</v>
       </c>
@@ -27733,14 +27806,14 @@
     </row>
     <row r="63" spans="8:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H63" s="24" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I63" s="24"/>
       <c r="J63" s="24"/>
       <c r="K63" s="24"/>
       <c r="L63" s="24"/>
       <c r="N63" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AA63" s="1">
         <f t="shared" si="17"/>
@@ -37485,6 +37558,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AA2:AF2"/>
+    <mergeCell ref="AH2:AO2"/>
+    <mergeCell ref="AR2:AY2"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AS3:AU3"/>
     <mergeCell ref="AR25:AY25"/>
     <mergeCell ref="H27:H32"/>
     <mergeCell ref="H33:H37"/>
@@ -37498,13 +37578,6 @@
     <mergeCell ref="AR21:AS21"/>
     <mergeCell ref="AA25:AF25"/>
     <mergeCell ref="AH25:AO25"/>
-    <mergeCell ref="AA2:AF2"/>
-    <mergeCell ref="AH2:AO2"/>
-    <mergeCell ref="AR2:AY2"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="AS3:AU3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -37523,7 +37596,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37546,7 +37619,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="71" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B2" s="70"/>
     </row>
@@ -37563,7 +37636,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I5" s="249" t="str">
         <f>+'Bewertung Aufstockung'!F27</f>
@@ -37572,7 +37645,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="250" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I6" s="120" t="e">
         <f>+ROUNDUP(I5,1)</f>
@@ -37581,7 +37654,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="250" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I7" s="251" t="e">
         <f>+IF(I6=0.8,I17,VLOOKUP(I6,G10:I18,3,1))</f>
@@ -37601,13 +37674,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G10" s="120">
         <v>0.1</v>
       </c>
       <c r="H10" s="243" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I10" s="251">
         <f>+Kalkulationstool!$D$11/(1-Aufstockungsquoten!G10)-Kalkulationstool!$D$11</f>
@@ -37616,13 +37689,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="250" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G11" s="120">
         <v>0.2</v>
       </c>
       <c r="H11" s="243" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I11" s="251">
         <f>+Kalkulationstool!$D$11/(1-Aufstockungsquoten!G11)-Kalkulationstool!$D$11</f>
@@ -37631,13 +37704,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="250" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G12" s="120">
         <v>0.3</v>
       </c>
       <c r="H12" s="243" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I12" s="251">
         <f>+Kalkulationstool!$D$11/(1-Aufstockungsquoten!G12)-Kalkulationstool!$D$11</f>
@@ -37649,7 +37722,7 @@
         <v>0.4</v>
       </c>
       <c r="H13" s="243" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I13" s="251">
         <f>+Kalkulationstool!$D$11/(1-Aufstockungsquoten!G13)-Kalkulationstool!$D$11</f>
@@ -37661,7 +37734,7 @@
         <v>0.5</v>
       </c>
       <c r="H14" s="243" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I14" s="251">
         <f>+Kalkulationstool!$D$11/(1-Aufstockungsquoten!G14)-Kalkulationstool!$D$11</f>
@@ -37673,7 +37746,7 @@
         <v>0.6</v>
       </c>
       <c r="H15" s="243" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I15" s="251">
         <f>+Kalkulationstool!$D$11/(1-Aufstockungsquoten!G15)-Kalkulationstool!$D$11</f>
@@ -37685,7 +37758,7 @@
         <v>0.7</v>
       </c>
       <c r="H16" s="243" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I16" s="251">
         <f>+Kalkulationstool!$D$11/(1-Aufstockungsquoten!G16)-Kalkulationstool!$D$11</f>
@@ -37697,7 +37770,7 @@
         <v>0.8</v>
       </c>
       <c r="H17" s="243" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I17" s="251">
         <f>+Kalkulationstool!$D$11/(1-Aufstockungsquoten!G17)-Kalkulationstool!$D$11</f>
@@ -37709,7 +37782,7 @@
         <v>0.9</v>
       </c>
       <c r="H18" s="243" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I18" s="251">
         <f>+Kalkulationstool!$D$11/(1-Aufstockungsquoten!G18)-Kalkulationstool!$D$11</f>
@@ -37729,7 +37802,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I21" s="120" t="e">
         <f>+ROUNDDOWN(I5,1)</f>
@@ -37757,7 +37830,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -37799,7 +37872,7 @@
       <c r="G2" s="67"/>
       <c r="Q2" s="241"/>
       <c r="R2" s="242" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="5.0999999999999996" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -37879,7 +37952,7 @@
       </c>
       <c r="G7" s="92"/>
       <c r="H7" s="93" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I7" s="82"/>
       <c r="J7" s="82"/>
@@ -38054,7 +38127,7 @@
       </c>
       <c r="G14" s="93"/>
       <c r="H14" s="93" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I14" s="82"/>
       <c r="J14" s="82"/>
@@ -38088,7 +38161,7 @@
       <c r="C19" s="82"/>
       <c r="D19" s="122">
         <f ca="1">NOW()</f>
-        <v>44909.854944212966</v>
+        <v>44943.655650231478</v>
       </c>
       <c r="E19" s="82"/>
       <c r="F19" s="82" t="s">
@@ -38120,7 +38193,7 @@
       <c r="F20" s="100"/>
       <c r="G20" s="82"/>
       <c r="H20" s="93" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I20" s="82"/>
       <c r="J20" s="82"/>
@@ -38258,7 +38331,7 @@
         <v/>
       </c>
       <c r="I26" s="91" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J26" s="82"/>
       <c r="K26" s="82"/>
@@ -38272,7 +38345,7 @@
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iCFBxi0/PADkWcii3he9SJslmZnH25bIPU25iAHDhYsnHiCDQncI2teCMAPkNtf4xPnxqwv3cLmfUvo6I2TJfA==" saltValue="z9Y9iXlns4vlf8z+L1C9oQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+l00WxGYIb4qoYpIo+q8yM/EDAiBYPzCzE9uo+t51RK/AfveDAfilUXMFvymMd4E65wGTQ4Fi6Mm7LG9UiSfrg==" saltValue="kfULYYEAQWvItHAUy45niw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="D8" name="Range6"/>
     <protectedRange sqref="D19" name="Range5"/>
@@ -38375,7 +38448,7 @@
     <tabColor theme="4" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="B1:XFC23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -38389,7 +38462,8 @@
     <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="73" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="1" hidden="1"/>
+    <col min="7" max="16383" width="11.42578125" style="1" hidden="1"/>
+    <col min="16384" max="16384" width="21.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="19.5" x14ac:dyDescent="0.3">
@@ -38493,7 +38567,7 @@
       </c>
       <c r="E10" s="92"/>
       <c r="F10" s="93" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -38569,7 +38643,7 @@
     </row>
     <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D18" s="154"/>
       <c r="E18" s="154"/>
@@ -38577,7 +38651,7 @@
     </row>
     <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>167</v>
+        <v>243</v>
       </c>
       <c r="D19" s="154"/>
       <c r="E19" s="154"/>
@@ -38585,7 +38659,7 @@
     </row>
     <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="C20" s="154"/>
       <c r="D20" s="154"/>
@@ -38593,24 +38667,29 @@
       <c r="F20" s="154"/>
     </row>
     <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="147" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B21" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="147" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Jj1zoi8LMXLSYvcOr16BoNanpoVrFp2wnknYXanWVjsQ4Igeu6u/Gd6Uzj4CFE2C8F2YYxLOMMZUh2NrIgbO6g==" saltValue="5ap8O8NGeDobDfCH0Zf81g==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="md4XruLI5VbWansdC0cUhfCj2E8GvTFvtOHiVRMXpotxVSGvewZQJNlssjDk5o9QrGjcMGXFlJ12mnnyClsgVg==" saltValue="7L5y2Fa82BHIlu9JX6JqnQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="C11" name="Range1"/>
   </protectedRanges>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="Bitte prüfen Sie die Eingaben!" error="Übernehmen Sie die Laufzeit aus KFPK. " sqref="C11" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>0</formula1>
       <formula2>120</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;10&amp;K000000</oddFooter>
   </headerFooter>
@@ -38656,7 +38735,7 @@
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="71" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B2" s="70"/>
       <c r="C2" s="244"/>
@@ -38668,7 +38747,7 @@
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B3" s="70"/>
       <c r="C3" s="244"/>
@@ -38694,14 +38773,14 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="100" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B5" s="227"/>
       <c r="C5" s="228">
         <v>840</v>
       </c>
       <c r="D5" s="93" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E5" s="228"/>
       <c r="F5" s="93"/>
@@ -38709,14 +38788,14 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="100" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B6" s="165"/>
       <c r="C6" s="229">
         <v>91</v>
       </c>
       <c r="D6" s="93" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E6" s="229"/>
       <c r="F6" s="92"/>
@@ -38724,14 +38803,14 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="100" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B7" s="226"/>
       <c r="C7" s="230">
         <v>1</v>
       </c>
       <c r="D7" s="93" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E7" s="230"/>
       <c r="F7" s="92"/>
@@ -38742,22 +38821,22 @@
     <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="81"/>
       <c r="B10" s="237" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C10" s="237"/>
       <c r="D10" s="237" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E10" s="237"/>
       <c r="F10" s="237" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G10" s="81"/>
       <c r="H10" s="247"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="155" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B11" s="234" t="str">
         <f>IFERROR(+Wert_Kredit2!Wertbeitrag_Zielkondition,"")</f>
@@ -38777,7 +38856,7 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="155" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B12" s="235">
         <f>IFERROR(Kalk_Kredit2!D10*B7*Kalk_RKV!B27,"")</f>
@@ -38794,7 +38873,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="93" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H12" s="244"/>
     </row>
@@ -38809,7 +38888,7 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="155" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B14" s="234" t="str">
         <f>IFERROR(+B12+B11,"")</f>
@@ -38826,13 +38905,13 @@
         <v/>
       </c>
       <c r="G14" s="93" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H14" s="244"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="245" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B15" s="236" t="str">
         <f>IFERROR(+B14-D14,"")</f>
@@ -38858,21 +38937,21 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="81"/>
       <c r="B18" s="237" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C18" s="237"/>
       <c r="D18" s="237" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E18" s="237"/>
       <c r="F18" s="237" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G18" s="81"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="155" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B19" s="234" t="str">
         <f>IFERROR(+Wert_Kredit2!Wertbeitrag_vereinbarter_Effektivzins,"")</f>
@@ -38892,7 +38971,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="155" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B20" s="235">
         <f>+B12</f>
@@ -38909,7 +38988,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="93" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -38923,7 +39002,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="155" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B22" s="234" t="str">
         <f>IFERROR(+B20+B19,"")</f>
@@ -38940,12 +39019,12 @@
         <v/>
       </c>
       <c r="G22" s="93" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="245" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B23" s="236" t="str">
         <f>IFERROR(+B22-D22,"")</f>
@@ -38984,14 +39063,14 @@
       <c r="D26" s="237"/>
       <c r="E26" s="237"/>
       <c r="F26" s="237" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G26" s="81"/>
       <c r="H26" s="247"/>
     </row>
     <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="82" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B27" s="82"/>
       <c r="C27" s="82"/>
@@ -39002,13 +39081,13 @@
         <v/>
       </c>
       <c r="G27" s="93" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H27" s="244"/>
     </row>
     <row r="28" spans="1:8" s="255" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="252" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B28" s="253"/>
       <c r="C28" s="253"/>
@@ -39019,13 +39098,13 @@
         <v/>
       </c>
       <c r="G28" s="93" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H28" s="258"/>
     </row>
     <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="81" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B29" s="82"/>
       <c r="C29" s="82"/>
@@ -39036,13 +39115,13 @@
         <v/>
       </c>
       <c r="G29" s="93" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H29" s="244"/>
     </row>
     <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="82" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B30" s="82"/>
       <c r="C30" s="82"/>
@@ -39053,13 +39132,13 @@
         <v/>
       </c>
       <c r="G30" s="93" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H30" s="244"/>
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="81" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B31" s="82"/>
       <c r="C31" s="82"/>
@@ -39070,7 +39149,7 @@
         <v/>
       </c>
       <c r="G31" s="93" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H31" s="244"/>
     </row>
@@ -39086,7 +39165,7 @@
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="257" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B33" s="244"/>
       <c r="C33" s="244"/>
@@ -39097,7 +39176,7 @@
       <c r="H33" s="244"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/nffbkVlXtmh/i8Huza5eum3/2qPNzrkMIMXtF7vFODU7kUMYcHSLHvqOkKLrGSk35S/dcSClX8+wQEWrjvWwg==" saltValue="07hUAhFBEgmmp2TXSj7HYA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="eLkf7AnMoHJdNW6cuv9Z4k2esKfpkD2T8sehyoyiwAJIA8mBkLreKuGqsEo6PyCyUdj01CLjFspQaLiRaIhT7Q==" saltValue="cIT9pzYWUJH2XQkI6pZw6Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="B5:B7" name="Bereich1"/>
   </protectedRanges>
@@ -39146,8 +39225,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A2:AB139"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39805,7 +39884,7 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C12" s="218" t="e">
         <f>C7-(C11/10000)</f>
@@ -40205,11 +40284,11 @@
         <v>148</v>
       </c>
       <c r="B18" s="120">
-        <f>IF(Kalkulationstool!D13="MoVe",0.85,1)</f>
+        <f>IF(Kalkulationstool!D13="MoVe",0.75,1)</f>
         <v>1</v>
       </c>
       <c r="C18" s="120">
-        <f>IF(Kalkulationstool!D13="MoVe",0.85,1)</f>
+        <f>IF(Kalkulationstool!D13="MoVe",0.75,1)</f>
         <v>1</v>
       </c>
       <c r="F18" s="1">
@@ -40277,11 +40356,11 @@
         <v>5</v>
       </c>
       <c r="B19" s="1">
-        <f>IF(Kalkulationstool!D13="DVAG",3%*'Background WB vereinb'!C5,0)</f>
+        <f>IF(Kalkulationstool!D13="DVAG",3.5%*'Background WB vereinb'!C5,0)</f>
         <v>0</v>
       </c>
       <c r="C19" s="1">
-        <f>IF(Kalkulationstool!D13="DVAG",3%*'Background WB vereinb'!R5,0)</f>
+        <f>IF(Kalkulationstool!D13="DVAG",3.5%*'Background WB vereinb'!R5,0)</f>
         <v>0</v>
       </c>
       <c r="F19" s="1">
@@ -47119,8 +47198,8 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A3:AB139"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47740,7 +47819,7 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C12" s="218" t="e">
         <f>C7-(C11/10000)</f>
@@ -48110,11 +48189,11 @@
         <v>148</v>
       </c>
       <c r="B18" s="120">
-        <f>IF(Kalkulationstool!D13="MoVe",0.85,1)</f>
+        <f>IF(Kalkulationstool!D13="MoVe",0.75,1)</f>
         <v>1</v>
       </c>
       <c r="C18" s="120">
-        <f>IF(Kalkulationstool!D13="MoVe",0.85,1)</f>
+        <f>IF(Kalkulationstool!D13="MoVe",0.75,1)</f>
         <v>1</v>
       </c>
       <c r="F18" s="1">
@@ -48177,11 +48256,11 @@
         <v>5</v>
       </c>
       <c r="B19" s="1">
-        <f>IF(Kalkulationstool!D13="DVAG",3%*'Background Produktkalk I'!C5,0)</f>
+        <f>IF(Kalkulationstool!D13="DVAG",3.5%*'Background Produktkalk I'!C5,0)</f>
         <v>0</v>
       </c>
       <c r="C19" s="1">
-        <f>IF(Kalkulationstool!D13="DVAG",3%*'Background Produktkalk I'!R5,0)</f>
+        <f>IF(Kalkulationstool!D13="DVAG",3.5%*'Background Produktkalk I'!R5,0)</f>
         <v>0</v>
       </c>
       <c r="F19" s="1">
@@ -54992,7 +55071,7 @@
   <dimension ref="A1:AZ172"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55125,28 +55204,28 @@
       </c>
       <c r="V3" s="266"/>
       <c r="W3" s="266"/>
-      <c r="AB3" s="268" t="s">
+      <c r="AB3" s="273" t="s">
         <v>87</v>
       </c>
-      <c r="AC3" s="268"/>
-      <c r="AD3" s="268"/>
+      <c r="AC3" s="273"/>
+      <c r="AD3" s="273"/>
       <c r="AE3" s="108"/>
       <c r="AF3" s="108"/>
-      <c r="AI3" s="268" t="s">
+      <c r="AI3" s="273" t="s">
         <v>87</v>
       </c>
-      <c r="AJ3" s="268"/>
-      <c r="AK3" s="268"/>
+      <c r="AJ3" s="273"/>
+      <c r="AK3" s="273"/>
       <c r="AL3" s="108"/>
       <c r="AM3" s="108"/>
       <c r="AP3" s="1"/>
       <c r="AQ3" s="1"/>
       <c r="AR3" s="1"/>
-      <c r="AS3" s="268" t="s">
+      <c r="AS3" s="273" t="s">
         <v>87</v>
       </c>
-      <c r="AT3" s="268"/>
-      <c r="AU3" s="268"/>
+      <c r="AT3" s="273"/>
+      <c r="AU3" s="273"/>
       <c r="AV3" s="108"/>
       <c r="AW3" s="108"/>
       <c r="AX3" s="1"/>
@@ -55183,27 +55262,27 @@
         <f>Kalkulationstool!D10</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="269" t="s">
+      <c r="AB4" s="274" t="s">
         <v>89</v>
       </c>
-      <c r="AC4" s="269"/>
+      <c r="AC4" s="274"/>
       <c r="AD4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AI4" s="269" t="s">
+      <c r="AI4" s="274" t="s">
         <v>91</v>
       </c>
-      <c r="AJ4" s="269"/>
+      <c r="AJ4" s="274"/>
       <c r="AK4" s="1" t="s">
         <v>90</v>
       </c>
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
-      <c r="AS4" s="269" t="s">
+      <c r="AS4" s="274" t="s">
         <v>91</v>
       </c>
-      <c r="AT4" s="269"/>
+      <c r="AT4" s="274"/>
       <c r="AU4" s="1" t="s">
         <v>90</v>
       </c>
@@ -55223,7 +55302,7 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="270" t="s">
+      <c r="H5" s="267" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="124">
@@ -55297,7 +55376,7 @@
       <c r="B6" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="271"/>
+      <c r="H6" s="268"/>
       <c r="I6" s="124">
         <v>5.01</v>
       </c>
@@ -55388,7 +55467,7 @@
       <c r="B7" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="271"/>
+      <c r="H7" s="268"/>
       <c r="I7" s="124">
         <v>10.01</v>
       </c>
@@ -55484,7 +55563,7 @@
       <c r="D8" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="271"/>
+      <c r="H8" s="268"/>
       <c r="I8" s="124">
         <v>15.01</v>
       </c>
@@ -55573,7 +55652,7 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="H9" s="271"/>
+      <c r="H9" s="268"/>
       <c r="I9" s="124">
         <v>20.010000000000002</v>
       </c>
@@ -55662,7 +55741,7 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="H10" s="271"/>
+      <c r="H10" s="268"/>
       <c r="I10" s="124">
         <v>30.01</v>
       </c>
@@ -55755,7 +55834,7 @@
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="H11" s="271"/>
+      <c r="H11" s="268"/>
       <c r="I11" s="124">
         <v>40.01</v>
       </c>
@@ -55770,7 +55849,7 @@
         <v>22</v>
       </c>
       <c r="O11" s="202" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P11" s="203" t="e">
         <f ca="1">LOOKUP(Wertbeitrag(Kalkulationstool!D10,Kalkulationstool!D9,Kalkulationstool!D8,(((((Kalkulationstool!D20+1)^(1/12))-1)*12)),Kalkulationstool!D14/10000,Kalkulationstool!D7,PMT((((Kalkulationstool!D20+1)^(1/12)-1)),Kalkulationstool!D8,-Kalkulationstool!D10),IF(Kalkulationstool!D9-Kalkulationstool!D8&gt;3,1,0),Kalkulationstool!D13)/Kalkulationstool!D10,Background!I65:I70,Background!K65:K70)/100</f>
@@ -55862,7 +55941,7 @@
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="H12" s="271"/>
+      <c r="H12" s="268"/>
       <c r="I12" s="124">
         <v>50.01</v>
       </c>
@@ -55875,7 +55954,7 @@
       </c>
       <c r="N12" s="278"/>
       <c r="O12" s="207" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P12" s="208" t="str">
         <f>IF(ISNUMBER(P17),IF(Kalkulationstool!$D$8&gt;84,Background!P14,Background!P13),"")</f>
@@ -55956,7 +56035,7 @@
       <c r="B13" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="271"/>
+      <c r="H13" s="268"/>
       <c r="I13" s="124">
         <v>60.01</v>
       </c>
@@ -55969,7 +56048,7 @@
       </c>
       <c r="N13" s="278"/>
       <c r="O13" s="29" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P13" s="210" t="e">
         <f>LOOKUP($P$17,Background!I65:I70,Background!K65:K70)/100</f>
@@ -56042,7 +56121,7 @@
       <c r="B14" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="271"/>
+      <c r="H14" s="268"/>
       <c r="I14" s="124">
         <v>70.010000000000005</v>
       </c>
@@ -56055,7 +56134,7 @@
       </c>
       <c r="N14" s="279"/>
       <c r="O14" s="196" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P14" s="206" t="e">
         <f>LOOKUP($P$17,Background!N65:N70,Background!O65:O70)/100</f>
@@ -56139,7 +56218,7 @@
         <v>44</v>
       </c>
       <c r="D15" s="99"/>
-      <c r="H15" s="271"/>
+      <c r="H15" s="268"/>
       <c r="I15" s="124">
         <v>80.010000000000005</v>
       </c>
@@ -56227,7 +56306,7 @@
       <c r="B16" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="271"/>
+      <c r="H16" s="268"/>
       <c r="I16" s="124">
         <v>90.01</v>
       </c>
@@ -56312,7 +56391,7 @@
       <c r="B17" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="271"/>
+      <c r="H17" s="268"/>
       <c r="I17" s="124">
         <v>100.01</v>
       </c>
@@ -56402,7 +56481,7 @@
       <c r="B18" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="271"/>
+      <c r="H18" s="268"/>
       <c r="I18" s="124">
         <v>125.01</v>
       </c>
@@ -56488,7 +56567,7 @@
       <c r="B19" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="271"/>
+      <c r="H19" s="268"/>
       <c r="I19" s="124">
         <v>150.01</v>
       </c>
@@ -56568,7 +56647,7 @@
       <c r="B20" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="271"/>
+      <c r="H20" s="268"/>
       <c r="I20" s="125">
         <v>175.01</v>
       </c>
@@ -56605,7 +56684,7 @@
       <c r="B21" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="271"/>
+      <c r="H21" s="268"/>
       <c r="I21" s="125">
         <v>200.01</v>
       </c>
@@ -56626,18 +56705,18 @@
         <f>W6+V16</f>
         <v>0</v>
       </c>
-      <c r="AA21" s="269" t="s">
+      <c r="AA21" s="274" t="s">
         <v>105</v>
       </c>
-      <c r="AB21" s="269"/>
+      <c r="AB21" s="274"/>
       <c r="AC21" s="1">
         <f>LOOKUP(V16,AA5:AA13,AD5:AD13)</f>
         <v>0</v>
       </c>
-      <c r="AH21" s="269" t="s">
+      <c r="AH21" s="274" t="s">
         <v>106</v>
       </c>
-      <c r="AI21" s="269"/>
+      <c r="AI21" s="274"/>
       <c r="AJ21" s="1">
         <f>IF(ISERROR(LOOKUP(V18,AH5:AH17,AK5:AK17)),0,LOOKUP(V18,AH5:AH17,AK5:AK17))</f>
         <v>0</v>
@@ -56645,10 +56724,10 @@
       <c r="AO21" s="76"/>
       <c r="AP21" s="1"/>
       <c r="AQ21" s="1"/>
-      <c r="AR21" s="269" t="s">
+      <c r="AR21" s="274" t="s">
         <v>106</v>
       </c>
-      <c r="AS21" s="269"/>
+      <c r="AS21" s="274"/>
       <c r="AT21" s="1">
         <f>IF(ISERROR(LOOKUP(V18,AR5:AR17,AU5:AU17)),0,LOOKUP(V18,AR5:AR17,AU5:AU17))</f>
         <v>0</v>
@@ -56667,7 +56746,7 @@
       <c r="B22" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="271"/>
+      <c r="H22" s="268"/>
       <c r="I22" s="125">
         <v>250.01</v>
       </c>
@@ -56719,7 +56798,7 @@
       <c r="A23" s="52">
         <v>999</v>
       </c>
-      <c r="H23" s="271"/>
+      <c r="H23" s="268"/>
       <c r="I23" s="125">
         <v>300.01</v>
       </c>
@@ -56757,7 +56836,7 @@
       <c r="AZ23" s="1"/>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H24" s="271"/>
+      <c r="H24" s="268"/>
       <c r="I24" s="126">
         <v>350.01</v>
       </c>
@@ -56788,7 +56867,7 @@
       <c r="AZ24" s="1"/>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H25" s="271"/>
+      <c r="H25" s="268"/>
       <c r="I25" s="126">
         <v>400.01</v>
       </c>
@@ -56806,36 +56885,36 @@
         <f>AZ29+AT22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA25" s="276" t="s">
+      <c r="AA25" s="275" t="s">
         <v>107</v>
       </c>
-      <c r="AB25" s="276"/>
-      <c r="AC25" s="276"/>
-      <c r="AD25" s="276"/>
-      <c r="AE25" s="276"/>
-      <c r="AF25" s="276"/>
-      <c r="AH25" s="267" t="s">
+      <c r="AB25" s="275"/>
+      <c r="AC25" s="275"/>
+      <c r="AD25" s="275"/>
+      <c r="AE25" s="275"/>
+      <c r="AF25" s="275"/>
+      <c r="AH25" s="276" t="s">
         <v>108</v>
       </c>
-      <c r="AI25" s="267"/>
-      <c r="AJ25" s="267"/>
-      <c r="AK25" s="267"/>
-      <c r="AL25" s="267"/>
-      <c r="AM25" s="267"/>
-      <c r="AN25" s="267"/>
-      <c r="AO25" s="267"/>
+      <c r="AI25" s="276"/>
+      <c r="AJ25" s="276"/>
+      <c r="AK25" s="276"/>
+      <c r="AL25" s="276"/>
+      <c r="AM25" s="276"/>
+      <c r="AN25" s="276"/>
+      <c r="AO25" s="276"/>
       <c r="AP25" s="1"/>
       <c r="AQ25" s="1"/>
-      <c r="AR25" s="267" t="s">
+      <c r="AR25" s="276" t="s">
         <v>108</v>
       </c>
-      <c r="AS25" s="267"/>
-      <c r="AT25" s="267"/>
-      <c r="AU25" s="267"/>
-      <c r="AV25" s="267"/>
-      <c r="AW25" s="267"/>
-      <c r="AX25" s="267"/>
-      <c r="AY25" s="267"/>
+      <c r="AS25" s="276"/>
+      <c r="AT25" s="276"/>
+      <c r="AU25" s="276"/>
+      <c r="AV25" s="276"/>
+      <c r="AW25" s="276"/>
+      <c r="AX25" s="276"/>
+      <c r="AY25" s="276"/>
       <c r="AZ25" s="1"/>
     </row>
     <row r="26" spans="1:52" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -56888,7 +56967,7 @@
       <c r="AY26" s="129"/>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H27" s="272" t="s">
+      <c r="H27" s="269" t="s">
         <v>9</v>
       </c>
       <c r="I27" s="101">
@@ -56925,7 +57004,7 @@
       <c r="AZ27" s="1"/>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H28" s="273"/>
+      <c r="H28" s="270"/>
       <c r="I28" s="102">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -56966,7 +57045,7 @@
       <c r="AZ28" s="1"/>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H29" s="273"/>
+      <c r="H29" s="270"/>
       <c r="I29" s="102">
         <v>0.20000100000000001</v>
       </c>
@@ -57005,7 +57084,7 @@
       </c>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H30" s="273"/>
+      <c r="H30" s="270"/>
       <c r="I30" s="102">
         <v>0.400001</v>
       </c>
@@ -57113,7 +57192,7 @@
       </c>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H31" s="273"/>
+      <c r="H31" s="270"/>
       <c r="I31" s="102">
         <v>0.60000100000000001</v>
       </c>
@@ -57221,7 +57300,7 @@
       </c>
     </row>
     <row r="32" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H32" s="274"/>
+      <c r="H32" s="271"/>
       <c r="I32" s="103">
         <v>0.80000099999999996</v>
       </c>
@@ -57332,7 +57411,7 @@
       </c>
     </row>
     <row r="33" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H33" s="271" t="s">
+      <c r="H33" s="268" t="s">
         <v>17</v>
       </c>
       <c r="I33" s="104">
@@ -57447,7 +57526,7 @@
       </c>
     </row>
     <row r="34" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H34" s="271"/>
+      <c r="H34" s="268"/>
       <c r="I34" s="104">
         <v>0.20000100000000001</v>
       </c>
@@ -57560,7 +57639,7 @@
       </c>
     </row>
     <row r="35" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H35" s="271"/>
+      <c r="H35" s="268"/>
       <c r="I35" s="104">
         <v>0.400001</v>
       </c>
@@ -57673,7 +57752,7 @@
       </c>
     </row>
     <row r="36" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H36" s="271"/>
+      <c r="H36" s="268"/>
       <c r="I36" s="104">
         <v>0.60000100000000001</v>
       </c>
@@ -57786,7 +57865,7 @@
       </c>
     </row>
     <row r="37" spans="8:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H37" s="275"/>
+      <c r="H37" s="272"/>
       <c r="I37" s="104">
         <v>0.80000099999999996</v>
       </c>
@@ -60612,14 +60691,14 @@
     </row>
     <row r="63" spans="8:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H63" s="24" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I63" s="24"/>
       <c r="J63" s="24"/>
       <c r="K63" s="24"/>
       <c r="L63" s="24"/>
       <c r="N63" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AA63" s="1">
         <f t="shared" si="17"/>
@@ -70551,6 +70630,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AR25:AY25"/>
+    <mergeCell ref="AR2:AY2"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AR21:AS21"/>
     <mergeCell ref="H5:H25"/>
     <mergeCell ref="H27:H32"/>
     <mergeCell ref="H33:H37"/>
@@ -70566,11 +70650,6 @@
     <mergeCell ref="AA25:AF25"/>
     <mergeCell ref="AH25:AO25"/>
     <mergeCell ref="N11:N14"/>
-    <mergeCell ref="AR25:AY25"/>
-    <mergeCell ref="AR2:AY2"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AR21:AS21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -70626,7 +70705,7 @@
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="71" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C2" s="70"/>
       <c r="D2" s="70"/>
@@ -70645,7 +70724,7 @@
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="220" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F4" s="67"/>
       <c r="G4" s="67"/>
@@ -70712,7 +70791,7 @@
       <c r="F7" s="123"/>
       <c r="G7" s="92"/>
       <c r="H7" s="93" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I7" s="82"/>
       <c r="J7" s="82"/>
@@ -70738,7 +70817,7 @@
       <c r="F8" s="92"/>
       <c r="G8" s="93"/>
       <c r="H8" s="93" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I8" s="82"/>
       <c r="J8" s="82"/>
@@ -70764,7 +70843,7 @@
       <c r="F9" s="92"/>
       <c r="G9" s="93"/>
       <c r="H9" s="93" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I9" s="82"/>
       <c r="J9" s="82"/>
@@ -70790,7 +70869,7 @@
       <c r="F10" s="94"/>
       <c r="G10" s="93"/>
       <c r="H10" s="93" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I10" s="82"/>
       <c r="J10" s="82"/>
@@ -70815,7 +70894,7 @@
       <c r="F11" s="94"/>
       <c r="G11" s="93"/>
       <c r="H11" s="93" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I11" s="82"/>
       <c r="J11" s="82"/>
@@ -70841,7 +70920,7 @@
       <c r="F12" s="94"/>
       <c r="G12" s="93"/>
       <c r="H12" s="93" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I12" s="82"/>
       <c r="J12" s="82"/>
@@ -70867,7 +70946,7 @@
       <c r="F13" s="92"/>
       <c r="G13" s="93"/>
       <c r="H13" s="93" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I13" s="82"/>
       <c r="J13" s="82"/>
@@ -70893,7 +70972,7 @@
       <c r="F14" s="92"/>
       <c r="G14" s="93"/>
       <c r="H14" s="93" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I14" s="82"/>
       <c r="J14" s="82"/>
@@ -70925,7 +71004,7 @@
       <c r="C19" s="82"/>
       <c r="D19" s="122">
         <f ca="1">NOW()</f>
-        <v>44909.854944212966</v>
+        <v>44943.655650231478</v>
       </c>
       <c r="E19" s="82"/>
       <c r="F19" s="82" t="s">
@@ -71212,10 +71291,10 @@
     <tabColor theme="4" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -71225,7 +71304,7 @@
     <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="73" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="94.85546875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="11.42578125" style="1" hidden="1"/>
   </cols>
   <sheetData>
@@ -71243,7 +71322,7 @@
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="220" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C3" s="70"/>
     </row>
@@ -71274,7 +71353,7 @@
       </c>
       <c r="E5" s="92"/>
       <c r="F5" s="93" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -71288,7 +71367,7 @@
       <c r="D6" s="151"/>
       <c r="E6" s="152"/>
       <c r="F6" s="93" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -71317,7 +71396,7 @@
       <c r="D9" s="151"/>
       <c r="E9" s="93"/>
       <c r="F9" s="93" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -71328,7 +71407,7 @@
       <c r="D10" s="146"/>
       <c r="E10" s="92"/>
       <c r="F10" s="93" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -71339,7 +71418,7 @@
       <c r="D11" s="92"/>
       <c r="E11" s="92"/>
       <c r="F11" s="93" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -71402,7 +71481,7 @@
     </row>
     <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D18" s="154"/>
       <c r="E18" s="154"/>
@@ -71410,7 +71489,7 @@
     </row>
     <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>167</v>
+        <v>238</v>
       </c>
       <c r="D19" s="154"/>
       <c r="E19" s="154"/>
@@ -71418,7 +71497,7 @@
     </row>
     <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>169</v>
+        <v>239</v>
       </c>
       <c r="C20" s="154"/>
       <c r="D20" s="154"/>
@@ -71426,11 +71505,16 @@
       <c r="F20" s="154"/>
     </row>
     <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="147" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B21" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="147" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <protectedRanges>

--- a/ExcelBlanko.xlsx
+++ b/ExcelBlanko.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\V\DATEN\BN_BSS11\T_PRO_PKG\Performance\DB Verprobung\Vertriebstool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07A89781-C5D2-4FF0-9952-8938F62F6B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="wJFlHBhF99Wnc1g+0/u0ACNiHmTzjlFIDlICnHtkYn+yyomZ0UkjA+fw9BBXroFt6P8XaPp63Hl6G4XiQVn7hg==" workbookSaltValue="h86qGiaJ/emgajeOgOUvCw==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328FDBF1-0BFE-4717-A1A3-47129F7B3CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,16 +17,16 @@
     <sheet name="Kalkulationstool" sheetId="13" r:id="rId2"/>
     <sheet name="Wertbeitrag" sheetId="16" r:id="rId3"/>
     <sheet name="Bewertung Aufstockung" sheetId="26" r:id="rId4"/>
-    <sheet name="Background WB vereinb" sheetId="18" state="hidden" r:id="rId5"/>
-    <sheet name="Background Produktkalk I" sheetId="19" state="hidden" r:id="rId6"/>
-    <sheet name="Background" sheetId="14" state="hidden" r:id="rId7"/>
-    <sheet name="Kalk_Kredit2" sheetId="21" state="hidden" r:id="rId8"/>
-    <sheet name="Wert_Kredit2" sheetId="22" state="hidden" r:id="rId9"/>
-    <sheet name="Kalk_RKV" sheetId="25" state="hidden" r:id="rId10"/>
-    <sheet name="Bg WB vereinb_Kredit2" sheetId="23" state="hidden" r:id="rId11"/>
-    <sheet name="Bg Produktkalk I_Kredit2" sheetId="24" state="hidden" r:id="rId12"/>
-    <sheet name="Background2" sheetId="27" state="hidden" r:id="rId13"/>
-    <sheet name="Aufstockungsquoten" sheetId="28" state="hidden" r:id="rId14"/>
+    <sheet name="Background WB vereinb" sheetId="18" r:id="rId5"/>
+    <sheet name="Background Produktkalk I" sheetId="19" r:id="rId6"/>
+    <sheet name="Background" sheetId="14" r:id="rId7"/>
+    <sheet name="Kalk_Kredit2" sheetId="21" r:id="rId8"/>
+    <sheet name="Wert_Kredit2" sheetId="22" r:id="rId9"/>
+    <sheet name="Kalk_RKV" sheetId="25" r:id="rId10"/>
+    <sheet name="Bg WB vereinb_Kredit2" sheetId="23" r:id="rId11"/>
+    <sheet name="Bg Produktkalk I_Kredit2" sheetId="24" r:id="rId12"/>
+    <sheet name="Background2" sheetId="27" r:id="rId13"/>
+    <sheet name="Aufstockungsquoten" sheetId="28" r:id="rId14"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId15"/>
@@ -1000,9 +999,6 @@
     <t>Je geringer der Aufstockungsbetrag und je länger die Restlaufzeit des Altkredites, desto höher ist die Abweichung.</t>
   </si>
   <si>
-    <t>Gültig ab 18.01.2023</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Insbesondere </t>
     </r>
@@ -1074,6 +1070,9 @@
       </rPr>
       <t xml:space="preserve"> vornimmt.</t>
     </r>
+  </si>
+  <si>
+    <t>Gültig ab 01.04.2023</t>
   </si>
 </sst>
 </file>
@@ -5820,15 +5819,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>639536</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:colOff>721179</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>77561</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>14967</xdr:rowOff>
+      <xdr:colOff>159204</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>55789</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5858,7 +5857,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11212286" y="4381499"/>
+          <a:off x="11293929" y="7688035"/>
           <a:ext cx="3424918" cy="1362075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5874,6 +5873,50 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>639536</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>13609</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1415143</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>67080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7A26DD5-29C1-A71D-35C3-F730D6F934C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11212286" y="9007930"/>
+          <a:ext cx="5660571" cy="1985686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -6524,7 +6567,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -6610,7 +6653,6 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="temSBCYz7mahSiJ39Bf+V4by9SgkBbWNcvxxbwnu8Gb9qG1rc6GIvGPPKmmqNuGA67OpkWjJRCIaFmBhkNrzBg==" saltValue="wMLFQPrQDycciyUax63Oug==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -22486,7 +22528,7 @@
   <dimension ref="A1:AZ163"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22711,7 +22753,7 @@
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="12">
-        <v>-1.3</v>
+        <v>-1.5</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>25</v>
@@ -22769,7 +22811,7 @@
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="13">
-        <v>-1.1000000000000001</v>
+        <v>-1.2</v>
       </c>
       <c r="L6" s="120">
         <v>6</v>
@@ -22849,7 +22891,7 @@
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="13">
-        <v>-0.9</v>
+        <v>-1</v>
       </c>
       <c r="L7" s="120">
         <v>11</v>
@@ -28519,7 +28561,7 @@
       </c>
       <c r="J69" s="34"/>
       <c r="K69" s="33">
-        <v>-2</v>
+        <v>-2.5</v>
       </c>
       <c r="L69" s="35">
         <v>-4</v>
@@ -28529,7 +28571,7 @@
       </c>
       <c r="O69" s="33">
         <f t="shared" si="34"/>
-        <v>-2</v>
+        <v>-2.5</v>
       </c>
       <c r="P69" s="35">
         <f t="shared" si="34"/>
@@ -28639,7 +28681,7 @@
       </c>
       <c r="J70" s="37"/>
       <c r="K70" s="36">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="L70" s="38">
         <v>-6</v>
@@ -28649,7 +28691,7 @@
       </c>
       <c r="O70" s="36">
         <f t="shared" si="34"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="P70" s="38">
         <f t="shared" si="34"/>
@@ -37830,7 +37872,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -37872,7 +37914,7 @@
       <c r="G2" s="67"/>
       <c r="Q2" s="241"/>
       <c r="R2" s="242" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="5.0999999999999996" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -38161,7 +38203,7 @@
       <c r="C19" s="82"/>
       <c r="D19" s="122">
         <f ca="1">NOW()</f>
-        <v>44943.655650231478</v>
+        <v>45008.746126851853</v>
       </c>
       <c r="E19" s="82"/>
       <c r="F19" s="82" t="s">
@@ -38345,7 +38387,7 @@
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+l00WxGYIb4qoYpIo+q8yM/EDAiBYPzCzE9uo+t51RK/AfveDAfilUXMFvymMd4E65wGTQ4Fi6Mm7LG9UiSfrg==" saltValue="kfULYYEAQWvItHAUy45niw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="D8" name="Range6"/>
     <protectedRange sqref="D19" name="Range5"/>
@@ -38451,7 +38493,7 @@
   <dimension ref="B1:XFC23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -38651,7 +38693,7 @@
     </row>
     <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D19" s="154"/>
       <c r="E19" s="154"/>
@@ -38659,7 +38701,7 @@
     </row>
     <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C20" s="154"/>
       <c r="D20" s="154"/>
@@ -38678,7 +38720,7 @@
     </row>
     <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="md4XruLI5VbWansdC0cUhfCj2E8GvTFvtOHiVRMXpotxVSGvewZQJNlssjDk5o9QrGjcMGXFlJ12mnnyClsgVg==" saltValue="7L5y2Fa82BHIlu9JX6JqnQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="C11" name="Range1"/>
   </protectedRanges>
@@ -39176,7 +39218,6 @@
       <c r="H33" s="244"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eLkf7AnMoHJdNW6cuv9Z4k2esKfpkD2T8sehyoyiwAJIA8mBkLreKuGqsEo6PyCyUdj01CLjFspQaLiRaIhT7Q==" saltValue="cIT9pzYWUJH2XQkI6pZw6Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="B5:B7" name="Bereich1"/>
   </protectedRanges>
@@ -55070,9 +55111,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:AZ172"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -55310,7 +55349,7 @@
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="12">
-        <v>-1.3</v>
+        <v>-1.5</v>
       </c>
       <c r="L5" s="1"/>
       <c r="N5" s="5" t="s">
@@ -55382,7 +55421,7 @@
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="13">
-        <v>-1.1000000000000001</v>
+        <v>-1.2</v>
       </c>
       <c r="L6" s="120">
         <v>6</v>
@@ -55473,7 +55512,7 @@
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="13">
-        <v>-0.9</v>
+        <v>-1</v>
       </c>
       <c r="L7" s="120">
         <v>11</v>
@@ -61410,7 +61449,7 @@
       </c>
       <c r="J69" s="34"/>
       <c r="K69" s="33">
-        <v>-2</v>
+        <v>-2.5</v>
       </c>
       <c r="L69" s="35">
         <v>-4</v>
@@ -61420,7 +61459,7 @@
       </c>
       <c r="O69" s="33">
         <f t="shared" si="34"/>
-        <v>-2</v>
+        <v>-2.5</v>
       </c>
       <c r="P69" s="35">
         <f t="shared" si="34"/>
@@ -61531,7 +61570,7 @@
       </c>
       <c r="J70" s="37"/>
       <c r="K70" s="36">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="L70" s="38">
         <v>-6</v>
@@ -61541,7 +61580,7 @@
       </c>
       <c r="O70" s="36">
         <f t="shared" si="34"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="P70" s="38">
         <f t="shared" si="34"/>
@@ -71004,7 +71043,7 @@
       <c r="C19" s="82"/>
       <c r="D19" s="122">
         <f ca="1">NOW()</f>
-        <v>44943.655650231478</v>
+        <v>45008.746126851853</v>
       </c>
       <c r="E19" s="82"/>
       <c r="F19" s="82" t="s">
@@ -71527,7 +71566,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;10&amp;K000000</oddFooter>
   </headerFooter>

--- a/ExcelBlanko.xlsx
+++ b/ExcelBlanko.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\V\DATEN\BN_BSS11\T_PRO_PKG\Performance\DB Verprobung\Vertriebstool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\oneLine_Backoffice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328FDBF1-0BFE-4717-A1A3-47129F7B3CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{656C7995-4956-4C74-B86A-F70CEB8566CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="gm2dPiWxIMNsDKrisWsc5WLNjjitri0iA4syQpFqL5RaTEuj7VAd2m49uxgfC9kizD2K5A2upTNioENqEvF98w==" workbookSaltValue="l4enb28rPm+jfY9sBLjxmw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="15" r:id="rId1"/>
     <sheet name="Kalkulationstool" sheetId="13" r:id="rId2"/>
     <sheet name="Wertbeitrag" sheetId="16" r:id="rId3"/>
     <sheet name="Bewertung Aufstockung" sheetId="26" r:id="rId4"/>
-    <sheet name="Background WB vereinb" sheetId="18" r:id="rId5"/>
-    <sheet name="Background Produktkalk I" sheetId="19" r:id="rId6"/>
-    <sheet name="Background" sheetId="14" r:id="rId7"/>
-    <sheet name="Kalk_Kredit2" sheetId="21" r:id="rId8"/>
-    <sheet name="Wert_Kredit2" sheetId="22" r:id="rId9"/>
-    <sheet name="Kalk_RKV" sheetId="25" r:id="rId10"/>
-    <sheet name="Bg WB vereinb_Kredit2" sheetId="23" r:id="rId11"/>
-    <sheet name="Bg Produktkalk I_Kredit2" sheetId="24" r:id="rId12"/>
-    <sheet name="Background2" sheetId="27" r:id="rId13"/>
-    <sheet name="Aufstockungsquoten" sheetId="28" r:id="rId14"/>
+    <sheet name="Background WB vereinb" sheetId="18" state="hidden" r:id="rId5"/>
+    <sheet name="Background Produktkalk I" sheetId="19" state="hidden" r:id="rId6"/>
+    <sheet name="Background" sheetId="14" state="hidden" r:id="rId7"/>
+    <sheet name="Kalk_Kredit2" sheetId="21" state="hidden" r:id="rId8"/>
+    <sheet name="Wert_Kredit2" sheetId="22" state="hidden" r:id="rId9"/>
+    <sheet name="Kalk_RKV" sheetId="25" state="hidden" r:id="rId10"/>
+    <sheet name="Bg WB vereinb_Kredit2" sheetId="23" state="hidden" r:id="rId11"/>
+    <sheet name="Bg Produktkalk I_Kredit2" sheetId="24" state="hidden" r:id="rId12"/>
+    <sheet name="Background2" sheetId="27" state="hidden" r:id="rId13"/>
+    <sheet name="Aufstockungsquoten" sheetId="28" state="hidden" r:id="rId14"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId15"/>
@@ -2857,6 +2858,15 @@
     <xf numFmtId="0" fontId="16" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -2875,16 +2885,7 @@
     <xf numFmtId="0" fontId="18" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6653,6 +6654,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="rDIr7MXL5rTEMxNi8zBfWb3TU3wFh8y2xOXyMx7JNWxvwgviUHWidQttwbHNKCIEg51Rqs5wvLTeIeygK1vuPQ==" saltValue="JhqFqNARO6mfghGm/mFxVA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -22662,25 +22664,25 @@
       </c>
       <c r="V3" s="266"/>
       <c r="W3" s="266"/>
-      <c r="AB3" s="273" t="s">
+      <c r="AB3" s="268" t="s">
         <v>87</v>
       </c>
-      <c r="AC3" s="273"/>
-      <c r="AD3" s="273"/>
+      <c r="AC3" s="268"/>
+      <c r="AD3" s="268"/>
       <c r="AE3" s="108"/>
       <c r="AF3" s="108"/>
-      <c r="AI3" s="273" t="s">
+      <c r="AI3" s="268" t="s">
         <v>87</v>
       </c>
-      <c r="AJ3" s="273"/>
-      <c r="AK3" s="273"/>
+      <c r="AJ3" s="268"/>
+      <c r="AK3" s="268"/>
       <c r="AL3" s="108"/>
       <c r="AM3" s="108"/>
-      <c r="AS3" s="273" t="s">
+      <c r="AS3" s="268" t="s">
         <v>87</v>
       </c>
-      <c r="AT3" s="273"/>
-      <c r="AU3" s="273"/>
+      <c r="AT3" s="268"/>
+      <c r="AU3" s="268"/>
       <c r="AV3" s="108"/>
       <c r="AW3" s="108"/>
     </row>
@@ -22713,24 +22715,24 @@
         <f>Kalk_Kredit2!D10</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="274" t="s">
+      <c r="AB4" s="269" t="s">
         <v>89</v>
       </c>
-      <c r="AC4" s="274"/>
+      <c r="AC4" s="269"/>
       <c r="AD4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AI4" s="274" t="s">
+      <c r="AI4" s="269" t="s">
         <v>91</v>
       </c>
-      <c r="AJ4" s="274"/>
+      <c r="AJ4" s="269"/>
       <c r="AK4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AS4" s="274" t="s">
+      <c r="AS4" s="269" t="s">
         <v>91</v>
       </c>
-      <c r="AT4" s="274"/>
+      <c r="AT4" s="269"/>
       <c r="AU4" s="1" t="s">
         <v>90</v>
       </c>
@@ -22745,7 +22747,7 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="267" t="s">
+      <c r="H5" s="270" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="124">
@@ -22805,7 +22807,7 @@
       <c r="B6" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="268"/>
+      <c r="H6" s="271"/>
       <c r="I6" s="124">
         <v>5.01</v>
       </c>
@@ -22885,7 +22887,7 @@
       <c r="B7" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="268"/>
+      <c r="H7" s="271"/>
       <c r="I7" s="124">
         <v>10.01</v>
       </c>
@@ -22970,7 +22972,7 @@
       <c r="D8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="268"/>
+      <c r="H8" s="271"/>
       <c r="I8" s="124">
         <v>15.01</v>
       </c>
@@ -23046,7 +23048,7 @@
       <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="H9" s="268"/>
+      <c r="H9" s="271"/>
       <c r="I9" s="124">
         <v>20.010000000000002</v>
       </c>
@@ -23122,7 +23124,7 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" s="268"/>
+      <c r="H10" s="271"/>
       <c r="I10" s="124">
         <v>30.01</v>
       </c>
@@ -23202,7 +23204,7 @@
       <c r="D11" s="1">
         <v>2</v>
       </c>
-      <c r="H11" s="268"/>
+      <c r="H11" s="271"/>
       <c r="I11" s="124">
         <v>40.01</v>
       </c>
@@ -23302,7 +23304,7 @@
       <c r="D12" s="1">
         <v>3</v>
       </c>
-      <c r="H12" s="268"/>
+      <c r="H12" s="271"/>
       <c r="I12" s="124">
         <v>50.01</v>
       </c>
@@ -23389,7 +23391,7 @@
       <c r="B13" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="268"/>
+      <c r="H13" s="271"/>
       <c r="I13" s="124">
         <v>60.01</v>
       </c>
@@ -23468,7 +23470,7 @@
       <c r="B14" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="268"/>
+      <c r="H14" s="271"/>
       <c r="I14" s="124">
         <v>70.010000000000005</v>
       </c>
@@ -23558,7 +23560,7 @@
         <v>44</v>
       </c>
       <c r="D15" s="99"/>
-      <c r="H15" s="268"/>
+      <c r="H15" s="271"/>
       <c r="I15" s="124">
         <v>80.010000000000005</v>
       </c>
@@ -23639,7 +23641,7 @@
       <c r="B16" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="268"/>
+      <c r="H16" s="271"/>
       <c r="I16" s="124">
         <v>90.01</v>
       </c>
@@ -23717,7 +23719,7 @@
       <c r="B17" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="268"/>
+      <c r="H17" s="271"/>
       <c r="I17" s="124">
         <v>100.01</v>
       </c>
@@ -23800,7 +23802,7 @@
       <c r="B18" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="268"/>
+      <c r="H18" s="271"/>
       <c r="I18" s="124">
         <v>125.01</v>
       </c>
@@ -23878,7 +23880,7 @@
       <c r="B19" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="268"/>
+      <c r="H19" s="271"/>
       <c r="I19" s="124">
         <v>150.01</v>
       </c>
@@ -23950,7 +23952,7 @@
       <c r="B20" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="268"/>
+      <c r="H20" s="271"/>
       <c r="I20" s="125">
         <v>175.01</v>
       </c>
@@ -23976,7 +23978,7 @@
       <c r="B21" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="268"/>
+      <c r="H21" s="271"/>
       <c r="I21" s="125">
         <v>200.01</v>
       </c>
@@ -23997,27 +23999,27 @@
         <f>W6+V16</f>
         <v>0</v>
       </c>
-      <c r="AA21" s="274" t="s">
+      <c r="AA21" s="269" t="s">
         <v>105</v>
       </c>
-      <c r="AB21" s="274"/>
+      <c r="AB21" s="269"/>
       <c r="AC21" s="1">
         <f>LOOKUP(V16,AA5:AA13,AD5:AD13)</f>
         <v>0</v>
       </c>
-      <c r="AH21" s="274" t="s">
+      <c r="AH21" s="269" t="s">
         <v>106</v>
       </c>
-      <c r="AI21" s="274"/>
+      <c r="AI21" s="269"/>
       <c r="AJ21" s="1">
         <f>IF(ISERROR(LOOKUP(V18,AH5:AH17,AK5:AK17)),0,LOOKUP(V18,AH5:AH17,AK5:AK17))</f>
         <v>0</v>
       </c>
       <c r="AO21" s="76"/>
-      <c r="AR21" s="274" t="s">
+      <c r="AR21" s="269" t="s">
         <v>106</v>
       </c>
-      <c r="AS21" s="274"/>
+      <c r="AS21" s="269"/>
       <c r="AT21" s="1">
         <f>IF(ISERROR(LOOKUP(V18,AR5:AR17,AU5:AU17)),0,LOOKUP(V18,AR5:AR17,AU5:AU17))</f>
         <v>0</v>
@@ -24031,7 +24033,7 @@
       <c r="B22" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="268"/>
+      <c r="H22" s="271"/>
       <c r="I22" s="125">
         <v>250.01</v>
       </c>
@@ -24074,7 +24076,7 @@
       <c r="A23" s="52">
         <v>999</v>
       </c>
-      <c r="H23" s="268"/>
+      <c r="H23" s="271"/>
       <c r="I23" s="125">
         <v>300.01</v>
       </c>
@@ -24102,7 +24104,7 @@
       </c>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H24" s="268"/>
+      <c r="H24" s="271"/>
       <c r="I24" s="126">
         <v>350.01</v>
       </c>
@@ -24121,7 +24123,7 @@
       </c>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H25" s="268"/>
+      <c r="H25" s="271"/>
       <c r="I25" s="126">
         <v>400.01</v>
       </c>
@@ -24138,34 +24140,34 @@
         <f>AZ29+AT22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA25" s="275" t="s">
+      <c r="AA25" s="276" t="s">
         <v>107</v>
       </c>
-      <c r="AB25" s="275"/>
-      <c r="AC25" s="275"/>
-      <c r="AD25" s="275"/>
-      <c r="AE25" s="275"/>
-      <c r="AF25" s="275"/>
-      <c r="AH25" s="276" t="s">
+      <c r="AB25" s="276"/>
+      <c r="AC25" s="276"/>
+      <c r="AD25" s="276"/>
+      <c r="AE25" s="276"/>
+      <c r="AF25" s="276"/>
+      <c r="AH25" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AI25" s="276"/>
-      <c r="AJ25" s="276"/>
-      <c r="AK25" s="276"/>
-      <c r="AL25" s="276"/>
-      <c r="AM25" s="276"/>
-      <c r="AN25" s="276"/>
-      <c r="AO25" s="276"/>
-      <c r="AR25" s="276" t="s">
+      <c r="AI25" s="267"/>
+      <c r="AJ25" s="267"/>
+      <c r="AK25" s="267"/>
+      <c r="AL25" s="267"/>
+      <c r="AM25" s="267"/>
+      <c r="AN25" s="267"/>
+      <c r="AO25" s="267"/>
+      <c r="AR25" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AS25" s="276"/>
-      <c r="AT25" s="276"/>
-      <c r="AU25" s="276"/>
-      <c r="AV25" s="276"/>
-      <c r="AW25" s="276"/>
-      <c r="AX25" s="276"/>
-      <c r="AY25" s="276"/>
+      <c r="AS25" s="267"/>
+      <c r="AT25" s="267"/>
+      <c r="AU25" s="267"/>
+      <c r="AV25" s="267"/>
+      <c r="AW25" s="267"/>
+      <c r="AX25" s="267"/>
+      <c r="AY25" s="267"/>
     </row>
     <row r="26" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H26" s="238"/>
@@ -24217,7 +24219,7 @@
       <c r="AY26" s="239"/>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H27" s="269" t="s">
+      <c r="H27" s="272" t="s">
         <v>9</v>
       </c>
       <c r="I27" s="101">
@@ -24244,7 +24246,7 @@
       </c>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H28" s="270"/>
+      <c r="H28" s="273"/>
       <c r="I28" s="102">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -24275,7 +24277,7 @@
       </c>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H29" s="270"/>
+      <c r="H29" s="273"/>
       <c r="I29" s="102">
         <v>0.20000100000000001</v>
       </c>
@@ -24305,7 +24307,7 @@
       </c>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H30" s="270"/>
+      <c r="H30" s="273"/>
       <c r="I30" s="102">
         <v>0.400001</v>
       </c>
@@ -24411,7 +24413,7 @@
       </c>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H31" s="270"/>
+      <c r="H31" s="273"/>
       <c r="I31" s="102">
         <v>0.60000100000000001</v>
       </c>
@@ -24517,7 +24519,7 @@
       </c>
     </row>
     <row r="32" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H32" s="271"/>
+      <c r="H32" s="274"/>
       <c r="I32" s="103">
         <v>0.80000099999999996</v>
       </c>
@@ -24626,7 +24628,7 @@
       </c>
     </row>
     <row r="33" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H33" s="268" t="s">
+      <c r="H33" s="271" t="s">
         <v>17</v>
       </c>
       <c r="I33" s="104">
@@ -24740,7 +24742,7 @@
       </c>
     </row>
     <row r="34" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H34" s="268"/>
+      <c r="H34" s="271"/>
       <c r="I34" s="104">
         <v>0.20000100000000001</v>
       </c>
@@ -24852,7 +24854,7 @@
       </c>
     </row>
     <row r="35" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H35" s="268"/>
+      <c r="H35" s="271"/>
       <c r="I35" s="104">
         <v>0.400001</v>
       </c>
@@ -24964,7 +24966,7 @@
       </c>
     </row>
     <row r="36" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H36" s="268"/>
+      <c r="H36" s="271"/>
       <c r="I36" s="104">
         <v>0.60000100000000001</v>
       </c>
@@ -25076,7 +25078,7 @@
       </c>
     </row>
     <row r="37" spans="8:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H37" s="272"/>
+      <c r="H37" s="275"/>
       <c r="I37" s="104">
         <v>0.80000099999999996</v>
       </c>
@@ -37600,13 +37602,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AA2:AF2"/>
-    <mergeCell ref="AH2:AO2"/>
-    <mergeCell ref="AR2:AY2"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="AS3:AU3"/>
     <mergeCell ref="AR25:AY25"/>
     <mergeCell ref="H27:H32"/>
     <mergeCell ref="H33:H37"/>
@@ -37620,6 +37615,13 @@
     <mergeCell ref="AR21:AS21"/>
     <mergeCell ref="AA25:AF25"/>
     <mergeCell ref="AH25:AO25"/>
+    <mergeCell ref="AA2:AF2"/>
+    <mergeCell ref="AH2:AO2"/>
+    <mergeCell ref="AR2:AY2"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AS3:AU3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -37872,7 +37874,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -38203,7 +38205,7 @@
       <c r="C19" s="82"/>
       <c r="D19" s="122">
         <f ca="1">NOW()</f>
-        <v>45008.746126851853</v>
+        <v>45014.848979861112</v>
       </c>
       <c r="E19" s="82"/>
       <c r="F19" s="82" t="s">
@@ -38387,7 +38389,7 @@
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8CpCEHi2iB/wdzB0Lb/z5jCvw11A9lO9rETlaNvirFDYdaFk51swq0LoZbMyentEWLaeo9OtI12MB010SPcC5Q==" saltValue="CNqprhqmzpr/rDlt/Xo6jg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="D8" name="Range6"/>
     <protectedRange sqref="D19" name="Range5"/>
@@ -38493,7 +38495,7 @@
   <dimension ref="B1:XFC23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -38720,7 +38722,7 @@
     </row>
     <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2foKn/wSAnbmvYG2f0fP2sOXHQEl0giobNGFI0sYLSKmOMWmu4v1cEok9XdLdyDHH6hek6TL1LCM16skcSr/DA==" saltValue="iwXAWv/V6Isde4AGUsQnQg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="C11" name="Range1"/>
   </protectedRanges>
@@ -39218,6 +39220,7 @@
       <c r="H33" s="244"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="3MA5Uu4/i5+lr7jhSWrJzk3rsvUPFqDdpEPGgE5VEPK2lfTZDtLyklJZLDVTbzeAfgT1vv19R88qd+WeI+DZMg==" saltValue="chhSDgF2OJboQGJHEz4/aA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="B5:B7" name="Bereich1"/>
   </protectedRanges>
@@ -55243,28 +55246,28 @@
       </c>
       <c r="V3" s="266"/>
       <c r="W3" s="266"/>
-      <c r="AB3" s="273" t="s">
+      <c r="AB3" s="268" t="s">
         <v>87</v>
       </c>
-      <c r="AC3" s="273"/>
-      <c r="AD3" s="273"/>
+      <c r="AC3" s="268"/>
+      <c r="AD3" s="268"/>
       <c r="AE3" s="108"/>
       <c r="AF3" s="108"/>
-      <c r="AI3" s="273" t="s">
+      <c r="AI3" s="268" t="s">
         <v>87</v>
       </c>
-      <c r="AJ3" s="273"/>
-      <c r="AK3" s="273"/>
+      <c r="AJ3" s="268"/>
+      <c r="AK3" s="268"/>
       <c r="AL3" s="108"/>
       <c r="AM3" s="108"/>
       <c r="AP3" s="1"/>
       <c r="AQ3" s="1"/>
       <c r="AR3" s="1"/>
-      <c r="AS3" s="273" t="s">
+      <c r="AS3" s="268" t="s">
         <v>87</v>
       </c>
-      <c r="AT3" s="273"/>
-      <c r="AU3" s="273"/>
+      <c r="AT3" s="268"/>
+      <c r="AU3" s="268"/>
       <c r="AV3" s="108"/>
       <c r="AW3" s="108"/>
       <c r="AX3" s="1"/>
@@ -55301,27 +55304,27 @@
         <f>Kalkulationstool!D10</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="274" t="s">
+      <c r="AB4" s="269" t="s">
         <v>89</v>
       </c>
-      <c r="AC4" s="274"/>
+      <c r="AC4" s="269"/>
       <c r="AD4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AI4" s="274" t="s">
+      <c r="AI4" s="269" t="s">
         <v>91</v>
       </c>
-      <c r="AJ4" s="274"/>
+      <c r="AJ4" s="269"/>
       <c r="AK4" s="1" t="s">
         <v>90</v>
       </c>
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
-      <c r="AS4" s="274" t="s">
+      <c r="AS4" s="269" t="s">
         <v>91</v>
       </c>
-      <c r="AT4" s="274"/>
+      <c r="AT4" s="269"/>
       <c r="AU4" s="1" t="s">
         <v>90</v>
       </c>
@@ -55341,7 +55344,7 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="267" t="s">
+      <c r="H5" s="270" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="124">
@@ -55415,7 +55418,7 @@
       <c r="B6" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="268"/>
+      <c r="H6" s="271"/>
       <c r="I6" s="124">
         <v>5.01</v>
       </c>
@@ -55506,7 +55509,7 @@
       <c r="B7" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="268"/>
+      <c r="H7" s="271"/>
       <c r="I7" s="124">
         <v>10.01</v>
       </c>
@@ -55602,7 +55605,7 @@
       <c r="D8" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="268"/>
+      <c r="H8" s="271"/>
       <c r="I8" s="124">
         <v>15.01</v>
       </c>
@@ -55691,7 +55694,7 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="H9" s="268"/>
+      <c r="H9" s="271"/>
       <c r="I9" s="124">
         <v>20.010000000000002</v>
       </c>
@@ -55780,7 +55783,7 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="H10" s="268"/>
+      <c r="H10" s="271"/>
       <c r="I10" s="124">
         <v>30.01</v>
       </c>
@@ -55873,7 +55876,7 @@
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="H11" s="268"/>
+      <c r="H11" s="271"/>
       <c r="I11" s="124">
         <v>40.01</v>
       </c>
@@ -55980,7 +55983,7 @@
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="H12" s="268"/>
+      <c r="H12" s="271"/>
       <c r="I12" s="124">
         <v>50.01</v>
       </c>
@@ -56074,7 +56077,7 @@
       <c r="B13" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="268"/>
+      <c r="H13" s="271"/>
       <c r="I13" s="124">
         <v>60.01</v>
       </c>
@@ -56160,7 +56163,7 @@
       <c r="B14" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="268"/>
+      <c r="H14" s="271"/>
       <c r="I14" s="124">
         <v>70.010000000000005</v>
       </c>
@@ -56257,7 +56260,7 @@
         <v>44</v>
       </c>
       <c r="D15" s="99"/>
-      <c r="H15" s="268"/>
+      <c r="H15" s="271"/>
       <c r="I15" s="124">
         <v>80.010000000000005</v>
       </c>
@@ -56345,7 +56348,7 @@
       <c r="B16" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="268"/>
+      <c r="H16" s="271"/>
       <c r="I16" s="124">
         <v>90.01</v>
       </c>
@@ -56430,7 +56433,7 @@
       <c r="B17" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="268"/>
+      <c r="H17" s="271"/>
       <c r="I17" s="124">
         <v>100.01</v>
       </c>
@@ -56520,7 +56523,7 @@
       <c r="B18" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="268"/>
+      <c r="H18" s="271"/>
       <c r="I18" s="124">
         <v>125.01</v>
       </c>
@@ -56606,7 +56609,7 @@
       <c r="B19" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="268"/>
+      <c r="H19" s="271"/>
       <c r="I19" s="124">
         <v>150.01</v>
       </c>
@@ -56686,7 +56689,7 @@
       <c r="B20" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="268"/>
+      <c r="H20" s="271"/>
       <c r="I20" s="125">
         <v>175.01</v>
       </c>
@@ -56723,7 +56726,7 @@
       <c r="B21" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="268"/>
+      <c r="H21" s="271"/>
       <c r="I21" s="125">
         <v>200.01</v>
       </c>
@@ -56744,18 +56747,18 @@
         <f>W6+V16</f>
         <v>0</v>
       </c>
-      <c r="AA21" s="274" t="s">
+      <c r="AA21" s="269" t="s">
         <v>105</v>
       </c>
-      <c r="AB21" s="274"/>
+      <c r="AB21" s="269"/>
       <c r="AC21" s="1">
         <f>LOOKUP(V16,AA5:AA13,AD5:AD13)</f>
         <v>0</v>
       </c>
-      <c r="AH21" s="274" t="s">
+      <c r="AH21" s="269" t="s">
         <v>106</v>
       </c>
-      <c r="AI21" s="274"/>
+      <c r="AI21" s="269"/>
       <c r="AJ21" s="1">
         <f>IF(ISERROR(LOOKUP(V18,AH5:AH17,AK5:AK17)),0,LOOKUP(V18,AH5:AH17,AK5:AK17))</f>
         <v>0</v>
@@ -56763,10 +56766,10 @@
       <c r="AO21" s="76"/>
       <c r="AP21" s="1"/>
       <c r="AQ21" s="1"/>
-      <c r="AR21" s="274" t="s">
+      <c r="AR21" s="269" t="s">
         <v>106</v>
       </c>
-      <c r="AS21" s="274"/>
+      <c r="AS21" s="269"/>
       <c r="AT21" s="1">
         <f>IF(ISERROR(LOOKUP(V18,AR5:AR17,AU5:AU17)),0,LOOKUP(V18,AR5:AR17,AU5:AU17))</f>
         <v>0</v>
@@ -56785,7 +56788,7 @@
       <c r="B22" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="268"/>
+      <c r="H22" s="271"/>
       <c r="I22" s="125">
         <v>250.01</v>
       </c>
@@ -56837,7 +56840,7 @@
       <c r="A23" s="52">
         <v>999</v>
       </c>
-      <c r="H23" s="268"/>
+      <c r="H23" s="271"/>
       <c r="I23" s="125">
         <v>300.01</v>
       </c>
@@ -56875,7 +56878,7 @@
       <c r="AZ23" s="1"/>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H24" s="268"/>
+      <c r="H24" s="271"/>
       <c r="I24" s="126">
         <v>350.01</v>
       </c>
@@ -56906,7 +56909,7 @@
       <c r="AZ24" s="1"/>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H25" s="268"/>
+      <c r="H25" s="271"/>
       <c r="I25" s="126">
         <v>400.01</v>
       </c>
@@ -56924,36 +56927,36 @@
         <f>AZ29+AT22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA25" s="275" t="s">
+      <c r="AA25" s="276" t="s">
         <v>107</v>
       </c>
-      <c r="AB25" s="275"/>
-      <c r="AC25" s="275"/>
-      <c r="AD25" s="275"/>
-      <c r="AE25" s="275"/>
-      <c r="AF25" s="275"/>
-      <c r="AH25" s="276" t="s">
+      <c r="AB25" s="276"/>
+      <c r="AC25" s="276"/>
+      <c r="AD25" s="276"/>
+      <c r="AE25" s="276"/>
+      <c r="AF25" s="276"/>
+      <c r="AH25" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AI25" s="276"/>
-      <c r="AJ25" s="276"/>
-      <c r="AK25" s="276"/>
-      <c r="AL25" s="276"/>
-      <c r="AM25" s="276"/>
-      <c r="AN25" s="276"/>
-      <c r="AO25" s="276"/>
+      <c r="AI25" s="267"/>
+      <c r="AJ25" s="267"/>
+      <c r="AK25" s="267"/>
+      <c r="AL25" s="267"/>
+      <c r="AM25" s="267"/>
+      <c r="AN25" s="267"/>
+      <c r="AO25" s="267"/>
       <c r="AP25" s="1"/>
       <c r="AQ25" s="1"/>
-      <c r="AR25" s="276" t="s">
+      <c r="AR25" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AS25" s="276"/>
-      <c r="AT25" s="276"/>
-      <c r="AU25" s="276"/>
-      <c r="AV25" s="276"/>
-      <c r="AW25" s="276"/>
-      <c r="AX25" s="276"/>
-      <c r="AY25" s="276"/>
+      <c r="AS25" s="267"/>
+      <c r="AT25" s="267"/>
+      <c r="AU25" s="267"/>
+      <c r="AV25" s="267"/>
+      <c r="AW25" s="267"/>
+      <c r="AX25" s="267"/>
+      <c r="AY25" s="267"/>
       <c r="AZ25" s="1"/>
     </row>
     <row r="26" spans="1:52" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -57006,7 +57009,7 @@
       <c r="AY26" s="129"/>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H27" s="269" t="s">
+      <c r="H27" s="272" t="s">
         <v>9</v>
       </c>
       <c r="I27" s="101">
@@ -57043,7 +57046,7 @@
       <c r="AZ27" s="1"/>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H28" s="270"/>
+      <c r="H28" s="273"/>
       <c r="I28" s="102">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -57084,7 +57087,7 @@
       <c r="AZ28" s="1"/>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H29" s="270"/>
+      <c r="H29" s="273"/>
       <c r="I29" s="102">
         <v>0.20000100000000001</v>
       </c>
@@ -57123,7 +57126,7 @@
       </c>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H30" s="270"/>
+      <c r="H30" s="273"/>
       <c r="I30" s="102">
         <v>0.400001</v>
       </c>
@@ -57231,7 +57234,7 @@
       </c>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H31" s="270"/>
+      <c r="H31" s="273"/>
       <c r="I31" s="102">
         <v>0.60000100000000001</v>
       </c>
@@ -57339,7 +57342,7 @@
       </c>
     </row>
     <row r="32" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H32" s="271"/>
+      <c r="H32" s="274"/>
       <c r="I32" s="103">
         <v>0.80000099999999996</v>
       </c>
@@ -57450,7 +57453,7 @@
       </c>
     </row>
     <row r="33" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H33" s="268" t="s">
+      <c r="H33" s="271" t="s">
         <v>17</v>
       </c>
       <c r="I33" s="104">
@@ -57565,7 +57568,7 @@
       </c>
     </row>
     <row r="34" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H34" s="268"/>
+      <c r="H34" s="271"/>
       <c r="I34" s="104">
         <v>0.20000100000000001</v>
       </c>
@@ -57678,7 +57681,7 @@
       </c>
     </row>
     <row r="35" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H35" s="268"/>
+      <c r="H35" s="271"/>
       <c r="I35" s="104">
         <v>0.400001</v>
       </c>
@@ -57791,7 +57794,7 @@
       </c>
     </row>
     <row r="36" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H36" s="268"/>
+      <c r="H36" s="271"/>
       <c r="I36" s="104">
         <v>0.60000100000000001</v>
       </c>
@@ -57904,7 +57907,7 @@
       </c>
     </row>
     <row r="37" spans="8:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H37" s="272"/>
+      <c r="H37" s="275"/>
       <c r="I37" s="104">
         <v>0.80000099999999996</v>
       </c>
@@ -70669,11 +70672,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AR25:AY25"/>
-    <mergeCell ref="AR2:AY2"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AR21:AS21"/>
     <mergeCell ref="H5:H25"/>
     <mergeCell ref="H27:H32"/>
     <mergeCell ref="H33:H37"/>
@@ -70689,6 +70687,11 @@
     <mergeCell ref="AA25:AF25"/>
     <mergeCell ref="AH25:AO25"/>
     <mergeCell ref="N11:N14"/>
+    <mergeCell ref="AR25:AY25"/>
+    <mergeCell ref="AR2:AY2"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AR21:AS21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -71043,7 +71046,7 @@
       <c r="C19" s="82"/>
       <c r="D19" s="122">
         <f ca="1">NOW()</f>
-        <v>45008.746126851853</v>
+        <v>45014.848979861112</v>
       </c>
       <c r="E19" s="82"/>
       <c r="F19" s="82" t="s">

--- a/ExcelBlanko.xlsx
+++ b/ExcelBlanko.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\oneLine_Backoffice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\V\DATEN\BN_BSS11\T_PRO_PKG\Performance\DB Verprobung\Vertriebstool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{656C7995-4956-4C74-B86A-F70CEB8566CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="gm2dPiWxIMNsDKrisWsc5WLNjjitri0iA4syQpFqL5RaTEuj7VAd2m49uxgfC9kizD2K5A2upTNioENqEvF98w==" workbookSaltValue="l4enb28rPm+jfY9sBLjxmw==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B6E123B-28FC-4840-953F-15553391E78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="U6OeW677PhkCsvg060uaR0jRIVpiu2xJnEzrkOUDQNe/VgSLNLovv//MwJaNNYmjivE91VL6pryWP9UMMw1T+w==" workbookSaltValue="X8hiuY1VfA88t8tWhomzQg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12450" yWindow="1905" windowWidth="38700" windowHeight="15435" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="15" r:id="rId1"/>
@@ -1073,7 +1073,7 @@
     </r>
   </si>
   <si>
-    <t>Gültig ab 01.04.2023</t>
+    <t>Gültig ab 11.04.2023</t>
   </si>
 </sst>
 </file>
@@ -6654,7 +6654,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rDIr7MXL5rTEMxNi8zBfWb3TU3wFh8y2xOXyMx7JNWxvwgviUHWidQttwbHNKCIEg51Rqs5wvLTeIeygK1vuPQ==" saltValue="JhqFqNARO6mfghGm/mFxVA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Tr68tLJvjhh0lclI5lklQewhd0tQl+zgJSYXFMLvC1s6QYr4Msn3oTKVuFeMGmUlyiUUER+27TfyhqKhLZmLkQ==" saltValue="5LMchhYLBc33iVn/YmT0zg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -22529,8 +22529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255CCD47-8ECF-49F3-970E-FBDD02F87F6C}">
   <dimension ref="A1:AZ163"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="F36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28083,7 +28083,7 @@
       </c>
       <c r="J65" s="31"/>
       <c r="K65" s="30">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="L65" s="32">
         <v>-1</v>
@@ -28093,7 +28093,7 @@
       </c>
       <c r="O65" s="30">
         <f>K65</f>
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="P65" s="32">
         <f>L65</f>
@@ -28203,7 +28203,7 @@
       </c>
       <c r="J66" s="34"/>
       <c r="K66" s="33">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="L66" s="35">
         <v>-1</v>
@@ -28213,7 +28213,7 @@
       </c>
       <c r="O66" s="33">
         <f>K66</f>
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="P66" s="35">
         <f>L66</f>
@@ -28323,7 +28323,7 @@
       </c>
       <c r="J67" s="34"/>
       <c r="K67" s="33">
-        <v>-1.3</v>
+        <v>-2</v>
       </c>
       <c r="L67" s="35">
         <v>-2.5</v>
@@ -28333,7 +28333,7 @@
       </c>
       <c r="O67" s="33">
         <f>O66</f>
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="P67" s="35">
         <f>P66</f>
@@ -28443,7 +28443,7 @@
       </c>
       <c r="J68" s="34"/>
       <c r="K68" s="33">
-        <v>-1.3</v>
+        <v>-2</v>
       </c>
       <c r="L68" s="35">
         <v>-2.5</v>
@@ -28453,7 +28453,7 @@
       </c>
       <c r="O68" s="33">
         <f t="shared" ref="O68:P70" si="34">K68</f>
-        <v>-1.3</v>
+        <v>-2</v>
       </c>
       <c r="P68" s="35">
         <f t="shared" si="34"/>
@@ -38205,7 +38205,7 @@
       <c r="C19" s="82"/>
       <c r="D19" s="122">
         <f ca="1">NOW()</f>
-        <v>45014.848979861112</v>
+        <v>45022.498831481484</v>
       </c>
       <c r="E19" s="82"/>
       <c r="F19" s="82" t="s">
@@ -38389,7 +38389,7 @@
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8CpCEHi2iB/wdzB0Lb/z5jCvw11A9lO9rETlaNvirFDYdaFk51swq0LoZbMyentEWLaeo9OtI12MB010SPcC5Q==" saltValue="CNqprhqmzpr/rDlt/Xo6jg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wNeyTXmYAzOi/HG781SbgKQsQCePe0B/s5RffCEcHluuTs4tb6N6c6Uv39/HqvC6eAHTcd+48E7I4txN+plEVQ==" saltValue="Euv5l4o3Gi39J7xodgIAQw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="D8" name="Range6"/>
     <protectedRange sqref="D19" name="Range5"/>
@@ -38722,7 +38722,7 @@
     </row>
     <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2foKn/wSAnbmvYG2f0fP2sOXHQEl0giobNGFI0sYLSKmOMWmu4v1cEok9XdLdyDHH6hek6TL1LCM16skcSr/DA==" saltValue="iwXAWv/V6Isde4AGUsQnQg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7zNha2TEYi5hVVmUgGTSWP5P8H0SVovzp3hJ2v/VlrkfB+uw+Rasnn/G9qHfkvsp2B0s2FLCWcJcFPU0NB0Avw==" saltValue="0hdeKSF9vEw/fz8aavC9tw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="C11" name="Range1"/>
   </protectedRanges>
@@ -39220,7 +39220,7 @@
       <c r="H33" s="244"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3MA5Uu4/i5+lr7jhSWrJzk3rsvUPFqDdpEPGgE5VEPK2lfTZDtLyklJZLDVTbzeAfgT1vv19R88qd+WeI+DZMg==" saltValue="chhSDgF2OJboQGJHEz4/aA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="oAXT+M352vho6cdk+GKADXO7xXSxAZobwb0af7ifpqb7bWfsp2bmjr5lJiYzRofdPbtccU1tMy9C2t4wWgMOHA==" saltValue="DWCAuZI/AZA3g/BTH11E/A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="B5:B7" name="Bereich1"/>
   </protectedRanges>
@@ -55114,7 +55114,9 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:AZ172"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O67" sqref="O67"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -60968,7 +60970,7 @@
       </c>
       <c r="J65" s="31"/>
       <c r="K65" s="30">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="L65" s="32">
         <v>-1</v>
@@ -60978,7 +60980,7 @@
       </c>
       <c r="O65" s="30">
         <f>K65</f>
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="P65" s="32">
         <f>L65</f>
@@ -61089,7 +61091,7 @@
       </c>
       <c r="J66" s="34"/>
       <c r="K66" s="33">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="L66" s="35">
         <v>-1</v>
@@ -61099,7 +61101,7 @@
       </c>
       <c r="O66" s="33">
         <f>K66</f>
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="P66" s="35">
         <f>L66</f>
@@ -61210,7 +61212,7 @@
       </c>
       <c r="J67" s="34"/>
       <c r="K67" s="33">
-        <v>-1.3</v>
+        <v>-2</v>
       </c>
       <c r="L67" s="35">
         <v>-2.5</v>
@@ -61220,7 +61222,7 @@
       </c>
       <c r="O67" s="33">
         <f>O66</f>
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="P67" s="35">
         <f>P66</f>
@@ -61331,7 +61333,7 @@
       </c>
       <c r="J68" s="34"/>
       <c r="K68" s="33">
-        <v>-1.3</v>
+        <v>-2</v>
       </c>
       <c r="L68" s="35">
         <v>-2.5</v>
@@ -61341,7 +61343,7 @@
       </c>
       <c r="O68" s="33">
         <f t="shared" ref="O68:P70" si="34">K68</f>
-        <v>-1.3</v>
+        <v>-2</v>
       </c>
       <c r="P68" s="35">
         <f t="shared" si="34"/>
@@ -71046,7 +71048,7 @@
       <c r="C19" s="82"/>
       <c r="D19" s="122">
         <f ca="1">NOW()</f>
-        <v>45014.848979861112</v>
+        <v>45022.498831481484</v>
       </c>
       <c r="E19" s="82"/>
       <c r="F19" s="82" t="s">

--- a/ExcelBlanko.xlsx
+++ b/ExcelBlanko.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\V\DATEN\BN_BSS11\T_PRO_PKG\Performance\DB Verprobung\Vertriebstool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\oneLine_Backoffice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B6E123B-28FC-4840-953F-15553391E78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="U6OeW677PhkCsvg060uaR0jRIVpiu2xJnEzrkOUDQNe/VgSLNLovv//MwJaNNYmjivE91VL6pryWP9UMMw1T+w==" workbookSaltValue="X8hiuY1VfA88t8tWhomzQg==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA68E9F2-5D96-45DF-9D4F-AE3C173BBC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="p4M8Qe6LIUAcZrEO5lEa6pj5cLGTk6i/B7yszEpvgd/W43+WM9o/OTDgTe67LWqRoRrN8g4J45PVIMAfmDWnfw==" workbookSaltValue="k/ZBehB0bXNXuyL4dOfmOQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="12450" yWindow="1905" windowWidth="38700" windowHeight="15435" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="18900" windowHeight="11055" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="15" r:id="rId1"/>
@@ -1073,7 +1073,7 @@
     </r>
   </si>
   <si>
-    <t>Gültig ab 11.04.2023</t>
+    <t>Gültig ab 27.04.2023</t>
   </si>
 </sst>
 </file>
@@ -2858,15 +2858,6 @@
     <xf numFmtId="0" fontId="16" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -2885,7 +2876,16 @@
     <xf numFmtId="0" fontId="18" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5878,46 +5878,63 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>639536</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>13609</xdr:rowOff>
+      <xdr:rowOff>150815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>1415143</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>67080</xdr:rowOff>
+      <xdr:colOff>1423987</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>6244</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Grafik 2">
+        <xdr:cNvPr id="6" name="Grafik 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7A26DD5-29C1-A71D-35C3-F730D6F934C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92A681CF-DEBD-AEDA-E5D4-890AC5C168FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" r:link="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11212286" y="9007930"/>
-          <a:ext cx="5660571" cy="1985686"/>
+          <a:off x="9794875" y="9104315"/>
+          <a:ext cx="7035800" cy="2355742"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -6654,7 +6671,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Tr68tLJvjhh0lclI5lklQewhd0tQl+zgJSYXFMLvC1s6QYr4Msn3oTKVuFeMGmUlyiUUER+27TfyhqKhLZmLkQ==" saltValue="5LMchhYLBc33iVn/YmT0zg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/rftq+Y7ibABmA0+9OXvJyAZwA6RMPcY6rEo3K/8ECVo7Q+LZC0aklxFZEilzkTXRgEZctoUMFbS0EpHpu0dPw==" saltValue="SQ1XVy2/JBg78Cttgy5FGw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -22529,8 +22546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255CCD47-8ECF-49F3-970E-FBDD02F87F6C}">
   <dimension ref="A1:AZ163"/>
   <sheetViews>
-    <sheetView topLeftCell="F36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I69" sqref="I69"/>
+    <sheetView topLeftCell="E51" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22664,25 +22681,25 @@
       </c>
       <c r="V3" s="266"/>
       <c r="W3" s="266"/>
-      <c r="AB3" s="268" t="s">
+      <c r="AB3" s="273" t="s">
         <v>87</v>
       </c>
-      <c r="AC3" s="268"/>
-      <c r="AD3" s="268"/>
+      <c r="AC3" s="273"/>
+      <c r="AD3" s="273"/>
       <c r="AE3" s="108"/>
       <c r="AF3" s="108"/>
-      <c r="AI3" s="268" t="s">
+      <c r="AI3" s="273" t="s">
         <v>87</v>
       </c>
-      <c r="AJ3" s="268"/>
-      <c r="AK3" s="268"/>
+      <c r="AJ3" s="273"/>
+      <c r="AK3" s="273"/>
       <c r="AL3" s="108"/>
       <c r="AM3" s="108"/>
-      <c r="AS3" s="268" t="s">
+      <c r="AS3" s="273" t="s">
         <v>87</v>
       </c>
-      <c r="AT3" s="268"/>
-      <c r="AU3" s="268"/>
+      <c r="AT3" s="273"/>
+      <c r="AU3" s="273"/>
       <c r="AV3" s="108"/>
       <c r="AW3" s="108"/>
     </row>
@@ -22715,24 +22732,24 @@
         <f>Kalk_Kredit2!D10</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="269" t="s">
+      <c r="AB4" s="274" t="s">
         <v>89</v>
       </c>
-      <c r="AC4" s="269"/>
+      <c r="AC4" s="274"/>
       <c r="AD4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AI4" s="269" t="s">
+      <c r="AI4" s="274" t="s">
         <v>91</v>
       </c>
-      <c r="AJ4" s="269"/>
+      <c r="AJ4" s="274"/>
       <c r="AK4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AS4" s="269" t="s">
+      <c r="AS4" s="274" t="s">
         <v>91</v>
       </c>
-      <c r="AT4" s="269"/>
+      <c r="AT4" s="274"/>
       <c r="AU4" s="1" t="s">
         <v>90</v>
       </c>
@@ -22747,7 +22764,7 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="270" t="s">
+      <c r="H5" s="267" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="124">
@@ -22807,7 +22824,7 @@
       <c r="B6" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="271"/>
+      <c r="H6" s="268"/>
       <c r="I6" s="124">
         <v>5.01</v>
       </c>
@@ -22887,7 +22904,7 @@
       <c r="B7" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="271"/>
+      <c r="H7" s="268"/>
       <c r="I7" s="124">
         <v>10.01</v>
       </c>
@@ -22972,7 +22989,7 @@
       <c r="D8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="271"/>
+      <c r="H8" s="268"/>
       <c r="I8" s="124">
         <v>15.01</v>
       </c>
@@ -23048,7 +23065,7 @@
       <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="H9" s="271"/>
+      <c r="H9" s="268"/>
       <c r="I9" s="124">
         <v>20.010000000000002</v>
       </c>
@@ -23124,7 +23141,7 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" s="271"/>
+      <c r="H10" s="268"/>
       <c r="I10" s="124">
         <v>30.01</v>
       </c>
@@ -23204,7 +23221,7 @@
       <c r="D11" s="1">
         <v>2</v>
       </c>
-      <c r="H11" s="271"/>
+      <c r="H11" s="268"/>
       <c r="I11" s="124">
         <v>40.01</v>
       </c>
@@ -23304,7 +23321,7 @@
       <c r="D12" s="1">
         <v>3</v>
       </c>
-      <c r="H12" s="271"/>
+      <c r="H12" s="268"/>
       <c r="I12" s="124">
         <v>50.01</v>
       </c>
@@ -23391,7 +23408,7 @@
       <c r="B13" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="271"/>
+      <c r="H13" s="268"/>
       <c r="I13" s="124">
         <v>60.01</v>
       </c>
@@ -23470,7 +23487,7 @@
       <c r="B14" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="271"/>
+      <c r="H14" s="268"/>
       <c r="I14" s="124">
         <v>70.010000000000005</v>
       </c>
@@ -23560,7 +23577,7 @@
         <v>44</v>
       </c>
       <c r="D15" s="99"/>
-      <c r="H15" s="271"/>
+      <c r="H15" s="268"/>
       <c r="I15" s="124">
         <v>80.010000000000005</v>
       </c>
@@ -23641,7 +23658,7 @@
       <c r="B16" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="271"/>
+      <c r="H16" s="268"/>
       <c r="I16" s="124">
         <v>90.01</v>
       </c>
@@ -23719,7 +23736,7 @@
       <c r="B17" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="271"/>
+      <c r="H17" s="268"/>
       <c r="I17" s="124">
         <v>100.01</v>
       </c>
@@ -23802,7 +23819,7 @@
       <c r="B18" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="271"/>
+      <c r="H18" s="268"/>
       <c r="I18" s="124">
         <v>125.01</v>
       </c>
@@ -23880,7 +23897,7 @@
       <c r="B19" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="271"/>
+      <c r="H19" s="268"/>
       <c r="I19" s="124">
         <v>150.01</v>
       </c>
@@ -23952,7 +23969,7 @@
       <c r="B20" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="271"/>
+      <c r="H20" s="268"/>
       <c r="I20" s="125">
         <v>175.01</v>
       </c>
@@ -23978,7 +23995,7 @@
       <c r="B21" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="271"/>
+      <c r="H21" s="268"/>
       <c r="I21" s="125">
         <v>200.01</v>
       </c>
@@ -23999,27 +24016,27 @@
         <f>W6+V16</f>
         <v>0</v>
       </c>
-      <c r="AA21" s="269" t="s">
+      <c r="AA21" s="274" t="s">
         <v>105</v>
       </c>
-      <c r="AB21" s="269"/>
+      <c r="AB21" s="274"/>
       <c r="AC21" s="1">
         <f>LOOKUP(V16,AA5:AA13,AD5:AD13)</f>
         <v>0</v>
       </c>
-      <c r="AH21" s="269" t="s">
+      <c r="AH21" s="274" t="s">
         <v>106</v>
       </c>
-      <c r="AI21" s="269"/>
+      <c r="AI21" s="274"/>
       <c r="AJ21" s="1">
         <f>IF(ISERROR(LOOKUP(V18,AH5:AH17,AK5:AK17)),0,LOOKUP(V18,AH5:AH17,AK5:AK17))</f>
         <v>0</v>
       </c>
       <c r="AO21" s="76"/>
-      <c r="AR21" s="269" t="s">
+      <c r="AR21" s="274" t="s">
         <v>106</v>
       </c>
-      <c r="AS21" s="269"/>
+      <c r="AS21" s="274"/>
       <c r="AT21" s="1">
         <f>IF(ISERROR(LOOKUP(V18,AR5:AR17,AU5:AU17)),0,LOOKUP(V18,AR5:AR17,AU5:AU17))</f>
         <v>0</v>
@@ -24033,7 +24050,7 @@
       <c r="B22" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="271"/>
+      <c r="H22" s="268"/>
       <c r="I22" s="125">
         <v>250.01</v>
       </c>
@@ -24076,7 +24093,7 @@
       <c r="A23" s="52">
         <v>999</v>
       </c>
-      <c r="H23" s="271"/>
+      <c r="H23" s="268"/>
       <c r="I23" s="125">
         <v>300.01</v>
       </c>
@@ -24104,7 +24121,7 @@
       </c>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H24" s="271"/>
+      <c r="H24" s="268"/>
       <c r="I24" s="126">
         <v>350.01</v>
       </c>
@@ -24123,7 +24140,7 @@
       </c>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H25" s="271"/>
+      <c r="H25" s="268"/>
       <c r="I25" s="126">
         <v>400.01</v>
       </c>
@@ -24140,34 +24157,34 @@
         <f>AZ29+AT22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA25" s="276" t="s">
+      <c r="AA25" s="275" t="s">
         <v>107</v>
       </c>
-      <c r="AB25" s="276"/>
-      <c r="AC25" s="276"/>
-      <c r="AD25" s="276"/>
-      <c r="AE25" s="276"/>
-      <c r="AF25" s="276"/>
-      <c r="AH25" s="267" t="s">
+      <c r="AB25" s="275"/>
+      <c r="AC25" s="275"/>
+      <c r="AD25" s="275"/>
+      <c r="AE25" s="275"/>
+      <c r="AF25" s="275"/>
+      <c r="AH25" s="276" t="s">
         <v>108</v>
       </c>
-      <c r="AI25" s="267"/>
-      <c r="AJ25" s="267"/>
-      <c r="AK25" s="267"/>
-      <c r="AL25" s="267"/>
-      <c r="AM25" s="267"/>
-      <c r="AN25" s="267"/>
-      <c r="AO25" s="267"/>
-      <c r="AR25" s="267" t="s">
+      <c r="AI25" s="276"/>
+      <c r="AJ25" s="276"/>
+      <c r="AK25" s="276"/>
+      <c r="AL25" s="276"/>
+      <c r="AM25" s="276"/>
+      <c r="AN25" s="276"/>
+      <c r="AO25" s="276"/>
+      <c r="AR25" s="276" t="s">
         <v>108</v>
       </c>
-      <c r="AS25" s="267"/>
-      <c r="AT25" s="267"/>
-      <c r="AU25" s="267"/>
-      <c r="AV25" s="267"/>
-      <c r="AW25" s="267"/>
-      <c r="AX25" s="267"/>
-      <c r="AY25" s="267"/>
+      <c r="AS25" s="276"/>
+      <c r="AT25" s="276"/>
+      <c r="AU25" s="276"/>
+      <c r="AV25" s="276"/>
+      <c r="AW25" s="276"/>
+      <c r="AX25" s="276"/>
+      <c r="AY25" s="276"/>
     </row>
     <row r="26" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H26" s="238"/>
@@ -24219,7 +24236,7 @@
       <c r="AY26" s="239"/>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H27" s="272" t="s">
+      <c r="H27" s="269" t="s">
         <v>9</v>
       </c>
       <c r="I27" s="101">
@@ -24227,7 +24244,7 @@
       </c>
       <c r="J27" s="64"/>
       <c r="K27" s="47">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AB27" s="121"/>
       <c r="AF27" s="120" t="e">
@@ -24246,7 +24263,7 @@
       </c>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H28" s="273"/>
+      <c r="H28" s="270"/>
       <c r="I28" s="102">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -24277,7 +24294,7 @@
       </c>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H29" s="273"/>
+      <c r="H29" s="270"/>
       <c r="I29" s="102">
         <v>0.20000100000000001</v>
       </c>
@@ -24307,7 +24324,7 @@
       </c>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H30" s="273"/>
+      <c r="H30" s="270"/>
       <c r="I30" s="102">
         <v>0.400001</v>
       </c>
@@ -24413,7 +24430,7 @@
       </c>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H31" s="273"/>
+      <c r="H31" s="270"/>
       <c r="I31" s="102">
         <v>0.60000100000000001</v>
       </c>
@@ -24519,7 +24536,7 @@
       </c>
     </row>
     <row r="32" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H32" s="274"/>
+      <c r="H32" s="271"/>
       <c r="I32" s="103">
         <v>0.80000099999999996</v>
       </c>
@@ -24628,7 +24645,7 @@
       </c>
     </row>
     <row r="33" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H33" s="271" t="s">
+      <c r="H33" s="268" t="s">
         <v>17</v>
       </c>
       <c r="I33" s="104">
@@ -24742,7 +24759,7 @@
       </c>
     </row>
     <row r="34" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H34" s="271"/>
+      <c r="H34" s="268"/>
       <c r="I34" s="104">
         <v>0.20000100000000001</v>
       </c>
@@ -24854,7 +24871,7 @@
       </c>
     </row>
     <row r="35" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H35" s="271"/>
+      <c r="H35" s="268"/>
       <c r="I35" s="104">
         <v>0.400001</v>
       </c>
@@ -24966,7 +24983,7 @@
       </c>
     </row>
     <row r="36" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H36" s="271"/>
+      <c r="H36" s="268"/>
       <c r="I36" s="104">
         <v>0.60000100000000001</v>
       </c>
@@ -25078,7 +25095,7 @@
       </c>
     </row>
     <row r="37" spans="8:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H37" s="275"/>
+      <c r="H37" s="272"/>
       <c r="I37" s="104">
         <v>0.80000099999999996</v>
       </c>
@@ -28323,7 +28340,7 @@
       </c>
       <c r="J67" s="34"/>
       <c r="K67" s="33">
-        <v>-2</v>
+        <v>-2.5</v>
       </c>
       <c r="L67" s="35">
         <v>-2.5</v>
@@ -28443,7 +28460,7 @@
       </c>
       <c r="J68" s="34"/>
       <c r="K68" s="33">
-        <v>-2</v>
+        <v>-2.5</v>
       </c>
       <c r="L68" s="35">
         <v>-2.5</v>
@@ -28453,7 +28470,7 @@
       </c>
       <c r="O68" s="33">
         <f t="shared" ref="O68:P70" si="34">K68</f>
-        <v>-2</v>
+        <v>-2.5</v>
       </c>
       <c r="P68" s="35">
         <f t="shared" si="34"/>
@@ -37602,6 +37619,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AA2:AF2"/>
+    <mergeCell ref="AH2:AO2"/>
+    <mergeCell ref="AR2:AY2"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AS3:AU3"/>
     <mergeCell ref="AR25:AY25"/>
     <mergeCell ref="H27:H32"/>
     <mergeCell ref="H33:H37"/>
@@ -37615,13 +37639,6 @@
     <mergeCell ref="AR21:AS21"/>
     <mergeCell ref="AA25:AF25"/>
     <mergeCell ref="AH25:AO25"/>
-    <mergeCell ref="AA2:AF2"/>
-    <mergeCell ref="AH2:AO2"/>
-    <mergeCell ref="AR2:AY2"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="AS3:AU3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -38205,7 +38222,7 @@
       <c r="C19" s="82"/>
       <c r="D19" s="122">
         <f ca="1">NOW()</f>
-        <v>45022.498831481484</v>
+        <v>45040.526900462966</v>
       </c>
       <c r="E19" s="82"/>
       <c r="F19" s="82" t="s">
@@ -38389,7 +38406,7 @@
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wNeyTXmYAzOi/HG781SbgKQsQCePe0B/s5RffCEcHluuTs4tb6N6c6Uv39/HqvC6eAHTcd+48E7I4txN+plEVQ==" saltValue="Euv5l4o3Gi39J7xodgIAQw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Lfej56+c6rv8d8vNakSDqFLP9XVka/OR3+yrK8qXrNdmWcTh7D416FzhfE6k7fKdW9tp4qsZB9rZBhcSW+ZTOA==" saltValue="+AgtNHNlmbzuTVRGXFEhUQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="D8" name="Range6"/>
     <protectedRange sqref="D19" name="Range5"/>
@@ -38722,7 +38739,7 @@
     </row>
     <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7zNha2TEYi5hVVmUgGTSWP5P8H0SVovzp3hJ2v/VlrkfB+uw+Rasnn/G9qHfkvsp2B0s2FLCWcJcFPU0NB0Avw==" saltValue="0hdeKSF9vEw/fz8aavC9tw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VvQa7TaZFDU8SnyThSk9LWKRfqCfr0BMZftvt772nJLOSHB/u2DnjyNn0He2/HC3TQgQLrRRz1+Lxtzpos2uOg==" saltValue="iCKu+BHcCrTIHFXri+VnFw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="C11" name="Range1"/>
   </protectedRanges>
@@ -38749,7 +38766,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -39220,7 +39237,7 @@
       <c r="H33" s="244"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oAXT+M352vho6cdk+GKADXO7xXSxAZobwb0af7ifpqb7bWfsp2bmjr5lJiYzRofdPbtccU1tMy9C2t4wWgMOHA==" saltValue="DWCAuZI/AZA3g/BTH11E/A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DQsl5LqrWnFn0taxjIFxHRhzAI2zEIxEvhKzjGkbVaJ/+VwRK7YZ0Q0xdbY0RteblQe8tF+lZp5uqCTCzsPAMg==" saltValue="5MucHKnaRRjl150Y2ko/uQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="B5:B7" name="Bereich1"/>
   </protectedRanges>
@@ -55114,8 +55131,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:AZ172"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O67" sqref="O67"/>
+    <sheetView topLeftCell="F38" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55248,28 +55265,28 @@
       </c>
       <c r="V3" s="266"/>
       <c r="W3" s="266"/>
-      <c r="AB3" s="268" t="s">
+      <c r="AB3" s="273" t="s">
         <v>87</v>
       </c>
-      <c r="AC3" s="268"/>
-      <c r="AD3" s="268"/>
+      <c r="AC3" s="273"/>
+      <c r="AD3" s="273"/>
       <c r="AE3" s="108"/>
       <c r="AF3" s="108"/>
-      <c r="AI3" s="268" t="s">
+      <c r="AI3" s="273" t="s">
         <v>87</v>
       </c>
-      <c r="AJ3" s="268"/>
-      <c r="AK3" s="268"/>
+      <c r="AJ3" s="273"/>
+      <c r="AK3" s="273"/>
       <c r="AL3" s="108"/>
       <c r="AM3" s="108"/>
       <c r="AP3" s="1"/>
       <c r="AQ3" s="1"/>
       <c r="AR3" s="1"/>
-      <c r="AS3" s="268" t="s">
+      <c r="AS3" s="273" t="s">
         <v>87</v>
       </c>
-      <c r="AT3" s="268"/>
-      <c r="AU3" s="268"/>
+      <c r="AT3" s="273"/>
+      <c r="AU3" s="273"/>
       <c r="AV3" s="108"/>
       <c r="AW3" s="108"/>
       <c r="AX3" s="1"/>
@@ -55306,27 +55323,27 @@
         <f>Kalkulationstool!D10</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="269" t="s">
+      <c r="AB4" s="274" t="s">
         <v>89</v>
       </c>
-      <c r="AC4" s="269"/>
+      <c r="AC4" s="274"/>
       <c r="AD4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AI4" s="269" t="s">
+      <c r="AI4" s="274" t="s">
         <v>91</v>
       </c>
-      <c r="AJ4" s="269"/>
+      <c r="AJ4" s="274"/>
       <c r="AK4" s="1" t="s">
         <v>90</v>
       </c>
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
-      <c r="AS4" s="269" t="s">
+      <c r="AS4" s="274" t="s">
         <v>91</v>
       </c>
-      <c r="AT4" s="269"/>
+      <c r="AT4" s="274"/>
       <c r="AU4" s="1" t="s">
         <v>90</v>
       </c>
@@ -55346,7 +55363,7 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="270" t="s">
+      <c r="H5" s="267" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="124">
@@ -55420,7 +55437,7 @@
       <c r="B6" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="271"/>
+      <c r="H6" s="268"/>
       <c r="I6" s="124">
         <v>5.01</v>
       </c>
@@ -55511,7 +55528,7 @@
       <c r="B7" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="271"/>
+      <c r="H7" s="268"/>
       <c r="I7" s="124">
         <v>10.01</v>
       </c>
@@ -55607,7 +55624,7 @@
       <c r="D8" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="271"/>
+      <c r="H8" s="268"/>
       <c r="I8" s="124">
         <v>15.01</v>
       </c>
@@ -55696,7 +55713,7 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="H9" s="271"/>
+      <c r="H9" s="268"/>
       <c r="I9" s="124">
         <v>20.010000000000002</v>
       </c>
@@ -55785,7 +55802,7 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="H10" s="271"/>
+      <c r="H10" s="268"/>
       <c r="I10" s="124">
         <v>30.01</v>
       </c>
@@ -55878,7 +55895,7 @@
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="H11" s="271"/>
+      <c r="H11" s="268"/>
       <c r="I11" s="124">
         <v>40.01</v>
       </c>
@@ -55985,7 +56002,7 @@
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="H12" s="271"/>
+      <c r="H12" s="268"/>
       <c r="I12" s="124">
         <v>50.01</v>
       </c>
@@ -56079,7 +56096,7 @@
       <c r="B13" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="271"/>
+      <c r="H13" s="268"/>
       <c r="I13" s="124">
         <v>60.01</v>
       </c>
@@ -56165,7 +56182,7 @@
       <c r="B14" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="271"/>
+      <c r="H14" s="268"/>
       <c r="I14" s="124">
         <v>70.010000000000005</v>
       </c>
@@ -56262,7 +56279,7 @@
         <v>44</v>
       </c>
       <c r="D15" s="99"/>
-      <c r="H15" s="271"/>
+      <c r="H15" s="268"/>
       <c r="I15" s="124">
         <v>80.010000000000005</v>
       </c>
@@ -56350,7 +56367,7 @@
       <c r="B16" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="271"/>
+      <c r="H16" s="268"/>
       <c r="I16" s="124">
         <v>90.01</v>
       </c>
@@ -56435,7 +56452,7 @@
       <c r="B17" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="271"/>
+      <c r="H17" s="268"/>
       <c r="I17" s="124">
         <v>100.01</v>
       </c>
@@ -56525,7 +56542,7 @@
       <c r="B18" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="271"/>
+      <c r="H18" s="268"/>
       <c r="I18" s="124">
         <v>125.01</v>
       </c>
@@ -56611,7 +56628,7 @@
       <c r="B19" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="271"/>
+      <c r="H19" s="268"/>
       <c r="I19" s="124">
         <v>150.01</v>
       </c>
@@ -56691,7 +56708,7 @@
       <c r="B20" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="271"/>
+      <c r="H20" s="268"/>
       <c r="I20" s="125">
         <v>175.01</v>
       </c>
@@ -56728,7 +56745,7 @@
       <c r="B21" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="271"/>
+      <c r="H21" s="268"/>
       <c r="I21" s="125">
         <v>200.01</v>
       </c>
@@ -56749,18 +56766,18 @@
         <f>W6+V16</f>
         <v>0</v>
       </c>
-      <c r="AA21" s="269" t="s">
+      <c r="AA21" s="274" t="s">
         <v>105</v>
       </c>
-      <c r="AB21" s="269"/>
+      <c r="AB21" s="274"/>
       <c r="AC21" s="1">
         <f>LOOKUP(V16,AA5:AA13,AD5:AD13)</f>
         <v>0</v>
       </c>
-      <c r="AH21" s="269" t="s">
+      <c r="AH21" s="274" t="s">
         <v>106</v>
       </c>
-      <c r="AI21" s="269"/>
+      <c r="AI21" s="274"/>
       <c r="AJ21" s="1">
         <f>IF(ISERROR(LOOKUP(V18,AH5:AH17,AK5:AK17)),0,LOOKUP(V18,AH5:AH17,AK5:AK17))</f>
         <v>0</v>
@@ -56768,10 +56785,10 @@
       <c r="AO21" s="76"/>
       <c r="AP21" s="1"/>
       <c r="AQ21" s="1"/>
-      <c r="AR21" s="269" t="s">
+      <c r="AR21" s="274" t="s">
         <v>106</v>
       </c>
-      <c r="AS21" s="269"/>
+      <c r="AS21" s="274"/>
       <c r="AT21" s="1">
         <f>IF(ISERROR(LOOKUP(V18,AR5:AR17,AU5:AU17)),0,LOOKUP(V18,AR5:AR17,AU5:AU17))</f>
         <v>0</v>
@@ -56790,7 +56807,7 @@
       <c r="B22" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="271"/>
+      <c r="H22" s="268"/>
       <c r="I22" s="125">
         <v>250.01</v>
       </c>
@@ -56842,7 +56859,7 @@
       <c r="A23" s="52">
         <v>999</v>
       </c>
-      <c r="H23" s="271"/>
+      <c r="H23" s="268"/>
       <c r="I23" s="125">
         <v>300.01</v>
       </c>
@@ -56880,7 +56897,7 @@
       <c r="AZ23" s="1"/>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H24" s="271"/>
+      <c r="H24" s="268"/>
       <c r="I24" s="126">
         <v>350.01</v>
       </c>
@@ -56911,7 +56928,7 @@
       <c r="AZ24" s="1"/>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H25" s="271"/>
+      <c r="H25" s="268"/>
       <c r="I25" s="126">
         <v>400.01</v>
       </c>
@@ -56929,36 +56946,36 @@
         <f>AZ29+AT22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA25" s="276" t="s">
+      <c r="AA25" s="275" t="s">
         <v>107</v>
       </c>
-      <c r="AB25" s="276"/>
-      <c r="AC25" s="276"/>
-      <c r="AD25" s="276"/>
-      <c r="AE25" s="276"/>
-      <c r="AF25" s="276"/>
-      <c r="AH25" s="267" t="s">
+      <c r="AB25" s="275"/>
+      <c r="AC25" s="275"/>
+      <c r="AD25" s="275"/>
+      <c r="AE25" s="275"/>
+      <c r="AF25" s="275"/>
+      <c r="AH25" s="276" t="s">
         <v>108</v>
       </c>
-      <c r="AI25" s="267"/>
-      <c r="AJ25" s="267"/>
-      <c r="AK25" s="267"/>
-      <c r="AL25" s="267"/>
-      <c r="AM25" s="267"/>
-      <c r="AN25" s="267"/>
-      <c r="AO25" s="267"/>
+      <c r="AI25" s="276"/>
+      <c r="AJ25" s="276"/>
+      <c r="AK25" s="276"/>
+      <c r="AL25" s="276"/>
+      <c r="AM25" s="276"/>
+      <c r="AN25" s="276"/>
+      <c r="AO25" s="276"/>
       <c r="AP25" s="1"/>
       <c r="AQ25" s="1"/>
-      <c r="AR25" s="267" t="s">
+      <c r="AR25" s="276" t="s">
         <v>108</v>
       </c>
-      <c r="AS25" s="267"/>
-      <c r="AT25" s="267"/>
-      <c r="AU25" s="267"/>
-      <c r="AV25" s="267"/>
-      <c r="AW25" s="267"/>
-      <c r="AX25" s="267"/>
-      <c r="AY25" s="267"/>
+      <c r="AS25" s="276"/>
+      <c r="AT25" s="276"/>
+      <c r="AU25" s="276"/>
+      <c r="AV25" s="276"/>
+      <c r="AW25" s="276"/>
+      <c r="AX25" s="276"/>
+      <c r="AY25" s="276"/>
       <c r="AZ25" s="1"/>
     </row>
     <row r="26" spans="1:52" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -57011,7 +57028,7 @@
       <c r="AY26" s="129"/>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H27" s="272" t="s">
+      <c r="H27" s="269" t="s">
         <v>9</v>
       </c>
       <c r="I27" s="101">
@@ -57019,7 +57036,7 @@
       </c>
       <c r="J27" s="64"/>
       <c r="K27" s="47">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L27" s="1"/>
       <c r="AB27" s="121"/>
@@ -57048,7 +57065,7 @@
       <c r="AZ27" s="1"/>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H28" s="273"/>
+      <c r="H28" s="270"/>
       <c r="I28" s="102">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -57089,7 +57106,7 @@
       <c r="AZ28" s="1"/>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H29" s="273"/>
+      <c r="H29" s="270"/>
       <c r="I29" s="102">
         <v>0.20000100000000001</v>
       </c>
@@ -57128,7 +57145,7 @@
       </c>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H30" s="273"/>
+      <c r="H30" s="270"/>
       <c r="I30" s="102">
         <v>0.400001</v>
       </c>
@@ -57236,7 +57253,7 @@
       </c>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H31" s="273"/>
+      <c r="H31" s="270"/>
       <c r="I31" s="102">
         <v>0.60000100000000001</v>
       </c>
@@ -57344,7 +57361,7 @@
       </c>
     </row>
     <row r="32" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H32" s="274"/>
+      <c r="H32" s="271"/>
       <c r="I32" s="103">
         <v>0.80000099999999996</v>
       </c>
@@ -57455,7 +57472,7 @@
       </c>
     </row>
     <row r="33" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H33" s="271" t="s">
+      <c r="H33" s="268" t="s">
         <v>17</v>
       </c>
       <c r="I33" s="104">
@@ -57570,7 +57587,7 @@
       </c>
     </row>
     <row r="34" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H34" s="271"/>
+      <c r="H34" s="268"/>
       <c r="I34" s="104">
         <v>0.20000100000000001</v>
       </c>
@@ -57683,7 +57700,7 @@
       </c>
     </row>
     <row r="35" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H35" s="271"/>
+      <c r="H35" s="268"/>
       <c r="I35" s="104">
         <v>0.400001</v>
       </c>
@@ -57796,7 +57813,7 @@
       </c>
     </row>
     <row r="36" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H36" s="271"/>
+      <c r="H36" s="268"/>
       <c r="I36" s="104">
         <v>0.60000100000000001</v>
       </c>
@@ -57909,7 +57926,7 @@
       </c>
     </row>
     <row r="37" spans="8:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H37" s="275"/>
+      <c r="H37" s="272"/>
       <c r="I37" s="104">
         <v>0.80000099999999996</v>
       </c>
@@ -61212,7 +61229,7 @@
       </c>
       <c r="J67" s="34"/>
       <c r="K67" s="33">
-        <v>-2</v>
+        <v>-2.5</v>
       </c>
       <c r="L67" s="35">
         <v>-2.5</v>
@@ -61333,7 +61350,7 @@
       </c>
       <c r="J68" s="34"/>
       <c r="K68" s="33">
-        <v>-2</v>
+        <v>-2.5</v>
       </c>
       <c r="L68" s="35">
         <v>-2.5</v>
@@ -61343,7 +61360,7 @@
       </c>
       <c r="O68" s="33">
         <f t="shared" ref="O68:P70" si="34">K68</f>
-        <v>-2</v>
+        <v>-2.5</v>
       </c>
       <c r="P68" s="35">
         <f t="shared" si="34"/>
@@ -70674,6 +70691,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AR25:AY25"/>
+    <mergeCell ref="AR2:AY2"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AR21:AS21"/>
     <mergeCell ref="H5:H25"/>
     <mergeCell ref="H27:H32"/>
     <mergeCell ref="H33:H37"/>
@@ -70689,11 +70711,6 @@
     <mergeCell ref="AA25:AF25"/>
     <mergeCell ref="AH25:AO25"/>
     <mergeCell ref="N11:N14"/>
-    <mergeCell ref="AR25:AY25"/>
-    <mergeCell ref="AR2:AY2"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AR21:AS21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -71048,7 +71065,7 @@
       <c r="C19" s="82"/>
       <c r="D19" s="122">
         <f ca="1">NOW()</f>
-        <v>45022.498831481484</v>
+        <v>45040.526900462966</v>
       </c>
       <c r="E19" s="82"/>
       <c r="F19" s="82" t="s">

--- a/ExcelBlanko.xlsx
+++ b/ExcelBlanko.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\oneLine_Backoffice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\V\DATEN\BN_BSS11\T_PRO_PKG\Performance\DB Verprobung\Vertriebstool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA68E9F2-5D96-45DF-9D4F-AE3C173BBC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="p4M8Qe6LIUAcZrEO5lEa6pj5cLGTk6i/B7yszEpvgd/W43+WM9o/OTDgTe67LWqRoRrN8g4J45PVIMAfmDWnfw==" workbookSaltValue="k/ZBehB0bXNXuyL4dOfmOQ==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8B3F26C-3B0F-43C7-AA15-400F675E6468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="RRERwP20D/lrHa80WQo/XxFdpV8A80ykUbw/Fr6pG4It2RKMq+yDJawPAjHYaGh5OKRZL/UUtF8KAM0NP/YHuA==" workbookSaltValue="fdn46BgMk4X3GyeIeqHXMA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="18900" windowHeight="11055" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="15" r:id="rId1"/>
@@ -81,7 +81,7 @@
     <definedName name="Zuführer" localSheetId="7">Kalk_Kredit2!$D$13</definedName>
     <definedName name="Zuführer">Kalkulationstool!$D$13</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="2"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1073,7 +1073,7 @@
     </r>
   </si>
   <si>
-    <t>Gültig ab 27.04.2023</t>
+    <t>Gültig ab 29.04.2023</t>
   </si>
 </sst>
 </file>
@@ -6671,7 +6671,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/rftq+Y7ibABmA0+9OXvJyAZwA6RMPcY6rEo3K/8ECVo7Q+LZC0aklxFZEilzkTXRgEZctoUMFbS0EpHpu0dPw==" saltValue="SQ1XVy2/JBg78Cttgy5FGw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="k05r5Co4jDyLq4goehvYmAqH9xdLW0VkPFWWEfYTG/xEyNugE3ARfCEnSxv5qDXuT/x97P3jeh3oaKSWPN414Q==" saltValue="7htKyv8pkc0Kn6OQCV6cWg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -22546,8 +22546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255CCD47-8ECF-49F3-970E-FBDD02F87F6C}">
   <dimension ref="A1:AZ163"/>
   <sheetViews>
-    <sheetView topLeftCell="E51" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K67" sqref="K67"/>
+    <sheetView topLeftCell="E24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24244,7 +24244,7 @@
       </c>
       <c r="J27" s="64"/>
       <c r="K27" s="47">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="121"/>
       <c r="AF27" s="120" t="e">
@@ -38222,7 +38222,7 @@
       <c r="C19" s="82"/>
       <c r="D19" s="122">
         <f ca="1">NOW()</f>
-        <v>45040.526900462966</v>
+        <v>45044.509445254633</v>
       </c>
       <c r="E19" s="82"/>
       <c r="F19" s="82" t="s">
@@ -38406,7 +38406,7 @@
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Lfej56+c6rv8d8vNakSDqFLP9XVka/OR3+yrK8qXrNdmWcTh7D416FzhfE6k7fKdW9tp4qsZB9rZBhcSW+ZTOA==" saltValue="+AgtNHNlmbzuTVRGXFEhUQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qRo168GD/xRSVTv33LIfqLumB6brQ2Thx/JIG60SaDd4UdZtMCeZwwLlMmHgDZI3f3F5qPzByOVudkgHCfvZeg==" saltValue="QM582CAhQd3wwczpmup4qg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="D8" name="Range6"/>
     <protectedRange sqref="D19" name="Range5"/>
@@ -38739,7 +38739,7 @@
     </row>
     <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VvQa7TaZFDU8SnyThSk9LWKRfqCfr0BMZftvt772nJLOSHB/u2DnjyNn0He2/HC3TQgQLrRRz1+Lxtzpos2uOg==" saltValue="iCKu+BHcCrTIHFXri+VnFw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fZXa0uuMI8kXJVLa55Ge68D98CdqW7exsh1M/+UVCCBuQhoxWD9RzC6Gy5NTqNccvFOCclB19fWwONtIoDdArA==" saltValue="hQZpn0c9PXhq5zQLfbePQA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="C11" name="Range1"/>
   </protectedRanges>
@@ -39237,7 +39237,7 @@
       <c r="H33" s="244"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DQsl5LqrWnFn0taxjIFxHRhzAI2zEIxEvhKzjGkbVaJ/+VwRK7YZ0Q0xdbY0RteblQe8tF+lZp5uqCTCzsPAMg==" saltValue="5MucHKnaRRjl150Y2ko/uQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qPLb19V7991V+NTTnopcbUoQlwtC+y5k+izz8652vj06nLI3l7RtAnnwAtrjSeZPENSPSuCCTZW905RORxmchg==" saltValue="sluMgjsDQUoAQhUQ/00Xtw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="B5:B7" name="Bereich1"/>
   </protectedRanges>
@@ -55131,8 +55131,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:AZ172"/>
   <sheetViews>
-    <sheetView topLeftCell="F38" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I69" sqref="I69"/>
+    <sheetView topLeftCell="F20" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57036,7 +57036,7 @@
       </c>
       <c r="J27" s="64"/>
       <c r="K27" s="47">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="1"/>
       <c r="AB27" s="121"/>
@@ -71065,7 +71065,7 @@
       <c r="C19" s="82"/>
       <c r="D19" s="122">
         <f ca="1">NOW()</f>
-        <v>45040.526900462966</v>
+        <v>45044.509445254633</v>
       </c>
       <c r="E19" s="82"/>
       <c r="F19" s="82" t="s">

--- a/ExcelBlanko.xlsx
+++ b/ExcelBlanko.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\V\DATEN\BN_BSS11\T_PRO_PKG\Performance\DB Verprobung\Vertriebstool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luk130\OneDrive - Deutsche Bank AG\Backoffice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8B3F26C-3B0F-43C7-AA15-400F675E6468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="RRERwP20D/lrHa80WQo/XxFdpV8A80ykUbw/Fr6pG4It2RKMq+yDJawPAjHYaGh5OKRZL/UUtF8KAM0NP/YHuA==" workbookSaltValue="fdn46BgMk4X3GyeIeqHXMA==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3799C6F3-0645-4ADD-A09B-2130C2612043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="4WUuFQo3TFtO2ZDnsWgPOMCWvjV1I5GpyR7OiMoy0AarlTS2khtGcBls6kS/MjqMXAHEoiK1Dy1usQKJOHh8pQ==" workbookSaltValue="3DvrHNnh5B7ScaOiurXTaA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="15" r:id="rId1"/>
@@ -81,7 +81,7 @@
     <definedName name="Zuführer" localSheetId="7">Kalk_Kredit2!$D$13</definedName>
     <definedName name="Zuführer">Kalkulationstool!$D$13</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1073,7 +1073,7 @@
     </r>
   </si>
   <si>
-    <t>Gültig ab 29.04.2023</t>
+    <t>Gültig ab 19.07.2023</t>
   </si>
 </sst>
 </file>
@@ -6671,7 +6671,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="k05r5Co4jDyLq4goehvYmAqH9xdLW0VkPFWWEfYTG/xEyNugE3ARfCEnSxv5qDXuT/x97P3jeh3oaKSWPN414Q==" saltValue="7htKyv8pkc0Kn6OQCV6cWg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="L4CBpg2xv7d3PtpNnmIXSgsE7tWeppnTp0v/Q76PDRHHVtUx83ZW1ztuHtImZwBKirxfHms5HjSVCj9sokjz7w==" saltValue="h62Vgdm8WZLRKRCVrqiXeA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -22546,8 +22546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255CCD47-8ECF-49F3-970E-FBDD02F87F6C}">
   <dimension ref="A1:AZ163"/>
   <sheetViews>
-    <sheetView topLeftCell="E24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22772,7 +22772,7 @@
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="12">
-        <v>-1.5</v>
+        <v>-1.3</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>25</v>
@@ -22830,7 +22830,7 @@
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="13">
-        <v>-1.2</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="L6" s="120">
         <v>6</v>
@@ -22910,7 +22910,7 @@
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="13">
-        <v>-1</v>
+        <v>-0.9</v>
       </c>
       <c r="L7" s="120">
         <v>11</v>
@@ -38222,7 +38222,7 @@
       <c r="C19" s="82"/>
       <c r="D19" s="122">
         <f ca="1">NOW()</f>
-        <v>45044.509445254633</v>
+        <v>45125.744189004632</v>
       </c>
       <c r="E19" s="82"/>
       <c r="F19" s="82" t="s">
@@ -38406,7 +38406,7 @@
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qRo168GD/xRSVTv33LIfqLumB6brQ2Thx/JIG60SaDd4UdZtMCeZwwLlMmHgDZI3f3F5qPzByOVudkgHCfvZeg==" saltValue="QM582CAhQd3wwczpmup4qg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9rs3Twp0Qxo3xLQVeq9B1Ee4TriI/Lz221yMRenO+HaFOBCrrrZmR1y2j65y4GKiZssdTSNZWyJSU1/dCPtOdA==" saltValue="vH8OjAUfBNQdxWqkIXJt6w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="D8" name="Range6"/>
     <protectedRange sqref="D19" name="Range5"/>
@@ -38739,7 +38739,7 @@
     </row>
     <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fZXa0uuMI8kXJVLa55Ge68D98CdqW7exsh1M/+UVCCBuQhoxWD9RzC6Gy5NTqNccvFOCclB19fWwONtIoDdArA==" saltValue="hQZpn0c9PXhq5zQLfbePQA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="iQ8F1lbpNsOg7R743+tK/SXNDLUiJ7tsTt/nXQPjr96WOZYt8PB/8sH7SM9UiMX6Jnz1LcOrkpfLTzyyZTzoLg==" saltValue="CnVcheKYBg+mwd2obaKW5Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="C11" name="Range1"/>
   </protectedRanges>
@@ -39237,7 +39237,7 @@
       <c r="H33" s="244"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qPLb19V7991V+NTTnopcbUoQlwtC+y5k+izz8652vj06nLI3l7RtAnnwAtrjSeZPENSPSuCCTZW905RORxmchg==" saltValue="sluMgjsDQUoAQhUQ/00Xtw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NFNn4i7e0qDMdWtxAgxNCKBwwDZ0Q2ruDX7higTQ+4BTJnY2/+NmQtWqlLOpaZVxI97Cg4QZNT8AsVySs4HBEA==" saltValue="q106HgGSgPCg3mUsdcamIQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="B5:B7" name="Bereich1"/>
   </protectedRanges>
@@ -55131,8 +55131,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:AZ172"/>
   <sheetViews>
-    <sheetView topLeftCell="F20" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55371,7 +55371,7 @@
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="12">
-        <v>-1.5</v>
+        <v>-1.3</v>
       </c>
       <c r="L5" s="1"/>
       <c r="N5" s="5" t="s">
@@ -55443,7 +55443,7 @@
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="13">
-        <v>-1.2</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="L6" s="120">
         <v>6</v>
@@ -55534,7 +55534,7 @@
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="13">
-        <v>-1</v>
+        <v>-0.9</v>
       </c>
       <c r="L7" s="120">
         <v>11</v>
@@ -71065,7 +71065,7 @@
       <c r="C19" s="82"/>
       <c r="D19" s="122">
         <f ca="1">NOW()</f>
-        <v>45044.509445254633</v>
+        <v>45125.744189004632</v>
       </c>
       <c r="E19" s="82"/>
       <c r="F19" s="82" t="s">

--- a/ExcelBlanko.xlsx
+++ b/ExcelBlanko.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luk130\OneDrive - Deutsche Bank AG\Backoffice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deutschebank-my.sharepoint.com/personal/kerstin_stein_db_com/Documents/Backoffice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3799C6F3-0645-4ADD-A09B-2130C2612043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="4WUuFQo3TFtO2ZDnsWgPOMCWvjV1I5GpyR7OiMoy0AarlTS2khtGcBls6kS/MjqMXAHEoiK1Dy1usQKJOHh8pQ==" workbookSaltValue="3DvrHNnh5B7ScaOiurXTaA==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CDBEC78-B3DC-4EE2-BB01-8EDF229BFC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="aAM27QD5Wrb878yYK9U9KS9IjI9dlWWgnq1ydCKZE9blqlqEZWUG7X6H7mXegXSf2VwQTTN1iWkIhfSU9lf2sw==" workbookSaltValue="t/eGG2kYKX0l0gn4GNWevg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,25 +37,26 @@
     <definedName name="Anzahl_der_Raten">Kalkulationstool!$D$8</definedName>
     <definedName name="Bezahlter_RKV_Einmalbeitrag_für_den_Altkredit">'Bewertung Aufstockung'!$B$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">Kalk_Kredit2!$A$1:$R$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Kalkulationstool!$A$1:$R$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Kalkulationstool!$A$1:$R$27</definedName>
     <definedName name="Eigenablösebetrag" localSheetId="13">[1]Kalkulationstool!$D$11</definedName>
     <definedName name="Eigenablösebetrag" localSheetId="7">Kalk_Kredit2!$D$11</definedName>
-    <definedName name="Eigenablösebetrag">Kalkulationstool!$D$11</definedName>
+    <definedName name="Eigenablösebetrag_DB">Kalkulationstool!$D$11</definedName>
+    <definedName name="Eigenablösebetrag_PoBa_DSL" localSheetId="1">Kalkulationstool!$D$12</definedName>
     <definedName name="Expected_Loss" localSheetId="7">Kalk_Kredit2!$D$7</definedName>
     <definedName name="Expected_Loss">Kalkulationstool!$D$7</definedName>
     <definedName name="Fremdablösebetrag" localSheetId="7">Kalk_Kredit2!$D$12</definedName>
-    <definedName name="Fremdablösebetrag">Kalkulationstool!$D$12</definedName>
+    <definedName name="Fremdablösebetrag">Kalkulationstool!$D$13</definedName>
     <definedName name="Gesamtkreditbetrag" localSheetId="13">[1]Kalkulationstool!$D$10</definedName>
     <definedName name="Gesamtkreditbetrag" localSheetId="7">Kalk_Kredit2!$D$10</definedName>
     <definedName name="Gesamtkreditbetrag">Kalkulationstool!$D$10</definedName>
     <definedName name="Höchste_Absicherungsquote_des_Neukredits" localSheetId="13">'[1]Bewertung Aufstockung'!$B$7</definedName>
     <definedName name="Höchste_Absicherungsquote_des_Neukredits">'Bewertung Aufstockung'!$B$7</definedName>
     <definedName name="IVS" localSheetId="7">Kalk_Kredit2!$D$14</definedName>
-    <definedName name="IVS">Kalkulationstool!$D$14</definedName>
+    <definedName name="IVS">Kalkulationstool!$D$15</definedName>
     <definedName name="Konditionskompetenz_Filiale_RBC" localSheetId="7">Kalk_Kredit2!$D$26</definedName>
-    <definedName name="Konditionskompetenz_Filiale_RBC">Kalkulationstool!$D$26</definedName>
+    <definedName name="Konditionskompetenz_Filiale_RBC">Kalkulationstool!$D$27</definedName>
     <definedName name="Konditionskompetenz_MGL_LRBC_RL" localSheetId="7">Kalk_Kredit2!$H$26</definedName>
-    <definedName name="Konditionskompetenz_MGL_LRBC_RL">Kalkulationstool!$H$26</definedName>
+    <definedName name="Konditionskompetenz_MGL_LRBC_RL">Kalkulationstool!$H$27</definedName>
     <definedName name="Laufzeit_in_Monaten" localSheetId="7">Kalk_Kredit2!$D$9</definedName>
     <definedName name="Laufzeit_in_Monaten">Kalkulationstool!$D$9</definedName>
     <definedName name="Marge_Altkredit" localSheetId="8">Wert_Kredit2!$C$10</definedName>
@@ -74,12 +75,12 @@
     <definedName name="Wertbeitrag_Zielkondition" localSheetId="8">Wert_Kredit2!$C$13</definedName>
     <definedName name="Wertbeitrag_Zielkondition">Wertbeitrag!$C$13</definedName>
     <definedName name="Zielkondition_effektiv" localSheetId="7">Kalk_Kredit2!$D$20</definedName>
-    <definedName name="Zielkondition_effektiv">Kalkulationstool!$D$20</definedName>
+    <definedName name="Zielkondition_effektiv">Kalkulationstool!$D$21</definedName>
     <definedName name="Zielkondition_nominal" localSheetId="7">Kalk_Kredit2!$D$21</definedName>
-    <definedName name="Zielkondition_nominal">Kalkulationstool!$D$21</definedName>
+    <definedName name="Zielkondition_nominal">Kalkulationstool!$D$22</definedName>
     <definedName name="Zuführer" localSheetId="13">[1]Kalkulationstool!$D$13</definedName>
     <definedName name="Zuführer" localSheetId="7">Kalk_Kredit2!$D$13</definedName>
-    <definedName name="Zuführer">Kalkulationstool!$D$13</definedName>
+    <definedName name="Zuführer">Kalkulationstool!$D$14</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentManualCount="2"/>
   <extLst>
@@ -97,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="250">
   <si>
     <t>MOVE</t>
   </si>
@@ -331,9 +332,6 @@
     <t>Anzahl der vertraglich definierten Raten (nicht die Vertragslaufzeit)</t>
   </si>
   <si>
-    <t>Ausstehender Kreditbetrag des abzulösenden Kredits zum Zeitpunkt der Ablöse</t>
-  </si>
-  <si>
     <t>Beim Wettbewerb abzulösender Kreditbetrag zum Zeitpunkt der Ablöse</t>
   </si>
   <si>
@@ -444,9 +442,6 @@
   </si>
   <si>
     <t>Was trage ich bei einer Fremdablösung ein?</t>
-  </si>
-  <si>
-    <t>Es ist der Gesamtkreditbetrag entsprechend des neuen Kreditvertrags einzutragen (Zelle D10). Der Fremdablöse-Anteil ist in Zelle D12 einzutragen. Sollte keine Fremdablösung vorliegen, ist hier eine 0 einzutragen.</t>
   </si>
   <si>
     <t>Aktion Q1</t>
@@ -611,33 +606,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Es ist der Gesamtkreditbetrag entsprechend des neuen Kreditvertrags einzutragen (Zelle D10) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ohne Abzug des Ablöseanteils</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Der Ablöseanteil ist separat in dem dafür vorgesehenen Feld auszuweisen (Zelle D11). Sollte keine Aufstockung vorliegen, ist hier eine 0 einzutragen. Im FilialKompass ist das Geschäft nach Abschluss wie üblich einzutragen (das Excel-Tool führt hier zu keinen Veränderungen).
-Im Tabellenblatt "Wertbeitrag" sind ensprechend die Marge des Altkredits sowie Restlaufzeit in Monaten einzutragen</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Erläuterung </t>
     </r>
     <r>
@@ -689,10 +657,6 @@
   </si>
   <si>
     <t>Ein interner Verrechnungssatz von 0,10% wird hier mit 10 Basispunkten eingetragen</t>
-  </si>
-  <si>
-    <t>Dieser ist analog zur Berechnung der Marge im FilialKompass einzugeben. D.h. bei Errechnung der Marge für den FilialKompass ziehen Sie den internen Verrechnungssatz vom Nominalzins ab. Im Tool sollte dieser in Basispunkten eingegeben werden (Zelle 14).
-Die tagesaktuellen internen Verrechnungssätze (IVS) sind dem Tradefinder zu entnehmen.</t>
   </si>
   <si>
     <t>Systemseitig berechneter EL p.a. in Basispunkten</t>
@@ -810,9 +774,6 @@
   </si>
   <si>
     <t>Auf die Zielkondition dürfen bis zu 150 Basispunkte aufgeschlagen werden. Bei Aufstockergeschäften ist ein Aufschlag bis zu 300 Basispunkte erlaubt.</t>
-  </si>
-  <si>
-    <t>Die neue absolute Preisuntergrenze liegt bei 3,99% eff. nach Konditionskompetenzen, bei DVAG-Geschäften bei 4,49% eff. (Ausnahme: RL-Sonderkondition)</t>
   </si>
   <si>
     <t>Bezogen auf das neue (=aufgestockte) Kreditvolumen; bei mehreren Bausteinen gilt die höchste Absicherungsquote; Achtung: Eingabe in KFPK bei Delta-Variante abweichend (da bezogen auf den Gesamtkredit)</t>
@@ -1047,8 +1008,72 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">     davon: Fremdablöse-Betrag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     davon: Eigenablöse-Betrag DB</t>
+  </si>
+  <si>
+    <t>Ablösebetrag DB</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Bitte beachten Sie das das Kalkulationstool nur eine </t>
+      <t xml:space="preserve">Ausstehender Kreditbetrag des abzulösenden Kredits der Marke </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Deutsche Bank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> zum Zeitpunkt der Ablöse</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">     davon: Eigenablöse-Betrag PoBa / DSL</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ausstehender Kreditbetrag des abzulösenden Kredits der Marke </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Postbank / DSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> zum Zeitpunkt der Ablöse</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bitte beachten Sie, dass das Kalkulationstool nur eine </t>
     </r>
     <r>
       <rPr>
@@ -1073,7 +1098,47 @@
     </r>
   </si>
   <si>
-    <t>Gültig ab 19.07.2023</t>
+    <t>Bitte beachten Sie, dass bei der Wertbeitragsermittlung im Falle einer Eigenablöse nur der abzulösende Kredit der Marge Deutsche Bank berücksichtigt wird.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Es ist der Gesamtkreditbetrag entsprechend des neuen Kreditvertrags einzutragen (Zelle D10) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ohne Abzug des Ablöseanteils</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Der Ablöseanteil ist separat in dem dafür vorgesehenen Feld auszuweisen (Zelle D11/D12). Sollte keine Aufstockung vorliegen, ist hier eine 0 einzutragen. Im FilialKompass ist das Geschäft nach Abschluss wie üblich einzutragen (das Excel-Tool führt hier zu keinen Veränderungen).
+Im Tabellenblatt "Wertbeitrag" sind ensprechend die Marge des Altkredits sowie Restlaufzeit in Monaten einzutragen</t>
+    </r>
+  </si>
+  <si>
+    <t>Es ist der Gesamtkreditbetrag entsprechend des neuen Kreditvertrags einzutragen (Zelle D10). Der Fremdablöse-Anteil ist in Zelle D13 einzutragen. Sollte keine Fremdablösung vorliegen, ist hier eine 0 einzutragen.</t>
+  </si>
+  <si>
+    <t>Dieser ist analog zur Berechnung der Marge im FilialKompass einzugeben. D.h. bei Errechnung der Marge für den FilialKompass ziehen Sie den internen Verrechnungssatz vom Nominalzins ab. Im Tool sollte dieser in Basispunkten eingegeben werden (Zelle D15).
+Die tagesaktuellen internen Verrechnungssätze (IVS) sind dem Tradefinder zu entnehmen.</t>
+  </si>
+  <si>
+    <t>Gültig ab 15.09.2023</t>
+  </si>
+  <si>
+    <t>Die neue absolute Preisuntergrenze liegt bei 4,49% eff. nach Konditionskompetenzen, bei DVAG-Geschäften bei 4,99% eff. (Ausnahme: RL-Sonderkondition)</t>
   </si>
 </sst>
 </file>
@@ -6585,7 +6650,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -6604,12 +6669,12 @@
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="71" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="182" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C3" s="96"/>
     </row>
@@ -6626,7 +6691,7 @@
         <v>73</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="60" x14ac:dyDescent="0.25">
@@ -6634,7 +6699,7 @@
         <v>74</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="30" x14ac:dyDescent="0.25">
@@ -6642,7 +6707,7 @@
         <v>71</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="60" x14ac:dyDescent="0.25">
@@ -6650,15 +6715,15 @@
         <v>69</v>
       </c>
       <c r="C8" s="90" t="s">
-        <v>162</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="95" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C9" s="90" t="s">
-        <v>115</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="45" x14ac:dyDescent="0.25">
@@ -6666,12 +6731,12 @@
         <v>70</v>
       </c>
       <c r="C10" s="90" t="s">
-        <v>177</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="L4CBpg2xv7d3PtpNnmIXSgsE7tWeppnTp0v/Q76PDRHHVtUx83ZW1ztuHtImZwBKirxfHms5HjSVCj9sokjz7w==" saltValue="h62Vgdm8WZLRKRCVrqiXeA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/rH6nDBNoAnMb6FVfBz+Cu6UV5ecwBfifhEFFWLFw9jx0JGK815G5rNxCK7PeNyXBPfyKnW25+ld4IywYgc7Kw==" saltValue="t/LVrOSpmoDuZSH5wWf+zQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -6696,12 +6761,12 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B2">
         <f>'Bewertung Aufstockung'!B6</f>
@@ -6710,7 +6775,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B3">
         <f>'Bewertung Aufstockung'!B6-Wertbeitrag!C11</f>
@@ -6719,7 +6784,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B4">
         <v>0.88</v>
@@ -6727,7 +6792,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B5" s="231">
         <v>0.55000000000000004</v>
@@ -6735,7 +6800,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B6" s="232">
         <f>'Bewertung Aufstockung'!B5</f>
@@ -6744,7 +6809,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B7" s="233" t="e">
         <f>(B2-B3)*(B2-B3+1)/B2/(B2+1)*B4*B6*B5</f>
@@ -6753,10 +6818,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C26" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
@@ -6767,7 +6832,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B27" s="240">
         <f>2.3%+C27+D27+E27</f>
@@ -6826,7 +6891,7 @@
   <sheetData>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F3" s="265" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G3" s="265"/>
       <c r="H3" s="265"/>
@@ -6838,7 +6903,7 @@
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
       <c r="U3" s="265" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="V3" s="265"/>
       <c r="W3" s="265"/>
@@ -6850,29 +6915,29 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="266" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B4" s="266"/>
       <c r="C4" s="266"/>
       <c r="D4" s="266"/>
       <c r="E4" s="168"/>
       <c r="F4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>23</v>
@@ -6881,40 +6946,40 @@
         <v>23</v>
       </c>
       <c r="P4" s="266" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q4" s="266"/>
       <c r="R4" s="266"/>
       <c r="S4" s="266"/>
       <c r="T4" s="168"/>
       <c r="U4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="W4" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AA4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C5" s="119">
         <f>Kalk_Kredit2!D10</f>
@@ -6946,7 +7011,7 @@
       </c>
       <c r="O5" s="171"/>
       <c r="P5" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="R5" s="221">
         <v>0</v>
@@ -7021,7 +7086,7 @@
       </c>
       <c r="O6" s="176"/>
       <c r="P6" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R6" s="1">
         <f>Wertbeitrag!C11</f>
@@ -7061,7 +7126,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C7" s="79" t="e">
         <f>Wert_Kredit2!C6</f>
@@ -7104,7 +7169,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R7" s="79">
         <f>Wertbeitrag!C10</f>
@@ -7149,7 +7214,7 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C8" s="79" t="e">
         <f>EFFECT(C7,12)</f>
@@ -7253,7 +7318,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R9" s="132" t="e">
         <f>-PMT(R7/12,R6,R5)</f>
@@ -7293,7 +7358,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="132" t="e">
         <f>-PMT(C7/12,C6,C5)</f>
@@ -7360,7 +7425,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="132">
         <f>Kalk_Kredit2!D14</f>
@@ -7423,7 +7488,7 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C12" s="218" t="e">
         <f>C7-(C11/10000)</f>
@@ -7728,7 +7793,7 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B17" s="219" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>9</v>
@@ -7790,7 +7855,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B18" s="120">
         <f>IF(Kalk_Kredit2!D13="MoVe",0.75,1)</f>
@@ -14702,7 +14767,7 @@
   <sheetData>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F3" s="265" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G3" s="265"/>
       <c r="H3" s="265"/>
@@ -14714,7 +14779,7 @@
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
       <c r="U3" s="265" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="V3" s="265"/>
       <c r="W3" s="265"/>
@@ -14726,29 +14791,29 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="266" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B4" s="266"/>
       <c r="C4" s="266"/>
       <c r="D4" s="266"/>
       <c r="E4" s="168"/>
       <c r="F4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>23</v>
@@ -14757,40 +14822,40 @@
         <v>23</v>
       </c>
       <c r="P4" s="266" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q4" s="266"/>
       <c r="R4" s="266"/>
       <c r="S4" s="266"/>
       <c r="T4" s="168"/>
       <c r="U4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="W4" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AA4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C5" s="119">
         <f>Kalk_Kredit2!D10</f>
@@ -14823,7 +14888,7 @@
       <c r="N5" s="171"/>
       <c r="O5" s="171"/>
       <c r="P5" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="R5" s="221">
         <v>0</v>
@@ -14893,7 +14958,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R6" s="1">
         <f>Wertbeitrag!C11</f>
@@ -14933,7 +14998,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C7" s="79" t="e">
         <f>Background2!P7</f>
@@ -14977,7 +15042,7 @@
       </c>
       <c r="O7" s="176"/>
       <c r="P7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R7" s="79">
         <f>Wertbeitrag!C10</f>
@@ -15022,7 +15087,7 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C8" s="79" t="e">
         <f>EFFECT(C7,12)</f>
@@ -15126,7 +15191,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R9" s="132" t="e">
         <f>-PMT(R7/12,R6,R5)</f>
@@ -15166,7 +15231,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="132" t="e">
         <f>-PMT(C7/12,C6,C5)</f>
@@ -15233,7 +15298,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="132">
         <f>Kalk_Kredit2!D14</f>
@@ -15296,7 +15361,7 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C12" s="218" t="e">
         <f>C7-(C11/10000)</f>
@@ -15601,7 +15666,7 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B17" s="219" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>9</v>
@@ -15663,7 +15728,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B18" s="120">
         <f>IF(Kalk_Kredit2!D13="MoVe",0.75,1)</f>
@@ -22546,8 +22611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255CCD47-8ECF-49F3-970E-FBDD02F87F6C}">
   <dimension ref="A1:AZ163"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="E45" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22624,7 +22689,7 @@
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
       <c r="AA2" s="265" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB2" s="265"/>
       <c r="AC2" s="265"/>
@@ -22632,7 +22697,7 @@
       <c r="AE2" s="265"/>
       <c r="AF2" s="265"/>
       <c r="AH2" s="265" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AI2" s="265"/>
       <c r="AJ2" s="265"/>
@@ -22642,7 +22707,7 @@
       <c r="AN2" s="265"/>
       <c r="AO2" s="265"/>
       <c r="AR2" s="265" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AS2" s="265"/>
       <c r="AT2" s="265"/>
@@ -22677,26 +22742,26 @@
       </c>
       <c r="L3" s="23"/>
       <c r="U3" s="266" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V3" s="266"/>
       <c r="W3" s="266"/>
       <c r="AB3" s="273" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AC3" s="273"/>
       <c r="AD3" s="273"/>
       <c r="AE3" s="108"/>
       <c r="AF3" s="108"/>
       <c r="AI3" s="273" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AJ3" s="273"/>
       <c r="AK3" s="273"/>
       <c r="AL3" s="108"/>
       <c r="AM3" s="108"/>
       <c r="AS3" s="273" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AT3" s="273"/>
       <c r="AU3" s="273"/>
@@ -22720,12 +22785,12 @@
         <v>8</v>
       </c>
       <c r="I4" s="22">
-        <v>9.69</v>
+        <v>10.19</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="8"/>
       <c r="U4" s="109" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V4" s="110"/>
       <c r="W4" s="111">
@@ -22733,25 +22798,25 @@
         <v>0</v>
       </c>
       <c r="AB4" s="274" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC4" s="274"/>
       <c r="AD4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI4" s="274" t="s">
         <v>90</v>
-      </c>
-      <c r="AI4" s="274" t="s">
-        <v>91</v>
       </c>
       <c r="AJ4" s="274"/>
       <c r="AK4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS4" s="274" t="s">
         <v>90</v>
-      </c>
-      <c r="AS4" s="274" t="s">
-        <v>91</v>
       </c>
       <c r="AT4" s="274"/>
       <c r="AU4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
@@ -22772,7 +22837,7 @@
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="12">
-        <v>-1.3</v>
+        <v>-1.8</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>25</v>
@@ -22830,7 +22895,7 @@
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="13">
-        <v>-1.1000000000000001</v>
+        <v>-1.5</v>
       </c>
       <c r="L6" s="120">
         <v>6</v>
@@ -22839,12 +22904,12 @@
         <v>55</v>
       </c>
       <c r="P6" s="78" t="e">
-        <f>IF((Background2!$I$4+LOOKUP(Kalk_Kredit2!$D$7,Background2!$I$5:$I$26,Background2!$K$5:$K$26)+LOOKUP(Kalk_Kredit2!$D$10,Background2!$I$38:$I$45,Background2!$K$38:$K$45)+LOOKUP((Kalk_Kredit2!$D$11/Kalk_Kredit2!$D$10),Background2!$I$27:$I$32,Background2!$K$27:$K$32)+LOOKUP((Kalk_Kredit2!$D$12/Kalk_Kredit2!$D$10),Background2!$I$33:$I$37,Background2!$K$33:$K$37)+LOOKUP(Kalk_Kredit2!$D$8,Background2!$I$48:$I$53,Background2!$K$48:$K$53))&gt;Background2!$K$60,Background2!$K$60,IF((Background2!$I$4+LOOKUP(Kalk_Kredit2!$D$7,Background2!$I$5:$I$26,Background2!$K$5:$K$26)+LOOKUP(Kalk_Kredit2!$D$10,Background2!$I$38:$I$45,Background2!$K$38:$K$45)+LOOKUP((Kalk_Kredit2!$D$11/Kalk_Kredit2!$D$10),Background2!$I$27:$I$32,Background2!$K$27:$K$32)+LOOKUP((Kalk_Kredit2!$D$12/Kalk_Kredit2!$D$10),Background2!$I$33:$I$37,Background2!$K$33:$K$37)+LOOKUP(Kalk_Kredit2!$D$8,Background2!$I$48:$I$53,Background2!$K$48:$K$53))&lt;Background2!$K$61,Background2!$K$61,Background2!$I$4+LOOKUP(Kalk_Kredit2!$D$7,Background2!$I$5:$I$26,Background2!$K$5:$K$26)+LOOKUP(Kalk_Kredit2!$D$10,Background2!$I$38:$I$45,Background2!$K$38:$K$45)+LOOKUP((Kalk_Kredit2!$D$11/Kalk_Kredit2!$D$10),Background2!$I$27:$I$32,Background2!$K$27:$K$32)+LOOKUP((Kalk_Kredit2!$D$12/Kalk_Kredit2!$D$10),Background2!$I$33:$I$37,Background2!$K$33:$K$37)+LOOKUP(Kalk_Kredit2!$D$8,Background2!$I$48:$I$53,Background2!$K$48:$K$53)))/100</f>
+        <f>IF((Background2!$I$4+LOOKUP(Kalk_Kredit2!$D$7,Background2!$I$5:$I$26,Background2!$K$5:$K$26)+LOOKUP(Kalk_Kredit2!$D$10,Background2!$I$38:$I$45,Background2!$K$38:$K$45)+LOOKUP((SUM(Kalk_Kredit2!$D$11,Kalk_Kredit2!$D$12)/Kalk_Kredit2!$D$10),Background2!$I$27:$I$32,Background2!$K$27:$K$32)+LOOKUP((Kalk_Kredit2!$D$12/Kalk_Kredit2!$D$10),Background2!$I$33:$I$37,Background2!$K$33:$K$37)+LOOKUP(Kalk_Kredit2!$D$8,Background2!$I$48:$I$53,Background2!$K$48:$K$53))&gt;Background2!$K$60,Background2!$K$60,IF((Background2!$I$4+LOOKUP(Kalk_Kredit2!$D$7,Background2!$I$5:$I$26,Background2!$K$5:$K$26)+LOOKUP(Kalk_Kredit2!$D$10,Background2!$I$38:$I$45,Background2!$K$38:$K$45)+LOOKUP((SUM(Kalk_Kredit2!$D$11,Kalk_Kredit2!$D$12)/Kalk_Kredit2!$D$10),Background2!$I$27:$I$32,Background2!$K$27:$K$32)+LOOKUP((Kalk_Kredit2!$D$12/Kalk_Kredit2!$D$10),Background2!$I$33:$I$37,Background2!$K$33:$K$37)+LOOKUP(Kalk_Kredit2!$D$8,Background2!$I$48:$I$53,Background2!$K$48:$K$53))&lt;Background2!$K$61,Background2!$K$61,Background2!$I$4+LOOKUP(Kalk_Kredit2!$D$7,Background2!$I$5:$I$26,Background2!$K$5:$K$26)+LOOKUP(Kalk_Kredit2!$D$10,Background2!$I$38:$I$45,Background2!$K$38:$K$45)+LOOKUP((SUM(Kalk_Kredit2!$D$11,Kalk_Kredit2!$D$12)/Kalk_Kredit2!$D$10),Background2!$I$27:$I$32,Background2!$K$27:$K$32)+LOOKUP((Kalk_Kredit2!$D$12/Kalk_Kredit2!$D$10),Background2!$I$33:$I$37,Background2!$K$33:$K$37)+LOOKUP(Kalk_Kredit2!$D$8,Background2!$I$48:$I$53,Background2!$K$48:$K$53)))/100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q6" s="75"/>
       <c r="U6" s="112" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V6" s="29"/>
       <c r="W6" s="113">
@@ -22910,7 +22975,7 @@
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="13">
-        <v>-0.9</v>
+        <v>-1.2</v>
       </c>
       <c r="L7" s="120">
         <v>11</v>
@@ -22923,10 +22988,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q7" s="75" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="U7" s="112" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V7" s="29"/>
       <c r="W7" s="115" t="e">
@@ -22995,14 +23060,14 @@
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="13">
-        <v>-0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="L8" s="120">
         <v>16</v>
       </c>
       <c r="Q8" s="76"/>
       <c r="U8" s="112" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V8" s="29"/>
       <c r="W8" s="113">
@@ -23071,7 +23136,7 @@
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="13">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="L9" s="120">
         <v>21</v>
@@ -23147,14 +23212,14 @@
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="13">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="L10" s="120">
         <v>31</v>
       </c>
       <c r="Q10" s="76"/>
       <c r="U10" s="112" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V10" s="29"/>
       <c r="W10" s="130" t="e">
@@ -23227,7 +23292,7 @@
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="13">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="120">
         <v>41</v>
@@ -23236,7 +23301,7 @@
         <v>22</v>
       </c>
       <c r="O11" s="202" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="P11" s="203" t="e">
         <f ca="1">LOOKUP(Wertbeitrag(Kalk_Kredit2!D10,Kalk_Kredit2!D9,Kalk_Kredit2!D8,(((((Kalk_Kredit2!D20+1)^(1/12))-1)*12)),Kalk_Kredit2!D14/10000,Kalk_Kredit2!D7,PMT((((Kalk_Kredit2!D20+1)^(1/12)-1)),Kalk_Kredit2!D8,-Kalk_Kredit2!D10),IF(Kalk_Kredit2!D9-Kalk_Kredit2!D8&gt;3,1,0),Kalk_Kredit2!D13)/Kalk_Kredit2!D10,Background2!I65:I70,Background2!K65:K70)/100</f>
@@ -23258,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Y11" s="132" t="e">
         <f>PMT((((Kalk_Kredit2!D20+1)^(1/12)-1)),Kalk_Kredit2!D8,-Kalk_Kredit2!D10)</f>
@@ -23327,14 +23392,14 @@
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L12" s="120">
         <v>51</v>
       </c>
       <c r="N12" s="278"/>
       <c r="O12" s="207" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P12" s="208" t="str">
         <f>IF(ISNUMBER(P17),IF(Kalk_Kredit2!$D$8&gt;84,Background2!P14,Background2!P13),"")</f>
@@ -23414,14 +23479,14 @@
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="L13" s="120">
         <v>61</v>
       </c>
       <c r="N13" s="278"/>
       <c r="O13" s="29" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P13" s="210" t="e">
         <f>LOOKUP($P$17,Background2!I65:I70,Background2!K65:K70)/100</f>
@@ -23493,14 +23558,14 @@
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="13">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="L14" s="120">
         <v>71</v>
       </c>
       <c r="N14" s="279"/>
       <c r="O14" s="196" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P14" s="206" t="e">
         <f>LOOKUP($P$17,Background2!N65:N70,Background2!O65:O70)/100</f>
@@ -23514,14 +23579,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V14" s="79" t="e">
         <f>W7-W8/10000</f>
         <v>#DIV/0!</v>
       </c>
       <c r="W14" s="118" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AA14" s="1">
         <v>9</v>
@@ -23583,27 +23648,27 @@
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="13">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="L15" s="120">
         <v>81</v>
       </c>
       <c r="N15" s="200" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O15" s="201" t="e">
         <f ca="1">Wertbeitrag(Kalk_Kredit2!D10,Kalk_Kredit2!D9,Kalk_Kredit2!D8,(((((Kalk_Kredit2!D20+1)^(1/12))-1)*12)),Kalk_Kredit2!D14/10000,Kalk_Kredit2!D7,PMT((((Kalk_Kredit2!D20+1)^(1/12)-1)),Kalk_Kredit2!D8,-Kalk_Kredit2!D10),IF(Kalk_Kredit2!D9-Kalk_Kredit2!D8&gt;3,1,0),Kalk_Kredit2!D13)</f>
         <v>#NAME?</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="V15" s="119">
         <f>W4</f>
         <v>0</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AA15" s="1">
         <v>10</v>
@@ -23664,20 +23729,20 @@
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="13">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="L16" s="120">
         <v>91</v>
       </c>
       <c r="N16" s="105" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O16" s="106" t="e">
         <f ca="1">O15/Kalk_Kredit2!D10</f>
         <v>#NAME?</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="V16" s="119">
         <f>W5-W6</f>
@@ -23742,13 +23807,13 @@
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="13">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L17" s="120">
         <v>101</v>
       </c>
       <c r="N17" s="143" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O17" s="144" t="e">
         <f>IF(W11=1,AY27,AF27)</f>
@@ -23760,7 +23825,7 @@
       </c>
       <c r="Q17" s="79"/>
       <c r="U17" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V17" s="1">
         <f>V16*2+1</f>
@@ -23825,7 +23890,7 @@
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="13">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="L18" s="120">
         <v>126</v>
@@ -23835,14 +23900,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V18" s="133">
         <f>IF(W5-W6-W6/12&lt;0,1,W5-W6-W6/12)</f>
         <v>0</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AA18" s="1">
         <v>13</v>
@@ -23903,7 +23968,7 @@
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="13">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L19" s="120">
         <v>151</v>
@@ -23975,13 +24040,13 @@
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="15">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L20" s="120">
         <v>176</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V20" s="1">
         <f>W6+V18+W6/12</f>
@@ -24001,7 +24066,7 @@
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="15">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L21" s="120">
         <v>201</v>
@@ -24010,14 +24075,14 @@
       <c r="O21" s="144"/>
       <c r="P21" s="148"/>
       <c r="U21" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V21" s="1">
         <f>W6+V16</f>
         <v>0</v>
       </c>
       <c r="AA21" s="274" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AB21" s="274"/>
       <c r="AC21" s="1">
@@ -24025,7 +24090,7 @@
         <v>0</v>
       </c>
       <c r="AH21" s="274" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AI21" s="274"/>
       <c r="AJ21" s="1">
@@ -24034,7 +24099,7 @@
       </c>
       <c r="AO21" s="76"/>
       <c r="AR21" s="274" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AS21" s="274"/>
       <c r="AT21" s="1">
@@ -24056,13 +24121,13 @@
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="15">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L22" s="120">
         <v>251</v>
       </c>
       <c r="U22" s="134" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="V22" s="135">
         <f>IF(W5-W6&lt;5,W6-W6/12/2+2,IF(W5-W6&lt;8,W6-W6/12/2+1,(W6-W6/12/2)))</f>
@@ -24099,13 +24164,13 @@
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="15">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="L23" s="120">
         <v>301</v>
       </c>
       <c r="U23" s="136" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="V23" s="137" t="e">
         <f>AJ22+AP29</f>
@@ -24126,13 +24191,13 @@
         <v>350.01</v>
       </c>
       <c r="K24" s="15">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L24" s="120">
         <v>351</v>
       </c>
       <c r="U24" s="136" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="V24" s="138" t="e">
         <f>V23-W5</f>
@@ -24145,20 +24210,20 @@
         <v>400.01</v>
       </c>
       <c r="K25" s="15">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L25" s="120">
         <v>401</v>
       </c>
       <c r="U25" s="139" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="V25" s="140" t="e">
         <f>AZ29+AT22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AA25" s="275" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AB25" s="275"/>
       <c r="AC25" s="275"/>
@@ -24166,7 +24231,7 @@
       <c r="AE25" s="275"/>
       <c r="AF25" s="275"/>
       <c r="AH25" s="276" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AI25" s="276"/>
       <c r="AJ25" s="276"/>
@@ -24176,7 +24241,7 @@
       <c r="AN25" s="276"/>
       <c r="AO25" s="276"/>
       <c r="AR25" s="276" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AS25" s="276"/>
       <c r="AT25" s="276"/>
@@ -24196,23 +24261,23 @@
       </c>
       <c r="L26" s="120"/>
       <c r="U26" s="141" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="V26" s="142" t="e">
         <f>V25-W5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AA26" s="239" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB26" s="239" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC26" s="239" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD26" s="239" t="s">
         <v>131</v>
-      </c>
-      <c r="AB26" s="239" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC26" s="239" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD26" s="239" t="s">
-        <v>133</v>
       </c>
       <c r="AE26" s="239" t="s">
         <v>23</v>
@@ -24272,21 +24337,21 @@
         <v>0.1</v>
       </c>
       <c r="AA28" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF28" s="120" t="e">
         <f>SUM(AF30:AF150)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ28" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AO28" s="120" t="e">
         <f>SUM(AO30:AO163)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AT28" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AY28" s="120" t="e">
         <f>SUM(AY30:AY163)</f>
@@ -24545,7 +24610,7 @@
         <v>1.4</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AA32" s="1">
         <f t="shared" ref="AA32:AA95" si="17">1+AA31</f>
@@ -27559,7 +27624,7 @@
       </c>
       <c r="J60" s="18"/>
       <c r="K60" s="14">
-        <v>11.99</v>
+        <v>12.99</v>
       </c>
       <c r="AA60" s="1">
         <f t="shared" si="17"/>
@@ -27665,7 +27730,7 @@
       </c>
       <c r="J61" s="21"/>
       <c r="K61" s="16">
-        <v>3.99</v>
+        <v>4.49</v>
       </c>
       <c r="AA61" s="1">
         <f t="shared" si="17"/>
@@ -27867,14 +27932,14 @@
     </row>
     <row r="63" spans="8:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H63" s="24" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I63" s="24"/>
       <c r="J63" s="24"/>
       <c r="K63" s="24"/>
       <c r="L63" s="24"/>
       <c r="N63" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AA63" s="1">
         <f t="shared" si="17"/>
@@ -37680,7 +37745,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="71" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B2" s="70"/>
     </row>
@@ -37697,7 +37762,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I5" s="249" t="str">
         <f>+'Bewertung Aufstockung'!F27</f>
@@ -37706,7 +37771,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="250" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I6" s="120" t="e">
         <f>+ROUNDUP(I5,1)</f>
@@ -37715,7 +37780,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="250" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="I7" s="251" t="e">
         <f>+IF(I6=0.8,I17,VLOOKUP(I6,G10:I18,3,1))</f>
@@ -37735,13 +37800,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G10" s="120">
         <v>0.1</v>
       </c>
       <c r="H10" s="243" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="I10" s="251">
         <f>+Kalkulationstool!$D$11/(1-Aufstockungsquoten!G10)-Kalkulationstool!$D$11</f>
@@ -37750,13 +37815,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="250" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G11" s="120">
         <v>0.2</v>
       </c>
       <c r="H11" s="243" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="I11" s="251">
         <f>+Kalkulationstool!$D$11/(1-Aufstockungsquoten!G11)-Kalkulationstool!$D$11</f>
@@ -37765,13 +37830,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="250" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G12" s="120">
         <v>0.3</v>
       </c>
       <c r="H12" s="243" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="I12" s="251">
         <f>+Kalkulationstool!$D$11/(1-Aufstockungsquoten!G12)-Kalkulationstool!$D$11</f>
@@ -37783,7 +37848,7 @@
         <v>0.4</v>
       </c>
       <c r="H13" s="243" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="I13" s="251">
         <f>+Kalkulationstool!$D$11/(1-Aufstockungsquoten!G13)-Kalkulationstool!$D$11</f>
@@ -37795,7 +37860,7 @@
         <v>0.5</v>
       </c>
       <c r="H14" s="243" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="I14" s="251">
         <f>+Kalkulationstool!$D$11/(1-Aufstockungsquoten!G14)-Kalkulationstool!$D$11</f>
@@ -37807,7 +37872,7 @@
         <v>0.6</v>
       </c>
       <c r="H15" s="243" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="I15" s="251">
         <f>+Kalkulationstool!$D$11/(1-Aufstockungsquoten!G15)-Kalkulationstool!$D$11</f>
@@ -37819,7 +37884,7 @@
         <v>0.7</v>
       </c>
       <c r="H16" s="243" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="I16" s="251">
         <f>+Kalkulationstool!$D$11/(1-Aufstockungsquoten!G16)-Kalkulationstool!$D$11</f>
@@ -37831,7 +37896,7 @@
         <v>0.8</v>
       </c>
       <c r="H17" s="243" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="I17" s="251">
         <f>+Kalkulationstool!$D$11/(1-Aufstockungsquoten!G17)-Kalkulationstool!$D$11</f>
@@ -37843,7 +37908,7 @@
         <v>0.9</v>
       </c>
       <c r="H18" s="243" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="I18" s="251">
         <f>+Kalkulationstool!$D$11/(1-Aufstockungsquoten!G18)-Kalkulationstool!$D$11</f>
@@ -37863,7 +37928,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="I21" s="120" t="e">
         <f>+ROUNDDOWN(I5,1)</f>
@@ -37888,16 +37953,16 @@
     <tabColor theme="4" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
     <col min="3" max="3" width="4.140625" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="5.140625" style="1" customWidth="1"/>
@@ -37924,7 +37989,7 @@
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" s="70"/>
       <c r="D2" s="70"/>
@@ -37933,7 +37998,7 @@
       <c r="G2" s="67"/>
       <c r="Q2" s="241"/>
       <c r="R2" s="242" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="5.0999999999999996" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -37947,7 +38012,7 @@
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="77" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F4" s="67"/>
       <c r="G4" s="67"/>
@@ -37988,7 +38053,7 @@
       </c>
       <c r="G6" s="191"/>
       <c r="H6" s="192" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I6" s="82"/>
       <c r="J6" s="82"/>
@@ -38013,7 +38078,7 @@
       </c>
       <c r="G7" s="92"/>
       <c r="H7" s="93" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I7" s="82"/>
       <c r="J7" s="82"/>
@@ -38088,7 +38153,7 @@
       </c>
       <c r="G10" s="93"/>
       <c r="H10" s="93" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I10" s="82"/>
       <c r="J10" s="82"/>
@@ -38103,7 +38168,7 @@
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="82" t="s">
-        <v>63</v>
+        <v>238</v>
       </c>
       <c r="C11" s="82"/>
       <c r="D11" s="216"/>
@@ -38113,7 +38178,7 @@
       </c>
       <c r="G11" s="93"/>
       <c r="H11" s="93" t="s">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="I11" s="82"/>
       <c r="J11" s="82"/>
@@ -38126,9 +38191,9 @@
       <c r="Q11" s="82"/>
       <c r="R11" s="82"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="82" t="s">
-        <v>64</v>
+        <v>241</v>
       </c>
       <c r="C12" s="82"/>
       <c r="D12" s="216"/>
@@ -38138,7 +38203,7 @@
       </c>
       <c r="G12" s="93"/>
       <c r="H12" s="93" t="s">
-        <v>78</v>
+        <v>242</v>
       </c>
       <c r="I12" s="82"/>
       <c r="J12" s="82"/>
@@ -38153,17 +38218,17 @@
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="82" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="C13" s="82"/>
-      <c r="D13" s="215" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="85"/>
-      <c r="F13" s="92"/>
+      <c r="D13" s="216"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="94">
+        <v>5000</v>
+      </c>
       <c r="G13" s="93"/>
       <c r="H13" s="93" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="I13" s="82"/>
       <c r="J13" s="82"/>
@@ -38176,19 +38241,19 @@
       <c r="Q13" s="82"/>
       <c r="R13" s="82"/>
     </row>
-    <row r="14" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="82" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C14" s="82"/>
-      <c r="D14" s="217"/>
+      <c r="D14" s="215" t="s">
+        <v>1</v>
+      </c>
       <c r="E14" s="85"/>
-      <c r="F14" s="92">
-        <v>10</v>
-      </c>
+      <c r="F14" s="92"/>
       <c r="G14" s="93"/>
       <c r="H14" s="93" t="s">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="I14" s="82"/>
       <c r="J14" s="82"/>
@@ -38201,61 +38266,60 @@
       <c r="Q14" s="82"/>
       <c r="R14" s="82"/>
     </row>
-    <row r="15" spans="2:18" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="74"/>
-    </row>
-    <row r="16" spans="2:18" ht="11.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="82"/>
+      <c r="D15" s="217"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="92">
+        <v>10</v>
+      </c>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93" t="s">
+        <v>173</v>
+      </c>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="82"/>
+    </row>
+    <row r="16" spans="2:18" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B16"/>
+      <c r="C16"/>
       <c r="D16" s="80"/>
       <c r="E16" s="45"/>
       <c r="F16" s="74"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:18" ht="11.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="80"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="74"/>
+    </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="81" t="s">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="82"/>
-      <c r="D19" s="122">
+      <c r="C20" s="82"/>
+      <c r="D20" s="122">
         <f ca="1">NOW()</f>
-        <v>45125.744189004632</v>
-      </c>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82" t="s">
-        <v>150</v>
-      </c>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="82"/>
-      <c r="Q19" s="82"/>
-      <c r="R19" s="82"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="82" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="82"/>
-      <c r="D20" s="184" t="str">
-        <f>IF(AND(ISNUMBER(D7),ISNUMBER(D8),ISNUMBER(D9),ISNUMBER(D10)),IF(D7&gt;780,"",Background!P6),"")</f>
-        <v/>
-      </c>
-      <c r="E20" s="87"/>
-      <c r="F20" s="100"/>
+        <v>45182.664424074072</v>
+      </c>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82" t="s">
+        <v>148</v>
+      </c>
       <c r="G20" s="82"/>
-      <c r="H20" s="93" t="s">
-        <v>216</v>
-      </c>
+      <c r="H20" s="82"/>
       <c r="I20" s="82"/>
       <c r="J20" s="82"/>
       <c r="K20" s="82"/>
@@ -38269,17 +38333,19 @@
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="82" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C21" s="82"/>
-      <c r="D21" s="185" t="str">
-        <f>IF(D20="","",ROUND(NOMINAL(Kalkulationstool!D20,12),4))</f>
+      <c r="D21" s="184" t="str">
+        <f>IF(AND(ISNUMBER(D7),ISNUMBER(D8),ISNUMBER(D9),ISNUMBER(D10)),IF(D7&gt;780,"",Background!P6),"")</f>
         <v/>
       </c>
       <c r="E21" s="87"/>
-      <c r="F21" s="82"/>
+      <c r="F21" s="100"/>
       <c r="G21" s="82"/>
-      <c r="H21" s="93"/>
+      <c r="H21" s="93" t="s">
+        <v>212</v>
+      </c>
       <c r="I21" s="82"/>
       <c r="J21" s="82"/>
       <c r="K21" s="82"/>
@@ -38292,18 +38358,23 @@
       <c r="R21" s="82"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="82"/>
+      <c r="B22" s="82" t="s">
+        <v>79</v>
+      </c>
       <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
+      <c r="D22" s="185" t="str">
+        <f>IF(D21="","",ROUND(NOMINAL(Kalkulationstool!D21,12),4))</f>
+        <v/>
+      </c>
+      <c r="E22" s="87"/>
       <c r="F22" s="82"/>
       <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
+      <c r="H22" s="93"/>
       <c r="I22" s="82"/>
       <c r="J22" s="82"/>
       <c r="K22" s="82"/>
       <c r="L22" s="82"/>
-      <c r="M22" s="88"/>
+      <c r="M22" s="82"/>
       <c r="N22" s="82"/>
       <c r="O22" s="82"/>
       <c r="P22" s="82"/>
@@ -38313,20 +38384,16 @@
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="82"/>
       <c r="C23" s="82"/>
-      <c r="D23" s="259" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="260"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
       <c r="F23" s="82"/>
       <c r="G23" s="82"/>
-      <c r="H23" s="180" t="s">
-        <v>22</v>
-      </c>
+      <c r="H23" s="82"/>
       <c r="I23" s="82"/>
       <c r="J23" s="82"/>
       <c r="K23" s="82"/>
       <c r="L23" s="82"/>
-      <c r="M23" s="82"/>
+      <c r="M23" s="88"/>
       <c r="N23" s="82"/>
       <c r="O23" s="82"/>
       <c r="P23" s="82"/>
@@ -38336,14 +38403,14 @@
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="82"/>
       <c r="C24" s="82"/>
-      <c r="D24" s="261" t="s">
-        <v>152</v>
-      </c>
-      <c r="E24" s="262"/>
+      <c r="D24" s="259" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="260"/>
       <c r="F24" s="82"/>
       <c r="G24" s="82"/>
-      <c r="H24" s="181" t="s">
-        <v>153</v>
+      <c r="H24" s="180" t="s">
+        <v>22</v>
       </c>
       <c r="I24" s="82"/>
       <c r="J24" s="82"/>
@@ -38356,14 +38423,18 @@
       <c r="Q24" s="82"/>
       <c r="R24" s="82"/>
     </row>
-    <row r="25" spans="2:18" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="82"/>
       <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
+      <c r="D25" s="261" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="262"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
+      <c r="H25" s="181" t="s">
+        <v>151</v>
+      </c>
       <c r="I25" s="82"/>
       <c r="J25" s="82"/>
       <c r="K25" s="82"/>
@@ -38375,25 +38446,15 @@
       <c r="Q25" s="82"/>
       <c r="R25" s="82"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="82" t="s">
-        <v>66</v>
-      </c>
+    <row r="26" spans="2:18" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="82"/>
       <c r="C26" s="82"/>
-      <c r="D26" s="263" t="str">
-        <f>IF(ISNUMBER(D20),Background!P12,"")</f>
-        <v/>
-      </c>
-      <c r="E26" s="264"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
       <c r="F26" s="82"/>
       <c r="G26" s="82"/>
-      <c r="H26" s="186" t="str">
-        <f>IF(ISNUMBER(D20),Background!T12,"")</f>
-        <v/>
-      </c>
-      <c r="I26" s="91" t="s">
-        <v>217</v>
-      </c>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
       <c r="J26" s="82"/>
       <c r="K26" s="82"/>
       <c r="L26" s="82"/>
@@ -38404,37 +38465,66 @@
       <c r="Q26" s="82"/>
       <c r="R26" s="82"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="82"/>
+      <c r="D27" s="263" t="str">
+        <f>IF(ISNUMBER(D21),Background!P12,"")</f>
+        <v/>
+      </c>
+      <c r="E27" s="264"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="186" t="str">
+        <f>IF(ISNUMBER(D21),Background!T12,"")</f>
+        <v/>
+      </c>
+      <c r="I27" s="91" t="s">
+        <v>249</v>
+      </c>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="82"/>
+      <c r="O27" s="82"/>
+      <c r="P27" s="82"/>
+      <c r="Q27" s="82"/>
+      <c r="R27" s="82"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9rs3Twp0Qxo3xLQVeq9B1Ee4TriI/Lz221yMRenO+HaFOBCrrrZmR1y2j65y4GKiZssdTSNZWyJSU1/dCPtOdA==" saltValue="vH8OjAUfBNQdxWqkIXJt6w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="i3wrhqIQva1x5gnzViW3v92VJZa+gT0jX2Z85mEAjSI4hb9HrpT+X8GOovj+sc8pFvLxcuH7rO0RifGMTFJ3mg==" saltValue="HS1bT1xgAAy1cLSDiO8VCQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="D8" name="Range6"/>
-    <protectedRange sqref="D19" name="Range5"/>
-    <protectedRange sqref="D7 D9:D14" name="Range1"/>
-    <protectedRange sqref="D20:D21" name="Range2"/>
-    <protectedRange sqref="D26" name="Range3"/>
-    <protectedRange sqref="H26" name="Range4"/>
-    <protectedRange sqref="I26" name="Range7"/>
+    <protectedRange sqref="D20" name="Range5"/>
+    <protectedRange sqref="D7 D9:D15" name="Range1"/>
+    <protectedRange sqref="D21:D22" name="Range2"/>
+    <protectedRange sqref="D27" name="Range3"/>
+    <protectedRange sqref="H27" name="Range4"/>
+    <protectedRange sqref="I27" name="Range7"/>
   </protectedRanges>
   <mergeCells count="3">
-    <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D27:E27"/>
   </mergeCells>
-  <dataValidations count="11">
+  <dataValidations count="12">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>1</formula1>
       <formula2>84</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E11" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E12" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>0</formula1>
       <formula2>75000</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>0</formula1>
       <formula2>75000</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Bitte überprüfen Sie die Eingabe" error="Bitte geben Sie den internen Verrechnungssatz in Basispunkten ein d.h. für 0,10 dann 10 Basispunkte!" sqref="D14" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Bitte überprüfen Sie die Eingabe" error="Bitte geben Sie den internen Verrechnungssatz in Basispunkten ein d.h. für 0,10 dann 10 Basispunkte!" sqref="D15" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>0</formula1>
       <formula2>999</formula2>
     </dataValidation>
@@ -38442,20 +38532,20 @@
       <formula1>D8</formula1>
       <formula2>D8+10+4</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15" xr:uid="{00000000-0002-0000-0100-000005000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16" xr:uid="{00000000-0002-0000-0100-000005000000}">
       <formula1>0</formula1>
       <formula2>199</formula2>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Bitte überprüfen Sie die Eingabe" error="Die maximal zulässige Anzahl an Raten oder der maximal zulässige EL wurden überschritten." sqref="D8" xr:uid="{00000000-0002-0000-0100-000006000000}">
       <formula1>IF($D$7&lt;=780,AND($D$8&lt;=120,$D$8&gt;=1),AND($D$8&lt;=120,$D$8&gt;=1,$D$7&lt;=780))</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Bitte überprüfen Sie die Eingabe" error="Der Fremdablöse-Betrag darf nicht größer sein als der Gesamtkreditbetrag abzüglich der Eigenablöse (wenn relevant)!" sqref="D12" xr:uid="{00000000-0002-0000-0100-000007000000}">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" errorTitle="Bitte überprüfen Sie die Eingabe" error="Der Fremdablöse-Betrag darf nicht größer als der Gesamtkreditbetrag abzüglich des Eigenablöse-Betrags sein." sqref="D13" xr:uid="{00000000-0002-0000-0100-000007000000}">
       <formula1>0</formula1>
-      <formula2>D10-D11</formula2>
+      <formula2>D10-IF(ISNUMBER(D11),D11,0)-IF(ISNUMBER(D12),D12,0)</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Bitte überprüfen Sie die Eingabe" error="Der Eigenablöse-Betrag darf nicht größer sein als der Gesamtkreditbetrag!" sqref="D11" xr:uid="{00000000-0002-0000-0100-000008000000}">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" errorTitle="Bitte überprüfen Sie die Eingabe" error="Der Eigenablöse-Betrag darf nicht größer als der Gesamtkreditbetrag abzüglich des Fremdablöse-Betrags sein." sqref="D12" xr:uid="{00000000-0002-0000-0100-000008000000}">
       <formula1>0</formula1>
-      <formula2>D10</formula2>
+      <formula2>D10-IF(ISNUMBER(D11),D11,0)-IF(ISNUMBER(D13),D13,0)</formula2>
     </dataValidation>
     <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" errorTitle="Bitte überprüfen Sie die Eingabe" error="Der Maximalkreditbetrag beträgt 80.000€. Der Mindestkreditbetrag liegt bei 1.000€." sqref="D10" xr:uid="{00000000-0002-0000-0100-000009000000}">
       <formula1>1000</formula1>
@@ -38464,9 +38554,13 @@
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Bitte überprüfen Sie die Eingabe" error="Bitte geben Sie hier den Expected Loss ein.  _x000a_Sie können lediglich bis zu zwei Nachkommastellen eingeben." sqref="D7" xr:uid="{00000000-0002-0000-0100-00000A000000}">
       <formula1>AND(MOD(ROUND($D$7*100,2),1)=0,$D$7&lt;999,$D$7&gt;=0)</formula1>
     </dataValidation>
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" errorTitle="Bitte überprüfen Sie die Eingabe" error="Der Eigenablöse-Betrag darf nicht größer als der Gesamtkreditbetrag abzüglich des Fremdablöse-Betrags sein." sqref="D11" xr:uid="{9B701144-1442-4FB9-AF11-FB446215184E}">
+      <formula1>0</formula1>
+      <formula2>D10-IF(ISNUMBER(D12),D12,0)-IF(ISNUMBER(D13),D13,0)</formula2>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;10&amp;K000000</oddFooter>
   </headerFooter>
@@ -38480,13 +38574,13 @@
           <x14:formula1>
             <xm:f>Background!$D$2:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>E13:E14 D13</xm:sqref>
+          <xm:sqref>E14:E15 D14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
           <x14:formula1>
             <xm:f>Background!$E$3:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E15</xm:sqref>
+          <xm:sqref>E16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
           <x14:formula1>
@@ -38509,7 +38603,7 @@
     <tabColor theme="4" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:XFC23"/>
+  <dimension ref="B1:XFC24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -38522,7 +38616,7 @@
     <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="73" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="96.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16383" width="11.42578125" style="1" hidden="1"/>
     <col min="16384" max="16384" width="21.85546875" style="1" customWidth="1"/>
   </cols>
@@ -38535,13 +38629,13 @@
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="71" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C2" s="70"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="77" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C3" s="70"/>
     </row>
@@ -38553,28 +38647,28 @@
         <v>52</v>
       </c>
       <c r="D4" s="195" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E4" s="97"/>
       <c r="F4" s="98"/>
     </row>
     <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="100" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C5" s="177"/>
       <c r="D5" s="178" t="str">
-        <f>IF(Kalkulationstool!D20="","",Kalkulationstool!D20)</f>
+        <f>IF(Kalkulationstool!D21="","",Kalkulationstool!D21)</f>
         <v/>
       </c>
       <c r="E5" s="92"/>
       <c r="F5" s="93" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="150" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="164" t="str">
         <f>IF(C5&gt;0,ROUND(NOMINAL(C5,12),4),"")</f>
@@ -38583,7 +38677,7 @@
       <c r="D6" s="151"/>
       <c r="E6" s="152"/>
       <c r="F6" s="153" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -38595,7 +38689,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="81" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C8" s="84"/>
       <c r="D8" s="193" t="s">
@@ -38606,7 +38700,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="100" t="s">
-        <v>140</v>
+        <v>239</v>
       </c>
       <c r="C9" s="163">
         <f>IF(Kalkulationstool!D11&gt;=0,Kalkulationstool!D11,"")</f>
@@ -38615,12 +38709,12 @@
       <c r="D9" s="151"/>
       <c r="E9" s="93"/>
       <c r="F9" s="93" t="s">
-        <v>77</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="100" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C10" s="145"/>
       <c r="D10" s="146">
@@ -38628,12 +38722,12 @@
       </c>
       <c r="E10" s="92"/>
       <c r="F10" s="93" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="100" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C11" s="165"/>
       <c r="D11" s="92">
@@ -38641,7 +38735,7 @@
       </c>
       <c r="E11" s="92"/>
       <c r="F11" s="93" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -38653,7 +38747,7 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="155" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C13" s="189" t="str">
         <f>IF(ISNUMBER('Background Produktkalk I'!B15),'Background Produktkalk I'!B15,"")</f>
@@ -38665,7 +38759,7 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="155" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C14" s="190" t="str">
         <f>IF(ISNUMBER('Background WB vereinb'!B15),'Background WB vereinb'!B15,"")</f>
@@ -38695,7 +38789,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="160" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C17" s="154"/>
       <c r="D17" s="154"/>
@@ -38704,7 +38798,7 @@
     </row>
     <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D18" s="154"/>
       <c r="E18" s="154"/>
@@ -38712,7 +38806,7 @@
     </row>
     <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D19" s="154"/>
       <c r="E19" s="154"/>
@@ -38720,7 +38814,7 @@
     </row>
     <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C20" s="154"/>
       <c r="D20" s="154"/>
@@ -38729,28 +38823,33 @@
     </row>
     <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="147" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="147" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iQ8F1lbpNsOg7R743+tK/SXNDLUiJ7tsTt/nXQPjr96WOZYt8PB/8sH7SM9UiMX6Jnz1LcOrkpfLTzyyZTzoLg==" saltValue="CnVcheKYBg+mwd2obaKW5Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="y1kZ52IX4GuPoXU0pMfPkw+c4/XNhUJ6hhkVzHWJtiOTbolq6WF28uMb7PMph+uKNWERyBmBsx0U8a0c2HQwQQ==" saltValue="htLyQkySI7B5sMAfz52tvw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="C11" name="Range1"/>
   </protectedRanges>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="Bitte prüfen Sie die Eingaben!" error="Übernehmen Sie die Laufzeit aus KFPK. " sqref="C11" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>0</formula1>
       <formula2>120</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="77" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;10&amp;K000000</oddFooter>
   </headerFooter>
@@ -38796,7 +38895,7 @@
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="71" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B2" s="70"/>
       <c r="C2" s="244"/>
@@ -38808,7 +38907,7 @@
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B3" s="70"/>
       <c r="C3" s="244"/>
@@ -38834,14 +38933,14 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="100" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B5" s="227"/>
       <c r="C5" s="228">
         <v>840</v>
       </c>
       <c r="D5" s="93" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E5" s="228"/>
       <c r="F5" s="93"/>
@@ -38849,14 +38948,14 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="100" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B6" s="165"/>
       <c r="C6" s="229">
         <v>91</v>
       </c>
       <c r="D6" s="93" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E6" s="229"/>
       <c r="F6" s="92"/>
@@ -38864,14 +38963,14 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="100" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B7" s="226"/>
       <c r="C7" s="230">
         <v>1</v>
       </c>
       <c r="D7" s="93" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E7" s="230"/>
       <c r="F7" s="92"/>
@@ -38882,22 +38981,22 @@
     <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="81"/>
       <c r="B10" s="237" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C10" s="237"/>
       <c r="D10" s="237" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E10" s="237"/>
       <c r="F10" s="237" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G10" s="81"/>
       <c r="H10" s="247"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="155" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B11" s="234" t="str">
         <f>IFERROR(+Wert_Kredit2!Wertbeitrag_Zielkondition,"")</f>
@@ -38917,7 +39016,7 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="155" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B12" s="235">
         <f>IFERROR(Kalk_Kredit2!D10*B7*Kalk_RKV!B27,"")</f>
@@ -38934,7 +39033,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="93" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H12" s="244"/>
     </row>
@@ -38949,7 +39048,7 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="155" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B14" s="234" t="str">
         <f>IFERROR(+B12+B11,"")</f>
@@ -38966,13 +39065,13 @@
         <v/>
       </c>
       <c r="G14" s="93" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H14" s="244"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="245" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B15" s="236" t="str">
         <f>IFERROR(+B14-D14,"")</f>
@@ -38998,21 +39097,21 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="81"/>
       <c r="B18" s="237" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C18" s="237"/>
       <c r="D18" s="237" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E18" s="237"/>
       <c r="F18" s="237" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G18" s="81"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="155" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B19" s="234" t="str">
         <f>IFERROR(+Wert_Kredit2!Wertbeitrag_vereinbarter_Effektivzins,"")</f>
@@ -39032,7 +39131,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="155" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B20" s="235">
         <f>+B12</f>
@@ -39049,7 +39148,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="93" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -39063,7 +39162,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="155" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B22" s="234" t="str">
         <f>IFERROR(+B20+B19,"")</f>
@@ -39080,12 +39179,12 @@
         <v/>
       </c>
       <c r="G22" s="93" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="245" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B23" s="236" t="str">
         <f>IFERROR(+B22-D22,"")</f>
@@ -39124,48 +39223,48 @@
       <c r="D26" s="237"/>
       <c r="E26" s="237"/>
       <c r="F26" s="237" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G26" s="81"/>
       <c r="H26" s="247"/>
     </row>
     <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="82" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B27" s="82"/>
       <c r="C27" s="82"/>
       <c r="D27" s="82"/>
       <c r="E27" s="82"/>
       <c r="F27" s="249" t="str">
-        <f>+IFERROR((Gesamtkreditbetrag-Eigenablösebetrag)/Gesamtkreditbetrag,"")</f>
+        <f>+IFERROR((Gesamtkreditbetrag-Eigenablösebetrag_DB)/Gesamtkreditbetrag,"")</f>
         <v/>
       </c>
       <c r="G27" s="93" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H27" s="244"/>
     </row>
     <row r="28" spans="1:8" s="255" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="252" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B28" s="253"/>
       <c r="C28" s="253"/>
       <c r="D28" s="253"/>
       <c r="E28" s="253"/>
       <c r="F28" s="254" t="str">
-        <f>+IFERROR(Gesamtkreditbetrag-Eigenablösebetrag-Gesamtkreditbetrag*Aufstockungsquoten!I21,"")</f>
+        <f>+IFERROR(Gesamtkreditbetrag-Eigenablösebetrag_DB-Gesamtkreditbetrag*Aufstockungsquoten!I21,"")</f>
         <v/>
       </c>
       <c r="G28" s="93" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H28" s="258"/>
     </row>
     <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="81" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B29" s="82"/>
       <c r="C29" s="82"/>
@@ -39176,30 +39275,30 @@
         <v/>
       </c>
       <c r="G29" s="93" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H29" s="244"/>
     </row>
     <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="82" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B30" s="82"/>
       <c r="C30" s="82"/>
       <c r="D30" s="82"/>
       <c r="E30" s="82"/>
       <c r="F30" s="256" t="str">
-        <f>+IFERROR(F29-(Gesamtkreditbetrag-Eigenablösebetrag),"")</f>
+        <f>+IFERROR(F29-(Gesamtkreditbetrag-Eigenablösebetrag_DB),"")</f>
         <v/>
       </c>
       <c r="G30" s="93" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H30" s="244"/>
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="81" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B31" s="82"/>
       <c r="C31" s="82"/>
@@ -39210,7 +39309,7 @@
         <v/>
       </c>
       <c r="G31" s="93" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H31" s="244"/>
     </row>
@@ -39226,7 +39325,7 @@
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="257" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B33" s="244"/>
       <c r="C33" s="244"/>
@@ -39237,7 +39336,7 @@
       <c r="H33" s="244"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NFNn4i7e0qDMdWtxAgxNCKBwwDZ0Q2ruDX7higTQ+4BTJnY2/+NmQtWqlLOpaZVxI97Cg4QZNT8AsVySs4HBEA==" saltValue="q106HgGSgPCg3mUsdcamIQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xfC1XPYMkNsXiPH/kD7hUMGlXOzUrly4+yxSA/xDcYGBqoif/7iPd6oTFr1FE7vyO1FC0i+oxL9eAAIItzGe/g==" saltValue="2OtiQXumJq65KLjuk13wlg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="B5:B7" name="Bereich1"/>
   </protectedRanges>
@@ -39322,7 +39421,7 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F3" s="265" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G3" s="265"/>
       <c r="H3" s="265"/>
@@ -39338,7 +39437,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="U3" s="265" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="V3" s="265"/>
       <c r="W3" s="265"/>
@@ -39350,29 +39449,29 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="266" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B4" s="266"/>
       <c r="C4" s="266"/>
       <c r="D4" s="266"/>
       <c r="E4" s="168"/>
       <c r="F4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>23</v>
@@ -39381,40 +39480,40 @@
         <v>23</v>
       </c>
       <c r="P4" s="266" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q4" s="266"/>
       <c r="R4" s="266"/>
       <c r="S4" s="266"/>
       <c r="T4" s="168"/>
       <c r="U4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="W4" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AA4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C5" s="119">
         <f>Kalkulationstool!D10</f>
@@ -39446,7 +39545,7 @@
       </c>
       <c r="O5" s="171"/>
       <c r="P5" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="119">
@@ -39525,7 +39624,7 @@
       </c>
       <c r="O6" s="176"/>
       <c r="P6" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1">
@@ -39567,7 +39666,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C7" s="79" t="str">
         <f>Wertbeitrag!C6</f>
@@ -39610,7 +39709,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="79">
@@ -39656,7 +39755,7 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C8" s="79" t="e">
         <f>EFFECT(C7,12)</f>
@@ -39763,7 +39862,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="132" t="e">
@@ -39805,7 +39904,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="132" t="e">
         <f>-PMT(C7/12,C6,C5)</f>
@@ -39877,10 +39976,10 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="132">
-        <f>Kalkulationstool!D14</f>
+        <f>Kalkulationstool!D15</f>
         <v>0</v>
       </c>
       <c r="F11" s="1">
@@ -39945,7 +40044,7 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C12" s="218" t="e">
         <f>C7-(C11/10000)</f>
@@ -40275,7 +40374,7 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B17" s="149" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>9</v>
@@ -40342,14 +40441,14 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B18" s="120">
-        <f>IF(Kalkulationstool!D13="MoVe",0.75,1)</f>
+        <f>IF(Kalkulationstool!D14="MoVe",0.75,1)</f>
         <v>1</v>
       </c>
       <c r="C18" s="120">
-        <f>IF(Kalkulationstool!D13="MoVe",0.75,1)</f>
+        <f>IF(Kalkulationstool!D14="MoVe",0.75,1)</f>
         <v>1</v>
       </c>
       <c r="F18" s="1">
@@ -40417,11 +40516,11 @@
         <v>5</v>
       </c>
       <c r="B19" s="1">
-        <f>IF(Kalkulationstool!D13="DVAG",3.5%*'Background WB vereinb'!C5,0)</f>
+        <f>IF(Kalkulationstool!D14="DVAG",3.5%*'Background WB vereinb'!C5,0)</f>
         <v>0</v>
       </c>
       <c r="C19" s="1">
-        <f>IF(Kalkulationstool!D13="DVAG",3.5%*'Background WB vereinb'!R5,0)</f>
+        <f>IF(Kalkulationstool!D14="DVAG",3.5%*'Background WB vereinb'!R5,0)</f>
         <v>0</v>
       </c>
       <c r="F19" s="1">
@@ -40489,11 +40588,11 @@
         <v>6</v>
       </c>
       <c r="B20" s="1">
-        <f>IF(Kalkulationstool!D13="Sonstige",3%*'Background WB vereinb'!C5,0)</f>
+        <f>IF(Kalkulationstool!D14="Sonstige",3%*'Background WB vereinb'!C5,0)</f>
         <v>0</v>
       </c>
       <c r="C20" s="1">
-        <f>IF(Kalkulationstool!D13="Sonstige",3%*'Background WB vereinb'!R5,0)</f>
+        <f>IF(Kalkulationstool!D14="Sonstige",3%*'Background WB vereinb'!R5,0)</f>
         <v>0</v>
       </c>
       <c r="F20" s="1">
@@ -47285,7 +47384,7 @@
   <sheetData>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F3" s="265" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G3" s="265"/>
       <c r="H3" s="265"/>
@@ -47297,7 +47396,7 @@
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
       <c r="U3" s="265" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="V3" s="265"/>
       <c r="W3" s="265"/>
@@ -47309,29 +47408,29 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="266" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B4" s="266"/>
       <c r="C4" s="266"/>
       <c r="D4" s="266"/>
       <c r="E4" s="168"/>
       <c r="F4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>23</v>
@@ -47340,40 +47439,40 @@
         <v>23</v>
       </c>
       <c r="P4" s="266" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q4" s="266"/>
       <c r="R4" s="266"/>
       <c r="S4" s="266"/>
       <c r="T4" s="168"/>
       <c r="U4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="W4" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AA4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C5" s="119">
         <f>Kalkulationstool!D10</f>
@@ -47406,7 +47505,7 @@
       <c r="N5" s="171"/>
       <c r="O5" s="171"/>
       <c r="P5" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="R5" s="119">
         <f>Wertbeitrag!C9</f>
@@ -47477,7 +47576,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R6" s="1">
         <f>Wertbeitrag!C11</f>
@@ -47517,7 +47616,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C7" s="79" t="e">
         <f>Background!P7</f>
@@ -47561,7 +47660,7 @@
       </c>
       <c r="O7" s="176"/>
       <c r="P7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R7" s="79">
         <f>Wertbeitrag!C10</f>
@@ -47606,7 +47705,7 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C8" s="79" t="e">
         <f>EFFECT(C7,12)</f>
@@ -47710,7 +47809,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R9" s="132" t="e">
         <f>-PMT(R7/12,R6,R5)</f>
@@ -47750,7 +47849,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="132" t="e">
         <f>-PMT(C7/12,C6,C5)</f>
@@ -47817,10 +47916,10 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="132">
-        <f>Kalkulationstool!D14</f>
+        <f>Kalkulationstool!D15</f>
         <v>0</v>
       </c>
       <c r="F11" s="1">
@@ -47880,7 +47979,7 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C12" s="218" t="e">
         <f>C7-(C11/10000)</f>
@@ -48185,7 +48284,7 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B17" s="149" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>9</v>
@@ -48247,14 +48346,14 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B18" s="120">
-        <f>IF(Kalkulationstool!D13="MoVe",0.75,1)</f>
+        <f>IF(Kalkulationstool!D14="MoVe",0.75,1)</f>
         <v>1</v>
       </c>
       <c r="C18" s="120">
-        <f>IF(Kalkulationstool!D13="MoVe",0.75,1)</f>
+        <f>IF(Kalkulationstool!D14="MoVe",0.75,1)</f>
         <v>1</v>
       </c>
       <c r="F18" s="1">
@@ -48317,11 +48416,11 @@
         <v>5</v>
       </c>
       <c r="B19" s="1">
-        <f>IF(Kalkulationstool!D13="DVAG",3.5%*'Background Produktkalk I'!C5,0)</f>
+        <f>IF(Kalkulationstool!D14="DVAG",3.5%*'Background Produktkalk I'!C5,0)</f>
         <v>0</v>
       </c>
       <c r="C19" s="1">
-        <f>IF(Kalkulationstool!D13="DVAG",3.5%*'Background Produktkalk I'!R5,0)</f>
+        <f>IF(Kalkulationstool!D14="DVAG",3.5%*'Background Produktkalk I'!R5,0)</f>
         <v>0</v>
       </c>
       <c r="F19" s="1">
@@ -48384,11 +48483,11 @@
         <v>6</v>
       </c>
       <c r="B20" s="1">
-        <f>IF(Kalkulationstool!D13="Sonstige",3%*'Background Produktkalk I'!C5,0)</f>
+        <f>IF(Kalkulationstool!D14="Sonstige",3%*'Background Produktkalk I'!C5,0)</f>
         <v>0</v>
       </c>
       <c r="C20" s="1">
-        <f>IF(Kalkulationstool!D13="Sonstige",3%*'Background Produktkalk I'!R5,0)</f>
+        <f>IF(Kalkulationstool!D14="Sonstige",3%*'Background Produktkalk I'!R5,0)</f>
         <v>0</v>
       </c>
       <c r="F20" s="1">
@@ -55131,8 +55230,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:AZ172"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55205,7 +55304,7 @@
       <c r="K2" s="25"/>
       <c r="L2" s="1"/>
       <c r="AA2" s="265" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB2" s="265"/>
       <c r="AC2" s="265"/>
@@ -55213,7 +55312,7 @@
       <c r="AE2" s="265"/>
       <c r="AF2" s="265"/>
       <c r="AH2" s="265" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AI2" s="265"/>
       <c r="AJ2" s="265"/>
@@ -55225,7 +55324,7 @@
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
       <c r="AR2" s="265" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AS2" s="265"/>
       <c r="AT2" s="265"/>
@@ -55261,19 +55360,19 @@
       </c>
       <c r="L3" s="23"/>
       <c r="U3" s="266" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V3" s="266"/>
       <c r="W3" s="266"/>
       <c r="AB3" s="273" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AC3" s="273"/>
       <c r="AD3" s="273"/>
       <c r="AE3" s="108"/>
       <c r="AF3" s="108"/>
       <c r="AI3" s="273" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AJ3" s="273"/>
       <c r="AK3" s="273"/>
@@ -55283,7 +55382,7 @@
       <c r="AQ3" s="1"/>
       <c r="AR3" s="1"/>
       <c r="AS3" s="273" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AT3" s="273"/>
       <c r="AU3" s="273"/>
@@ -55310,13 +55409,13 @@
         <v>8</v>
       </c>
       <c r="I4" s="22">
-        <v>9.69</v>
+        <v>10.19</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="8"/>
       <c r="L4" s="1"/>
       <c r="U4" s="109" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V4" s="110"/>
       <c r="W4" s="111">
@@ -55324,28 +55423,28 @@
         <v>0</v>
       </c>
       <c r="AB4" s="274" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC4" s="274"/>
       <c r="AD4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI4" s="274" t="s">
         <v>90</v>
-      </c>
-      <c r="AI4" s="274" t="s">
-        <v>91</v>
       </c>
       <c r="AJ4" s="274"/>
       <c r="AK4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
       <c r="AS4" s="274" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AT4" s="274"/>
       <c r="AU4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
@@ -55371,7 +55470,7 @@
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="12">
-        <v>-1.3</v>
+        <v>-1.8</v>
       </c>
       <c r="L5" s="1"/>
       <c r="N5" s="5" t="s">
@@ -55443,7 +55542,7 @@
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="13">
-        <v>-1.1000000000000001</v>
+        <v>-1.5</v>
       </c>
       <c r="L6" s="120">
         <v>6</v>
@@ -55453,7 +55552,7 @@
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="78" t="e">
-        <f>IF((Background!$I$4+LOOKUP(Kalkulationstool!$D$7,Background!$I$5:$I$26,Background!$K$5:$K$26)+LOOKUP(Kalkulationstool!$D$10,Background!$I$38:$I$45,Background!$K$38:$K$45)+LOOKUP((Kalkulationstool!$D$11/Kalkulationstool!$D$10),Background!$I$27:$I$32,Background!$K$27:$K$32)+LOOKUP((Kalkulationstool!$D$12/Kalkulationstool!$D$10),Background!$I$33:$I$37,Background!$K$33:$K$37)+LOOKUP(Kalkulationstool!$D$8,Background!$I$48:$I$53,Background!$K$48:$K$53))&gt;Background!$K$60,Background!$K$60,IF((Background!$I$4+LOOKUP(Kalkulationstool!$D$7,Background!$I$5:$I$26,Background!$K$5:$K$26)+LOOKUP(Kalkulationstool!$D$10,Background!$I$38:$I$45,Background!$K$38:$K$45)+LOOKUP((Kalkulationstool!$D$11/Kalkulationstool!$D$10),Background!$I$27:$I$32,Background!$K$27:$K$32)+LOOKUP((Kalkulationstool!$D$12/Kalkulationstool!$D$10),Background!$I$33:$I$37,Background!$K$33:$K$37)+LOOKUP(Kalkulationstool!$D$8,Background!$I$48:$I$53,Background!$K$48:$K$53))&lt;Background!$K$61,Background!$K$61,Background!$I$4+LOOKUP(Kalkulationstool!$D$7,Background!$I$5:$I$26,Background!$K$5:$K$26)+LOOKUP(Kalkulationstool!$D$10,Background!$I$38:$I$45,Background!$K$38:$K$45)+LOOKUP((Kalkulationstool!$D$11/Kalkulationstool!$D$10),Background!$I$27:$I$32,Background!$K$27:$K$32)+LOOKUP((Kalkulationstool!$D$12/Kalkulationstool!$D$10),Background!$I$33:$I$37,Background!$K$33:$K$37)+LOOKUP(Kalkulationstool!$D$8,Background!$I$48:$I$53,Background!$K$48:$K$53)))/100</f>
+        <f>IF((Background!$I$4+LOOKUP(Kalkulationstool!$D$7,Background!$I$5:$I$26,Background!$K$5:$K$26)+LOOKUP(Kalkulationstool!$D$10,Background!$I$38:$I$45,Background!$K$38:$K$45)+LOOKUP((SUM(Kalkulationstool!$D$11,Kalkulationstool!$D$12)/Kalkulationstool!$D$10),Background!$I$27:$I$32,Background!$K$27:$K$32)+LOOKUP((Kalkulationstool!$D$13/Kalkulationstool!$D$10),Background!$I$33:$I$37,Background!$K$33:$K$37)+LOOKUP(Kalkulationstool!$D$8,Background!$I$48:$I$53,Background!$K$48:$K$53))&gt;Background!$K$60,Background!$K$60,IF((Background!$I$4+LOOKUP(Kalkulationstool!$D$7,Background!$I$5:$I$26,Background!$K$5:$K$26)+LOOKUP(Kalkulationstool!$D$10,Background!$I$38:$I$45,Background!$K$38:$K$45)+LOOKUP((SUM(Kalkulationstool!$D$11,Kalkulationstool!$D$12)/Kalkulationstool!$D$10),Background!$I$27:$I$32,Background!$K$27:$K$32)+LOOKUP((Kalkulationstool!$D$13/Kalkulationstool!$D$10),Background!$I$33:$I$37,Background!$K$33:$K$37)+LOOKUP(Kalkulationstool!$D$8,Background!$I$48:$I$53,Background!$K$48:$K$53))&lt;Background!$K$61,Background!$K$61,Background!$I$4+LOOKUP(Kalkulationstool!$D$7,Background!$I$5:$I$26,Background!$K$5:$K$26)+LOOKUP(Kalkulationstool!$D$10,Background!$I$38:$I$45,Background!$K$38:$K$45)+LOOKUP((SUM(Kalkulationstool!$D$11,Kalkulationstool!$D$12)/Kalkulationstool!$D$10),Background!$I$27:$I$32,Background!$K$27:$K$32)+LOOKUP((Kalkulationstool!$D$13/Kalkulationstool!$D$10),Background!$I$33:$I$37,Background!$K$33:$K$37)+LOOKUP(Kalkulationstool!$D$8,Background!$I$48:$I$53,Background!$K$48:$K$53)))/100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q6" s="75"/>
@@ -55461,7 +55560,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="112" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V6" s="29"/>
       <c r="W6" s="113">
@@ -55534,7 +55633,7 @@
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="13">
-        <v>-0.9</v>
+        <v>-1.2</v>
       </c>
       <c r="L7" s="120">
         <v>11</v>
@@ -55548,13 +55647,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q7" s="75" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="112" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V7" s="29"/>
       <c r="W7" s="115" t="e">
@@ -55630,7 +55729,7 @@
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="13">
-        <v>-0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="L8" s="120">
         <v>16</v>
@@ -55643,11 +55742,11 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="112" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V8" s="29"/>
       <c r="W8" s="113">
-        <f>Kalkulationstool!D14</f>
+        <f>Kalkulationstool!D15</f>
         <v>0</v>
       </c>
       <c r="AA8" s="1">
@@ -55719,7 +55818,7 @@
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="13">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="L9" s="120">
         <v>21</v>
@@ -55808,7 +55907,7 @@
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="13">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="L10" s="120">
         <v>31</v>
@@ -55821,7 +55920,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="112" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V10" s="29"/>
       <c r="W10" s="130" t="e">
@@ -55901,7 +56000,7 @@
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="13">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="120">
         <v>41</v>
@@ -55910,17 +56009,17 @@
         <v>22</v>
       </c>
       <c r="O11" s="202" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="P11" s="203" t="e">
-        <f ca="1">LOOKUP(Wertbeitrag(Kalkulationstool!D10,Kalkulationstool!D9,Kalkulationstool!D8,(((((Kalkulationstool!D20+1)^(1/12))-1)*12)),Kalkulationstool!D14/10000,Kalkulationstool!D7,PMT((((Kalkulationstool!D20+1)^(1/12)-1)),Kalkulationstool!D8,-Kalkulationstool!D10),IF(Kalkulationstool!D9-Kalkulationstool!D8&gt;3,1,0),Kalkulationstool!D13)/Kalkulationstool!D10,Background!I65:I70,Background!K65:K70)/100</f>
+        <f ca="1">LOOKUP(Wertbeitrag(Kalkulationstool!D10,Kalkulationstool!D9,Kalkulationstool!D8,(((((Kalkulationstool!D21+1)^(1/12))-1)*12)),Kalkulationstool!D15/10000,Kalkulationstool!D7,PMT((((Kalkulationstool!D21+1)^(1/12)-1)),Kalkulationstool!D8,-Kalkulationstool!D10),IF(Kalkulationstool!D9-Kalkulationstool!D8&gt;3,1,0),Kalkulationstool!D14)/Kalkulationstool!D10,Background!I65:I70,Background!K65:K70)/100</f>
         <v>#NAME?</v>
       </c>
       <c r="Q11" s="204"/>
       <c r="R11" s="202"/>
       <c r="S11" s="202"/>
       <c r="T11" s="205" t="e">
-        <f ca="1">LOOKUP(Wertbeitrag(Kalkulationstool!D10,Kalkulationstool!D9,Kalkulationstool!D8,(((((Kalkulationstool!D20+1)^(1/12))-1)*12)),Kalkulationstool!D14/10000,Kalkulationstool!D7,PMT((((Kalkulationstool!D20+1)^(1/12)-1)),Kalkulationstool!D8,-Kalkulationstool!D10),IF(Kalkulationstool!D9-Kalkulationstool!D8&gt;3,1,0),Kalkulationstool!D13)/Kalkulationstool!D10,Background!I65:I70,Background!L65:L70)/100</f>
+        <f ca="1">LOOKUP(Wertbeitrag(Kalkulationstool!D10,Kalkulationstool!D9,Kalkulationstool!D8,(((((Kalkulationstool!D21+1)^(1/12))-1)*12)),Kalkulationstool!D15/10000,Kalkulationstool!D7,PMT((((Kalkulationstool!D21+1)^(1/12)-1)),Kalkulationstool!D8,-Kalkulationstool!D10),IF(Kalkulationstool!D9-Kalkulationstool!D8&gt;3,1,0),Kalkulationstool!D14)/Kalkulationstool!D10,Background!I65:I70,Background!L65:L70)/100</f>
         <v>#NAME?</v>
       </c>
       <c r="U11" s="29" t="s">
@@ -55932,10 +56031,10 @@
         <v>0</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Y11" s="132" t="e">
-        <f>PMT((((Kalkulationstool!D20+1)^(1/12)-1)),Kalkulationstool!D8,-Kalkulationstool!D10)</f>
+        <f>PMT((((Kalkulationstool!D21+1)^(1/12)-1)),Kalkulationstool!D8,-Kalkulationstool!D10)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AA11" s="1">
@@ -56008,14 +56107,14 @@
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L12" s="120">
         <v>51</v>
       </c>
       <c r="N12" s="278"/>
       <c r="O12" s="207" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P12" s="208" t="str">
         <f>IF(ISNUMBER(P17),IF(Kalkulationstool!$D$8&gt;84,Background!P14,Background!P13),"")</f>
@@ -56033,7 +56132,7 @@
       </c>
       <c r="V12" s="116"/>
       <c r="W12" s="117" t="str">
-        <f>Kalkulationstool!D13</f>
+        <f>Kalkulationstool!D14</f>
         <v>-</v>
       </c>
       <c r="AA12" s="1">
@@ -56102,14 +56201,14 @@
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="L13" s="120">
         <v>61</v>
       </c>
       <c r="N13" s="278"/>
       <c r="O13" s="29" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P13" s="210" t="e">
         <f>LOOKUP($P$17,Background!I65:I70,Background!K65:K70)/100</f>
@@ -56188,14 +56287,14 @@
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="13">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="L14" s="120">
         <v>71</v>
       </c>
       <c r="N14" s="279"/>
       <c r="O14" s="196" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P14" s="206" t="e">
         <f>LOOKUP($P$17,Background!N65:N70,Background!O65:O70)/100</f>
@@ -56209,14 +56308,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V14" s="79" t="e">
         <f>W7-W8/10000</f>
         <v>#DIV/0!</v>
       </c>
       <c r="W14" s="118" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AA14" s="1">
         <v>9</v>
@@ -56285,27 +56384,27 @@
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="13">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="L15" s="120">
         <v>81</v>
       </c>
       <c r="N15" s="200" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O15" s="201" t="e">
-        <f ca="1">Wertbeitrag(Kalkulationstool!D10,Kalkulationstool!D9,Kalkulationstool!D8,(((((Kalkulationstool!D20+1)^(1/12))-1)*12)),Kalkulationstool!D14/10000,Kalkulationstool!D7,PMT((((Kalkulationstool!D20+1)^(1/12)-1)),Kalkulationstool!D8,-Kalkulationstool!D10),IF(Kalkulationstool!D9-Kalkulationstool!D8&gt;3,1,0),Kalkulationstool!D13)</f>
+        <f ca="1">Wertbeitrag(Kalkulationstool!D10,Kalkulationstool!D9,Kalkulationstool!D8,(((((Kalkulationstool!D21+1)^(1/12))-1)*12)),Kalkulationstool!D15/10000,Kalkulationstool!D7,PMT((((Kalkulationstool!D21+1)^(1/12)-1)),Kalkulationstool!D8,-Kalkulationstool!D10),IF(Kalkulationstool!D9-Kalkulationstool!D8&gt;3,1,0),Kalkulationstool!D14)</f>
         <v>#NAME?</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="V15" s="119">
         <f>W4</f>
         <v>0</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AA15" s="1">
         <v>10</v>
@@ -56373,20 +56472,20 @@
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="13">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="L16" s="120">
         <v>91</v>
       </c>
       <c r="N16" s="105" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O16" s="106" t="e">
         <f ca="1">O15/Kalkulationstool!D10</f>
         <v>#NAME?</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="V16" s="119">
         <f>W5-W6</f>
@@ -56458,13 +56557,13 @@
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="13">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L17" s="120">
         <v>101</v>
       </c>
       <c r="N17" s="143" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O17" s="144" t="e">
         <f>IF(W11=1,AY27,AF27)</f>
@@ -56476,7 +56575,7 @@
       </c>
       <c r="Q17" s="79"/>
       <c r="U17" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V17" s="1">
         <f>V16*2+1</f>
@@ -56548,7 +56647,7 @@
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="13">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="L18" s="120">
         <v>126</v>
@@ -56559,14 +56658,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V18" s="133">
         <f>IF(W5-W6-W6/12&lt;0,1,W5-W6-W6/12)</f>
         <v>0</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AA18" s="1">
         <v>13</v>
@@ -56634,7 +56733,7 @@
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="13">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L19" s="120">
         <v>151</v>
@@ -56714,13 +56813,13 @@
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="15">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L20" s="120">
         <v>176</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V20" s="1">
         <f>W6+V18+W6/12</f>
@@ -56751,7 +56850,7 @@
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="15">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L21" s="120">
         <v>201</v>
@@ -56760,14 +56859,14 @@
       <c r="O21" s="144"/>
       <c r="P21" s="148"/>
       <c r="U21" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V21" s="1">
         <f>W6+V16</f>
         <v>0</v>
       </c>
       <c r="AA21" s="274" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AB21" s="274"/>
       <c r="AC21" s="1">
@@ -56775,7 +56874,7 @@
         <v>0</v>
       </c>
       <c r="AH21" s="274" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AI21" s="274"/>
       <c r="AJ21" s="1">
@@ -56786,7 +56885,7 @@
       <c r="AP21" s="1"/>
       <c r="AQ21" s="1"/>
       <c r="AR21" s="274" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AS21" s="274"/>
       <c r="AT21" s="1">
@@ -56813,13 +56912,13 @@
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="15">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L22" s="120">
         <v>251</v>
       </c>
       <c r="U22" s="134" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="V22" s="135">
         <f>IF(W5-W6&lt;5,W6-W6/12/2+2,IF(W5-W6&lt;8,W6-W6/12/2+1,(W6-W6/12/2)))</f>
@@ -56865,13 +56964,13 @@
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="15">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="L23" s="120">
         <v>301</v>
       </c>
       <c r="U23" s="136" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="V23" s="137" t="e">
         <f>AJ22+AP29</f>
@@ -56903,13 +57002,13 @@
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="15">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L24" s="120">
         <v>351</v>
       </c>
       <c r="U24" s="136" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="V24" s="138" t="e">
         <f>V23-W5</f>
@@ -56934,20 +57033,20 @@
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="15">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L25" s="120">
         <v>401</v>
       </c>
       <c r="U25" s="139" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="V25" s="140" t="e">
         <f>AZ29+AT22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AA25" s="275" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AB25" s="275"/>
       <c r="AC25" s="275"/>
@@ -56955,7 +57054,7 @@
       <c r="AE25" s="275"/>
       <c r="AF25" s="275"/>
       <c r="AH25" s="276" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AI25" s="276"/>
       <c r="AJ25" s="276"/>
@@ -56967,7 +57066,7 @@
       <c r="AP25" s="1"/>
       <c r="AQ25" s="1"/>
       <c r="AR25" s="276" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AS25" s="276"/>
       <c r="AT25" s="276"/>
@@ -56988,23 +57087,23 @@
       </c>
       <c r="L26" s="120"/>
       <c r="U26" s="141" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="V26" s="142" t="e">
         <f>V25-W5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AA26" s="128" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB26" s="128" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC26" s="128" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD26" s="128" t="s">
         <v>131</v>
-      </c>
-      <c r="AB26" s="128" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC26" s="128" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD26" s="128" t="s">
-        <v>133</v>
       </c>
       <c r="AE26" s="128" t="s">
         <v>23</v>
@@ -57075,14 +57174,14 @@
       </c>
       <c r="L28" s="1"/>
       <c r="AA28" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF28" s="120" t="e">
         <f>SUM(AF30:AF150)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ28" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AO28" s="120" t="e">
         <f>SUM(AO30:AO163)</f>
@@ -57093,7 +57192,7 @@
       <c r="AR28" s="1"/>
       <c r="AS28" s="1"/>
       <c r="AT28" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AU28" s="1"/>
       <c r="AV28" s="1"/>
@@ -57371,7 +57470,7 @@
       </c>
       <c r="L32" s="1"/>
       <c r="M32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AA32" s="1">
         <f t="shared" ref="AA32:AA95" si="17">1+AA31</f>
@@ -60437,7 +60536,7 @@
       </c>
       <c r="J60" s="18"/>
       <c r="K60" s="14">
-        <v>11.99</v>
+        <v>12.99</v>
       </c>
       <c r="L60" s="1"/>
       <c r="AA60" s="1">
@@ -60545,7 +60644,7 @@
       </c>
       <c r="J61" s="21"/>
       <c r="K61" s="16">
-        <v>3.99</v>
+        <v>4.49</v>
       </c>
       <c r="L61" s="1"/>
       <c r="AA61" s="1">
@@ -60752,14 +60851,14 @@
     </row>
     <row r="63" spans="8:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H63" s="24" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I63" s="24"/>
       <c r="J63" s="24"/>
       <c r="K63" s="24"/>
       <c r="L63" s="24"/>
       <c r="N63" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AA63" s="1">
         <f t="shared" si="17"/>
@@ -70733,7 +70832,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -70766,7 +70865,7 @@
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="71" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C2" s="70"/>
       <c r="D2" s="70"/>
@@ -70785,7 +70884,7 @@
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="220" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F4" s="67"/>
       <c r="G4" s="67"/>
@@ -70826,7 +70925,7 @@
       </c>
       <c r="G6" s="191"/>
       <c r="H6" s="192" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I6" s="82"/>
       <c r="J6" s="82"/>
@@ -70852,7 +70951,7 @@
       <c r="F7" s="123"/>
       <c r="G7" s="92"/>
       <c r="H7" s="93" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I7" s="82"/>
       <c r="J7" s="82"/>
@@ -70878,7 +70977,7 @@
       <c r="F8" s="92"/>
       <c r="G8" s="93"/>
       <c r="H8" s="93" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I8" s="82"/>
       <c r="J8" s="82"/>
@@ -70904,7 +71003,7 @@
       <c r="F9" s="92"/>
       <c r="G9" s="93"/>
       <c r="H9" s="93" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I9" s="82"/>
       <c r="J9" s="82"/>
@@ -70930,7 +71029,7 @@
       <c r="F10" s="94"/>
       <c r="G10" s="93"/>
       <c r="H10" s="93" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I10" s="82"/>
       <c r="J10" s="82"/>
@@ -70955,7 +71054,7 @@
       <c r="F11" s="94"/>
       <c r="G11" s="93"/>
       <c r="H11" s="93" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I11" s="82"/>
       <c r="J11" s="82"/>
@@ -70974,14 +71073,14 @@
       </c>
       <c r="C12" s="82"/>
       <c r="D12" s="224">
-        <f>Kalkulationstool!D12</f>
+        <f>Kalkulationstool!D13</f>
         <v>0</v>
       </c>
       <c r="E12" s="86"/>
       <c r="F12" s="94"/>
       <c r="G12" s="93"/>
       <c r="H12" s="93" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I12" s="82"/>
       <c r="J12" s="82"/>
@@ -71000,14 +71099,14 @@
       </c>
       <c r="C13" s="82"/>
       <c r="D13" s="223" t="str">
-        <f>Kalkulationstool!D13</f>
+        <f>Kalkulationstool!D14</f>
         <v>-</v>
       </c>
       <c r="E13" s="85"/>
       <c r="F13" s="92"/>
       <c r="G13" s="93"/>
       <c r="H13" s="93" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I13" s="82"/>
       <c r="J13" s="82"/>
@@ -71026,14 +71125,14 @@
       </c>
       <c r="C14" s="82"/>
       <c r="D14" s="225">
-        <f>Kalkulationstool!D14</f>
+        <f>Kalkulationstool!D15</f>
         <v>0</v>
       </c>
       <c r="E14" s="85"/>
       <c r="F14" s="92"/>
       <c r="G14" s="93"/>
       <c r="H14" s="93" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I14" s="82"/>
       <c r="J14" s="82"/>
@@ -71065,11 +71164,11 @@
       <c r="C19" s="82"/>
       <c r="D19" s="122">
         <f ca="1">NOW()</f>
-        <v>45125.744189004632</v>
+        <v>45182.664424074072</v>
       </c>
       <c r="E19" s="82"/>
       <c r="F19" s="82" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G19" s="82"/>
       <c r="H19" s="82"/>
@@ -71086,7 +71185,7 @@
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="82" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" s="82"/>
       <c r="D20" s="184" t="e">
@@ -71095,7 +71194,7 @@
       </c>
       <c r="E20" s="87"/>
       <c r="F20" s="100" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G20" s="82"/>
       <c r="H20" s="82"/>
@@ -71112,7 +71211,7 @@
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" s="82"/>
       <c r="D21" s="185" t="e">
@@ -71180,13 +71279,13 @@
       <c r="B24" s="82"/>
       <c r="C24" s="82"/>
       <c r="D24" s="261" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E24" s="262"/>
       <c r="F24" s="82"/>
       <c r="G24" s="82"/>
       <c r="H24" s="181" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I24" s="82"/>
       <c r="J24" s="82"/>
@@ -71235,7 +71334,7 @@
         <v/>
       </c>
       <c r="I26" s="91" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J26" s="82"/>
       <c r="K26" s="82"/>
@@ -71377,13 +71476,13 @@
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="71" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C2" s="70"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="220" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C3" s="70"/>
     </row>
@@ -71395,14 +71494,14 @@
         <v>52</v>
       </c>
       <c r="D4" s="195" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E4" s="97"/>
       <c r="F4" s="98"/>
     </row>
     <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="100" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C5" s="164" t="e">
         <f>MIN(Wertbeitrag!C5,D5)</f>
@@ -71414,12 +71513,12 @@
       </c>
       <c r="E5" s="92"/>
       <c r="F5" s="93" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="150" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="164" t="e">
         <f>IF(C5&gt;0,ROUND(NOMINAL(C5,12),4),"")</f>
@@ -71428,7 +71527,7 @@
       <c r="D6" s="151"/>
       <c r="E6" s="152"/>
       <c r="F6" s="93" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -71440,7 +71539,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="81" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C8" s="84"/>
       <c r="D8" s="193" t="s">
@@ -71451,35 +71550,35 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="100" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C9" s="163"/>
       <c r="D9" s="151"/>
       <c r="E9" s="93"/>
       <c r="F9" s="93" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="100" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C10" s="163"/>
       <c r="D10" s="146"/>
       <c r="E10" s="92"/>
       <c r="F10" s="93" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="100" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C11" s="163"/>
       <c r="D11" s="92"/>
       <c r="E11" s="92"/>
       <c r="F11" s="93" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -71491,7 +71590,7 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="155" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C13" s="189" t="str">
         <f>IF(ISNUMBER('Bg Produktkalk I_Kredit2'!B15),'Bg Produktkalk I_Kredit2'!B15,"")</f>
@@ -71503,7 +71602,7 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="155" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C14" s="190" t="str">
         <f>IF(ISNUMBER('Bg WB vereinb_Kredit2'!B15),'Bg WB vereinb_Kredit2'!B15,"")</f>
@@ -71533,7 +71632,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="160" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C17" s="154"/>
       <c r="D17" s="154"/>
@@ -71542,7 +71641,7 @@
     </row>
     <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D18" s="154"/>
       <c r="E18" s="154"/>
@@ -71550,7 +71649,7 @@
     </row>
     <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D19" s="154"/>
       <c r="E19" s="154"/>
@@ -71558,7 +71657,7 @@
     </row>
     <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C20" s="154"/>
       <c r="D20" s="154"/>
@@ -71567,12 +71666,12 @@
     </row>
     <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="147" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/ExcelBlanko.xlsx
+++ b/ExcelBlanko.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deutschebank-my.sharepoint.com/personal/kerstin_stein_db_com/Documents/Backoffice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CDBEC78-B3DC-4EE2-BB01-8EDF229BFC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="aAM27QD5Wrb878yYK9U9KS9IjI9dlWWgnq1ydCKZE9blqlqEZWUG7X6H7mXegXSf2VwQTTN1iWkIhfSU9lf2sw==" workbookSaltValue="t/eGG2kYKX0l0gn4GNWevg==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F87450D-CEC1-429D-8EEF-0D2EB5A08D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="eVeOBKi0+NukDzIboDYGtEVvbh+7fA2bq9Jm6AIOqIqbHpgDBPJkwkRJt1qgVcXCWYI/1HszSxzDnT9c5jPOKA==" workbookSaltValue="TVXxvZJ7gAHhIRDt/If/5A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="814" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="15" r:id="rId1"/>
@@ -773,9 +773,6 @@
     <t>DB Move</t>
   </si>
   <si>
-    <t>Auf die Zielkondition dürfen bis zu 150 Basispunkte aufgeschlagen werden. Bei Aufstockergeschäften ist ein Aufschlag bis zu 300 Basispunkte erlaubt.</t>
-  </si>
-  <si>
     <t>Bezogen auf das neue (=aufgestockte) Kreditvolumen; bei mehreren Bausteinen gilt die höchste Absicherungsquote; Achtung: Eingabe in KFPK bei Delta-Variante abweichend (da bezogen auf den Gesamtkredit)</t>
   </si>
   <si>
@@ -1135,10 +1132,13 @@
 Die tagesaktuellen internen Verrechnungssätze (IVS) sind dem Tradefinder zu entnehmen.</t>
   </si>
   <si>
-    <t>Gültig ab 15.09.2023</t>
+    <t>Die neue absolute Preisuntergrenze liegt bei 4,49% eff. nach Konditionskompetenzen, bei DVAG-Geschäften bei 4,99% eff. (Ausnahme: RL-Sonderkondition)</t>
   </si>
   <si>
-    <t>Die neue absolute Preisuntergrenze liegt bei 4,49% eff. nach Konditionskompetenzen, bei DVAG-Geschäften bei 4,99% eff. (Ausnahme: RL-Sonderkondition)</t>
+    <t>Auf die Zielkondition dürfen bis zu 250 Basispunkte aufgeschlagen werden. Bei Aufstockergeschäften ist ein Aufschlag bis zu 350 Basispunkte erlaubt.</t>
+  </si>
+  <si>
+    <t>Gültig ab 13.10.2023</t>
   </si>
 </sst>
 </file>
@@ -2923,6 +2923,15 @@
     <xf numFmtId="0" fontId="16" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -2941,16 +2950,7 @@
     <xf numFmtId="0" fontId="18" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6649,8 +6649,8 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -6715,7 +6715,7 @@
         <v>69</v>
       </c>
       <c r="C8" s="90" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="30" x14ac:dyDescent="0.25">
@@ -6723,7 +6723,7 @@
         <v>113</v>
       </c>
       <c r="C9" s="90" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="45" x14ac:dyDescent="0.25">
@@ -6731,12 +6731,12 @@
         <v>70</v>
       </c>
       <c r="C10" s="90" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/rH6nDBNoAnMb6FVfBz+Cu6UV5ecwBfifhEFFWLFw9jx0JGK815G5rNxCK7PeNyXBPfyKnW25+ld4IywYgc7Kw==" saltValue="t/LVrOSpmoDuZSH5wWf+zQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sRMJjYCya1iBQSCedu7XhjBt2l+M2xXDMopnlcGPHNr0mPjmtptY9qpd5dKhWqPMqCC6WAm+Df76jaAUehXZRw==" saltValue="/55e6w4HpFyMdHoel6gZCg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -22746,25 +22746,25 @@
       </c>
       <c r="V3" s="266"/>
       <c r="W3" s="266"/>
-      <c r="AB3" s="273" t="s">
+      <c r="AB3" s="268" t="s">
         <v>86</v>
       </c>
-      <c r="AC3" s="273"/>
-      <c r="AD3" s="273"/>
+      <c r="AC3" s="268"/>
+      <c r="AD3" s="268"/>
       <c r="AE3" s="108"/>
       <c r="AF3" s="108"/>
-      <c r="AI3" s="273" t="s">
+      <c r="AI3" s="268" t="s">
         <v>86</v>
       </c>
-      <c r="AJ3" s="273"/>
-      <c r="AK3" s="273"/>
+      <c r="AJ3" s="268"/>
+      <c r="AK3" s="268"/>
       <c r="AL3" s="108"/>
       <c r="AM3" s="108"/>
-      <c r="AS3" s="273" t="s">
+      <c r="AS3" s="268" t="s">
         <v>86</v>
       </c>
-      <c r="AT3" s="273"/>
-      <c r="AU3" s="273"/>
+      <c r="AT3" s="268"/>
+      <c r="AU3" s="268"/>
       <c r="AV3" s="108"/>
       <c r="AW3" s="108"/>
     </row>
@@ -22797,24 +22797,24 @@
         <f>Kalk_Kredit2!D10</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="274" t="s">
+      <c r="AB4" s="269" t="s">
         <v>88</v>
       </c>
-      <c r="AC4" s="274"/>
+      <c r="AC4" s="269"/>
       <c r="AD4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AI4" s="274" t="s">
+      <c r="AI4" s="269" t="s">
         <v>90</v>
       </c>
-      <c r="AJ4" s="274"/>
+      <c r="AJ4" s="269"/>
       <c r="AK4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AS4" s="274" t="s">
+      <c r="AS4" s="269" t="s">
         <v>90</v>
       </c>
-      <c r="AT4" s="274"/>
+      <c r="AT4" s="269"/>
       <c r="AU4" s="1" t="s">
         <v>89</v>
       </c>
@@ -22829,7 +22829,7 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="267" t="s">
+      <c r="H5" s="270" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="124">
@@ -22889,7 +22889,7 @@
       <c r="B6" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="268"/>
+      <c r="H6" s="271"/>
       <c r="I6" s="124">
         <v>5.01</v>
       </c>
@@ -22969,7 +22969,7 @@
       <c r="B7" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="268"/>
+      <c r="H7" s="271"/>
       <c r="I7" s="124">
         <v>10.01</v>
       </c>
@@ -23054,7 +23054,7 @@
       <c r="D8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="268"/>
+      <c r="H8" s="271"/>
       <c r="I8" s="124">
         <v>15.01</v>
       </c>
@@ -23130,7 +23130,7 @@
       <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="H9" s="268"/>
+      <c r="H9" s="271"/>
       <c r="I9" s="124">
         <v>20.010000000000002</v>
       </c>
@@ -23206,7 +23206,7 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" s="268"/>
+      <c r="H10" s="271"/>
       <c r="I10" s="124">
         <v>30.01</v>
       </c>
@@ -23286,7 +23286,7 @@
       <c r="D11" s="1">
         <v>2</v>
       </c>
-      <c r="H11" s="268"/>
+      <c r="H11" s="271"/>
       <c r="I11" s="124">
         <v>40.01</v>
       </c>
@@ -23386,7 +23386,7 @@
       <c r="D12" s="1">
         <v>3</v>
       </c>
-      <c r="H12" s="268"/>
+      <c r="H12" s="271"/>
       <c r="I12" s="124">
         <v>50.01</v>
       </c>
@@ -23473,7 +23473,7 @@
       <c r="B13" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="268"/>
+      <c r="H13" s="271"/>
       <c r="I13" s="124">
         <v>60.01</v>
       </c>
@@ -23552,7 +23552,7 @@
       <c r="B14" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="268"/>
+      <c r="H14" s="271"/>
       <c r="I14" s="124">
         <v>70.010000000000005</v>
       </c>
@@ -23642,7 +23642,7 @@
         <v>44</v>
       </c>
       <c r="D15" s="99"/>
-      <c r="H15" s="268"/>
+      <c r="H15" s="271"/>
       <c r="I15" s="124">
         <v>80.010000000000005</v>
       </c>
@@ -23723,7 +23723,7 @@
       <c r="B16" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="268"/>
+      <c r="H16" s="271"/>
       <c r="I16" s="124">
         <v>90.01</v>
       </c>
@@ -23801,7 +23801,7 @@
       <c r="B17" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="268"/>
+      <c r="H17" s="271"/>
       <c r="I17" s="124">
         <v>100.01</v>
       </c>
@@ -23884,7 +23884,7 @@
       <c r="B18" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="268"/>
+      <c r="H18" s="271"/>
       <c r="I18" s="124">
         <v>125.01</v>
       </c>
@@ -23962,7 +23962,7 @@
       <c r="B19" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="268"/>
+      <c r="H19" s="271"/>
       <c r="I19" s="124">
         <v>150.01</v>
       </c>
@@ -24034,7 +24034,7 @@
       <c r="B20" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="268"/>
+      <c r="H20" s="271"/>
       <c r="I20" s="125">
         <v>175.01</v>
       </c>
@@ -24060,7 +24060,7 @@
       <c r="B21" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="268"/>
+      <c r="H21" s="271"/>
       <c r="I21" s="125">
         <v>200.01</v>
       </c>
@@ -24081,27 +24081,27 @@
         <f>W6+V16</f>
         <v>0</v>
       </c>
-      <c r="AA21" s="274" t="s">
+      <c r="AA21" s="269" t="s">
         <v>104</v>
       </c>
-      <c r="AB21" s="274"/>
+      <c r="AB21" s="269"/>
       <c r="AC21" s="1">
         <f>LOOKUP(V16,AA5:AA13,AD5:AD13)</f>
         <v>0</v>
       </c>
-      <c r="AH21" s="274" t="s">
+      <c r="AH21" s="269" t="s">
         <v>105</v>
       </c>
-      <c r="AI21" s="274"/>
+      <c r="AI21" s="269"/>
       <c r="AJ21" s="1">
         <f>IF(ISERROR(LOOKUP(V18,AH5:AH17,AK5:AK17)),0,LOOKUP(V18,AH5:AH17,AK5:AK17))</f>
         <v>0</v>
       </c>
       <c r="AO21" s="76"/>
-      <c r="AR21" s="274" t="s">
+      <c r="AR21" s="269" t="s">
         <v>105</v>
       </c>
-      <c r="AS21" s="274"/>
+      <c r="AS21" s="269"/>
       <c r="AT21" s="1">
         <f>IF(ISERROR(LOOKUP(V18,AR5:AR17,AU5:AU17)),0,LOOKUP(V18,AR5:AR17,AU5:AU17))</f>
         <v>0</v>
@@ -24115,7 +24115,7 @@
       <c r="B22" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="268"/>
+      <c r="H22" s="271"/>
       <c r="I22" s="125">
         <v>250.01</v>
       </c>
@@ -24158,7 +24158,7 @@
       <c r="A23" s="52">
         <v>999</v>
       </c>
-      <c r="H23" s="268"/>
+      <c r="H23" s="271"/>
       <c r="I23" s="125">
         <v>300.01</v>
       </c>
@@ -24186,7 +24186,7 @@
       </c>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H24" s="268"/>
+      <c r="H24" s="271"/>
       <c r="I24" s="126">
         <v>350.01</v>
       </c>
@@ -24205,7 +24205,7 @@
       </c>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H25" s="268"/>
+      <c r="H25" s="271"/>
       <c r="I25" s="126">
         <v>400.01</v>
       </c>
@@ -24222,34 +24222,34 @@
         <f>AZ29+AT22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA25" s="275" t="s">
+      <c r="AA25" s="276" t="s">
         <v>106</v>
       </c>
-      <c r="AB25" s="275"/>
-      <c r="AC25" s="275"/>
-      <c r="AD25" s="275"/>
-      <c r="AE25" s="275"/>
-      <c r="AF25" s="275"/>
-      <c r="AH25" s="276" t="s">
+      <c r="AB25" s="276"/>
+      <c r="AC25" s="276"/>
+      <c r="AD25" s="276"/>
+      <c r="AE25" s="276"/>
+      <c r="AF25" s="276"/>
+      <c r="AH25" s="267" t="s">
         <v>107</v>
       </c>
-      <c r="AI25" s="276"/>
-      <c r="AJ25" s="276"/>
-      <c r="AK25" s="276"/>
-      <c r="AL25" s="276"/>
-      <c r="AM25" s="276"/>
-      <c r="AN25" s="276"/>
-      <c r="AO25" s="276"/>
-      <c r="AR25" s="276" t="s">
+      <c r="AI25" s="267"/>
+      <c r="AJ25" s="267"/>
+      <c r="AK25" s="267"/>
+      <c r="AL25" s="267"/>
+      <c r="AM25" s="267"/>
+      <c r="AN25" s="267"/>
+      <c r="AO25" s="267"/>
+      <c r="AR25" s="267" t="s">
         <v>107</v>
       </c>
-      <c r="AS25" s="276"/>
-      <c r="AT25" s="276"/>
-      <c r="AU25" s="276"/>
-      <c r="AV25" s="276"/>
-      <c r="AW25" s="276"/>
-      <c r="AX25" s="276"/>
-      <c r="AY25" s="276"/>
+      <c r="AS25" s="267"/>
+      <c r="AT25" s="267"/>
+      <c r="AU25" s="267"/>
+      <c r="AV25" s="267"/>
+      <c r="AW25" s="267"/>
+      <c r="AX25" s="267"/>
+      <c r="AY25" s="267"/>
     </row>
     <row r="26" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H26" s="238"/>
@@ -24301,7 +24301,7 @@
       <c r="AY26" s="239"/>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H27" s="269" t="s">
+      <c r="H27" s="272" t="s">
         <v>9</v>
       </c>
       <c r="I27" s="101">
@@ -24328,7 +24328,7 @@
       </c>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H28" s="270"/>
+      <c r="H28" s="273"/>
       <c r="I28" s="102">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -24359,7 +24359,7 @@
       </c>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H29" s="270"/>
+      <c r="H29" s="273"/>
       <c r="I29" s="102">
         <v>0.20000100000000001</v>
       </c>
@@ -24389,7 +24389,7 @@
       </c>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H30" s="270"/>
+      <c r="H30" s="273"/>
       <c r="I30" s="102">
         <v>0.400001</v>
       </c>
@@ -24495,7 +24495,7 @@
       </c>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H31" s="270"/>
+      <c r="H31" s="273"/>
       <c r="I31" s="102">
         <v>0.60000100000000001</v>
       </c>
@@ -24601,7 +24601,7 @@
       </c>
     </row>
     <row r="32" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H32" s="271"/>
+      <c r="H32" s="274"/>
       <c r="I32" s="103">
         <v>0.80000099999999996</v>
       </c>
@@ -24710,7 +24710,7 @@
       </c>
     </row>
     <row r="33" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H33" s="268" t="s">
+      <c r="H33" s="271" t="s">
         <v>17</v>
       </c>
       <c r="I33" s="104">
@@ -24824,7 +24824,7 @@
       </c>
     </row>
     <row r="34" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H34" s="268"/>
+      <c r="H34" s="271"/>
       <c r="I34" s="104">
         <v>0.20000100000000001</v>
       </c>
@@ -24936,7 +24936,7 @@
       </c>
     </row>
     <row r="35" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H35" s="268"/>
+      <c r="H35" s="271"/>
       <c r="I35" s="104">
         <v>0.400001</v>
       </c>
@@ -25048,7 +25048,7 @@
       </c>
     </row>
     <row r="36" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H36" s="268"/>
+      <c r="H36" s="271"/>
       <c r="I36" s="104">
         <v>0.60000100000000001</v>
       </c>
@@ -25160,7 +25160,7 @@
       </c>
     </row>
     <row r="37" spans="8:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H37" s="272"/>
+      <c r="H37" s="275"/>
       <c r="I37" s="104">
         <v>0.80000099999999996</v>
       </c>
@@ -37684,13 +37684,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AA2:AF2"/>
-    <mergeCell ref="AH2:AO2"/>
-    <mergeCell ref="AR2:AY2"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="AS3:AU3"/>
     <mergeCell ref="AR25:AY25"/>
     <mergeCell ref="H27:H32"/>
     <mergeCell ref="H33:H37"/>
@@ -37704,6 +37697,13 @@
     <mergeCell ref="AR21:AS21"/>
     <mergeCell ref="AA25:AF25"/>
     <mergeCell ref="AH25:AO25"/>
+    <mergeCell ref="AA2:AF2"/>
+    <mergeCell ref="AH2:AO2"/>
+    <mergeCell ref="AR2:AY2"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AS3:AU3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -37745,7 +37745,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="71" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B2" s="70"/>
     </row>
@@ -37762,7 +37762,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I5" s="249" t="str">
         <f>+'Bewertung Aufstockung'!F27</f>
@@ -37771,7 +37771,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="250" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I6" s="120" t="e">
         <f>+ROUNDUP(I5,1)</f>
@@ -37780,7 +37780,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="250" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I7" s="251" t="e">
         <f>+IF(I6=0.8,I17,VLOOKUP(I6,G10:I18,3,1))</f>
@@ -37800,13 +37800,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G10" s="120">
         <v>0.1</v>
       </c>
       <c r="H10" s="243" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I10" s="251">
         <f>+Kalkulationstool!$D$11/(1-Aufstockungsquoten!G10)-Kalkulationstool!$D$11</f>
@@ -37815,13 +37815,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="250" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G11" s="120">
         <v>0.2</v>
       </c>
       <c r="H11" s="243" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I11" s="251">
         <f>+Kalkulationstool!$D$11/(1-Aufstockungsquoten!G11)-Kalkulationstool!$D$11</f>
@@ -37830,13 +37830,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="250" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G12" s="120">
         <v>0.3</v>
       </c>
       <c r="H12" s="243" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I12" s="251">
         <f>+Kalkulationstool!$D$11/(1-Aufstockungsquoten!G12)-Kalkulationstool!$D$11</f>
@@ -37848,7 +37848,7 @@
         <v>0.4</v>
       </c>
       <c r="H13" s="243" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I13" s="251">
         <f>+Kalkulationstool!$D$11/(1-Aufstockungsquoten!G13)-Kalkulationstool!$D$11</f>
@@ -37860,7 +37860,7 @@
         <v>0.5</v>
       </c>
       <c r="H14" s="243" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I14" s="251">
         <f>+Kalkulationstool!$D$11/(1-Aufstockungsquoten!G14)-Kalkulationstool!$D$11</f>
@@ -37872,7 +37872,7 @@
         <v>0.6</v>
       </c>
       <c r="H15" s="243" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I15" s="251">
         <f>+Kalkulationstool!$D$11/(1-Aufstockungsquoten!G15)-Kalkulationstool!$D$11</f>
@@ -37884,7 +37884,7 @@
         <v>0.7</v>
       </c>
       <c r="H16" s="243" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I16" s="251">
         <f>+Kalkulationstool!$D$11/(1-Aufstockungsquoten!G16)-Kalkulationstool!$D$11</f>
@@ -37896,7 +37896,7 @@
         <v>0.8</v>
       </c>
       <c r="H17" s="243" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I17" s="251">
         <f>+Kalkulationstool!$D$11/(1-Aufstockungsquoten!G17)-Kalkulationstool!$D$11</f>
@@ -37908,7 +37908,7 @@
         <v>0.9</v>
       </c>
       <c r="H18" s="243" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I18" s="251">
         <f>+Kalkulationstool!$D$11/(1-Aufstockungsquoten!G18)-Kalkulationstool!$D$11</f>
@@ -37928,7 +37928,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I21" s="120" t="e">
         <f>+ROUNDDOWN(I5,1)</f>
@@ -37955,8 +37955,8 @@
   </sheetPr>
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -37972,8 +37972,8 @@
     <col min="9" max="10" width="8.7109375" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" customWidth="1"/>
     <col min="12" max="17" width="8.7109375" customWidth="1"/>
-    <col min="18" max="18" width="29" customWidth="1"/>
-    <col min="19" max="19" width="28.140625" customWidth="1"/>
+    <col min="18" max="18" width="56.7109375" customWidth="1"/>
+    <col min="19" max="19" width="11" customWidth="1"/>
     <col min="20" max="16384" width="8.7109375" hidden="1"/>
   </cols>
   <sheetData>
@@ -37998,7 +37998,7 @@
       <c r="G2" s="67"/>
       <c r="Q2" s="241"/>
       <c r="R2" s="242" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="5.0999999999999996" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -38168,7 +38168,7 @@
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="82" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C11" s="82"/>
       <c r="D11" s="216"/>
@@ -38178,7 +38178,7 @@
       </c>
       <c r="G11" s="93"/>
       <c r="H11" s="93" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I11" s="82"/>
       <c r="J11" s="82"/>
@@ -38193,7 +38193,7 @@
     </row>
     <row r="12" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="82" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C12" s="82"/>
       <c r="D12" s="216"/>
@@ -38203,7 +38203,7 @@
       </c>
       <c r="G12" s="93"/>
       <c r="H12" s="93" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I12" s="82"/>
       <c r="J12" s="82"/>
@@ -38218,7 +38218,7 @@
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="82" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C13" s="82"/>
       <c r="D13" s="216"/>
@@ -38312,7 +38312,7 @@
       <c r="C20" s="82"/>
       <c r="D20" s="122">
         <f ca="1">NOW()</f>
-        <v>45182.664424074072</v>
+        <v>45211.524196296297</v>
       </c>
       <c r="E20" s="82"/>
       <c r="F20" s="82" t="s">
@@ -38344,7 +38344,7 @@
       <c r="F21" s="100"/>
       <c r="G21" s="82"/>
       <c r="H21" s="93" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="I21" s="82"/>
       <c r="J21" s="82"/>
@@ -38482,7 +38482,7 @@
         <v/>
       </c>
       <c r="I27" s="91" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J27" s="82"/>
       <c r="K27" s="82"/>
@@ -38496,7 +38496,7 @@
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="i3wrhqIQva1x5gnzViW3v92VJZa+gT0jX2Z85mEAjSI4hb9HrpT+X8GOovj+sc8pFvLxcuH7rO0RifGMTFJ3mg==" saltValue="HS1bT1xgAAy1cLSDiO8VCQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KF/B3g0ZNNYO7t8taApylbjIKH/PFq4dPOKiA7Ze2vXkqg0sxyZf8vhxyUpY43MELF4bZpdI84ZEYO5Umy3jdw==" saltValue="+Fk2lvXfWZwGHdHsOYE4HA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="D8" name="Range6"/>
     <protectedRange sqref="D20" name="Range5"/>
@@ -38560,7 +38560,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;10&amp;K000000</oddFooter>
   </headerFooter>
@@ -38700,7 +38700,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="100" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C9" s="163">
         <f>IF(Kalkulationstool!D11&gt;=0,Kalkulationstool!D11,"")</f>
@@ -38709,7 +38709,7 @@
       <c r="D9" s="151"/>
       <c r="E9" s="93"/>
       <c r="F9" s="93" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -38806,7 +38806,7 @@
     </row>
     <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D19" s="154"/>
       <c r="E19" s="154"/>
@@ -38814,7 +38814,7 @@
     </row>
     <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" s="154"/>
       <c r="D20" s="154"/>
@@ -38823,22 +38823,22 @@
     </row>
     <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="147" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="147" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="y1kZ52IX4GuPoXU0pMfPkw+c4/XNhUJ6hhkVzHWJtiOTbolq6WF28uMb7PMph+uKNWERyBmBsx0U8a0c2HQwQQ==" saltValue="htLyQkySI7B5sMAfz52tvw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hfaS7T5nWiG9Lb3KaYk9X7vFRhSKmK5xGjNrIJb4NgNuohGWtkN9t3cUVo+6J8GkQLjQBKH5AbYr8ZyZJ//Gfg==" saltValue="5vKB5q/bB+jIGfCmp0r/PA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="C11" name="Range1"/>
   </protectedRanges>
@@ -38865,7 +38865,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -38970,7 +38970,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="93" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E7" s="230"/>
       <c r="F7" s="92"/>
@@ -39230,7 +39230,7 @@
     </row>
     <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="82" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B27" s="82"/>
       <c r="C27" s="82"/>
@@ -39241,13 +39241,13 @@
         <v/>
       </c>
       <c r="G27" s="93" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H27" s="244"/>
     </row>
     <row r="28" spans="1:8" s="255" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="252" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B28" s="253"/>
       <c r="C28" s="253"/>
@@ -39258,13 +39258,13 @@
         <v/>
       </c>
       <c r="G28" s="93" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H28" s="258"/>
     </row>
     <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="81" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B29" s="82"/>
       <c r="C29" s="82"/>
@@ -39275,13 +39275,13 @@
         <v/>
       </c>
       <c r="G29" s="93" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H29" s="244"/>
     </row>
     <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="82" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B30" s="82"/>
       <c r="C30" s="82"/>
@@ -39292,13 +39292,13 @@
         <v/>
       </c>
       <c r="G30" s="93" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H30" s="244"/>
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="81" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B31" s="82"/>
       <c r="C31" s="82"/>
@@ -39309,7 +39309,7 @@
         <v/>
       </c>
       <c r="G31" s="93" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H31" s="244"/>
     </row>
@@ -39336,7 +39336,7 @@
       <c r="H33" s="244"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xfC1XPYMkNsXiPH/kD7hUMGlXOzUrly4+yxSA/xDcYGBqoif/7iPd6oTFr1FE7vyO1FC0i+oxL9eAAIItzGe/g==" saltValue="2OtiQXumJq65KLjuk13wlg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5nsFP1ZOnEyk0pQi8wwmxcCVKhQwWcxdODT87Oc1jldh1hk8CcUUFc/BegCKQf+rIXQguLYcs+4C5Wn+PbV+Zw==" saltValue="lSNhlmGVfOM61gQkil2X9g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="B5:B7" name="Bereich1"/>
   </protectedRanges>
@@ -55230,8 +55230,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:AZ172"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55364,28 +55364,28 @@
       </c>
       <c r="V3" s="266"/>
       <c r="W3" s="266"/>
-      <c r="AB3" s="273" t="s">
+      <c r="AB3" s="268" t="s">
         <v>86</v>
       </c>
-      <c r="AC3" s="273"/>
-      <c r="AD3" s="273"/>
+      <c r="AC3" s="268"/>
+      <c r="AD3" s="268"/>
       <c r="AE3" s="108"/>
       <c r="AF3" s="108"/>
-      <c r="AI3" s="273" t="s">
+      <c r="AI3" s="268" t="s">
         <v>86</v>
       </c>
-      <c r="AJ3" s="273"/>
-      <c r="AK3" s="273"/>
+      <c r="AJ3" s="268"/>
+      <c r="AK3" s="268"/>
       <c r="AL3" s="108"/>
       <c r="AM3" s="108"/>
       <c r="AP3" s="1"/>
       <c r="AQ3" s="1"/>
       <c r="AR3" s="1"/>
-      <c r="AS3" s="273" t="s">
+      <c r="AS3" s="268" t="s">
         <v>86</v>
       </c>
-      <c r="AT3" s="273"/>
-      <c r="AU3" s="273"/>
+      <c r="AT3" s="268"/>
+      <c r="AU3" s="268"/>
       <c r="AV3" s="108"/>
       <c r="AW3" s="108"/>
       <c r="AX3" s="1"/>
@@ -55422,27 +55422,27 @@
         <f>Kalkulationstool!D10</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="274" t="s">
+      <c r="AB4" s="269" t="s">
         <v>88</v>
       </c>
-      <c r="AC4" s="274"/>
+      <c r="AC4" s="269"/>
       <c r="AD4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AI4" s="274" t="s">
+      <c r="AI4" s="269" t="s">
         <v>90</v>
       </c>
-      <c r="AJ4" s="274"/>
+      <c r="AJ4" s="269"/>
       <c r="AK4" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
-      <c r="AS4" s="274" t="s">
+      <c r="AS4" s="269" t="s">
         <v>90</v>
       </c>
-      <c r="AT4" s="274"/>
+      <c r="AT4" s="269"/>
       <c r="AU4" s="1" t="s">
         <v>89</v>
       </c>
@@ -55462,7 +55462,7 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="267" t="s">
+      <c r="H5" s="270" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="124">
@@ -55536,7 +55536,7 @@
       <c r="B6" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="268"/>
+      <c r="H6" s="271"/>
       <c r="I6" s="124">
         <v>5.01</v>
       </c>
@@ -55627,7 +55627,7 @@
       <c r="B7" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="268"/>
+      <c r="H7" s="271"/>
       <c r="I7" s="124">
         <v>10.01</v>
       </c>
@@ -55723,7 +55723,7 @@
       <c r="D8" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="268"/>
+      <c r="H8" s="271"/>
       <c r="I8" s="124">
         <v>15.01</v>
       </c>
@@ -55812,7 +55812,7 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="H9" s="268"/>
+      <c r="H9" s="271"/>
       <c r="I9" s="124">
         <v>20.010000000000002</v>
       </c>
@@ -55901,7 +55901,7 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="H10" s="268"/>
+      <c r="H10" s="271"/>
       <c r="I10" s="124">
         <v>30.01</v>
       </c>
@@ -55994,7 +55994,7 @@
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="H11" s="268"/>
+      <c r="H11" s="271"/>
       <c r="I11" s="124">
         <v>40.01</v>
       </c>
@@ -56101,7 +56101,7 @@
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="H12" s="268"/>
+      <c r="H12" s="271"/>
       <c r="I12" s="124">
         <v>50.01</v>
       </c>
@@ -56195,7 +56195,7 @@
       <c r="B13" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="268"/>
+      <c r="H13" s="271"/>
       <c r="I13" s="124">
         <v>60.01</v>
       </c>
@@ -56281,7 +56281,7 @@
       <c r="B14" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="268"/>
+      <c r="H14" s="271"/>
       <c r="I14" s="124">
         <v>70.010000000000005</v>
       </c>
@@ -56378,7 +56378,7 @@
         <v>44</v>
       </c>
       <c r="D15" s="99"/>
-      <c r="H15" s="268"/>
+      <c r="H15" s="271"/>
       <c r="I15" s="124">
         <v>80.010000000000005</v>
       </c>
@@ -56466,7 +56466,7 @@
       <c r="B16" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="268"/>
+      <c r="H16" s="271"/>
       <c r="I16" s="124">
         <v>90.01</v>
       </c>
@@ -56551,7 +56551,7 @@
       <c r="B17" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="268"/>
+      <c r="H17" s="271"/>
       <c r="I17" s="124">
         <v>100.01</v>
       </c>
@@ -56641,7 +56641,7 @@
       <c r="B18" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="268"/>
+      <c r="H18" s="271"/>
       <c r="I18" s="124">
         <v>125.01</v>
       </c>
@@ -56727,7 +56727,7 @@
       <c r="B19" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="268"/>
+      <c r="H19" s="271"/>
       <c r="I19" s="124">
         <v>150.01</v>
       </c>
@@ -56807,7 +56807,7 @@
       <c r="B20" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="268"/>
+      <c r="H20" s="271"/>
       <c r="I20" s="125">
         <v>175.01</v>
       </c>
@@ -56844,7 +56844,7 @@
       <c r="B21" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="268"/>
+      <c r="H21" s="271"/>
       <c r="I21" s="125">
         <v>200.01</v>
       </c>
@@ -56865,18 +56865,18 @@
         <f>W6+V16</f>
         <v>0</v>
       </c>
-      <c r="AA21" s="274" t="s">
+      <c r="AA21" s="269" t="s">
         <v>104</v>
       </c>
-      <c r="AB21" s="274"/>
+      <c r="AB21" s="269"/>
       <c r="AC21" s="1">
         <f>LOOKUP(V16,AA5:AA13,AD5:AD13)</f>
         <v>0</v>
       </c>
-      <c r="AH21" s="274" t="s">
+      <c r="AH21" s="269" t="s">
         <v>105</v>
       </c>
-      <c r="AI21" s="274"/>
+      <c r="AI21" s="269"/>
       <c r="AJ21" s="1">
         <f>IF(ISERROR(LOOKUP(V18,AH5:AH17,AK5:AK17)),0,LOOKUP(V18,AH5:AH17,AK5:AK17))</f>
         <v>0</v>
@@ -56884,10 +56884,10 @@
       <c r="AO21" s="76"/>
       <c r="AP21" s="1"/>
       <c r="AQ21" s="1"/>
-      <c r="AR21" s="274" t="s">
+      <c r="AR21" s="269" t="s">
         <v>105</v>
       </c>
-      <c r="AS21" s="274"/>
+      <c r="AS21" s="269"/>
       <c r="AT21" s="1">
         <f>IF(ISERROR(LOOKUP(V18,AR5:AR17,AU5:AU17)),0,LOOKUP(V18,AR5:AR17,AU5:AU17))</f>
         <v>0</v>
@@ -56906,7 +56906,7 @@
       <c r="B22" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="268"/>
+      <c r="H22" s="271"/>
       <c r="I22" s="125">
         <v>250.01</v>
       </c>
@@ -56958,7 +56958,7 @@
       <c r="A23" s="52">
         <v>999</v>
       </c>
-      <c r="H23" s="268"/>
+      <c r="H23" s="271"/>
       <c r="I23" s="125">
         <v>300.01</v>
       </c>
@@ -56996,7 +56996,7 @@
       <c r="AZ23" s="1"/>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H24" s="268"/>
+      <c r="H24" s="271"/>
       <c r="I24" s="126">
         <v>350.01</v>
       </c>
@@ -57027,7 +57027,7 @@
       <c r="AZ24" s="1"/>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H25" s="268"/>
+      <c r="H25" s="271"/>
       <c r="I25" s="126">
         <v>400.01</v>
       </c>
@@ -57045,36 +57045,36 @@
         <f>AZ29+AT22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA25" s="275" t="s">
+      <c r="AA25" s="276" t="s">
         <v>106</v>
       </c>
-      <c r="AB25" s="275"/>
-      <c r="AC25" s="275"/>
-      <c r="AD25" s="275"/>
-      <c r="AE25" s="275"/>
-      <c r="AF25" s="275"/>
-      <c r="AH25" s="276" t="s">
+      <c r="AB25" s="276"/>
+      <c r="AC25" s="276"/>
+      <c r="AD25" s="276"/>
+      <c r="AE25" s="276"/>
+      <c r="AF25" s="276"/>
+      <c r="AH25" s="267" t="s">
         <v>107</v>
       </c>
-      <c r="AI25" s="276"/>
-      <c r="AJ25" s="276"/>
-      <c r="AK25" s="276"/>
-      <c r="AL25" s="276"/>
-      <c r="AM25" s="276"/>
-      <c r="AN25" s="276"/>
-      <c r="AO25" s="276"/>
+      <c r="AI25" s="267"/>
+      <c r="AJ25" s="267"/>
+      <c r="AK25" s="267"/>
+      <c r="AL25" s="267"/>
+      <c r="AM25" s="267"/>
+      <c r="AN25" s="267"/>
+      <c r="AO25" s="267"/>
       <c r="AP25" s="1"/>
       <c r="AQ25" s="1"/>
-      <c r="AR25" s="276" t="s">
+      <c r="AR25" s="267" t="s">
         <v>107</v>
       </c>
-      <c r="AS25" s="276"/>
-      <c r="AT25" s="276"/>
-      <c r="AU25" s="276"/>
-      <c r="AV25" s="276"/>
-      <c r="AW25" s="276"/>
-      <c r="AX25" s="276"/>
-      <c r="AY25" s="276"/>
+      <c r="AS25" s="267"/>
+      <c r="AT25" s="267"/>
+      <c r="AU25" s="267"/>
+      <c r="AV25" s="267"/>
+      <c r="AW25" s="267"/>
+      <c r="AX25" s="267"/>
+      <c r="AY25" s="267"/>
       <c r="AZ25" s="1"/>
     </row>
     <row r="26" spans="1:52" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -57127,7 +57127,7 @@
       <c r="AY26" s="129"/>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H27" s="269" t="s">
+      <c r="H27" s="272" t="s">
         <v>9</v>
       </c>
       <c r="I27" s="101">
@@ -57164,7 +57164,7 @@
       <c r="AZ27" s="1"/>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H28" s="270"/>
+      <c r="H28" s="273"/>
       <c r="I28" s="102">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -57205,7 +57205,7 @@
       <c r="AZ28" s="1"/>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H29" s="270"/>
+      <c r="H29" s="273"/>
       <c r="I29" s="102">
         <v>0.20000100000000001</v>
       </c>
@@ -57244,7 +57244,7 @@
       </c>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H30" s="270"/>
+      <c r="H30" s="273"/>
       <c r="I30" s="102">
         <v>0.400001</v>
       </c>
@@ -57352,7 +57352,7 @@
       </c>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H31" s="270"/>
+      <c r="H31" s="273"/>
       <c r="I31" s="102">
         <v>0.60000100000000001</v>
       </c>
@@ -57460,7 +57460,7 @@
       </c>
     </row>
     <row r="32" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H32" s="271"/>
+      <c r="H32" s="274"/>
       <c r="I32" s="103">
         <v>0.80000099999999996</v>
       </c>
@@ -57571,7 +57571,7 @@
       </c>
     </row>
     <row r="33" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H33" s="268" t="s">
+      <c r="H33" s="271" t="s">
         <v>17</v>
       </c>
       <c r="I33" s="104">
@@ -57686,7 +57686,7 @@
       </c>
     </row>
     <row r="34" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H34" s="268"/>
+      <c r="H34" s="271"/>
       <c r="I34" s="104">
         <v>0.20000100000000001</v>
       </c>
@@ -57799,7 +57799,7 @@
       </c>
     </row>
     <row r="35" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H35" s="268"/>
+      <c r="H35" s="271"/>
       <c r="I35" s="104">
         <v>0.400001</v>
       </c>
@@ -57912,7 +57912,7 @@
       </c>
     </row>
     <row r="36" spans="8:52" x14ac:dyDescent="0.25">
-      <c r="H36" s="268"/>
+      <c r="H36" s="271"/>
       <c r="I36" s="104">
         <v>0.60000100000000001</v>
       </c>
@@ -58025,7 +58025,7 @@
       </c>
     </row>
     <row r="37" spans="8:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H37" s="272"/>
+      <c r="H37" s="275"/>
       <c r="I37" s="104">
         <v>0.80000099999999996</v>
       </c>
@@ -70790,11 +70790,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AR25:AY25"/>
-    <mergeCell ref="AR2:AY2"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AR21:AS21"/>
     <mergeCell ref="H5:H25"/>
     <mergeCell ref="H27:H32"/>
     <mergeCell ref="H33:H37"/>
@@ -70810,6 +70805,11 @@
     <mergeCell ref="AA25:AF25"/>
     <mergeCell ref="AH25:AO25"/>
     <mergeCell ref="N11:N14"/>
+    <mergeCell ref="AR25:AY25"/>
+    <mergeCell ref="AR2:AY2"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AR21:AS21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -71164,7 +71164,7 @@
       <c r="C19" s="82"/>
       <c r="D19" s="122">
         <f ca="1">NOW()</f>
-        <v>45182.664424074072</v>
+        <v>45211.524196296297</v>
       </c>
       <c r="E19" s="82"/>
       <c r="F19" s="82" t="s">
@@ -71649,7 +71649,7 @@
     </row>
     <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D19" s="154"/>
       <c r="E19" s="154"/>
@@ -71657,7 +71657,7 @@
     </row>
     <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C20" s="154"/>
       <c r="D20" s="154"/>
@@ -71666,12 +71666,12 @@
     </row>
     <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="147" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
